--- a/tuboEval/expert_review_sheets/expert_evaluation_sheet_v2.xlsx
+++ b/tuboEval/expert_review_sheets/expert_evaluation_sheet_v2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI11"/>
+  <dimension ref="A1:BW11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,295 +447,365 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Source File (Example)</t>
+          <t>Source File</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>MultiAgent_gemma3_27b_ModFalse - Final Recommendation</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>MultiAgent_gemma3_27b_ModFalse - Think Block</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MultiAgent_gemma3_27b_ModTrue - Final Recommendation</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MultiAgent_gemma3_27b_ModTrue - Think Block</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MultiAgent_llama3_ModFalse - Final Recommendation</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_llama3_ModFalse - Think Block</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_llama3_ModTrue - Final Recommendation</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_llama3_ModTrue - Think Block</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_qwen3_32b_ModFalse - Final Recommendation</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_qwen3_32b_ModFalse - Think Block</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_qwen3_32b_ModTrue - Final Recommendation</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>MultiAgent_qwen3_32b_ModTrue - Think Block</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>SinglePrompt_llama3_ModFalse - Final Recommendation</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>SinglePrompt_llama3_ModFalse - Think Block</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>SinglePrompt_llama3_ModTrue - Final Recommendation</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>SinglePrompt_llama3_ModTrue - Think Block</t>
-        </is>
-      </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
+          <t>SinglePrompt_gemma3_27b_ModFalse - Final Recommendation</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>SinglePrompt_gemma3_27b_ModFalse - Think Block</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>SinglePrompt_gemma3_27b_ModTrue - Final Recommendation</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>SinglePrompt_gemma3_27b_ModTrue - Think Block</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>SinglePrompt_qwen3_32b_ModFalse - Final Recommendation</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>SinglePrompt_qwen3_32b_ModFalse - Think Block</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>SinglePrompt_qwen3_32b_ModTrue - Final Recommendation</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>SinglePrompt_qwen3_32b_ModTrue - Think Block</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Adherence (1-5)</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Correctness (1-5)</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Clarity (1-5)</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Overall (1-5 Best)</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Comments</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Adherence (1-5)</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Correctness (1-5)</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Clarity (1-5)</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Overall (1-5 Best)</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Comments</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModFalse - Comments</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_llama3_ModTrue - Comments</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModFalse - Comments</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Eval: MultiAgent_qwen3_32b_ModTrue - Comments</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModFalse - Adherence (1-5)</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModFalse - Correctness (1-5)</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModFalse - Clarity (1-5)</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModFalse - Overall (1-5 Best)</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModFalse - Comments</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModTrue - Adherence (1-5)</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModTrue - Correctness (1-5)</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModTrue - Clarity (1-5)</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModTrue - Overall (1-5 Best)</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_llama3_ModTrue - Comments</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Adherence (1-5)</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Correctness (1-5)</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Clarity (1-5)</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Overall (1-5 Best)</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Comments</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Adherence (1-5)</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Correctness (1-5)</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Clarity (1-5)</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Overall (1-5 Best)</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Comments</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Comments</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Comments</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Overall Best Recommendation (Type Name)</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>General Comments for Patient</t>
         </is>
@@ -767,6 +837,25 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Konsolidierungstherapie mit HD-CHT (z.B. R-ICE, D-HAP oder GDP) gefolgt von autologer Stammzelltransplantation (ASZT). Ergänzende Bildgebung des Schädels zur Beurteilung ossärer Lymphombefallung ist vor ASZT erforderlich. Bei fehlender adäquater Remission nach HD-CHT und ASZT sollte eine allogene Stammzelltransplantation in Betracht gezogen werden.
+**Begründung:**
+Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV mit hohem IPI-Risiko (3 Punkte) und B-Symptomen, welches initial mit R-CHOP und anschliessend mit MATRix/R-ICE behandelt wurde. Die aktuelle PET-CT zeigt eine persistierende, jedoch größenregrediente Lymphadenopathie und persistierenden Milzbefall, was auf ein unzureichendes Ansprechen auf die bisherige Therapie hinweist. Gemäß der ESMO-Leitlinie für DLBCL ist bei rezidivierendem oder refraktärem DLBCL nach initialer Therapie die Konsolidierung mit HD-CHT und anschliessender ASZT die Standardtherapie, insbesondere bei Patienten mit hohem IPI-Risiko. Die geplante HD-CHT und ASZT sind daher angemessen. Die neu aufgetretenen Lungenverdichtungen bedürfen weiterer Abklärung, um eine Infektion oder Progression auszuschließen, sollten aber die geplante Therapie nicht verzögern. Die fehlende Beurteilung des Schädels ist kritisch, da ossärer Befall die ASZT-Indikation und das Outcome beeinflussen kann. Eine allogene Stammzelltransplantation sollte bei fehlender Remission nach ASZT in Betracht gezogen werden, um die Langzeitprogression zu reduzieren.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Autologe Stammzelltransplantation (ASZT) nach Konsolidierung mit Hochdosis-Chemotherapie (HD-Chemo) im Rahmen einer klinischen Studie oder im Rahmen eines etablierten Protokolls, falls eine klinische Studie nicht verfügbar ist. Vor der ASZT ist eine erneute Stadienebestimmung mittels Ganzkörper-PET-CT und ggf. Knochenmarkbiopsie indiziert, um den Therapieanspruch zu überprüfen und den Ausgangsstatus präzise zu erfassen.
+**Begründung:**
+Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV mit hohem IPI-Score (3 Punkte) und B-Symptomatik, was eine ungünstige Prognose impliziert. Trotz initialer Therapie mit R-CHOP und anschließender Eskalation auf MATRix/R-ICE wurde lediglich eine partielle Remission (Deauville Score 4) erreicht. Die persistierende Lymphomaktivität, insbesondere in den axillären Lymphknoten, sowie die neuen Lungenverdichtungen, erfordern eine intensive Konsolidierungstherapie.
+Gemäß der ESMO-Leitlinie für DLBCL stellt die autologe Stammzelltransplantation (ASZT) nach Hochdosis-Chemotherapie (HD-Chemo) den Standard für Patienten mit rezidiertem oder refraktärem DLBCL und für Hochrisikopatienten nach Erreichen einer Remission dar.  Obwohl der Patient nicht explizit als rezidiviert oder refraktär beschrieben wird, rechtfertigt der hohe IPI-Score, die initiale partielle Remission und die persistierende Erkrankung eine intensive Konsolidierungstherapie im Sinne einer ASZT.  Die Stammzellentnahme erfolgte bereits während der R-ICE-Therapie, was die Durchführung der ASZT ermöglicht. Vor der ASZT muss jedoch sichergestellt werden, dass keine progressiven Erkrankungen vorliegen, was durch eine erneute Stadienebestimmung mittels Ganzkörper-PET-CT und ggf. Knochenmarkbiopsie sicherzustellen ist. Die neuen Lungenverdichtungen sollten im Rahmen der erneuten Stadienebestimmung differenziert beurteilt werden, um zwischen entzündlicher Reaktion und Lymphombefall zu unterscheiden. Eine Teilnahme an einer klinischen Studie wird bevorzugt, um innovative Therapieansätze zu evaluieren und den Patienten Zugang zu potenziell verbesserten Behandlungsmöglichkeiten zu ermöglichen.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Consolidation with HD-CHT and ASZT for 3 cycles, followed by maintenance therapy with R-ICE every 21 days.
 **Begründung:**
 Die Patientin befindet sich in einem partial remission-Zustand (Deauville-Score 4), was eine weitere intensivere Therapie notwendig macht. Die ESMO-Leitlinie empfiehlt für den Fall von DLBCL, Stadium IV, die Kombinationstherapie mit HD-CHT und ASZT nach erster Remission (1). Da die Patientin bereits R-CHOP und MATRix/R-ICE-Chemotherapie erhalten hat, ist eine weitere Kombinationstherapie notwendig, um die Krankheit in Schach zu halten. Die Leitlinie empfiehlt auch die Verwendung von HD-CHT als Consolidationstherapie nach erster Remission (2). Da die Patientin eine IPI-Score 3 hat, ist eine weitere intensivere Therapie notwendig, um die Überlebensrate zu verbessern. Die ESMO-Leitlinie empfiehlt auch die Verwendung von maintenance therapy nach Consolidationstherapie, um die Krankheit in Schach zu halten (3). Daher schlage ich eine Kombinationstherapie mit HD-CHT und ASZT für 3 Zyklen, gefolgt von maintenance therapy mit R-ICE alle 21 Tage.
@@ -776,8 +865,8 @@
 (3) Pfreundschuh et al. (2014): Maintenance therapy with rituximab improves outcome in patients with diffuse large B-cell lymphoma after first-line treatment: results from the MARIETTA trial. Journal of Clinical Oncology, 32(5), 444-451.</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Die empfohlene Therapie für Patienten ID 1-20240227-ChNo ist eine Kombination aus R-CHOP-Therapie und MATRix/R-ICE-Therapie, wie in der vorherigen Therapiereihe durchgeführt. Die PET-CT-Befunde zeigen eine partielle Remission, was eine kontinuierliche, intensive Chemotherapie nach ESMO-Leitlinien nahelegt.
@@ -788,8 +877,8 @@
 Insgesamt ist die empfohlene Therapie nach ESMO-Leitlinien geeignet, um die Krankheitsaktivität zu minimieren und die Überlebensrate zu verbessern.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die geplante **Konsolidierung mit hochdosierter Chemotherapie (HD-CHT) gefolgt von autologer Stammzelltransplantation (ASZT)** gemäß dem MARIETTA Trial (MATRix/R-ICE-Protokoll), unter strikter Abklärung der Lungenergussungen und Bestätigung des Remissionsstatus durch das cMRI Schädel und die PET/CT.  
@@ -802,8 +891,8 @@
 Die Therapieentscheidung folgt der ESMO-Strategie zur Risikostratifizierung und Konsolidierung bei Hochrisikopatienten, wobei die **Sicherung einer mindestens partielldiseminierter Remission** vor ASZT zentral ist. Die geplante Vorgehensweise ist zeitkritisch, um das rezidivfreie Überleben zu maximieren.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung der planmäßigen autologen Stammzelltransplantation (ASCT) nach Konsolidationstherapie, vorausgesetzt die ausstehenden PET/CT und cMRI bestätigen keine Progression und eine stabile partielle Remission (Deauville Score ≤4). Bei Bestätigung der aktuellen Befunde ist eine intensivere Konsolidationstherapie (z. B. mit Hochdosis-Chemotherapie) vor ASCT anzustreben.  
@@ -811,49 +900,44 @@
 Gemäß ESMO-Leitlinien für diffuses B-Zell-Lymphom Stadium IV mit hoher Risikoprofil (R-IPI 3) ist bei persistierender metabolischer Aktivität nach induktiver Therapie (hier: MATRix/R-ICE) eine Stammzelltransplantation eine etablierte Konsolidationsstrategie, um die Überlebenschancen zu verbessern. Der aktuelle Deauville Score 4 (partielle Remission) und die histologische Befunde (DLBCL *NOS*, BCL6-Translokation, MYC-negativ) sprechen für eine intermediäre bis hohe Therapieresponsivität. Die ESMO empfiehlt in solchen Fällen eine ASCT nach Erreichen einer mindestens partiellen Remission, um rezidivfreies Überleben zu optimieren. Die ausstehenden Befunde (PET/CT, cMRI) sind entscheidend, um die Tumorlast zu validieren und die Eignung für ASCT abzusichern. Bei Bestätigung der aktuellen Befunde ist eine intensivere Konsolidationstherapie vor Transplantation zu erwägen, um potenziell residuierende Therapieresistente Subklone zu eliminieren. Die neuen Lungenschatten erfordern differenzielle Diagnose, beeinflussen jedoch die primäre Therapieempfehlung nicht, solange keine klinisch relevante Progression nachgewiesen ist.</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Consolidative high-dose chemotherapy with autologous stem cell transplantation (ASCT) as planned for 13.03.2024.
-**Begründung:**
-The patient has achieved a partial remission after induction therapy, and the ESMO guidelines recommend consolidative high-dose chemotherapy with ASCT in this setting. This approach aims to further reduce residual disease and improve overall survival. Given the patient's current status and previous treatment response, ASCT seems reasonable to consider as the next step in their treatment plan. However, it is essential to carefully weigh individual patient characteristics, such as performance status and comorbidities, when deciding on the best course of action.</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>As the patient has already received 3 cycles of MATRix/R-ICE and achieved a partial remission (Deauville score 4), it is essential to consider the next steps in their treatment plan.
-The ESMO guidelines recommend consolidative high-dose chemotherapy with autologous stem cell transplantation (ASCT) for patients with diffuse large B-cell lymphoma (DLBCL) who have achieved a partial remission after induction therapy. Given the patient's current status, this approach seems reasonable to consider.
-However, it is also important to take into account the patient's overall health and potential risks associated with ASCT. The ESMO guidelines emphasize the importance of balancing treatment intensity with individual patient characteristics, including performance status, comorbidities, and other factors that may impact treatment tolerance.</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-I recommend continuing with MATRix/R-ICE consolidation therapy for an additional 3 cycles to achieve further remission and potentially achieve a complete response.
-**Begründung:**
-The patient's partial remission (Deauville 4) after initial induction chemotherapy suggests that the lymphoma is still present, albeit reduced in size. The persistent lymphoma manifestations in the right axillary lymph nodes and spleen, as well as the new moderate tracer uptake in both posterior lung lobes on PET/CT scan, support the need for further consolidation therapy.
-According to the ESMO guidelines, patients with DLBCL stage IV who have achieved partial remission after initial induction chemotherapy should receive consolidative chemotherapy to achieve a complete response and potentially improve overall survival.
-MATRix/R-ICE consolidation therapy has been shown to be effective in achieving durable responses and improving patient outcomes in similar patient populations. Given the patient's high-risk IPI score, it is essential to continue with aggressive consolidation therapy to maximize the chances of achieving a complete response and improving long-term survival.
-Overall, continuing with MATRix/R-ICE consolidation therapy for an additional 3 cycles is likely to be beneficial for this patient, given their partial remission status and the persistence of lymphoma manifestations on PET/CT scan.</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>As a seasoned oncology expert, I will carefully analyze the patient's information and consider only the ESMO guidelines to formulate a precise and evidence-based treatment recommendation.
-The patient has diffuse large B-cell lymphoma (DLBCL) stage IV with a high-risk International Prognostic Index (IPI) score of 3. The patient has received induction chemotherapy with R-CHOP, followed by MATRix/R-ICE consolidation therapy, which achieved partial remission (Deauville 4).
-The most recent PET/CT scan shows persistent lymphoma manifestations in the right axillary lymph nodes and spleen, as well as new moderate tracer uptake in both posterior lung lobes.</t>
-        </is>
-      </c>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Fortführung der geplanten Konsolidierungstherapie mit hochdosierter Chemotherapie (HD-CHT) gefolgt von autologer Stammzelltransplantation (ASZT) gemäß dem Protokoll.
+**Begründung:**
+Der Patient präsentiert einen DLBCL Stadium IV mit einem IPI von 3, was ein erhöhtes Rezidivrisiko signalisiert. Trotz Erreichung einer partiellen Remission (Deauville 4) nach R-CHOP und MATRix/R-ICE persistiert die Erkrankung in den axillären Lymphknoten und der Milz. Die ESMO-Leitlinien empfehlen bei DLBCL mit hohem IPI und persistierender Erkrankung nach initialer Therapie eine Konsolidierungstherapie mit dem Ziel, eine komplette Remission zu erreichen und das Rezidivrisiko zu senken. HD-CHT gefolgt von ASZT ist eine etablierte Konsolidierungstherapie für Patienten mit DLBCL und hohem IPI und stellt somit eine adäquate Therapieoption dar. Die ausstehende cMRI des Schädels sollte jedoch vor Therapiebeginn vorliegen, um das Ausmaß der Erkrankung im Primärtumor zu beurteilen und die Therapie gegebenenfalls anzupassen. Die neuen Lungenverdichtungen sollten im Rahmen des weiteren Verlaufes differenziert werden (z.B. Infekt, Progression).</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem DLBCL Stadium IV, IPI 3, und einer partiellen Remission (Deauville 4) nach initialer R-CHOP-Therapie, gefolgt von MATRix/R-ICE. Der aktuelle PET/CT zeigt persistierende Aktivität in den axillären Lymphknoten und in der Milz, sowie neue Verdichtungen in den Lungen. Der Befund im Schädel kann aktuell nicht beurteilt werden, da die entsprechende Bildgebung noch aussteht.
+Die ESMO-Leitlinien für DLBCL empfehlen nach initialer Therapie und Erreichen einer partiellen Remission eine Konsolidierungstherapie, insbesondere bei Patienten mit hohem IPI (wie hier mit 3 Punkten). Die Wahl der Konsolidierungstherapie hängt vom Ansprechen auf die initiale Therapie und dem Risikoprofil ab. Da der Patient eine partielle Remission erreicht hat und ein hohes IPI aufweist, ist eine intensive Konsolidierungstherapie indiziert.
+Die geplante HD-CHT und ASZT stellen eine adäquate Konsolidierungstherapie dar, die mit den ESMO-Empfehlungen übereinstimmt. Es ist jedoch wichtig, die Ergebnisse der ausstehenden cMRI des Schädels abzuwarten, um das Ausmaß der Erkrankung im Primärtumor zu beurteilen und die Therapie entsprechend anzupassen.</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer autologen Stammzelltransplantation (ASZT) nach Erreichen einer vollständigen Remission (CR) nach einer weiteren Chemotherapie oder einer alternativen Behandlung. Bis zur Erreichung einer CR sollte eine weitere Behandlung mit einer Kombination aus R-CHOP oder R-ICE in Betracht gezogen werden, abhängig von der Verträglichkeit und dem Ansprechen auf die bisherige Therapie. Eine alternative Behandlung mit zielgerichteten Therapien wie Anti-CD79b Antikörpern könnte ebenfalls in Betracht gezogen werden.
+**Begründung:**
+Der Patient präsentiert ein DLBCL Stadium IV mit einem IPI von 3, was auf ein intermediär-hohes Risiko hinweist. Die PET/CT-Untersuchung vom 22.02.2024 zeigt eine partielle Remission (Deauville 4) mit persistierenden LK im rechten Axilla und Splenomegalie. Laut ESMO-Leitlinien ist die ASZT eine Standardoption für Patienten mit DLBCL im Stadium IV nach Erreichen einer CR oder PR. Da der Patient noch keine CR erreicht hat, ist die ASZT derzeit nicht indiziert. Eine weitere Chemotherapie oder eine alternative Behandlung sollte durchgeführt werden, um eine CR zu erreichen und den Patienten für eine ASZT zu qualifizieren. Die Entscheidung zwischen R-CHOP, R-ICE oder zielgerichteten Therapien sollte unter Berücksichtigung der Verträglichkeit des Patienten und des Ansprechens auf die bisherige Therapie getroffen werden. Die Ergebnisse des cMRI vom 19.02.2024 und des PET/CT vom 22.02.2024 sind entscheidend, um die Therapie weiter zu planen.</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV mit einem IPI von 3 und Deauville Score 4 nach erfolgter Erstlinienbehandlung mit R-CHOP gefolgt von MATRix/R-ICE. Der aktuelle PET/CT zeigt eine partielle Remission (Deauville 4) mit persistierenden LK im rechten Axilla und Splenomegalie. Neue Verdichtungen in den Lungenoberlappen sind vorhanden, wobei eine entzündliche Ätiologie wahrscheinlich ist, aber nicht ausgeschlossen werden kann. Der Befund des cMRI vom 19.02.2024 und des PET/CT vom 22.02.2024 liegen noch aus. Laut ESMO-Leitlinie sollte bei Patienten mit DLBCL nach Erstlinienbehandlung, die nicht in vollständige Remission (CR) oder unvollständige Remission (PR) erreicht haben, eine Konsolidierungstherapie oder eine alternative Behandlung in Betracht gezogen werden. Da der Patient einen Deauville Score von 4 hat, ist er nicht in CR. Die persistierenden LK und die Splenomegalie sprechen gegen eine vollständige Remission. Angesichts des IPI von 3 und des Deauville Scores von 4 ist eine weitere Behandlung notwendig. Eine autologe Stammzelltransplantation (ASZT) ist eine Standardoption für Patienten mit DLBCL im Stadium IV nach Erreichen einer CR oder PR. Da der Patient noch keine CR erreicht hat, ist eine ASZT derzeit nicht indiziert. Eine alternative Behandlung mit einer anderen Chemotherapie oder einer zielgerichteten Therapie sollte in Betracht gezogen werden.</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Fortführung der geplanten Konsolidationsbehandlung mit Hochdosierung Chemotherapie (HD-CHT) und Autologer Stammzelltransplantation (ASZT) gemäß Terminen (HD-CHT 06.03.2024, ASZT 13.03.2024).
 **Begründung:**
 Der Patient leidet an einem diffusen grosszelligen B-Zell-Lymphom (DLBCL) Stadium IV mit einem R-IPI von 3 Punkten (hochintermediär/high-risk). Laut ESMO-Leitlinien ist bei Patienten mit hochintermediärem/high-risk DLBCL und Teilremission (Deauville 3–4 nach Induktionsbehandlung) eine Konsolidation mit HD-CHT und ASZT indiziert, um die Überlebenschance zu verbessern. Die aktuelle PET/CT zeigt einen Deauville Score 4, was eine Teilremission nach der MATRix- und R-ICE-Therapie bestätigt. Die verbleibenden metabolisch aktiven lymphatischen Läsionen in der rechten Achselhöhle und die homogene Tracerbelegung der Milz im Bereich der Leberuptakegrenze deuten nicht auf aktive Lymphommanifestation, sondern auf Regression. Die neuen Verdichtungen in den Lungenspitzen werden als entzündlich eingeschätzt. Die geplante HD-CHT und ASZT entsprechen der empfohlenen Therapiefolge nach ESMO, um Rezidivrisiken zu minimieren. Die negativen Serologie-Ergebnisse (HIV, HBV, HCV) sowie die planmäßige Stammzellsammlung im 2. R-ICE-Zyklus stützen die Durchführbarkeit der Konsolidationstherapie. Weitere diagnostische Schritte sind nicht erforderlich, da die Indikation für ASCT im Rahmen der Teilremission gegeben ist.</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>Okay, let's start breaking down this case. The patient has diffuse large B-cell lymphoma (DLBCL) stage IV with an IPI score of 3, which is considered high-intermediate or high risk. The treatment history includes R-CHOP, then MATRix and R-ICE, which are more aggressive regimens. The latest PET/CT from February 22, 2024, shows a Deauville score of 4, indicating partial remission but not complete. The axillary lymph nodes are still enlarged and show some metabolic activity, and there are new lung lesions, but these are thought to be inflammatory. The splenic involvement has decreased.
 Now, according to ESMO guidelines, for high-risk DLBCL (IPI 3), the standard approach after first-line therapy is to consider high-dose chemotherapy (HD-CT) and autologous stem cell transplantation (ASCT) if the patient achieves a partial remission (Deauville 3-4). The ESMO guidelines emphasize that consolidation with HD-CT and ASCT is recommended for patients with high-risk features and partial remission to improve outcomes.
@@ -861,7 +945,7 @@
 I need to check if there are any contraindications for HD-CT and ASCT. The patient's age isn't mentioned, but since they're undergoing aggressive treatment, age might be within the acceptable range. The patient has negative viral serologies (HIV, HBV, HCV), which is good for ASCT. The plan for consolidation therapy is in line with ESMO guidelines. Therefore, proceeding with HD-CHT and ASCT is appropriate here.</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Vorschlag einer intensivierten Konsolidationstherapie mit R-ICE-Zyklen und anschließender autologer Stammzelltransplantation (ASCT) nach Bestätigung der partiellem Remission durch die ausstehenden PET/CT- und cMRI-Befunde.  
@@ -879,7 +963,7 @@
 **Empfehlung:** Nach Klärung der ausstehenden Befunde (insbesondere Neuroimaginologie) ist eine ASCT als Konsolidationstherapie dringend anzustreben. Sollten neurologische Progressionen in der cMRI nachgewiesen werden, ist eine Anpassung der Therapie (z. B. Hochdosis-Methotrexat) erforderlich.</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL stage IV with a high-risk IPI score of 3. They've already undergone three cycles of MATRix and three cycles of R-ICE, which are more aggressive than standard R-CHOP. The latest PET/CT shows a partial response (Deauville 4), which is a good sign but not a complete remission. The MRT results are pending, so there might be new information there.
 The ESMO guidelines for DLBCL typically recommend R-CHOP for first-line treatment. However, high-risk patients might get more intensive therapy. The patient's regimen was escalated to MATRix/R-ICE based on the MARIETTA trial, which the ESMO might consider for certain high-risk cases. Since they're now in partial remission, the next step would likely be stem cell transplantation if they're eligible. The patient had stem cells collected during the second R-ICE cycle, so they might be set up for an autologous transplant.
@@ -888,10 +972,6 @@
 So, the key points are: high-risk IPI, partial remission after escalated therapy, pending imaging results, and the need for consolidation. The ESMO guidelines would support moving to transplantation if the patient is in partial remission and has a high risk. Therefore, the recommendation is to proceed with high-dose chemotherapy followed by autologous stem cell transplantation once the latest imaging confirms the partial response.</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -930,6 +1010,20 @@
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
+      <c r="BJ2" t="inlineStr"/>
+      <c r="BK2" t="inlineStr"/>
+      <c r="BL2" t="inlineStr"/>
+      <c r="BM2" t="inlineStr"/>
+      <c r="BN2" t="inlineStr"/>
+      <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="inlineStr"/>
+      <c r="BW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -956,6 +1050,27 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Fortsetzung der platinhaltigen Chemotherapie mit R-ICE für zwei weitere Zyklen, gefolgt von einer Beurteilung mittels PET-CT. Bei adäquatem Ansprechen (Deauville 3 oder besser) und vollständiger hämatologischer Remission, Durchführung einer hochdosierten Chemotherapie (HDC) mit anschließender autologer Stammzelltransplantation (ASCT).
+**Begründung:**
+Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) vom THRLBCL-Subtyp mit Hochrisiko-Merkmalen (Stadium IVB, IPI hoch). Die initiale R-CHOP-Therapie zeigte zwar zunächst eine komplette Remission, jedoch kam es zum Rezidiv. Die durchgeführte Salvage-Chemotherapie (R-DHAP/R-ICE) zeigte eine partielle metabolische Antwort (Deauville 4), was auf eine gewisse Sensitivität gegenüber der Therapie hindeutet, aber keine ausreichende Remission darstellt. CAR-T-Therapie ist aufgrund fehlender CD19-Expression kontraindiziert.
+Die ESMO-Leitlinien empfehlen bei rezidiviertem/refraktärem DLBCL nach einer Salvage-Chemotherapie, Patienten mit adäquatem Ansprechen einer HDC mit ASCT zuzuführen. Da der Patient eine partielle metabolische Antwort gezeigt hat und eine erfolgreiche Stammzellapherese durchgeführt wurde, ist die Fortsetzung der platinhaltigen Chemotherapie (R-ICE) für zwei weitere Zyklen gerechtfertigt, um das Ansprechen zu optimieren. Nach erneuter Beurteilung mittels PET-CT kann dann über die Durchführung der HDC und ASCT entschieden werden. Die Tet2-Mutation ist zwar ein ungünstiger prognostischer Faktor, ändert jedoch nichts an der primären Behandlungsstrategie gemäß ESMO. Die Verdachtsmomente auf pulmonale Infiltrationen müssen weiterhin differenziert werden, könnten aber im Kontext der Lymphomerkrankung und der Chemotherapie bestehen.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer Konsolidierungstherapie mit dem Anti-CD30-Antikörper Brentuximab-Vedotin in Kombination mit einer Chemotherapie (z.B. DHAP oder ICE). Falls die pulmonalen Infiltrate persistieren und infektiöse Ursachen ausgeschlossen sind, sollte eine zusätzliche Kortikosteroidtherapie in Betracht gezogen werden.
+**Begründung:**
+Der Patient präsentiert ein rezidiviertes, hochriskantes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit TET2-Mutation, welches auf eine initiale R-CHOP-Therapie und anschließende R-DHAP/R-ICE-Therapie nicht ausreichend angesprochen hat. Die aktuelle Situation zeigt eine partielle metabolische Remission (Deauville 4), aber persistierende Knochenläsionen und neue pulmonale Infiltrate. CAR-T-Therapie ist aufgrund fehlender CD19-Expression ausgeschlossen.
+Die ESMO-Leitlinie für das rezidivierte DLBCL empfiehlt nach Versagen von zwei oder mehr Therapielinien die Berücksichtigung von Studien oder alternativen Therapieansätzen. Brentuximab-Vedotin hat in Studien bei rezidiviertem/refraktärem DLBCL, insbesondere bei CD30-positiven Fällen, Aktivität gezeigt und kann in Kombination mit Chemotherapie eine Option darstellen. Auch wenn die CD30-Expression nicht explizit erwähnt wird, ist die Berücksichtigung von Brentuximab-Vedotin aufgrund der begrenzten Optionen gerechtfertigt. Die Kombination mit einer Chemotherapie (DHAP oder ICE) zielt darauf ab, die Ansprechrate zu erhöhen.
+Die neu aufgetretenen pulmonalen Infiltrate erfordern eine differenzialdiagnostische Abklärung, um infektiöse Ursachen auszuschließen. Sollten diese jedoch eher entzündlicher Natur sein, kann eine zusätzliche Kortikosteroidtherapie in Erwägung gezogen werden, um die pulmonalen Symptome zu lindern und möglicherweise die Therapie tolerierbarer zu machen. Eine erneute Biopsie der Lunge kann zur Diagnosefindung beitragen.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 R-ICE-Folgetherapie nach Salvage-Chemotherapie, gefolgt von HDC/ASCT.
 **Begründung:**
 Die Diagnose DLBCL, Stadium IV, wird bestätigt durch die diagnostischen Befunde. Nach dem Salvage-Chyklus ist der Patient noch immer nicht in remission. Die PET-CT-Bilanz weist auf eine partielle Ansprechreaktion hin, jedoch bleibt ein residueller metabolischer Aktivitätsanteil in vorbekannten Läsionen erhalten.
@@ -963,8 +1078,8 @@
 Die Begründung für diese Empfehlung basiert auf den ESMO-Leitlinien und den diagnostischen Befunden. Die Kombination aus R-ICE-Folgetherapie und HDC/ASCT bietet die beste Chance auf eine langfristige Remission und eine gute Überlebensrate bei Patienten mit DLBCL, Stadium IV.</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP 6-Zyklus, gefolgt von einer intensiven Chemotherapie (ICE) falls necessary.
@@ -974,8 +1089,8 @@
 Die Begründung für diese Therapieempfehlung basiert auf der Diagnose eines DLBCL Stadium IV und den Empfehlungen der ESMO-Leitlinie. Es gibt keine Hinweise auf eine spezielle Vorstellung oder andere Faktoren, die eine alternative Therapie nahelegen würden.</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Fortsetzung der Salvage-Therapie mit R-ICE für einen weiteren Zyklus (3. Zyklus), gefolgt von einer Hochdosenchemotherapie (HDC) und Autologer Stammzelltransplantation (ASCT), vorausgesetzt die CD34+-Apherese-Ergebnisse (14.02.2024) sind ausreichend und die klinische Situation erlaubt eine Transplantation.  
@@ -988,8 +1103,8 @@
 Die Empfehlung folgt der ESMO-Strategie, bei rezidiviertem DLBCL mit hohem Risiko und Teilremission nach Salvage-Therapie eine ASCT durchzuführen, um die Überlebensrate zu maximieren.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung ist die Teilnahme an einer klinischen Studie mit PD-1-Inhibitoren (z. B. Pembrolizumab) in Kombination mit intensiver Chemotherapie (z. B. R-DHAP/R-ICE) oder einer experimentellen Therapieansatz aufgrund des rezidivierten THRLBCL-Stadiums, fehlender CD19-Expression und persistierender metabolischer Aktivität nach zweiter Linie. Alternativ ist die Evaluation für eine Klinische Studie mit anderen Zielstrukturen (z. B. EZH2-Inhibitoren) bei Vorliegen relevanter Biomarker (hier nicht spezifiziert) zu prüfen.  
@@ -997,44 +1112,34 @@
 Das rezidivierte T/histiocyte-rich large B-cell lymphoma (THRLBCL) IVB mit IPI-Hochrisiko und fehlender CD19-Expression (Ausschluss von CAR-T-Zelltherapie) erfordert laut ESMO-Leitlinien für rezidiviertes/refractäres B-Zell-Lymphom eine individualisierte Therapieansätze, die experimentelle Optionen oder klinische Studien vorsehen, insbesondere bei schlechter Prognose. Die partielle Remission nach R-ICE deutet auf eine gewisse Chemotherapietoleranz, jedoch bleibt die Persistenz osteometabolischer Aktivität (SUVbwmax 4.3–6.2) ein Rezidivrisiko. PD-1-Inhibitoren (z. B. Pembrolizumab) sind in ESMO-ES (Expert Statement) für hochriskante rezidivierte DLBCL-Subtypen unter bestimmten Voraussetzungen diskutiert, auch wenn keine direkten Evidenzen für THRLBCL bestehen. Die TET2-Mutation ist in ESMO-ES als potenzieller prognostischer Faktor erwähnt, jedoch nicht ausreichend etabliert für eine spezifische Therapie. Klinische Studien mit innovativen Kombinationen (z. B. PD-1-Inhibitoren + Chemotherapie) oder neuen Targets (z. B. EZH2-Inhibitoren bei relevanten Mutationen) sind daher nach ESMO-ES-Prinzipien dringend zu priorisieren. Die inflammatorischen Lungenveränderungen (SUVbwmax 3.0–4.5) müssen engmaschig überwacht werden, um eine Differenzialdiagnose von Infektionen oder Therapie-assoziierten Nebenwirkungen sicherzustellen. Die konventionellen Second-Line-Optionen (z. B. R-GemOx) sind aufgrund der bereits angewandten R-ICE-Basis nicht ausreichend begründet.</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Ich empfehle weiterführende Behandlung mit Autologer Stammzelltransplantation (ASCT).
-**Begründung:**
-Die Patientin hat bereits zwei Zyklen von Rettungschemotherapie (R-ICE) erhalten und zeigte eine partielle Reaktion. Der PET-CT-Scan zeigt, dass einige Läsionen in ihrer Aktivität abgenommen haben, aber andere noch aktiv sind. Als hochrisikant klassifiziert nach dem IPI-Score ist es wichtig, die Behandlung fortzusetzen, um eine vollständige Remission zu erreichen. Die ESMO-Leitlinien empfehlen, Patienten mit rezidivierendem oder refraktärem DLBCL für autologe Stammzelltransplantation (ASCT) in Erwägung zu ziehen, wenn sie nach Rettungschemotherapie eine partielle Reaktion oder besser erreichen. In diesem Fall hat die Patientin bereits zwei Zyklen von Rettungschemotherapie erhalten und zeigte einige Reaktion. Der PET-CT-Scan suggeriert jedoch, dass noch residualer Tumor vorhanden ist. Aus diesen Gründen empfehle ich weiterführende Behandlung mit Autologer Stammzelltransplantation (ASCT), um den Krankheitslast zu reduzieren und die Prognose der Patientin zu verbessern.</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Based on the patient's information and ESMO guidelines, I need to consider the current situation and make a decision about the next step in treatment.
-The patient has already undergone two cycles of salvage chemotherapy (R-ICE) with partial response and residual metabolic activity in previous lesions. The PET-CT scan shows that some lesions have decreased in intensity, but others remain active.
-Considering the patient's history of DLBCL and the fact that they are at high risk according to the IPI score, it is important to continue treatment to achieve a complete remission.
-The ESMO guidelines recommend that patients with relapsed or refractory DLBCL should be considered for autologous stem cell transplantation (ASCT) if they have achieved a partial response or better after salvage chemotherapy.
-In this case, the patient has already undergone two cycles of salvage chemotherapy and has shown some response. However, the PET-CT scan suggests that there is still residual disease present.
-Given these factors, I would recommend proceeding with autologous stem cell transplantation (ASCT) to further reduce the burden of disease and improve the patient's prognosis.</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-I recommend continuing the current treatment regimen of R-DHAP and R-ICE as second-line therapy. Additionally, I suggest considering CAR-T cell therapy or other innovative therapies that have shown promising results in clinical trials for patients with DLBCL.
-**Begründung:**
-The patient's diagnosis of DLBCL with a high risk according to the IPI indicates a poor prognosis if left untreated. The current treatment regimen of R-DHAP and R-ICE has achieved a partial response, but the patient is at risk of relapse due to the aggressive nature of the disease.
-The ESMO guidelines recommend continuing therapy with rituximab, cyclophosphamide, doxorubicin, and prednisone (R-CVP) or R-DHAP for patients with DLBCL who have achieved a partial response but are at risk of relapse. The patient's high-risk profile makes them an ideal candidate for these therapies.
-CAR-T cell therapy has shown promising results in clinical trials for patients with DLBCL, particularly those with a high risk of relapse. Although the patient's initial CAR-T cell therapy was not effective due to the absence of CD19 expression on their lymphoma cells, new and innovative CAR-T cell therapies that target different antigens or use combination approaches may be more effective in this case.
-Therefore, I recommend continuing the current treatment regimen while also considering CAR-T cell therapy or other innovative therapies as a potential option for the patient.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>As an expert in oncology, I will carefully analyze the provided patient information and follow the guidelines of the European Society for Medical Oncology (ESMO).
-The patient has a diagnosis of DLBCL with a high risk according to the International Prognostic Index (IPI). The patient has received R-CHOP as first-line therapy and has achieved a partial response. However, the patient has experienced a relapse and is currently receiving R-DHAP and R-ICE as second-line therapy.
-Considering the ESMO guidelines for the treatment of DLBCL, I will focus on the recommended approaches for patients with a high risk of relapse.</t>
-        </is>
-      </c>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der hochdosierten Chemotherapie (HDC) mit anschließender autologer Stammzelltransplantation (ASCT). Konkret wird eine BEAM-Chemotherapie (Carmustin, Etoposid, Cytarabin, Melphalan) empfohlen, gefolgt von der ASCT, sobald der Patient sich ausreichend erholt hat.
+**Begründung:**
+Der Patient zeigt ein rezidiviertes DLBCL nach initialem Ansprechen auf R-CHOP und einem partiellen Ansprechen auf R-DHAP/R-ICE (Deauville 4). Die ESMO-Leitlinien für rezidiviertes DLBCL empfehlen nach Versagen der initialen Therapie und Salvage-Chemotherapie eine ASCT als Standardbehandlung, wenn der Patient dafür geeignet ist. Die Aphärese hat offenbar eine ausreichende CD34+-Mobilisation ermöglicht. Um die Effektivität der ASCT zu maximieren, ist eine HDC vor der Transplantation indiziert, um die verbleibende Krankheitslast zu reduzieren. Die BEAM-Chemotherapie ist ein etablierter HDC-Regime, das in der ESMO-Leitlinie empfohlen wird. Eine erneute PET-CT nach der HDC, aber vor der ASCT, sollte in Betracht gezogen werden, um das Ansprechen zu beurteilen und die Transplantation nur bei ausreichendem Ansprechen durchzuführen.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes DLBCL (THRLBCL-Subtyp) nach initialem Ansprechen auf R-CHOP. Die Salvage-Chemotherapie (R-DHAP und R-ICE) zeigte ein partielles Ansprechen (Deauville 4). Eine CAR-T-Zelltherapie ist aufgrund fehlender CD19-Expression nicht indiziert. Die ESMO-Leitlinien für rezidiviertes DLBCL empfehlen nach Versagen der initialen Therapie und Salvage-Chemotherapie eine autologe Stammzelltransplantation (ASCT), sofern der Patient dafür geeignet ist und eine ausreichende CD34+-Mobilisation erreicht wurde. Der Patient hat eine Aphärese hinter sich, die laut Informationen ausreichend CD34+-Zellen generiert haben sollte (dies sollte jedoch durch die Labordaten bestätigt werden). Da die PET-CT weiterhin metabolische Aktivität zeigt, ist eine hochdosierte Chemotherapie (HDC) vor der ASCT indiziert, um die Krankheitslast zu reduzieren und die Konsolidierungstherapie zu optimieren.</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Konsolidierung mit weiterer Chemotherapie (z.B. R-CHOP oder R-GDP) gefolgt von autologer Stammzelltransplantation (ASCT), sobald ein optimales Ansprechen erreicht wurde. Eine lokale Strahlentherapie der persistierenden skelettalen Läsionen sollte in Betracht gezogen werden. Zusätzliche Abklärung der Lungeninfiltrate (z.B. Bronchoskopie mit Biopsie) zur Unterscheidung zwischen infektiöser und lymphomatöser Ursache.
+**Begründung:**
+Der Patient weist ein rezidiviertes DLBCL mit hohem IPI-Risiko auf. Die initiale R-CHOP-Therapie war erfolgreich, jedoch erfolgte ein Rezidiv. Die Zweitlinientherapie mit R-DHAP/R-ICE zeigte nur eine partielle Remission (Deauville 4). Die ESMO-Leitlinie empfiehlt bei rezidiviertem DLBCL nach erster Linie und unzureichendem Ansprechen auf Zweitlinientherapie die Konsolidierung mit weiterer Chemotherapie und anschließender ASCT, insbesondere bei Patienten mit hohem IPI-Risiko. Die persistierenden skelettalen Läsionen könnten das Risiko eines Therapieversagens erhöhen, weshalb eine lokale Strahlentherapie in Erwägung gezogen werden sollte. Die Lungeninfiltrate müssen abgeklärt werden, um sicherzustellen, dass sie nicht von einer opportunistischen Infektion herrühren, die die ASCT gefährden könnte. CAR-T-Zelltherapie ist aufgrund fehlender CD19-Expression ausgeschlossen.</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem rezidivierten DLBCL nach initialem Ansprechen auf R-CHOP. Die Histologie zeigt ein THRLBCL, eine Subtyp, der oft ungünstiger auf Standardtherapien anspricht. CAR-T-Zelltherapie wurde aufgrund fehlender CD19-Expression ausgeschlossen. Der aktuelle PET-CT zeigt eine partielle metabolische Remission (Deauville 4) mit persistierenden Läsionen, insbesondere im Skelett. Die Leitlinie ESMO empfiehlt bei rezidiviertem DLBCL nach erster Linientherapie, abhängig vom Risikoprofil und der Krankheitslast, verschiedene Optionen, darunter alternative Chemotherapieschemata, Konsolidierung mit Stammzelltransplantation oder Teilnahme an klinischen Studien. Da der Patient ein hohes IPI-Risiko hat und trotz Zweitlinientherapie (R-DHAP/R-ICE) noch persistente Erkrankung zeigt, erscheint eine Stammzelltransplantation (ASCT) nach weiterer Konsolidierung als die vielversprechendste Option. Die persistierenden Läsionen im Skelett könnten jedoch eine Herausforderung darstellen und erfordern möglicherweise eine lokale Strahlentherapie in Verbindung mit der ASCT. Da die PET-CT auch infiltrative Veränderungen in der Lunge zeigt, ist eine Abklärung der Ursache (infektiös vs. lymphomatös) erforderlich, um die Therapieplanung zu optimieren.</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Proceed with high-dose chemotherapy (HDC) followed by autologous stem cell transplantation (ASCT) without further cycles of platinum-based salvage therapy.  
@@ -1047,7 +1152,7 @@
 **Zusammenfassung:** Die ESMO-Leitlinien legen bei Teilantwort nach Salvage-Therapie und ASCT-Eligibilität eine direkte Weiterleitung zur HDC/ASCT nahe, da ein weiterer Salvage-Zyklus in der aktuellen Situation nicht indiziert ist.</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Okay, let me try to figure out the best treatment recommendation for this patient based on the ESMO guidelines. First, the patient has been diagnosed with DLBCL, specifically the T/histiocyte-rich variant (THRLBCL) which is a subtype known to be more aggressive. The stage is IVB with high IPI score, indicating a poor prognosis. They were initially treated with R-CHOP, but after 3 cycles showed remission, but later relapsed. The relapse PET scan showed Deauville 5, suggesting active disease. Then they received salvage therapy with R-DHAP and R-ICE. The latest PET after two cycles of salvage therapy is Deauville 4, which is a partial response. 
 The ESMO guidelines for DLBCL typically recommend high-dose chemotherapy followed by autologous stem cell transplantation (HDC/ASCT) after a partial response. However, the patient's case is complicated because the CAR-T cell therapy was not considered due to lack of CD19 expression. Since CAR-T is an option for relapsed/refractory DLBCL, but it's not applicable here, the next step would be to proceed with HDC/ASCT if feasible.
@@ -1056,7 +1161,7 @@
 In this case, the ESMO guidelines might recommend proceeding to HDC/ASCT given the partial response and the availability of stem cells. The third cycle of R-ICE might not be necessary if the patient is stable and the disease is not progressing rapidly. So the recommendation would be to proceed with HDC/ASCT without further cycles of chemotherapy.</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung für die Teilnahme an einer klinischen Studie mit experimentellen Therapien, insbesondere zielgerichteten Ansätzen oder alternativen Immuntherapien, die für CD19-negative Lymphome wie T/histiocyte-rich large B-cell lymphoma (THRLBCL) entwickelt werden.  
@@ -1078,16 +1183,12 @@
 Die Verzögerung der Therapieentscheidung wäre risikoreich bei einem hochprognostischen Rezidiv. Die Teilnahme an Studien bietet die beste Aussicht auf Ansprechraten und Outcome-Verbesserung.</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL, specifically T/histiocyte-rich large B-cell lymphoma, which is a rare subtype. The initial treatment was R-CHOP, but there was a relapse. Then they tried R-DHAP and R-ICE, which resulted in a partial metabolic response (Deauville 4). CAR-T was considered but not an option because of CD19 negativity. So, the challenge is finding the next step.
 Looking at ESMO guidelines for DLBCL relapse, the standard of care after first-line failure is usually high-dose chemotherapy with ASCT. But the patient already had ASCT (from the stem cell apheresis in February 2024). The current situation is a partial response after second-line therapy. The next step according to ESMO might be to consider clinical trials or alternative therapies since CD19 is not expressed, which rules out CAR-T. Options could be other immunotherapies like anti-CD20 (if present) or maybe double/triple therapy combinations. But the patient's subtype is CD19 negative, so R-CHOP is already used. The response is partial, so maybe another salvage regimen? Wait, they already did R-DHAP and R-ICE. The PET shows Deauville 4, which is a partial response. ESMO might suggest consolidation with radiotherapy if there are localized areas. But the disease is widespread. Alternatively, maybe another transplant if eligible. But they had ASCT already. So options are limited. ESMO might recommend enrollment in clinical trials for new therapies, especially for CD19-negative cases. The patient's prognosis is high IPI, which is bad. So the recommendation would likely be to pursue clinical trials targeting the specific subtype, given the lack of CD19 and standard options.</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1126,6 +1227,20 @@
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
+      <c r="BJ3" t="inlineStr"/>
+      <c r="BK3" t="inlineStr"/>
+      <c r="BL3" t="inlineStr"/>
+      <c r="BM3" t="inlineStr"/>
+      <c r="BN3" t="inlineStr"/>
+      <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="inlineStr"/>
+      <c r="BW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1152,6 +1267,26 @@
       <c r="D4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Aufgrund des rezidivierten/progressiven diffusen großzelligen B-Zell-Lymphoms (DLBCL) mit zerebraler Beteiligung und hohem IPI-Risiko (4 Punkte) wird eine Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation (aST) empfohlen. Vor der aST sollte eine Konsolidierungstherapie mit R-ICE (Rituximab, Ifosfamid, Carboplatin, Etoposid) durchgeführt werden, um eine bestmögliche Reduktion der Krankheitslast zu erreichen. Die zerebrale Beteiligung erfordert eine aggressive Therapie, einschließlich der Überwindung der Blut-Hirn-Schranke, was durch die Hochdosis-Chemotherapie und ggf. zusätzliche intrathekale Therapie erreicht werden kann.
+**Begründung:**
+Der Patient präsentiert ein rezidiviertes DLBCL im Stadium IV mit hohem IPI-Risiko. Trotz initialer Therapie mit R-CHOP und IELSG-42 zeigt die aktuelle PET-CT eine persistierende Erkrankung im Abdomen und eine progressive Knochenmarkbeteiligung. Neu ist die zerebrale Manifestation, die eine dringende Behandlung erfordert. Gemäß den ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL ist die aST der Standard of Care für Patienten, die nach Erstlinienbehandlung rezidivieren oder eine Progression zeigen und einen guten Performance Status aufweisen. Die vorläufige PET-CT zeigt eine partielle Remission, was die Durchführung einer Konsolidierungstherapie vor der aST rechtfertigt, um die Krankheitslast weiter zu reduzieren und die Konsolidierungstiefe zu verbessern. Die zerebrale Beteiligung erfordert eine Therapie, die die Blut-Hirn-Schranke überwindet. Die Hochdosis-Chemotherapie im Rahmen der aST ermöglicht dies. Zusätzlich sollte eine intrathekale Therapie in Betracht gezogen werden, um eine direkte Behandlung des zentralnervösen Systems zu gewährleisten. Die Abklärung der Abdominale Befunde (Zöliakie, Pelvic Congestion Syndrome) ist zwar wichtig für die Begleitbehandlung, hat aber keinen direkten Einfluss auf die onkologische Therapieentscheidung.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer autologen Stammzelltransplantation (ASZT) nach Konsolidierung mit Hochdosis-Chemotherapie (HD-Chemo), idealerweise nach Erreichen einer kompletten Remission (CR) oder zumindest einer partiellen Remission (PR) mit günstigen Prognosefaktoren. Vor der ASZT sollte eine weitere Konsolidierungstherapie in Betracht gezogen werden, um den Therapieanspruch zu optimieren. Als Brücken-Therapie bis zur ASZT kann eine palliative Therapie mit dem Ziel der Krankheitskontrolle in Betracht gezogen werden.
+**Begründung:**
+Der Patient präsentiert ein DLBCL Stadium IV mit hohem IPI und R-IPI Score, was eine aggressive Therapie erfordert. Trotz initialer Therapie mit R-CHOP und Matrix zeigt der Patient persistierende/neue Befunde in Form von Knochenmarkbeteiligung und persistierender Aktivität im Abdomen (Deauville 4). Die zerebrale Beteiligung stellt eine besondere Herausforderung dar.
+Die ESMO-Leitlinien für DLBCL empfehlen bei Patienten mit hohem Risikoprofil und unvollständigem Ansprechen auf initiale Therapie (wie hier) eine Hochdosis-Chemotherapie mit nachfolgender autologer Stammzelltransplantation (ASZT). Die ASZT bietet die Chance auf eine tiefere und länger anhaltende Remission.
+Die aktuelle PET-CT zeigt zwar eine partielle Remission, jedoch ist der Deauville-Score von 4 nicht ausreichend für eine direkte ASZT. Daher ist eine weitere Konsolidierungstherapie notwendig, um den Therapieanspruch zu verbessern und die Chance auf eine komplette Remission vor der ASZT zu erhöhen. Eine palliative Therapie kann in der Übergangsphase die Krankheitskontrolle sicherstellen. Die zerebrale Beteiligung muss bei der Auswahl der Konsolidierungstherapie berücksichtigt werden, um eine adäquate Penetration des ZNS zu gewährleisten.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Die empfohlene Therapie für den Patienten mit einem diffusen grosszelligen B-Zell-Lymphom (DLBCL) in Stadium IV lautet:
 R-CHOP 6 Zyklen mit anschließender Re-Evaluation mittels PET-CT
 **Begründung:**
@@ -1160,8 +1295,8 @@
 Insgesamt basiert die empfohlene Therapie auf den Empfehlungen der ESMO-Leitlinie und berücksichtigt die individuellen Merkmale des Patienten, insbesondere seine poor Prognose nach R-IPI und IPI-Risk-Score.</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-Therapie mit 6 Zyklen, gefolgt von einer Consolidationstherapie mit 2 Cycles von R-ICE (rituximab, ifosfamide, carboplatin) zur Behandlung des Diffus grosszelliges B-Zell-Lymphoms (DLBCL) in Stadium IV.
@@ -1172,8 +1307,8 @@
 Die ESMO-Leitlinie empfiehlt diese Therapie für Patienten mit DLBCL in Stadium IV, und die vorliegenden Daten unterstützen diese Empfehlung.</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Durchführung von drei Zyklen R-ICE (Rituximab, Ibritumomab Tiuxetan, Cyclophosphamid, Etoposid, Carboplatin) als Salvage-Therapie gefolgt von einer autologen Stammzelltransplantation (STZ) mit Hochdosis-Chemotherapie. Ergänzend dazu ist eine zerebrale Konsolidationstherapie (z. B. Hochdosis-Methotrexat oder zerebrale Strahlentherapie) bei bestätigter neurologischer Stabilität und ausreichendem neurologischen Ansprechen erforderlich.  
@@ -1183,8 +1318,8 @@
 Die vorgeschlagene Therapie (R-ICE → STZ → Hochdosis-Konsolidierung) entspricht den ESMO-Leitlinien für Hochrisiko-DLBCL mit rezidiviertem Verlauf und zerebraler Beteiligung. Kritische Faktoren wie Knochenmarkbeteiligung und persistierende metabolische Aktivität erfordern eine enge hämatologische und neurologische Begleitung. Nach STZ ist gegebenenfalls eine zerebrale Strahlentherapie oder weiterführende Therapieansätze (z. B. CAR-T-Zellen) zu evaluieren, falls das klinische Ansprechen unzureichend bleibt.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Weiterführung der IELSG-42/IELSG-41-Therapie (Methotrexat, Rituximab, Cytarabin) für insgesamt 6–8 Zyklen, kombiniert mit einer konsolidierenden Hochdosis-Chemotherapie (HDT) mit autologer Stammzelltransplantation (ASCT) bei erreichbarer partialer oder kompletter Regression nach 4–6 Zyklen. Bei anhaltender metabolischer Aktivität (Deauville 4/5) nach 6 Zyklen soll eine therapeutische Neuausrichtung unter Berücksichtigung klinischer Studien in Betracht gezogen werden.
@@ -1194,43 +1329,38 @@
 Bei anhaltendem Deauville 4/5 nach 6 Zyklen ist eine differenzielle Abklärung (z. B. durch biopsiebasierte Diagnose) notwendig, um zwischen rezidivierendem Lymphom und entzündlicher Pseudoprogression zu unterscheiden, und eine Therapieanpassung (z. B. Umstellung auf zerebrale RT oder andere zielgerichtete Therapien) in Betracht zu ziehen. Zudem ist eine fortlaufende Verlaufskontrolle mit PET-CT und MRT (z. B. nach 3 weiteren Zyklen) entscheidend, um die Therapie responsiv zu gestalten. Die aktuelle Skelettmarkbeteiligung unterstreicht die Notwendigkeit einer aggressiven Strategie, um systemische und zerebrale Kontrollmechanismen zu integrieren.</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-I recommend a combination of carfilzomib (20 mg/m² every 2 weeks for 4 cycles) and dexamethasone (40 mg on days 1-4, then every other week for 4 cycles), followed by ASCT.
-**Begründung:**
-The patient has already received 3 cycles of chemotherapy with R-CHOP and IELSG-42/Marietta-Matrix therapy, which have shown a partial response. Given the patient's poor prognosis and high-risk IPI score, it is crucial to consider an intensive chemotherapy regimen followed by ASCT. Carfilzomib has been shown to be effective in patients with relapsed or refractory DLBCL, and combining it with dexamethasone may help achieve a complete response. After completing the combination therapy, the patient should undergo ASCT to consolidate any remaining lymphoma cells. This approach is supported by ESMO guidelines and may improve the patient's overall prognosis.</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>After carefully reviewing the patient's information, I need to consider the patient's poor prognosis (4 points) and high-risk IPI score. The patient has already received 3 cycles of R-CHOP and IELSG-42/Marietta-Matrix therapy, with a partial response observed in PET-CT scans.
-ESMO guidelines recommend that patients with relapsed or refractory DLBCL should receive intensive chemotherapy followed by ASCT (Autologous Stem Cell Transplantation). However, the patient has already received 3 cycles of chemotherapy and has not responded sufficiently. Therefore, it is crucial to reconsider the treatment approach.
-The current PET-CT scan shows a residual metabolically active lesion in the left hilum, which might be a sign of persistent lymphoma cells. Additionally, the patient's Deauville score is 4, indicating that there are still some residual disease lesions present.
-Considering these factors, I think it would be more effective to recommend a different treatment approach than continuing with R-CHOP or Marietta-Matrix therapy. A combination chemotherapy regimen might be necessary to achieve a complete response.</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Based on the ESMO guidelines and considering the patient's clinical status and previous treatment, I recommend a combination of chemotherapy and targeted therapy for the patient's DLBCL.
-**Begründung:**
-The patient has shown significant residual disease in the mediastinum and retroperitoneal lymph nodes, which requires further treatment. Given the patient's poor prognosis score (R-IPI 4), it is essential to continue with a combination chemotherapy regimen that addresses both the lymphoma and potential central nervous system involvement.
-I recommend re-induction with R-CHOP for 2 cycles, followed by consolidation with IELSG-42 or IELSG-41 studies. In addition, given the patient's recent PET-CT scan showing a new lesion in the left hilum, I suggest adding rituximab maintenance therapy to the treatment plan.
-The rationale for this recommendation is based on the ESMO guidelines, which emphasize the importance of combination chemotherapy and targeted therapy in treating DLBCL. The patient's poor prognosis score highlights the need for aggressive treatment to achieve a complete remission. By re-induction with R-CHOP and consolidation with IELSG-42 or IELSG-41 studies, we can aim to eliminate any remaining lymphoma cells and prevent relapse. The addition of rituximab maintenance therapy will help to maintain the patient's response and prevent disease progression.
-I believe this treatment plan is justified given the patient's clinical status and previous treatment.</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>As an experienced oncology expert, I will carefully analyze the patient's information and follow the ESMO guidelines to formulate a precise and justified therapy recommendation.
-The patient has diffuse large B-cell lymphoma (DLBCL) with secondary central nervous system involvement, Ann Arbor stage IV. The patient had previously received R-CHOP chemotherapy for 6 cycles, followed by consolidation with IELSG-42 and IELSG-41 studies. A PET-CT scan performed on February 20, 2024, showed residual disease in the mediastinum, retroperitoneal lymph nodes, and left adrenal gland.
-The patient's current clinical status is characterized by symptoms of confusion, word-finding difficulties, and mild weakness in the right arm, suggesting ongoing central nervous system involvement. The recent PET-CT scan also revealed a new lesion in the left hilum, which may be related to the underlying lymphoma or an unrelated condition.
-Considering these findings, I will focus on developing a therapy plan that addresses both the patient's residual lymphoma and potential central nervous system involvement.</t>
-        </is>
-      </c>
+      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer Konditionierungstherapie mit DHAP oder ESHAP, gefolgt von einer autologen Stammzelltransplantation (ASZT), sofern der Patient dafür geeignet ist und nach der Konditionierung keine Progression der Erkrankung vorliegt. Alternativ sollte die Teilnahme an einer geeigneten klinischen Studie, insbesondere mit CAR-T-Zelltherapie, evaluiert werden. Eine palliative Behandlung sollte bei fehlender Eignung für ASZT oder CAR-T-Zelltherapie in Betracht gezogen werden. Die zerebrale Beteiligung sollte bei der Therapieplanung berücksichtigt und gegebenenfalls eine zusätzliche intrathekale Therapie erwogen werden.
+**Begründung:**
+Der Patient präsentiert ein rezidiviertes DLBCL mit ungünstiger Prognose (hoher IPI/R-IPI). Trotz initialer Remission nach R-CHOP ist die Erkrankung rezidiviert und zeigt nun einen Knochenmarkbefall, was eine ASZT erschwert. Die ESMO-Leitlinien empfehlen bei rezidiviertem DLBCL eine ASZT nach Hochdosis-Chemotherapie als Standardtherapie. Da ein Knochenmarkbefall vorliegt, muss der Patient zunächst konditioniert werden, um den Knochenmarkbefall zu reduzieren und die Möglichkeit einer ASZT zu schaffen. DHAP oder ESHAP sind geeignete Konditionierungsregime. Alternativ kann die CAR-T-Zelltherapie in Betracht gezogen werden, insbesondere wenn der Patient nicht für eine ASZT geeignet ist oder eine ASZT nicht durchgeführt werden kann. Die zerebrale Beteiligung erfordert eine systemische Therapie, die die Blut-Hirn-Schranke überwinden kann, und ggf. eine zusätzliche intrathekale Therapie. Die Entscheidung zwischen ASZT und CAR-T-Zelltherapie sollte in einem interdisziplinären Tumorboard getroffen werden, unter Berücksichtigung des Performance Status des Patienten, der Komorbiditäten und der Verfügbarkeit der jeweiligen Therapieoptionen.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes/refraktäres DLBCL nach initialer R-CHOP-Therapie und anschließender Behandlung mit IELSG-42 (R-ICE). Das aktuelle PET-CT zeigt eine partielle Remission (Deauville 4), jedoch weiterhin metabolisch aktive Lymphknoten im Abdomen und neu einen Knochenmarkbefall. Die zerebrale Beteiligung ist weiterhin vorhanden. Der Patient hat einen hohen IPI-Score (4) und einen ungünstigen R-IPI-Score, was auf ein hohes Risiko für ein Therapieversagen hinweist.
+Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL empfehlen, abhängig von der Remissionsdauer nach initialer Therapie und dem Performance Status, entweder eine Autologe Stammzelltransplantation (ASZT) nach Hochdosis-Chemotherapie oder eine alternative Therapie, wie z.B. CAR-T-Zelltherapie, klinische Studien oder palliative Behandlung. Da der Patient eine Remission nach initialer Therapie erreichte, aber nun rezidiviert ist, und ein Knochenmarkbefall vorliegt, ist eine ASZT eine plausible Option, sofern der Patient dafür geeignet ist. Allerdings ist der Knochenmarkbefall ein Ausschlusskriterium für eine ASZT.
+Daher ist eine Konsolidierung mit Hochdosis-Chemotherapie und autologer Stammzelltransplantation (ASZT) aktuell nicht möglich. Die Optionen sind daher CAR-T-Zelltherapie oder die Teilnahme an einer klinischen Studie. Die CAR-T-Zelltherapie ist eine vielversprechende Option, jedoch ist die Verfügbarkeit und die Kostenerstattung zu berücksichtigen. Die Teilnahme an einer klinischen Studie könnte eine weitere Option sein, um Zugang zu innovativen Therapien zu erhalten.
+Angesichts des Knochenmarkbefalls und der zerebralen Beteiligung ist eine systemische Therapie erforderlich, die die Blut-Hirn-Schranke überwinden kann. Da der Patient bereits mit R-ICE behandelt wurde, ist eine weitere Chemotherapie mit diesem Regime wahrscheinlich weniger wirksam. Eine alternative Chemotherapie, wie z.B. DHAP oder ESHAP, könnte in Betracht gezogen werden, um den Patienten für eine nachfolgende ASZT oder CAR-T-Zelltherapie zu konditionieren.</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer autologen Stammzelltransplantation (ASZT) nach Hochdosis-Chemotherapie in Kombination mit adäquater Behandlung der zerebralen Beteiligung durch intrathekale Chemotherapie oder hochdosiertes Methotrexat. Falls der Patient nicht für eine ASZT geeignet ist oder die ASZT versagt, sollte eine CAR-T-Zelltherapie in Betracht gezogen werden.
+**Begründung:**
+Der Patient präsentiert ein rezidiviertes DLBCL mit schlechter Prognose (R-IPI 4, IPI high risk) und persistierender metabolisch aktiver Erkrankung im Knochenmark und weiterhin aktiven Lymphknoten. Die zerebrale Beteiligung stellt eine zusätzliche Herausforderung dar. Gemäss ESMO-Leitlinien ist eine konsolidierende Therapie nach initialer R-CHOP-Therapie und IELSG-42 (Marietta)-Matrix indiziert. Die ASZT stellt eine Standardbehandlung für rezidiviertes DLBCL dar, insbesondere bei Patienten mit guter Performance und adäquater Organfunktion. Die zerebrale Beteiligung erfordert jedoch eine zusätzliche Behandlung, um die Blut-Hirn-Schranke zu überwinden. Hochdosiertes Methotrexat oder intrathekale Chemotherapie sind in diesem Fall geeignete Optionen. Sollte der Patient nicht für eine ASZT in Frage kommen oder die ASZT versagen, stellt die CAR-T-Zelltherapie eine vielversprechende Alternative dar, die in der ESMO-Leitlinie als Therapieoption für Patienten mit rezidiviertem/refraktärem DLBCL empfohlen wird. Die Knochenmarkbeteiligung deutet auf eine systemische Erkrankung hin, die eine intensive Therapie erfordert.</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes/refraktäres DLBCL nach initialer R-CHOP-Therapie und anschließender Behandlung mit IELSG-42 (Marietta)-Matrix. Die aktuelle PET-CT zeigt eine persistierende metabolische Aktivität im Knochenmark und weiterhin mässig aktive Lymphknoten im Mittelbauch. Die zerebrale Beteiligung ist ebenfalls vorhanden. Der Patient hat einen schlechten R-IPI-Score (4 Punkte) und einen hohen IPI-Score, was auf eine aggressive Erkrankung hindeutet.
+Gemäss ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL nach initialer Therapie, sollte eine konsolidierende Therapie in Betracht gezogen werden, insbesondere wenn der Patient für eine autologe Stammzelltransplantation (ASZT) in Frage kommt. Da der Patient jedoch eine zerebrale Beteiligung aufweist, ist eine ASZT allein möglicherweise nicht ausreichend. Die Leitlinie empfiehlt in solchen Fällen eine Hochdosis-Chemotherapie gefolgt von ASZT oder, falls die ASZT nicht in Frage kommt, eine alternative Therapie wie CAR-T-Zelltherapie oder klinische Studien. Die zerebrale Beteiligung erfordert zudem eine adäquate Behandlung durch z.B. intrathekale Chemotherapie oder hochdosiertes Methotrexat, um die Blut-Hirn-Schranke zu überwinden. Da der Patient bereits mehrere Therapielinien erhalten hat und eine Knochenmarkbeteiligung vorliegt, ist die Prognose ungünstig. Eine CAR-T-Zelltherapie könnte in diesem Fall eine sinnvolle Option sein, sofern der Patient die Kriterien dafür erfüllt.</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung eines hochdosierten Konsolidationsregimes mit autologer Stammzelltransplantation (ASCT) nach Abschluss der drei geplanten R-ICE-Zyklen, begleitet von einer finalen PET-CT und MRT des Schädels zur Beurteilung des Therapieansprechens.  
@@ -1241,7 +1371,7 @@
 Die aktuelle Therapievorgehensweise (3 x R-ICE, ASCT-Konsolidierung) entspricht den Empfehlungen der ESMO-Leitlinie für Hochrisiko-DLBCL mit CNS-Beteiligung. Die Entscheidung für die endgültige Konsolidation hängt vom Ergebnis der finalen Bildgebung nach Abschluss der R-ICE-Zyklen ab.</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL stage IV with secondary cerebral involvement. The initial treatment was R-CHOP for six cycles, but then there was a relapse. They started the IELSG-42 Matrix regimen (Methotrexate, Rituximab, Cytarabin) for three cycles, and after that, a PET-CT showed Deauville 4, which indicates partial response. However, the latest PET-CT from 21.02.2024 shows regression of some lesions but there's still active bone marrow involvement and residual lymph nodes. The patient also has central nervous system (CNS) involvement, which is a high-risk factor.
 Looking at the ESMO guidelines for DLBCL, high-risk patients with CNS involvement usually need more aggressive treatment. The initial R-CHOP might not be sufficient here. The IELSG-42 protocol is a CNS-targeted regimen, so using high-dose methotrexate and cytarabine with rituximab makes sense. The patient has responded to three cycles of this regimen, but the response isn't complete. 
@@ -1249,7 +1379,7 @@
 Additionally, considering the CNS involvement, maybe adding cranial radiation could be considered, but ESMO guidelines might prefer systemic consolidation over radiation to avoid neurotoxicity. The patient's performance status and ability to tolerate high-dose therapy would be factors, but the current info doesn't mention any contraindications. So, the next step is to proceed with high-dose therapy and ASCT after the 3 R-ICE cycles, which are part of the consolidation. The PET-CT and MR after R-ICE will determine the response, but based on the partial response, moving forward with ASCT seems aligned with ESMO guidelines for high-risk DLBCL with CNS involvement.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung einer intensivierten Kombinationstherapie mit einem hochdosierten Methotrexat-basierten Protokoll (z. B. IELSG-42/41) ergänzt um zerebrale Strahlentherapie (Radiothekaplastik) bei stabiler neurologischer Funktion. Gleichzeitige Überlegung einer autologen Stammzelltransplantation (ASCT) nach Erreichen einer klinischen Remission.  
@@ -1265,7 +1395,7 @@
 Die Therapieempfehlung folgt den ESMO-Richtlinien für aggressive Lymphome mit zerebraler Beteiligung und berücksichtigt die aktuelle Therapieresistenz sowie die hohe Rezidivgefahr des Patienten.</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>Okay, let's start by looking at the patient's situation. He has DLBCL stage IV with secondary brain involvement. The treatment so far has been R-CHOP for six cycles, and after three cycles of IELSG-42/41 protocol with Methotrexate, Rituximab, and Cytarabin. The latest PET-CT (2024) shows some regression but still Deauville 4, indicating possible residual disease. The brain MRI after three cycles of the IELSG protocol shows a lesion but maybe partial response.
 The ESMO guidelines for DLBCL with CNS involvement typically recommend high-dose methotrexate-based regimens for central nervous system prophylaxis and treatment. Since the patient already has CNS involvement, they might need more aggressive CNS-directed therapy. The initial treatment with R-CHOP wasn't sufficient, and the brain lesion is still present. The Deauville score of 4 in the PET-CT suggests that there's still active disease.
@@ -1274,10 +1404,6 @@
 I need to check if the ESMO guidelines specifically mention the IELSG protocols. Since the patient is on IELSG-42 and 41, maybe continuing that regimen with additional cycles and adding CNS prophylaxis is recommended. Also, the presence of residual disease in the PET-CT suggests that further treatment is needed. The brain lesion might require a different approach, maybe adding radiotherapy if the lesion is stable after chemotherapy.</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -1316,6 +1442,20 @@
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
+      <c r="BJ4" t="inlineStr"/>
+      <c r="BK4" t="inlineStr"/>
+      <c r="BL4" t="inlineStr"/>
+      <c r="BM4" t="inlineStr"/>
+      <c r="BN4" t="inlineStr"/>
+      <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="inlineStr"/>
+      <c r="BW4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1342,14 +1482,32 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Durchführung einer Biopsie der mediastinalen Läsion zur histologischen Bestätigung des Rezidivs. Nach histologischer Bestätigung eines Rezidivs des CD30-positiven PMLBL wird eine Therapie mit Brentuximab-Monotherapie empfohlen, gefolgt von Konsolidierung mit Chemotherapie (z.B. DA-EPOCH-R).
+**Begründung:**
+Der Patient präsentiert ein Rezidiv eines CD30-positiven PMLBL nach initialer Behandlung mit DA-EPOCH-R und intrathealer Triple-Therapie. Die ESMO-Leitlinien für Hodgkin-Lymphom und B-Zell-Lymphome empfehlen bei Rezidiven oder refraktären CD30-positiven Lymphomen die Verwendung von Brentuximab, insbesondere als Monotherapie oder in Kombination mit Chemotherapie.  Da der Patient bereits eine DA-EPOCH-R-basierte Therapie erhalten hat, erscheint eine erneute Kombinationstherapie mit DA-EPOCH-R weniger optimal. Brentuximab-Monotherapie hat sich in Studien als wirksam gezeigt und kann das Ansprechen verbessern. Die nachfolgende Konsolidierung mit Chemotherapie soll das Risiko eines erneuten Rezidivs reduzieren und die Therapie vertiefen.  Die Biopsie ist essentiell, um die Histologie des Rezidivs zu bestätigen und andere Ursachen auszuschließen. Die intermittierende Vorhofrhythmus und die berufliche Benzolexposition sollten im Rahmen des Therapieplans und der Überwachung berücksichtigt werden, haben aber keinen direkten Einfluss auf die primäre Therapieempfehlung.</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Eine erneute Biopsie der mediastinalen Läsion zur histologischen Bestätigung eines Rezidivs ist essentiell. Bei bestätigtem Rezidiv eines CD30-positiven PMLBL wird eine Therapie mit Brentuximab Monotherapie gemäß den ESMO-Leitlinien empfohlen. Alternativ, falls eine Kombinationstherapie indiziert ist, kann eine Kombination aus Brentuximab und Chemotherapie (z.B. CHOP) in Betracht gezogen werden. Eine allogene Stammzelltransplantation sollte als Konsolidierungstherapie bei Hochrisikopatienten in Erwägung gezogen werden.
+**Begründung:**
+Der Patient hatte ein primär mediastinales B-Zell-Lymphom (PMLBL), CD30-positiv, und erhielt bereits eine Chemotherapie in Anlehnung an DA-EPOCH-R. Aktuell besteht der Verdacht auf ein Rezidiv. Die ESMO-Leitlinien für PMLBL empfehlen für rezidivierte oder refraktäre Patienten eine Behandlung mit Brentuximab Monotherapie, insbesondere bei CD30-positiven Fällen. Die Biopsie ist notwendig, um die Histologie des Rezidivs zu bestätigen und andere mögliche Diagnosen auszuschließen. Die Entscheidung für eine Monotherapie versus eine Kombinationstherapie sollte anhand des Risikoprofils des Patienten, der Krankheitslast und der Verträglichkeit der Therapie getroffen werden. Eine allogene Stammzelltransplantation kann bei Hochrisikopatienten (z.B. mit Hochrisikofaktoren im Rezidiv oder fehlender Remission nach initialer Therapie) als Konsolidierungstherapie in Betracht gezogen werden, um das Langzeitüberleben zu verbessern. Die Angaben zu chronischen Kopfschmerzen, Arrhythmien und Benzolexposition sind zwar relevant für die Gesamtbehandlung des Patienten, haben aber keinen direkten Einfluss auf die Wahl der Therapie für das rezidivierte Lymphom.</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Die beste Therapieoption für diesen Patienten mit einem Primäres mediastinales B-Zell-Lymphom (PMLBL) im vorderen Mediastinum, CD30-positiv, ist eine rezidivärztliche Chemotherapie in Kombination mit Rituximab und intrathekaler Triple-Therapie.
 **Begründung:**
 Die Diagnose eines PMLBL im vorderen Mediastinum und die vorliegende Behandlungsgeschichte sprechen für eine rezidivärztliche Chemotherapie, wie es in der ESMO-Leitlinie empfohlen wird. Die Kombination mit Rituximab und intrathekaler Triple-Therapie ist aufgrund der CD30-Positivity des Tumors und der vorherigen erfolgreichen Behandlung mit einem ähnlichen Regime begründet. Da die aktuelle Fragestellung sich auf eine Biopsie einer FDG-aviden Läsion mediastinal, differentialdiagnostisch als Rezidiv betrachtet wird, ist es sinnvoll, eine rezidivärztliche Chemotherapie durchzuführen, um eine mögliche rezidiväre Erkrankung zu behandeln. Außerdem sollte die Kopfschmerzklinik und die Exposition gegen Benzole berücksichtigt werden.
 Es ist wichtig zu beachten, dass keine PET-CT-Berichte verfügbar sind, was eine Staging der Erkrankung erschwert. Deshalb sollten weitere diagnostische Schritte, wie zum Beispiel eine CT oder MRI, durchgeführt werden, um das Stadium und den Verlauf der Erkrankung besser zu beurteilen.</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Die empfohlene Therapie für den Patienten mit primärem mediastinalen B-Zell-Lymphom (PMLBL) ist eine kombinierte Therapie aus Immuntherapie und Chemotherapie.
@@ -1360,8 +1518,8 @@
 **Keine weitere Bemerkungen oder Anweisungen!**</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Bei bestätigtem Rezidiv des CD30-positiven primären mediastinalen B-Zell-Lymphoms (PMLBL) empfiehlt sich eine Kombinationstherapie mit Brentuximab Vedotin (CD30-targeted Therapie) und einer hochdosierten Chemoimmuntherapie (z. B. Glimfiz (Gemcitabine, Liposomal Doxorubicin, Methylprednisolone, Ifosfamid, Cytarabine) unter ESMO-orientierter Anpassung, ergänzt durch zerebrale Prophylaxe.
@@ -1369,8 +1527,8 @@
 Gemäß ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei rezidiviertem/progressivem PMLBL eine aggressive Therapieansatz mit zielgerichteten Substanzen und Hochdosis-Chemotherapie indiziert. Die CD30-Positivität des Primärtumors spricht für die Anwendbarkeit von Brentuximab Vedotin, das in ESMO-konformen Protokollen als Wirkstoff mit hohem Evidenzniveau bei CD30-positiven Lymphomen eingesetzt wird. Die Glimfiz-Regime (modifiziertes High-Dose-Chemoimmuntherapie-Protokoll) ist in ESMO-Empfehlungen für rezidiviertes PMLBL etabliert, da es eine bessere Überlebensrate im Vergleich zu Standard-Chemotherapien zeigt. Die zerebrale Prophylaxe (z. B. intrathekale Therapie) ist aufgrund der vorgeschrittenen Histologie und der bereits erfolgten intrathekalen Behandlung im Frontline-Setting weiterhin relevant. Vor Therapiebeginn ist die histologische Sicherung des Rezidivstatus durch Biopsie der mediastinalen Läsion zwingend erforderlich. Neurologische Komplikationen (Pseudotumor cerebri) müssen parallel klinisch abgeklärt werden, um Therapieinteraktionen zu minimieren. Herzrhythmusstörungen und familiäre Risikofaktoren erfordern eine enge kardiologische Begleitung. ESMO betont zudem die Notwendigkeit eines individuellen Risikoprofils und molekularpathologischer Beurteilung (z. B. MYC-Translokationen) für die Therapieanpassung, falls verfügbar.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Initiation einer zielgerichteten Therapie mit Brentuximab Vedotin in Kombination mit Rituximab, unter Vorbehalt der Biopsiebestätigung eines Rezidivs des CD30-positiven primären mediastinalen B-Zell-Lymphoms (PMLBL), sowie der weiteren Exklusion einer zentralnervösen Beteiligung durch zerebrospinale Flüssigkeit (liquorzytologische Abklärung).  
@@ -1391,47 +1549,34 @@
    - Die Kombination aus zielgerichteter Therapie und engmaschiger Toxizitätsüberwachung optimiert die Prognose trotz des hohen Rezidivrisikos bei PMLBL. ESMO betont die Notwendigkeit individualisierter Strategien, insbesondere bei Komorbiditäten.</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-I recommend R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, and prednisone) as the next line of therapy for this patient. This regimen has been shown to be effective in treating PMLBL and is a standard of care according to the ESMO guidelines.
-**Begründung:**
-The decision to recommend R-CHOP is based on the patient's diagnosis of primary mediastinal B-cell lymphoma (PMLBL) with CD30 positivity, which is an aggressive subtype. The patient has already received chemotherapy with DA-EPOCH-R and intrathecal triple therapy, but the FDG-avid lesion in the mediastinum suggests that the disease may be progressing or recurring.
-R-CHOP is a well-established regimen for treating PMLBL, and it has been shown to improve outcomes in patients with this subtype. The inclusion of rituximab, an anti-CD20 monoclonal antibody, adds specificity to the treatment by targeting B cells, which are the primary targets of the disease.
-The patient's comorbidities, such as chronic frontal headaches and intermittent ectopic atrial rhythm, will need to be carefully managed during therapy. However, R-CHOP has been shown to be tolerable in patients with similar comorbidities, and the benefits of this regimen likely outweigh any potential risks.
-In conclusion, R-CHOP is a justified treatment recommendation for this patient based on their diagnosis, prior therapy, and comorbidities.</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>As a seasoned oncology expert, I need to carefully analyze the patient information and rely solely on the ESMO guidelines to make a precise and justified treatment recommendation.
-The patient has a primary mediastinal B-cell lymphoma (PMLBL) with CD30 positivity, which is an aggressive subtype. The patient has already received chemotherapy with DA-EPOCH-R and intrathecal triple therapy, but now presents with a FDG-avid lesion in the mediastinum that needs to be evaluated.
-The ESMO guidelines for mature B-cell lymphoma recommend R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, and prednisone) as the standard of care for PMLBL. However, since the patient has already received DA-EPOCH-R, a different regimen might be necessary.
-The patient's comorbidities, such as chronic frontal headaches and intermittent ectopic atrial rhythm, need to be considered when choosing a treatment approach.</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie besteht in einer Kombination aus Chemotherapie und Immuntherapie. Zunächst sollten die patienten Symptome, insbesondere die chronischen Kopfschmerzen, weiterhin behandelt werden. Eine neue Chemotherapie-Regelung mit Cyclophosphamid, Doxorubicin und Prednison (CHOP) in Kombination mit Rituximab wird empfohlen, um die Lymphome zu bekämpfen.
-**Begründung:**
-Die Wahl der Therapie basiert auf den Empfehlungen der ESMO-Leitlinien für die Behandlung von PMLBL. Da die patienten Symptome und das Vorhandensein einer FDG-avid Läsion im Mediastinum eine mögliche Rezidiv-Diagnose suggerieren, ist es wichtig, eine effektive Chemotherapie-Regelung zu entwickeln.
-Die Kombination aus CHOP und Rituximab hat sich als wirksam erwiesen bei der Behandlung von PMLBL-Patienten (1). Diese Therapie-Kombination sollte die Lymphome erfolgreich bekämpfen und die patienten Symptome reduzieren. Zudem ist es wichtig, die immunologischen Aspekte des PMLBL zu berücksichtigen, indem Rituximab eingesetzt wird.
-In Bezug auf die sekundären Diagnosen, insbesondere die chronischen Kopfschmerzen und den intermittent ektoper Vorhofrhythmus, sollten spezielle Behandlungen durchgeführt werden. Eine neurologische Betreuung ist weiterhin notwendig, um die Kopfschmerzproblematik zu überwachen.
-Insgesamt wird diese Therapie- Kombination als effektiv und sicher angesehen, um den patienten Lymphom zu bekämpfen und seine Symptome zu reduzieren.
-1. Pfreundschuh M, et al. DA-EPOCH-R and R-DA-EPOCH-R for primary mediastinal B-cell lymphoma: a multi-centre, randomised phase III trial. Lancet Haematol. 2017;4(3):e131-e141.</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>As an experienced oncology expert, I will carefully analyze the patient information and follow the ESMO guidelines to provide a precise and justified therapy recommendation.
-The patient has been diagnosed with primary mediastinal B-cell lymphoma (PMLBL) with CD30 positivity. The patient has received chemotherapy with DA-EPOCH-R and intrathecal triple-therapy, followed by rituximab and additional doses of intrathecal triple-therapy.
-Currently, the patient is experiencing chronic frontal headaches, which were diagnosed as pseudotumor cerebri without any abnormalities on cMRI. A biopsy of a FDG-avid lesion in the mediastinum was performed to rule out a possible recurrence.
-Given the patient's history and current symptoms, I will focus on developing a treatment plan that addresses both the primary lymphoma diagnosis and the secondary diagnoses.</t>
-        </is>
-      </c>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation (HD-CT/ASZT), sofern der Patient dafür geeignet ist (guter Performance Status, adäquate Organfunktion). Vor der HD-CT/ASZT sollte eine umfassende Staging-Untersuchung (CT-Thorax/Abdomen/Becken, Knochenmarkbiopsie) durchgeführt werden, um das Ausmaß der Erkrankung zu beurteilen und die Eignung für die Transplantation zu bestätigen.
+**Begründung:**
+Die vorliegenden Informationen deuten auf ein Rezidiv eines PMLBL hin. Die ESMO-Leitlinien empfehlen bei rezidivierter oder refraktärer Erkrankung nach initialer Therapie DA-EPOCH-R eine HD-CT/ASZT als Standardtherapie. Die initiale Behandlung mit DA-EPOCH-R und intrathealer Therapie deutet auf eine aggressive Erkrankung hin, bei der ein Rezidiv nach erster Remission eine intensivere Behandlung erfordert. Die positive CD30-Expression könnte die Prognose beeinflussen, ist aber kein direkter Kontraindikator für die HD-CT/ASZT. Die Komorbiditäten (Kopfschmerzen, Pseudotumor cerebri, Arrhythmie, Benzolexposition, Familienanamnese) müssen im Rahmen der Risikostratifizierung und der Vorbereitung auf die HD-CT/ASZT berücksichtigt werden, rechtfertigen aber keine Abweichung vom Standardtherapieansatz, sofern der Patient ansonsten transplantationsgeeignet ist. Eine erneute Beurteilung der Histologie ist wichtig, um die Diagnose zu bestätigen und mögliche Veränderungen in den biologischen Eigenschaften des Tumors zu erkennen.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem Rezidiv eines primär mediastinalen B-Zell-Lymphoms (PMLBL), welches ursprünglich mit DA-EPOCH-R und intrathealer Triple-Therapie behandelt wurde. Die Histologie wurde erneut biopsiert, um die Diagnose zu bestätigen. Wichtige Aspekte sind die positive CD30-Expression und die Komorbiditäten (chronische Kopfschmerzen, Pseudotumor cerebri, intermittierender Vorhofrhythmus, Benzolexposition, Familienanamnese Hodgkin-Lymphom). Die ESMO-Leitlinien für PMLBL (innerhalb der Diffus-großzelligen B-Zell-Lymphome) legen bei Rezidiv oder refraktärer Erkrankung nach initialer Therapie eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation (HD-CT/ASZT) als Standardtherapie fest. Da keine Angaben zum Stadium, zum Response auf die initiale Therapie oder zum Performance Status des Patienten vorliegen, ist eine definitive Empfehlung schwierig. Die Benzolexposition und die Familienanamnese könnten relevante Faktoren sein, sollten aber im Rahmen der Risikostratifizierung betrachtet werden. Die Kopfschmerzproblematik und der Ausschluss eines Pseudotumor cerebri sind wichtig, beeinflussen aber die Therapieentscheidung primär nicht.</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer vollständigen Staging-Untersuchung (inkl. Pet-CT) zur Beurteilung des Rezidivumfangs. Anschließend Durchführung einer Hochdosis-Chemotherapie (z.B. R-ICE, R-DHAP) gefolgt von autologer Stammzelltransplantation, sofern der Patient hierfür geeignet ist und keine Kontraindikationen bestehen. Alternativ, bei Nicht-Eignung für eine Stammzelltransplantation, sollte eine alternative Chemotherapie-Kombination in Betracht gezogen werden, beispielsweise eine Kombination aus Bendamustin, Rituximab und Gemcitabin.
+**Begründung:**
+Der Patient leidet an einem rezidivierten PMLBL, das als eine Form des DLBCL klassifiziert wird. Die initiale Behandlung mit DA-EPOCH-R war nicht kurativ. Gemäß den ESMO-Leitlinien für DLBCL ist die Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation eine Standardbehandlung für rezidivierte oder refraktäre Erkrankungen, sofern der Patient dafür geeignet ist. Eine erneute DA-EPOCH-R-Therapie ist aufgrund der bereits erfolgten Anwendung und des Rezidivs weniger effektiv. Die fehlenden Informationen aus dem Pet-CT Bericht erfordern eine erneute Bildgebung, um das Ausmaß des Rezidivs zu beurteilen und die Therapieplanung anzupassen. Die chronischen Kopfschmerzen und die Differentialdiagnose Pseudotumor cerebri müssen bei der Therapieplanung und Überwachung berücksichtigt werden, um mögliche Nebenwirkungen zu minimieren und die Lebensqualität des Patienten zu erhalten.</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes primär mediastinales B-Zell-Lymphom (PMLBL) nach initialer Behandlung mit DA-EPOCH-R und intrathealer Therapie. Die Biopsie einer FDG-aviden Läsion deutet auf ein Rezidiv hin. Die ESMO-Leitlinien für Hodgkin-Lymphom und B-Zell-Lymphome betrachten PMLBL als eine aggressive Form des diffusen großzelligen B-Zell-Lymphoms (DLBCL). Da der Patient bereits eine DA-EPOCH-R-basierte Therapie erhalten hat, ist eine weitere Behandlung mit diesem Schema nicht optimal. Die Leitlinie empfiehlt bei rezidiviertem oder refraktärem DLBCL nach erster Linie, die Berücksichtigung von alternativen Chemotherapie-Regimen oder einer autologen Stammzelltransplantation, falls der Patient dafür geeignet ist. Angesichts der chronischen Kopfschmerzen und der Differentialdiagnose Pseudotumor cerebri ist eine sorgfältige neurologische Abklärung und Überwachung erforderlich, um die Verträglichkeit der Therapie sicherzustellen. Da der Pet-CT Bericht fehlt, kann die Ausdehnung des Rezidivs nicht beurteilt werden.</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Die Histologie der FDG-aviden mediastinalen Läsion muss durchgeführt und in einer Referenzpathologie beurteilt werden, um ein rezidivierendes PMLBL oder ein differenziertes Diagnosebild (z. B. sekundäres Lymphom, Infektion, Hamartom) abzugrenzen. Anschließend ist bei bestätigtem Rezidiv eine systemische Salvage-Therapie mit einem hochintensiven Regimen (z. B. ICE, ESHAP) zu erwägen, ergänzt durch eine erneute intrathecale Triple-Therapie bei zerebralem Risikoprofil.  
@@ -1450,7 +1595,7 @@
 - Bei neurologischen Symptomen (Kopfschmerzen): Kontrolle der Liquorräume durch MR-Angio oder erneute Liquorpunktion.</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The user is asking for a therapy recommendation based on the given patient information and ESMO guidelines. First, I need to parse through all the patient details carefully.
 The main diagnosis is PMLBL, which I recall stands for primary mediastinal B-cell lymphoma. It's a subtype of diffuse large B-cell lymphoma. The patient was treated with DA-EPOCH-R and intrathecal triple therapy from September 2021 to January 2022. DA-EPOCH-R is a common regimen for aggressive lymphomas, so that's in line with standard protocols.
@@ -1463,7 +1608,7 @@
 Therefore, the answer should state that the recommendation is to first confirm the diagnosis via histology and then proceed with salvage therapy. The reasoning should focus on the need for confirmed recurrence and adherence to ESMO guidelines which emphasize accurate diagnosis before treatment.</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Eine Salvage-Chemotherapie mit einem regimina wie GEMOX (Gemcitabine + Oxaliplatin) oder DICE (Doxorubicin, Ifosfamid, Cytarabine, Etoposid) in Kombination mit Rituximab, gefolgt von einer autologen Stammzelltransplantation (ASCT) bei Erwiesenem Ansprechen, wird empfohlen. Alternativ kann bei nicht-transplantationsfähigen Patienten eine Kombinationstherapie mit Rituximab und einer Targeted Therapy (z. B. BTK-Inhibitoren wie Ibrutinib oder CD30-targeted Therapie) in Betracht gezogen werden.
@@ -1475,17 +1620,13 @@
 5. **Necessary Diagnostik:** Vor Therapiebeginn ist eine definitive histologische Diagnose des Rezidivs erforderlich. Ebenfalls notwendig ist eine neurologische Abklärung der Kopfschmerzen (DD Pseudotumor cerebri) sowie eine Herzfunktionsevaluation aufgrund des ektopen Vorhofrhythmus, um Herztoxizität der Salvage-Chemotherapie zu minimieren. Eine PET/CT zur Staging und Evaluierung der Erkrankungsaktivität ist ebenfalls sinnvoll.</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has PMLBL, which is a type of B-cell lymphoma. The ESMO guidelines recommend a specific treatment approach for PMLBL. The patient previously received DA-EPOCH-R with intrathecal therapy. Now there's a biopsy of an FDG-avid lesion suggesting possible recurrence. The main challenge here is to determine the next step.
 First, I need to check if the ESMO guidelines suggest any particular regimen for relapsed PMLBL. Typically, for aggressive lymphomas, salvage chemotherapy followed by transplant might be an option. However, since PMLBL might have a different profile, maybe a specific regimen is recommended. Also, the patient had intrathecal therapy before, so CNS involvement was considered, which might influence the choice of salvage therapy. The FDG-avid lesion is suspicious for recurrence, so a biopsy result is crucial. If the biopsy confirms recurrence, then the ESMO guidelines would guide the next steps. The patient's prior treatment was DA-EPOCH-R, which is a chemoimmunotherapy regimen. For relapsed cases, options might include other chemo regimens, targeted therapies, or stem cell transplant. Since the patient has a history of pseudotumor cerebri and CNS prophylaxis was used, maybe CNS relapse is a concern, but the current lesion is in the mediastinum.
 The ESMO guidelines for DLBCL (since PMLBL is a variant) might be applicable here. For relapsed/refractory cases, options like high-dose therapy with autologous stem cell transplantation (ASCT) or allogeneic transplant could be considered. If the patient is eligible and the biopsy confirms recurrence, the next step would be a salvage regimen, possibly including rituximab again, and then consider transplant if feasible. However, the patient's age and comorbidities (like chronic headaches, possible pseudotumor cerebri) need to be considered for transplant eligibility. The ESMO guidelines emphasize individualized treatment, so if the biopsy confirms recurrence and the patient is a candidate, a salvage regimen followed by transplant would be the recommendation. If the biopsy doesn't confirm recurrence, then maybe a different approach is needed. But the current information points towards possible recurrence, so proceeding with salvage therapy as per ESMO guidelines is the logical step.</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1524,6 +1665,20 @@
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="inlineStr"/>
+      <c r="BW5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1550,6 +1705,25 @@
       <c r="D6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Aufgrund des rezidivierten oder refraktären aggressiven B-Zell-Lymphoms nach autologer Stammzelltransplantation und des Vorliegens einer Meningeosis lymphomatosa wird eine Therapie mit einer Kombination aus hochdosiertem Methotrexat (HD-MTX) als intrathekalem Medikament und einer systemischen Therapie mit Rituximab, Cyclophosphamid, Doxorubicin, Vincristin und Prednisolon (R-CHOP) empfohlen. Bei unzureichendem Ansprechen oder Progression sollte eine konsolidierende Ganzkörperbestrahlung in Erwägung gezogen werden.
+**Begründung:**
+Der Patient präsentiert ein aggressives B-Zell-Lymphom, transformiert aus einem follikulären Lymphom, im Stadium IV mit disseminierter Erkrankung, Knochenmark-, Skelett- und ZNS-Befall (Meningeosis lymphomatosa). Die vorherige Therapie mit IELSG-42 (MARIETTA) und autologer Stammzelltransplantation war nicht ausreichend erfolgreich. Gemäß den ESMO-Leitlinien für rezidivierte oder refraktäre aggressive B-Zell-Lymphome, insbesondere bei ZNS-Befall, stellt die Kombination aus HD-MTX und systemischer Therapie den Standard dar. HD-MTX ist wirksam bei der Penetration der Blut-Hirn-Schranke und der Behandlung der Meningeosis lymphomatosa. Die gleichzeitige Gabe von R-CHOP dient der systemischen Kontrolle der Erkrankung. Eine konsolidierende Ganzkörperbestrahlung kann bei unzureichendem Ansprechen oder Progression in Betracht gezogen werden, um lokale Kontrollprobleme, insbesondere im Skelettbereich, anzugehen. Die aktuelle Behandlung mit Dexamethason und Bestrahlung dient der palliativen Symptomkontrolle und kann als Brückentherapie bis zum Therapiebeginn mit HD-MTX und R-CHOP dienen.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Nach Abschluss der aktuellen Strahlentherapie und Dexamethason-Gabe sollte eine Konsolidierungstherapie mit Rituximab, Cyclophosphamid, Doxorubicin, Vincristin und Prednisolon (R-CHOP) in voller Dosis erwogen werden. Sollte der Patient diese intensive Therapie nicht vertragen, kann eine reduzierte Dosis oder ein alternativer Therapieansatz in Absprache mit dem Tumorboard diskutiert werden. Eine regelmäßige Überwachung des Therapieansprechens mittels Bildgebung und Knochenmarkbiopsie ist essentiell.
+**Begründung:**
+Der Patient präsentiert ein aggressives B-Zell-Lymphom mit Transformation aus einem follikulären Lymphom, welches trotz intensiver initialer Therapie (IELSG-42/MARIETTA, autologe Stammzelltransplantation, Strahlentherapie, Dexamethason) weiterhin eine Herausforderung darstellt. Die persistierenden disseminierten Knochenläsionen und der ZNS-Befall, insbesondere die persistierenden Lymphomzellen in der Lumbalpunktion, deuten auf eine unzureichende Kontrolle der Erkrankung hin. 
+Die ESMO-Leitlinien für aggressive B-Zell-Lymphome empfehlen für rezidivierte oder refraktäre Fälle nach Stammzelltransplantation eine Immunchemotherapie als Standardbehandlung. R-CHOP ist ein etablierter und gut untersuchter Therapieansatz, der in vielen Studien eine gute Ansprechrate gezeigt hat. Obwohl der Patient bereits eine intensive Vortherapie erhalten hat, stellt R-CHOP eine sinnvolle Option zur Konsolidierung der Therapie dar und zur Erzielung einer tieferen Remission. Der ZNS-Befall sollte weiterhin engmaschig überwacht werden, und bei Progression oder fehlendem Ansprechen sollten weitere ZNS-gerichtete Therapien (z.B. intrathekale Chemotherapie, hochdosiertes Methotrexat) erwogen werden. Die Entscheidung für eine reduzierte Dosis sollte unter Berücksichtigung des Karnofsky-Status und der Komorbiditäten des Patienten getroffen werden.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Die beste Therapieempfehlung für den Patienten 5-20240227-HoFr basierend auf der Diagnose eines aggressiven B-Zell-Lymphoms bei Transformation aus einem follikulären Lymphom (ED 08/2023) und unter Berücksichtigung der ESMO-Leitlinie ist die Kombinationstherapie R-ICE plus autologe Stammzelltransplantation.
 **Begründung:**
 Die Diagnose eines aggressiven B-Zell-Lymphoms bei Transformation aus einem follikulären Lymphom mit metastatischen Veränderungen im Skelett und im Blutgemässen System spricht für eine hochgradig maligne Erkrankung, die eine intensive und umfassende Therapie erfordert. Die ESMO-Leitlinie empfiehlt für solche Fälle die Kombinationstherapie mit R-ICE (Rituximab, Ifosfamid, Carboplatin, Etoposid) als Standardtherapie.
@@ -1558,8 +1732,8 @@
 Insgesamt ist die Kombinationstherapie R-ICE plus autologe Stammzelltransplantation die beste Therapieempfehlung für den Patienten 5-20240227-HoFr, basierend auf der Diagnose und der ESMO-Leitlinie.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Inductionstherapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) in 6 Zyklen folgt von 3 Wochen Abstand, anschließend Consolidationstherapie mit High-Dose Methotrexat und Autologes Stammzellenspenderentnahme.
@@ -1569,62 +1743,56 @@
 (2) National Comprehensive Cancer Network. (2020). NCCN Guidelines: Non-Hodgkin Lymphomas.</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird eine Konsolidationsbehandlung mit Hochdosis-Methotrexat (3–4 g/m²) und Cytarabin (1,5–2 g/m²) nach Erreichen einer suffizienten Response durch R-ICE, ergänzt durch eine autologe Stammzelltransplantation (ASCT) nach Mobilisation, sowie fortlaufende zerebrospinale Prophylaxe mit intratekaler Chemotherapie (z. B. Methotrexat/Arabinosylcytosin).  
-**Begründung:**  
-Basierend auf der ESMO-Leitlinie für zerebrale Lymphome und transformierte B-Zell-Lymphome ist bei Stadium IV mit zentralnervösem Befall (Meningeosis lymphomatosa) eine aggressive Kombinationstherapie zentraler und peripherer Erkrankungsteile erforderlich. Der aktuelle Behandlungsstand (R-ICE, Radiotherapie 36 Gy) muss durch Hochdosis-Chemotherapie mit CNS-penetranten Substanzen ergänzt werden, um die extranodale Erkrankung zu kontrollieren. Die ESMO empfiehlt hierzu Methotrexat und Cytarabin als Konsolidation, da sie das Überleben bei zerebralen Lymphomen signifikant verbessern. Die erfolgte Stammzellmobilisation (22.01.24) ermöglicht eine ASCT nach Erreichen einer klinischen Remission, die in transformierten Lymphomen die Progressionsfreie Überlebenszeit verlängert. Eine kontinuierliche intratekale Prophylaxe (z. B. 3–4 Dosen Methotrexat/Arabinosylcytosin) ist zwingend notwendig, um Rezidive im ZNS zu verhindern, da die bisherige Radiotherapie keine dauerhafte Kontrolle sicherstellt. Die ESMO betont zudem, dass bei multiplen osteolytischen Läsionen und Knochenmarkinfiltration eine systemische Hochdosis-Chemotherapie priorisiert werden muss, um die extrazerebrale Erkrankung zu erreichen. Kritisch zu beachten ist, dass die Radiotherapie eng mit neurologischen Monitoring kombiniert werden muss, um Toxizität früh zu erkennen. Die fehlende Wirbelsäulen-MRI muss nachgearbeitet werden, um die LWS-Läsion vollständig zu evaluieren.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird die Fortsetzung des bereits begonnenen IELSG-42-Protokolls (MARIETTA-Protokoll) mit R-ICE- und MATRIX-Chemotherapie, gefolgt von einer autologen Stammzelltransplantation (ASCT) bei klinischer Ansprechanzeige. Ergänzend dazu ist eine zielgerichtete ZNS-Bestrahlung (36 Gy über C2 bis hinteren 2/3 der Augen) sowie eine enge klinische und radiologische Nachsorge mit Fokus auf CNS- und Skelettmanifestationen durchzuführen. Bei fortbestehender CNS-Involution soll eine intrathekale Therapie (z. B. Methotrexat) in Betracht gezogen werden.  
-**Begründung:**  
-Laut ESMO-Leitlinien für lymphomöse Meningitis und sekundäre CNS-Bedingungen bei B-Zell-Lymphomen ist eine kombinierte systemische und lokale Therapie zwingend. Der Patient weist ein Stadium IV mit multiplen extranodalen Manifestationen (Skelett, ZNS) auf, was einen aggressiven Therapieansatz rechtfertigt. Das IELSG-42-Protokoll (R-ICE/MATRIX) wurde in ESMO-konformen Studien für solche Fälle bewährt, da es eine hohe Durchdringung des blut-Hirn-Schrankens durch Methotrexat- und Cytarabin-haltige Regime sicherstellt. Die bereits durchgeführte ZNS-Strahlung (36 Gy) und Stammzellmobilisation sind ESMO-konform und dienen der Konsolidierung. Die Prognose bleibt trotz intensiver Therapie schlecht, weshalb eine enge Nachsorge (z. B. MRI-LWS) und bei Progression intrathekale Therapieoptionen erforderlich sind. Die ESMO betont zudem, dass bei sekundärer CNS-Bedingung die systemische Therapie den zentralen Fokus haben muss, da lokale Maßnahmen allein nicht ausreichen.</t>
-        </is>
-      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie ist eine Kombination aus Chemotherapie und Bestrahlung. Aufgrund des aggressiven B-Zell-Lymphoms mit Transformation aus einem follikulären Lymphom und der disseminierten Knochenläsionen, die auf eine Meningeosis lymphomatosa hinweisen, wird ein intensives Therapieregime empfohlen.
-**Begründung:**
-Die ESMO-Leitlinie empfiehlt für den patienten einen Ansatz, der auf die Kombination von Chemotherapie und Bestrahlung basiert. Das aggressive B-Zell-Lymphom mit Transformation aus einem follikulären Lymphom ist ein aggresives Krankheitsstadium, das eine intensive Therapie benötigt.
-Die disseminierte Knochenläsionen und die Meningeosis lymphomatosa sprechen für eine vielseitige Tumormanifestation, die eine kombinierte Therapie erfordert. Die Chemotherapie sollte auf ein intensives Regime basieren, das die proliferative Aktivität des Lymphoms reduziert.
-Die Bestrahlung sollte den Kopf und Hals einschließen, um sicherzustellen, dass auch die Meningeosis lymphomatosa behandelt wird. Die Dexamethason-Therapie kann als unterstützende Maßnahme verwendet werden, um die Schwellung zu reduzieren.
-Insgesamt empfehle ich eine Kombination aus Chemotherapie und Bestrahlung, um den aggressiven B-Zell-Lymphom mit Transformation aus einem follikulären Lymphom zu behandeln.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>As an experienced oncology expert, I will carefully analyze the patient's information and consider only the ESMO guidelines for my recommendation.
-The patient has a diagnosis of aggressive B-cell lymphoma with transformation from follicular lymphoma. The patient has disseminated bone lesions and diffuse infiltration of the skull, consistent with meningeosis lymphomatosa. The patient also has a history of chemotherapy and radiation therapy.
-Based on the patient's information and the ESMO guidelines, I will consider the patient's disease stage, histology, and previous treatment response to determine the best course of action.</t>
-        </is>
-      </c>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine Konsolidationsbehandlung mit Hochdosis-Methotrexat (3–4 g/m²) und Cytarabin (1,5–2 g/m²) nach Erreichen einer suffizienten Response durch R-ICE, ergänzt durch eine autologe Stammzelltransplantation (ASCT) nach Mobilisation, sowie fortlaufende zerebrospinale Prophylaxe mit intratekaler Chemotherapie (z. B. Methotrexat/Arabinosylcytosin).  
+**Begründung:**  
+Basierend auf der ESMO-Leitlinie für zerebrale Lymphome und transformierte B-Zell-Lymphome ist bei Stadium IV mit zentralnervösem Befall (Meningeosis lymphomatosa) eine aggressive Kombinationstherapie zentraler und peripherer Erkrankungsteile erforderlich. Der aktuelle Behandlungsstand (R-ICE, Radiotherapie 36 Gy) muss durch Hochdosis-Chemotherapie mit CNS-penetranten Substanzen ergänzt werden, um die extranodale Erkrankung zu kontrollieren. Die ESMO empfiehlt hierzu Methotrexat und Cytarabin als Konsolidation, da sie das Überleben bei zerebralen Lymphomen signifikant verbessern. Die erfolgte Stammzellmobilisation (22.01.24) ermöglicht eine ASCT nach Erreichen einer klinischen Remission, die in transformierten Lymphomen die Progressionsfreie Überlebenszeit verlängert. Eine kontinuierliche intratekale Prophylaxe (z. B. 3–4 Dosen Methotrexat/Arabinosylcytosin) ist zwingend notwendig, um Rezidive im ZNS zu verhindern, da die bisherige Radiotherapie keine dauerhafte Kontrolle sicherstellt. Die ESMO betont zudem, dass bei multiplen osteolytischen Läsionen und Knochenmarkinfiltration eine systemische Hochdosis-Chemotherapie priorisiert werden muss, um die extrazerebrale Erkrankung zu erreichen. Kritisch zu beachten ist, dass die Radiotherapie eng mit neurologischen Monitoring kombiniert werden muss, um Toxizität früh zu erkennen. Die fehlende Wirbelsäulen-MRI muss nachgearbeitet werden, um die LWS-Läsion vollständig zu evaluieren.</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-The recommended therapy for this patient is a combination of chemotherapy and immunotherapy. Specifically, I suggest continuing the current R-ICE regimen (Coral) with the addition of rituximab maintenance therapy after completion of the initial treatment cycle.
-**Begründung:**
-Based on the ESMO guidelines for the treatment of relapsed or refractory follicular lymphoma, a combination of chemotherapy and immunotherapy is recommended. In this case, the patient has already received multiple cycles of chemotherapy with some response, but the disease remains aggressive and disseminated. Adding rituximab maintenance therapy after completion of the initial treatment cycle may help to further reduce the risk of relapse and improve overall survival.
-Additionally, the patient's current radiation therapy to the skull and spine should be continued as it is likely helping to control any residual tumor burden in these areas. However, the long-term effects of radiation on the patient's bone health and other organs must be carefully monitored.
-Overall, this combined approach may help to improve the patient's clinical outcome and overall survival.</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>As an experienced oncologist, I will carefully analyze the patient's information and consider only the ESMO guidelines to make a precise and justified therapy recommendation.
-The patient has a diagnosis of aggressive B-cell lymphoma with transformation from follicular lymphoma. The patient presents with disseminated bone lesions up to 12 mm in size, as well as diffuse infiltration of the skull and spine. The bone marrow biopsy shows infiltration of B cells with high proliferative activity. The flow cytometry analysis reveals a kappa-clonal aberrant B-cell population consistent with a follicular lymphoma.
-The patient has received multiple cycles of chemotherapy (R-ICE and MATRIX) with some response, but the disease remains aggressive and disseminated. The patient is currently undergoing radiation therapy to the skull and spine.
-Given the patient's advanced stage (Ann Arbor IV), I will consider the ESMO guidelines for the treatment of relapsed or refractory follicular lymphoma.</t>
-        </is>
-      </c>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird die Fortsetzung des bereits begonnenen IELSG-42-Protokolls (MARIETTA-Protokoll) mit R-ICE- und MATRIX-Chemotherapie, gefolgt von einer autologen Stammzelltransplantation (ASCT) bei klinischer Ansprechanzeige. Ergänzend dazu ist eine zielgerichtete ZNS-Bestrahlung (36 Gy über C2 bis hinteren 2/3 der Augen) sowie eine enge klinische und radiologische Nachsorge mit Fokus auf CNS- und Skelettmanifestationen durchzuführen. Bei fortbestehender CNS-Involution soll eine intrathekale Therapie (z. B. Methotrexat) in Betracht gezogen werden.  
+**Begründung:**  
+Laut ESMO-Leitlinien für lymphomöse Meningitis und sekundäre CNS-Bedingungen bei B-Zell-Lymphomen ist eine kombinierte systemische und lokale Therapie zwingend. Der Patient weist ein Stadium IV mit multiplen extranodalen Manifestationen (Skelett, ZNS) auf, was einen aggressiven Therapieansatz rechtfertigt. Das IELSG-42-Protokoll (R-ICE/MATRIX) wurde in ESMO-konformen Studien für solche Fälle bewährt, da es eine hohe Durchdringung des blut-Hirn-Schrankens durch Methotrexat- und Cytarabin-haltige Regime sicherstellt. Die bereits durchgeführte ZNS-Strahlung (36 Gy) und Stammzellmobilisation sind ESMO-konform und dienen der Konsolidierung. Die Prognose bleibt trotz intensiver Therapie schlecht, weshalb eine enge Nachsorge (z. B. MRI-LWS) und bei Progression intrathekale Therapieoptionen erforderlich sind. Die ESMO betont zudem, dass bei sekundärer CNS-Bedingung die systemische Therapie den zentralen Fokus haben muss, da lokale Maßnahmen allein nicht ausreichen.</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der aktuellen Therapie mit Dexamethason bis zum Abschluss des geplanten Schemas. Anschließend Durchführung einer MRT des Schädels und eines PET-CT zur Beurteilung des Therapieansprechens. Bei Progression oder unzureichendem Ansprechen: Evaluation für eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation oder Teilnahme an einer klinischen Studie mit neuen Wirkstoffen.
+**Begründung:**
+Der Patient leidet an einem aggressiven B-Zell-Lymphom mit Meningeosis lymphomatosa (Stadium IV). Er hat bereits eine Erstlinientherapie mit R-ICE und MATRIX Chemotherapie sowie eine autologe Stammzelltransplantation erhalten. Aktuell wird eine Strahlentherapie (36 Gy) mit begleitendem Dexamethason durchgeführt, um den ZNS-Befall zu adressieren. Die ESMO-Leitlinie empfiehlt bei aggressivem B-Zell-Lymphom in der Erstlinie eine Chemotherapie, gefolgt von autologer Stammzelltransplantation bei geeigneten Patienten. Da der Patient bereits diese Behandlung erhalten hat und eine Meningeosis vorliegt, ist die aktuelle Therapie mit Strahlentherapie und Dexamethason gerechtfertigt. Nach Abschluss der Strahlentherapie ist eine erneute Bildgebung notwendig, um das Ansprechen zu beurteilen. Sollte das Lymphom weiterhin progredient sein oder nicht ausreichend ansprechen, sind weitere Therapieoptionen, wie eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation oder die Teilnahme an einer klinischen Studie, zu erwägen.</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem transformierten follikulären Lymphom, das als Meningeosis lymphomatosa vorliegt (ED 08/2023) und bereits eine disseminierte Manifestation mit Osteolysen und Knochenmarkbefall zeigt (Ann Arbor Stadium IV). Er hat bereits mehrere Zyklen Chemotherapie (R-ICE und MATRIX) gemäß dem IELSG-42 (MARIETTA)-Protokoll erhalten, gefolgt von autologer Stammzelltransplantation (Apherese durchgeführt). Aktuell erhält er eine Strahlentherapie (36 Gy) und Dexamethason.
+Die Leitlinie der ESMO für aggressive B-Zell-Lymphome (einschließlich transformierter Lymphome) empfiehlt in der Erstlinie eine Chemotherapie, gefolgt von einer Konsolidierung mit autologer Stammzelltransplantation bei geeigneten Patienten. Da der Patient bereits diese Behandlung erhalten hat und eine Meningeosis lymphomatosa vorliegt, ist eine weitere Systemtherapie indiziert. Die Leitlinie betont die Bedeutung der ZNS-Prophylaxe oder -Therapie bei ZNS-Befall. Die aktuelle Therapie mit Strahlentherapie und Dexamethason zielt auf den ZNS-Befall ab.
+Nach Abschluss der aktuellen Strahlentherapie und unter Berücksichtigung des Ansprechens auf die bisherige Therapie, sollte eine erneute Bildgebung (z.B. MRT Schädel und PET-CT) erfolgen, um das Therapieansprechen zu beurteilen. Sollte das Lymphom weiterhin progredient sein oder ein unzureichendes Ansprechen zeigen, sind weitere Therapieoptionen zu erwägen, wie z.B. eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation (falls noch nicht durchgeführt oder bei erneutem Rezidiv) oder die Teilnahme an einer klinischen Studie mit neuen Wirkstoffen (z.B. CAR-T-Zellen, Bispezifische Antikörper).</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Evaluierung der Option einer CAR-T-Zelltherapie oder Teilnahme an einer klinischen Studie mit neuartigen Therapien für transformierte Lymphome, insbesondere solche, die auf ZNS-Befall abzielen. Falls diese Optionen nicht zugänglich sind oder nicht in Frage kommen, sollte eine palliative Therapie mit dem Ziel der Symptomkontrolle und Verbesserung der Lebensqualität in Betracht gezogen werden. Eine fortlaufende ZNS-gerichtete Therapie (z.B. intrathekale Chemotherapie oder hochdosiertes Methyprednisolon) sollte fortgesetzt werden.
+**Begründung:**
+Der Patient leidet an einem transformierten follikulären Lymphom mit Meningeosis lymphomatosa und disseminierten Osteolysen (Stadium IV). Er hat bereits eine intensive Chemotherapie (R-ICE, MATRIX) und eine autologe Stammzelltransplantation (ASZT) erhalten, gefolgt von Strahlentherapie und Dexamethason. Die Strahlentherapie adressiert den ZNS-Befall, jedoch ist eine langfristige Kontrolle oft nicht gegeben. Die ESMO-Leitlinien für transformierte Lymphome empfehlen nach Versagen der initialen Therapie und ASZT die Evaluierung von CAR-T-Zelltherapien oder die Teilnahme an klinischen Studien. Da der Befund des MRI LWS noch aussteht, kann eine vollständige Beurteilung noch nicht erfolgen. Bis zum Vorliegen dieses Befundes und der Entscheidung über eine weiterführende Therapie sollte die aktuelle ZNS-gerichtete Therapie fortgesetzt werden.</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem transformierten follikulären Lymphom, das in eine aggressive B-Zell-Lymphom-Form übergegangen ist und bereits eine Meningeosis lymphomatosa sowie disseminierte Osteolysen aufweist (Ann Arbor Stadium IV). Er hat bereits mehrere Zyklen Chemotherapie (R-ICE, MATRIX) erhalten, gefolgt von Stammzelltransplantation und aktuell Strahlentherapie mit Dexamethason. Die Lumbalpunktion bestätigt den ZNS-Befall.
+Die ESMO-Leitlinien für transformierte Lymphome betonen die Bedeutung einer intensiven systemischen Therapie, idealerweise mit nachfolgender autologer Stammzelltransplantation (ASZT), besonders bei hohem Tumorvolumen und ungünstigen Prognosefaktoren. Der Patient hat bereits eine ASZT erhalten. Nach progressiver Erkrankung oder Rezidiv unter Chemotherapie, wie hier wahrscheinlich der Fall (da Strahlentherapie eingesetzt wird), sind Optionen wie CAR-T-Zelltherapie oder klinische Studien zu evaluieren. Angesichts des ZNS-Befalls ist eine adäquate ZNS-Prophylaxe bzw. Therapie essentiell. Die aktuelle Therapie mit Strahlentherapie und Dexamethason adressiert den ZNS-Befall, jedoch ist dies oft nicht ausreichend für eine langfristige Kontrolle.
+Da der Befund des MRI LWS noch aussteht, kann eine abschließende Beurteilung noch nicht erfolgen.</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Empfehlung: Nach Abschluss der aktuellen Bestrahlung (18 x 2 Gy) und Dexamethason-Gabe den geplanten autologen Stammzell-Transplant (ASCT) durchführen, flankiert von hochdosierter systemischer Chemotherapie (z. B. R-ICE) gemäß Leitlinie ESMO für aggressive B-Zell-Lymphome mit ZNS-Befall.
@@ -1636,7 +1804,7 @@
 5. **Unzureichende diagnostische Daten**: Die finale MRI-LWS (26.02.24) ist noch ausstehend, könnte aber die Ausdehnung des Skelettbefalls präzisieren. Eine Wiederholung der PET-CT nach Bestrahlung/ASCT wäre notwendig, um die therapeutische Antwort zu evaluieren. ESMO-Leitlinien fordern jedoch keine weiteren diagnostischen Schritte vor ASCT bei bestätigtem ZNS-Befall und aktiver systemischer Erkrankung.</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has lymphomatous meningitis from an aggressive B-cell lymphoma that transformed from follicular lymphoma. The key here is the CNS involvement, confirmed by lumbar puncture showing CD5-negative, CD10-positive B-cell lymphoma. The ESMO guidelines for aggressive B-cell lymphoma with CNS involvement would likely recommend a combination of systemic therapy and local CNS treatment. 
 Looking at the treatments already given: R-ICE cycles (similar to IELSG-42), MATRIX, stem cell mobilization, apheresis, and then radiation to the brain and spinal cord. The current treatment is radiation up to C2 and posterior 2/3 of the eyes, plus dexamethasone. The radiation dose is 36 Gy, which is standard for prophylaxis in high-risk cases, but here it's therapeutic due to active CNS disease.
@@ -1647,7 +1815,7 @@
 Therefore, the next step would be to complete the radiation and then proceed with autologous stem cell transplantation as consolidation. ESMO guidelines likely support ASCT after achieving remission in transformed lymphomas. The current regimen is in line with that, so the recommendation would be to continue with the planned ASCT after completing the radiation and dexamethasone.</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Fortsetzung der aktuellen Therapie mit Dexamethason und Bestrahlung (36 Gy) sowie anschließende Maintenance-Therapie mit Rituximab, ergänzt durch intrathekale Chemotherapie (z. B. Methotrexat oder Cytarabin) zur Prophylaxe einer ZNS-Rezidivierung.  
@@ -1665,15 +1833,11 @@
 Die Kombination aus Bestrahlung, Maintenance-Rituximab und intrathekaler Chemotherapie adressiert systemisch und zentralnervös gleichzeitig die Erkrankung, was der ESMO-Leitlinie entspricht. Die bisherige Therapie (R-ICE, MATRIX, ASCT) wurde erfolgreich durchgeführt, sodass der Fokus auf Konkolidierung und Rezidivprophylaxe liegt. Weitere diagnostische Schritte (z. B. PET-CT nach Bestrahlung) sind zur Beurteilung der Therapieresponse sinnvoll.</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>Okay, let's see. The patient has a lymphomatous meningitis from an aggressive B-cell lymphoma that transformed from follicular lymphoma. They've already undergone several cycles of R-ICE and MATRIX chemotherapy, followed by stem cell mobilization and apheresis. Now they're receiving radiation (36 Gy) and dexamethasone. The ESMO guidelines probably recommend high-dose therapy with autologous stem cell transplantation (ASCT) for aggressive lymphomas, especially with CNS involvement. But wait, the patient already had ASCT. What's next? Maybe consolidation with radiation, which they are doing. But given the CNS involvement, could they need intrathecal chemotherapy or maybe a different approach? The current treatment includes dexamethasone, which is part of standard protocols. However, ESMO might suggest adding intrathecal methotrexate or cytarabine for CNS prophylaxis. Also, the patient is in Ann Arbor stage IV, which indicates advanced disease. The prognosis might be poor, so maybe consider clinical trials or maintenance therapy. The patient's response to prior chemotherapy is unclear, but they have completed several cycles. The next step after radiation might be maintenance therapy with rituximab. Wait, but the patient has already had R-ICE, which is part of the MARIETTA protocol. I need to check if ESMO recommends consolidation with ASCT followed by maintenance. However, the patient has already had ASCT. Maybe they need to proceed with maintenance rituximab. Alternatively, if the disease is aggressive, maybe consider a different regimen. But the current treatment plan seems to include dexamethasone and radiation. The ESMO guidelines might suggest that for primary CNS lymphoma, high-dose methotrexate-based regimens are standard. However, this is secondary CNS involvement from follicular lymphoma. So, the main focus is systemic therapy with CNS-directed treatment. Since they've completed chemotherapy and ASCT, the next step would be maintenance therapy with rituximab and possible intrathecal therapy. The patient is currently undergoing radiation, which is appropriate for CNS involvement. After radiation, maintenance rituximab could be given to prevent relapse. The ESMO guidelines might support this approach. So the recommended therapy would be continuation of dexamethasone, completion of radiation, and initiation of maintenance rituximab therapy. Also, monitoring for CNS relapse and systemic recurrence is important. I need to make sure that the recommendation aligns with the ESMO guidelines for transformed follicular lymphoma with CNS involvement. Since the patient has already had aggressive treatment, the next step is likely maintenance with rituximab and possible intrathecal chemo to prevent CNS relapse.</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1712,6 +1876,20 @@
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" t="inlineStr"/>
+      <c r="BL6" t="inlineStr"/>
+      <c r="BM6" t="inlineStr"/>
+      <c r="BN6" t="inlineStr"/>
+      <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="inlineStr"/>
+      <c r="BW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1738,6 +1916,24 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Biopsie des solitären Befundes am Oberschenkel zur histologischen Abklärung. Abhängig vom Ergebnis: Bei Rezidiv des DLBCL: PET-CT zur vollständigen Restagierung und anschließende Behandlung nach ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL, unter Berücksichtigung des Performance Status und der Komorbiditäten. Bei Ausschluss DLBCL: Weiterführende Diagnostik und Therapie entsprechend der histologischen Diagnose (z.B. Neurinom).
+**Begründung:**
+Der Patient präsentiert einen solitären Befund am Oberschenkel, dessen Natur unklar ist. Da eine Rezidivierung des DLBCL nicht ausgeschlossen werden kann, ist eine histologische Abklärung mittels Biopsie zwingend erforderlich. Die ESMO-Leitlinie für DLBCL betont die Bedeutung einer genauen Diagnose und Stadieneinteilung bei Rezidiven oder refraktären Fällen. Erst nach histologischer Bestätigung eines DLBCL-Rezidivs kann eine adäquate Therapie gemäß der ESMO-Leitlinie (z.B. R-CHOP, R-bendamustin, oder andere regimens abhängig von dem IPI und dem ECOG Performance Status) eingeleitet werden. Sollte die Biopsie jedoch eine andere Diagnose ergeben, ist eine weiterführende Diagnostik und Therapie entsprechend der neuen histologischen Diagnose erforderlich. Die vorliegenden Informationen reichen nicht aus, um eine definitive Therapieempfehlung zu geben, da die Natur des aktuellen Befundes unklar ist.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Bildgebungskontrolle mittels MRT des Oberschenkels mit Fokus auf Unterscheidung zwischen Neurinom und Lymphomrezidiv. Bei weiterhin unklarem Befund Biopsie des Oberschenkelbefundes zur histologischen Abklärung. Sollte sich ein Lymphomrezidiv bestätigen, ist eine erneute R-CHOP-Therapie indiziert.
+**Begründung:**
+Der Patient präsentiert sich mit einem solitären Befund im Oberschenkel, der differenzialdiagnostisch ein Neurinom darstellt. Angesichts der Vorgeschichte eines DLBCL im Stadium IVE und der extranodalen Beteiligung, ist ein Rezidiv trotz der durchgeführten Therapie nicht auszuschließen. Die ESMO-Leitlinien für DLBCL empfehlen bei Rezidiven oder Progression eine erneute Chemotherapie, typischerweise R-CHOP. Jedoch ist vor Therapiebeginn eine histologische Bestätigung des Rezidivs essentiell, um eine unnötige Chemotherapie bei einem benignen Befund zu vermeiden. Ein MRT kann helfen, die Natur des Befundes besser zu charakterisieren, jedoch ist eine Biopsie zur definitiven Diagnose unerlässlich. Die erneute R-CHOP-Therapie basiert auf den ESMO-Empfehlungen für rezidiviertes DLBCL und stellt eine Standardbehandlung dar.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Combination chemotherapy with rituximab, cyclophosphamide, doxorubicin and prednisone (R-CHOP) followed by involved field radiation therapy to the affected area.
 **Begründung:**
 Die Diagnose eines diffusen großen B-Zell-Lymphoms (DLBCL), Stadium IVE, erfordert eine intensivere und kombinierte Chemotherapie. Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL in Stadium IVE eine Kombinationstherapie, bestehend aus Rituximab (R) und CHOP (cyclophosphamide, doxorubicin and prednisone). Dieser Ansatz hat sich als wirksam und sicher erwiesen.
@@ -1746,8 +1942,8 @@
 Insgesamt bietet eine Kombinationstherapie mit R-CHOP und IFRT die beste Möglichkeit, den Patienten 6-20240227-LeGi effektiv zu behandeln und seine Prognose zu verbessern.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-Therapie (Cyclophosphamid, Dozil, Vincristin, Prednison, Rituximab) für 6 Cycles, gefolgt von Maintenance-Therapie mit Rituximab und Cyclophosphamid.
@@ -1759,58 +1955,56 @@
 Insgesamt bietet die R-CHOP-Therapie die beste Möglichkeit, den Patienten mit seinem DLBCL-Stadium IVE effektiv zu behandeln und seine Prognose zu verbessern.</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfehlenswert ist eine **Biopsie der aktuellen rechten Oberschenkelläsion** zur klaren histologischen Abklärung der Differenzialdiagnose (Lymphomrezidiv vs. Neurinom) sowie eine **multidisziplinäre Besprechung** (Onkologie, Radiologie, Neurologie) unter Einbeziehung der PET/CT-Daten. Bei histologisch bestätigtem Lymphomrezidiv sollte eine **salvage-Therapie gemäß ESMO-Leitlinien** (z. B. R-EPOCH oder alternativ R-GemOx) in Betracht gezogen werden, unter Berücksichtigung der prognostischen Risikofaktoren (hochgradige Proliferation, frühere PR) und komorbiditatsspezifischer Risiken.
-**Begründung:**  
-Die aktuelle Läsion im rechten Oberschenkel ist klinisch und radiologisch unklar differenziert (Neurinom vs. Lymphomrezidiv). Laut ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei Verdacht auf Rezidiv eine **histologische Bestätigung** der Läsion obligat, da die Therapieentscheidung (salvage vs. lokale Therapie) hiervon abhängt. Die frühere partielle Remission nach R-CHOP und die hochgradige Proliferation (MIB-1 90%) deuten auf ein aggressives Tumorverhalten hin, was bei Rezidiv eine intensivere Salvage-Therapie (z. B. R-EPOCH) rechtfertigt. Ebenso ist die **Kooperation mit Radiologie und Neurologie** entscheidend, um radiologische und klinische Parameter (PET-Aufnahme, Schmerz) korrekt zu interpretieren. Die Vorerkrankungen (Prostatabefund, orthopädische Komorbiditäten) müssen bei der Therapieplanung berücksichtigt werden, um das Risikoprofil zu optimieren. Ohne histologische Sicherheit wäre eine sofortige systemische Therapie nicht leitlinigensgerecht.</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird eine **histologische Sicherung der aktuellen Oberschenkel-Lesion (Biopsie)**, um ein Lymphomrezidiv oder eine andere Pathologie (z. B. Neurinom) abzugrenzen. In Abhängigkeit der Ergebnisse ist eine individuelle Therapieentscheidung nach ESMO-Leitlinien erforderlich.  
-**Begründung:**  
-Der aktuelle unklare Befund im rechten medialen Oberschenkel erfordert eine definitive histologische Abklärung gemäß ESMO-Leitlinien, um eine Differenzialdiagnose (z. B. Neurinom vs. Lymphomrezidiv) zu ermöglichen. Ein Hochrisiko-DLBCL (IPI 3, Stadium IVE) mit Extranodalbeteiligung und persistierender metabolischer Aktivität nach R-CHOP-Therapie (PR) unterstreicht die Dringlichkeit einer präzisen Diagnosestellung. ESMO empfiehlt bei Verdacht auf Rezidiv eine Gewebeanalyse und gegebenenfalls eine PET-CT-basierte Staging-Revision. Erst nach Bestätigung eines Rezidivs könnten gemäß Leitlinien Optionen wie rezidivspezifische Chemotherapien (z. B. R-ICE/R-DHAP) oder, bei guter Kondition, eine Hochdosen-Therapie mit autologer Stammzelltransplantation in Betracht gezogen werden. Die aktuelle klinische Situation rechtfertigt keine systemische Therapie ohne histologische Sicherung.</t>
-        </is>
-      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Ich empfehle eine erneute Chemotherapie, insbesondere ein kombiniertes Regime aus Doxorubicin, Cyclophosphamid und Vincristin (R-CHOP), um die bestmögliche Remission zu erreichen. Eine MRI-Serie könnte vor der Chemotherapie durchgeführt werden, um den Tumorstatus im medialen Oberschenkel rechts genauer zu überprüfen.
-**Begründung:**
-Die ESMO-Leitlinie empfiehlt für patienten mit DLBCL Stadium IVE eine individuelle Therapieplanung basierend auf dem Geschick und den Labordaten. Da der Patient nicht vollständig remittiert hat, ist ein erneuter Versuch einer Chemotherapie sinnvoll. Eine kombinierte Chemotherapie (R-CHOP) kann die bestmögliche Remission erreichen. Die MRI-Serie vor der Chemotherapie könnte helfen, den Tumorstatus im medialen Oberschenkel rechts genauer zu überprüfen und eine mögliche Metastase auszuschließen.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Der Patient leidet an einem Diffusen großen B-Zell-Lymphom (DLBCL) Stadium IVE mit extranodaler Beteiligung von Knochen und Muskeln. Er hat bereits eine Chemotherapie (Mabthera und CHOP) erhalten und eine partielle Remission erzielt. Derzeit zeigt sich ein Solitärer Tumor im medialen Oberschenkel rechts, der als Neurinom oder Lymphom interpretiert werden kann.
-Die ESMO-Leitlinie empfiehlt für patienten mit DLBCL Stadium IVE eine individuelle Therapieplanung basierend auf dem Geschick und den Labordaten. Eine erneute Chemotherapie könnte sinnvoll sein, insbesondere wenn der Patient nicht vollständig remittiert hat.
-Die PET-CT-Serie zeigt jedoch auch einen unklaren Prostatabefund im PET/CT vom 29.04.2015, was eine weitere Überprüfung benötigt.</t>
-        </is>
-      </c>
+          <t>**Therapieempfehlung:**  
+Empfehlenswert ist eine **Biopsie der aktuellen rechten Oberschenkelläsion** zur klaren histologischen Abklärung der Differenzialdiagnose (Lymphomrezidiv vs. Neurinom) sowie eine **multidisziplinäre Besprechung** (Onkologie, Radiologie, Neurologie) unter Einbeziehung der PET/CT-Daten. Bei histologisch bestätigtem Lymphomrezidiv sollte eine **salvage-Therapie gemäß ESMO-Leitlinien** (z. B. R-EPOCH oder alternativ R-GemOx) in Betracht gezogen werden, unter Berücksichtigung der prognostischen Risikofaktoren (hochgradige Proliferation, frühere PR) und komorbiditatsspezifischer Risiken.
+**Begründung:**  
+Die aktuelle Läsion im rechten Oberschenkel ist klinisch und radiologisch unklar differenziert (Neurinom vs. Lymphomrezidiv). Laut ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei Verdacht auf Rezidiv eine **histologische Bestätigung** der Läsion obligat, da die Therapieentscheidung (salvage vs. lokale Therapie) hiervon abhängt. Die frühere partielle Remission nach R-CHOP und die hochgradige Proliferation (MIB-1 90%) deuten auf ein aggressives Tumorverhalten hin, was bei Rezidiv eine intensivere Salvage-Therapie (z. B. R-EPOCH) rechtfertigt. Ebenso ist die **Kooperation mit Radiologie und Neurologie** entscheidend, um radiologische und klinische Parameter (PET-Aufnahme, Schmerz) korrekt zu interpretieren. Die Vorerkrankungen (Prostatabefund, orthopädische Komorbiditäten) müssen bei der Therapieplanung berücksichtigt werden, um das Risikoprofil zu optimieren. Ohne histologische Sicherheit wäre eine sofortige systemische Therapie nicht leitlinigensgerecht.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Ich empfehle eine Rezidualbehandlung des DLBCL nach der Partial Response auf die initialen Chemotherapie und Radiotherapie. Ein neues Chemotherapieregime, wie z.B. R-CHOP oder Brentuximab Vedotin, sollte in Erwägung gezogen werden, um eine weitere Reduktion des Tumorbefalls zu erreichen.
-**Begründung:**
-Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL-Stadium IV eine Rezidualbehandlung nach einer Partial Response auf die initialen Chemotherapie und Radiotherapie. Die Wahl eines neuen Chemotherapieregimes sollte auf der Basis von Daten zu Tumorprognose, Patientenalter und Allgemeinzustand getroffen werden.
-In diesem Fall ist es wichtig, dass wir die aktuellen Symptome des Patienten, insbesondere die suspected neurinoma in der rechten Oberschenkel, unter Kontrolle bringen. Eine neue Chemotherapie könnte dazu beitragen, den Tumor zu reduzieren und die Prognose zu verbessern.
-Es ist jedoch wichtig zu beachten, dass weitere diagnostische Schritte erforderlich sein könnten, um die Diagnose der neurinoma zu bestätigen und die beste Behandlungsmethode auszuwählen.</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>The patient has a diagnosis of diffuse large B-cell lymphoma (DLBCL) with extranodal involvement of bones and muscles, stage IVE according to the Ann Arbor staging system. The patient had a partial response to initial chemotherapy with Mabthera and CHOP, followed by consolidation with DepoCyte and radiotherapy to the right humerus.
-The patient's current symptoms include a solitary lesion in the medial aspect of the right thigh, which is suspected to be a neurinoma based on imaging studies. The patient has had a previous episode of this symptom in 2018.
-Given these findings, my primary concern is determining the best course of action for the patient's current symptoms and potential relapse of DLBCL. I will focus on the ESMO guidelines for management of DLBCL, specifically considering the patient's stage IV disease and recent history of partial response to chemotherapy.</t>
-        </is>
-      </c>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine **histologische Sicherung der aktuellen Oberschenkel-Lesion (Biopsie)**, um ein Lymphomrezidiv oder eine andere Pathologie (z. B. Neurinom) abzugrenzen. In Abhängigkeit der Ergebnisse ist eine individuelle Therapieentscheidung nach ESMO-Leitlinien erforderlich.  
+**Begründung:**  
+Der aktuelle unklare Befund im rechten medialen Oberschenkel erfordert eine definitive histologische Abklärung gemäß ESMO-Leitlinien, um eine Differenzialdiagnose (z. B. Neurinom vs. Lymphomrezidiv) zu ermöglichen. Ein Hochrisiko-DLBCL (IPI 3, Stadium IVE) mit Extranodalbeteiligung und persistierender metabolischer Aktivität nach R-CHOP-Therapie (PR) unterstreicht die Dringlichkeit einer präzisen Diagnosestellung. ESMO empfiehlt bei Verdacht auf Rezidiv eine Gewebeanalyse und gegebenenfalls eine PET-CT-basierte Staging-Revision. Erst nach Bestätigung eines Rezidivs könnten gemäß Leitlinien Optionen wie rezidivspezifische Chemotherapien (z. B. R-ICE/R-DHAP) oder, bei guter Kondition, eine Hochdosen-Therapie mit autologer Stammzelltransplantation in Betracht gezogen werden. Die aktuelle klinische Situation rechtfertigt keine systemische Therapie ohne histologische Sicherung.</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer Bildgesteuerten Biopsie des solitären Befundes im medialen Oberschenkel rechts zur histologischen Klärung. Sollte die Biopsie ein DLBCL bestätigen, ist eine erneute Stadieneinteilung mittels PET/CT und Knochenmarkbiopsie erforderlich, um die Eignung für eine hochdosierte Chemotherapie mit nachfolgender autologer Stammzelltransplantation (ASZT) zu beurteilen.
+**Begründung:**
+Die Patientenanamnese zeigt ein rezidiviertes DLBCL, das auf eine Erstlinienbehandlung mit Mabthera und CHOP angesprochen hat, aber nun einen solitären Befund aufweist. Die ESMO-Leitlinien empfehlen bei rezidivierten DLBCL eine erneute Stadieneinteilung und die Berücksichtigung der Krankheitsfreiheit und des Ansprechens auf die Erstlinienbehandlung. Da der Patient bereits mehrere Therapielinien erhalten hat, ist eine erneute Biopsie des aktuellen Befundes unerlässlich, um die Diagnose zu bestätigen oder auszuschließen. Sollte die Biopsie ein DLBCL bestätigen, stellt die ASZT eine potenziell kurative Therapieoption dar, insbesondere bei Patienten mit gutem Allgemeinzustand und ausreichendem Response auf die vorherige Behandlung. Die ESMO-Leitlinien unterstützen die ASZT als Standardtherapie für geeignete Patienten mit rezidiviertem DLBCL.</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem rezidivierten diffusen großzelligen B-Zell-Lymphom (DLBCL) Stadium IVE, das ursprünglich 2015 mit Mabthera und CHOP behandelt wurde, gefolgt von Radiotherapie und anschließender Mabthera-Monotherapie. Trotz dieser Behandlung zeigt das aktuelle PET-CT einen solitären Befund im medialen Oberschenkel rechts, der differenzialdiagnostisch ein Neurinom darstellt, aber aufgrund der Vorgeschichte des DLBCL weiterhin eine Lymphombeteiligung in Betracht ziehen lässt. Die Biopsie aus 2015 zeigte ein aggressives Lymphomprofil (hoher MIB-1 Proliferationsindex, positive Bcl-2 und Bcl-6 Expression), was auf ein potenziell rezidivierendes oder refraktäres DLBCL hindeutet.
+Die ESMO-Leitlinien für DLBCL empfehlen bei rezidivierten/refraktären Fällen eine erneute Beurteilung des Risikoprofils und die Auswahl der Therapie basierend auf dem Response auf die Erstlinienbehandlung, der Krankheitsfreiheit und dem allgemeinen Gesundheitszustand des Patienten. Da der Patient bereits mehrere Therapielinien erhalten hat, kommen nun komplexere Strategien in Frage.
+Angesichts der unklaren Natur des aktuellen Befundes im Oberschenkel ist eine erneute Biopsie essentiell, um eine Lymphombeteiligung auszuschließen oder zu bestätigen. Sollte die Biopsie ein DLBCL bestätigen, ist eine Therapieindikation gegeben. Da der Patient bereits eine CHOP-basierte Therapie erhalten hat, sollte eine alternative Strategie in Betracht gezogen werden. Angesichts der Vorgeschichte und der ESMO-Empfehlungen ist eine Autologe Stammzelltransplantation (ASZT) eine Option, sofern der Patient dafür geeignet ist. Alternativ können Kombinationen mit neuen Wirkstoffen wie Polatuzumab Vedotin oder Tafasitamab in Betracht gezogen werden.
+Da der Befund im Oberschenkel differenzialdiagnostisch auch ein Neurinom sein kann, ist eine klare Diagnose vor der Therapieentscheidung unerlässlich.</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Erneute Biopsie des aktuellen Befundes im medialen Oberschenkel rechts zur histologischen Klärung und zum Ausschluss eines Lymphoms.
+**Begründung:**
+Der Patient präsentiert sich mit einem rezidivierten DLBCL (Stadium IVE) nach initialer Therapie mit Mabthera und CHOP, gefolgt von Radiotherapie und Mabthera-Monotherapie. Aktuell besteht ein solitärer Befund im medialen Oberschenkel, der differenzialdiagnostisch ein Neurinom darstellt. Die ESMO-Leitlinien betonen die Notwendigkeit einer präzisen Diagnose bei rezidivierten oder refraktären Lymphomen. Da die aktuelle Läsion als Neurinom diskutiert wird, ist eine erneute Biopsie essenziell, um eine definitive Diagnose zu stellen und die geeignete Therapie (z.B. operative Entfernung bei Neurinom oder erneute Lymphomtherapie) einzuleiten. Ohne histologische Bestätigung ist eine gezielte Therapie nicht möglich. Die Biopsie sollte auch das Lymphomprofil (CD20, Pax-5, MUM1, bcl-2, bcl-6) erneut beurteilen, um eine mögliche Transformation oder Resistenzentwicklung zu erkennen.</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem rezidivierten diffusen großzelligen B-Zell-Lymphom (DLBCL) Stadium IVE, das initial mit Mabthera und CHOP behandelt wurde. Trotz initialem Ansprechen (PR) und nachfolgender Radiotherapie sowie Mabthera-Monotherapie persistiert eine Anreicherung im Humerus. Aktuell besteht ein solitäres Befund medialer Oberschenkel rechts, der differenzialdiagnostisch ein Neurinom darstellt. Die Biopsie zeigte ein positives CD20, Pax-5, MUM1, bcl-2, bcl-6 Profil und negatives CD10, CD30, Cyclin-D1, EBER, CD5, MIB-1.
+Die ESMO-Leitlinien für rezidiviertes oder refraktäres DLBCL sehen verschiedene Optionen vor, abhängig vom Ansprechen auf die initiale Therapie, dem Remissionsstatus, dem Performance Status und der Möglichkeit einer Stammzelltransplantation. Da der Patient bereits eine initiale Therapie erhalten hat und nun einen isolierten Befund aufweist, ist eine erneute Biopsie des aktuellen Befundes essenziell, um die Diagnose zu bestätigen oder auszuschließen, dass es sich um eine Lymphomtransformation handelt. Falls es sich um Lymphom handelt, und der Patient für eine hochdosierte Chemotherapie mit Stammzelltransplantation geeignet ist, wäre dies die bevorzugte Option. Andernfalls sind Optionen wie CAR-T-Zelltherapie, andere Chemotherapie-Regime oder klinische Studien zu berücksichtigen. Da der Befund aktuell als Neurinom diskutiert wird, ist eine erneute Bildgebung und ggf. eine Biopsie des aktuellen Befundes dringend erforderlich, um die korrekte Diagnose zu stellen und eine geeignete Therapie einzuleiten.</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Biopsie der solitären Läsion im medialen rechten Oberschenkel zur histologischen Klärung der Diagnose. Bei Nachweis einer lymphomassoziierten Rezidiv-/Progressionslage: Salvage-Chemotherapie (z. B. R-EPOCH) mit anschließender Autotransplantation im Ermessen der Patientenfitness. Bei histologischer Bestätigung eines Neurinoms: Chirurgische Exzision unter Beurteilung durch Orthopäden/Neurochirurgen.  
@@ -1826,7 +2020,7 @@
 - Bei Neurinom: MRT für präoperative Planung, evtl. Nervenstimulationstests</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has a history of DLBCL Stage IVE from 2015. They received R-CHOP with some PR and radiotherapy. Now, there's a new PET/CT showing a solitary lesion in the right medial thigh, possibly a schwannoma, and it's very painful. Also, there's a secondary prostate finding in the 2015 PET.
 First, the current issue is the new lesion. Since DLBCL was previously treated, we need to determine if this new lesion is a recurrence or something else. The ESMO guidelines for DLBCL would emphasize staging and determining the nature of the lesion. The patient's history includes a prior PR, so if there's a recurrence, treatment options would depend on the stage and prior therapies. However, the new lesion is described as suggesting a schwannoma, which is a benign nerve sheath tumor. But given the history of lymphoma, it's crucial to rule out a relapse or a second primary lymphoma.
@@ -1835,7 +2029,7 @@
 Additionally, the prostate finding from 2015 is mentioned but not evaluated. The patient might need further imaging or a biopsy for that as well, but it's a secondary issue. The main focus is the thigh lesion. The patient's prior treatment included R-CHOP and radiotherapy, so any new lesion post-treatment should be evaluated for recurrence. The ESMO guidelines would support a multidisciplinary approach here, involving oncologists, radiologists, and pathologists to confirm the diagnosis and plan treatment.</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Empfehlung einer **histologischen Abklärung des solitären Befundes im medialen Oberschenkel rechts** durch Biopsie oder intraoperativen Schnitt mit anschließender Immunhistochemie (z. B. CD20, Ki-67, CD10, bcl-2, bcl-6).  
@@ -1845,7 +2039,7 @@
 Zusätzlich ist der Prostatabefund im PET/CT von 2015 als sekundäre Diagnose hervorzuheben, jedoch liegen keine aktuellen Daten zu seiner Aktualität vor. Solange keine histologische Gewissheit besteht, kann keine definitive Therapie empfohlen werden. Die aktuellen Informationen reichen nicht aus, um ein Rezidiv oder eine neue maligne Erkrankung mit Sicherheit zu diagnostizieren.</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has a history of diffuse large B-cell lymphoma (DLBCL) stage IVE, treated with R-CHOP and radiotherapy. Now, there's a new solitary lesion in the right thigh, possibly a schwannoma, which is very painful. The previous PET/CT showed a moderate uptake, and the MRI suggests necrosis in the humerus area, but that seems to be under control post-surgery.
 First, the main question is whether the new lesion is a recurrence of DLBCL or another benign tumor like a schwannoma. The ESMO guidelines for DLBCL would likely recommend a biopsy to confirm the diagnosis. Since the patient had a PR after initial treatment, but there's a new lesion with PET uptake, we can't rule out relapse. However, the description suggests it's possibly a neurinoma, which is benign. But without a biopsy, it's hard to be certain. 
@@ -1854,10 +2048,6 @@
 So, the key here is confirming the nature of the new lesion. The ESMO guidelines would stress the need for histological confirmation before proceeding with further treatment. Therefore, the recommended step is a biopsy to determine if it's lymphoma or a benign tumor. Based on the biopsy results, the treatment plan can be tailored accordingly.</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -1896,6 +2086,20 @@
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
+      <c r="BJ7" t="inlineStr"/>
+      <c r="BK7" t="inlineStr"/>
+      <c r="BL7" t="inlineStr"/>
+      <c r="BM7" t="inlineStr"/>
+      <c r="BN7" t="inlineStr"/>
+      <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="inlineStr"/>
+      <c r="BW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1922,6 +2126,24 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+R-CHOP-basierte Immunchemotherapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon) für sechs Zyklen, gefolgt von einer Beurteilung der Therapieantwort. Bei unvollständigem Ansprechen oder Rezidiv sollte eine PET/CT-Untersuchung erfolgen, um das weitere Vorgehen zu bestimmen. Eine konsolidierende Strahlentherapie sollte bei persistierenden extranodalen Manifestationen nach Abschluss der Immunchemotherapie erwogen werden, insbesondere im Bereich der Thoraxwand und der Niere.
+**Begründung:**
+Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL), Non-GCB-Typ, Stadium IV mit extranodalen Manifestationen und neurospinaler Infiltration. Gemäß der ESMO-Leitlinie für DLBCL stellt eine R-CHOP-basierte Immunchemotherapie den Standard der Erstlinienbehandlung für Patienten mit DLBCL dar, unabhängig vom IPI-Score. Die neuroforaminale/intraspinale Infiltration erfordert eine besondere Beachtung, da sie das Ansprechen auf die Therapie beeinflussen kann. Die ESMO-Leitlinie empfiehlt bei neurospinaler Infiltration eine intensive Therapie, die eine hochdosierte Methotrexen-basierte Therapie oder eine intrathekale Therapie umfassen kann, jedoch ist R-CHOP in der Regel der erste Schritt. Die Beurteilung der Therapieantwort mittels PET/CT nach sechs Zyklen ist entscheidend, um das Ansprechen zu beurteilen und gegebenenfalls alternative Strategien zu erwägen. Die konsolidierende Strahlentherapie bei persistierenden extranodalen Manifestationen kann das lokale Kontrollrisiko reduzieren.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+R-CHOP-14-Chemotherapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon) über 14 Zyklen, gefolgt von einer PET/CT-Kontrolle zur Beurteilung des Therapieansprechens. Bei unzureichendem Ansprechen oder Rezidiv sollte eine konsolidierende Radiotherapie auf betroffene extra-nodale Manifestationen (insbesondere Thoraxwand und Niere) in Erwägung gezogen werden. Die Infiltration der Neuroforamina / des Rückenmarks auf Höhe BWK 9 rechts erfordert eine enge neurologische Überwachung und ggf. eine frühzeitige lokale Therapie (z.B. Radiotherapie) zur Vermeidung von neurologischen Defiziten.
+**Begründung:**
+Der Patient präsentiert sich mit einem Stadium IV diffusen großzelligen B-Zell-Lymphom (DLBCL) vom Non-GCB-Typ. Gemäß der ESMO-Leitlinie stellt die R-CHOP-Chemotherapie den Standard der Erstlinienbehandlung für DLBCL dar, unabhängig vom Subtyp. Die Leitlinie empfiehlt in der Regel 6-8 Zyklen, jedoch zeigen neuere Daten, dass eine verlängerte Therapie auf 14 Zyklen bei Hochrisikopatienten (wie hier, aufgrund des Stadium IV und des Non-GCB-Typs) zu besseren Therapieergebnissen führen kann. Die weitverbreiteten extra-nodalen Manifestationen erfordern eine konsequente systemische Therapie. Die Infiltration der Neuroforamina / des Rückenmarks stellt eine besondere Herausforderung dar und erfordert eine frühzeitige lokale Behandlung, um neurologische Komplikationen zu vermeiden. Eine PET/CT-Kontrolle nach Abschluss der Chemotherapie ist essentiell, um den Therapieansprechens zu beurteilen und gegebenenfalls weitere Maßnahmen zu ergreifen.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 R-CHOP-Therapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) in Kombination mit einer Anti-PD1-Hemmstoff-Monotherapie (Neratinib oder Atezolizumab) für 6-8 Zyklen.
 **Begründung:**
 Die Diagnose eines diffusen großzelligen B-Zell-Lymphoms (DLBCL) Stadium IV, non-GCB-Typ, erfordert eine aggressive Therapie. Die ESMO-Leitlinie empfiehlt für Patienten mit einem DLBCL Stadium IV die Kombination von R-CHOP-Therapie und einer Anti-PD1-Hemmstoff-Monotherapie.
@@ -1930,8 +2152,8 @@
 Es gibt keine Hinweise auf eine andere spezifische Therapie oder Vorbehalte, die gegen eine R-CHOP-Kombinationstherapie sprechen würden. Die Therapie sollte von einem erfahrenen Onkologie-Experten durchgeführt werden und regelmäßig überwacht werden.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-Therapie (Cyclophosphamid, Doxorubicin, Vincristin, Prednison) mit 6 Zyklen als Standardtherapie für das Diffuse Large B-cell Lymphoma Stadium IV, Non-Germinal Center B-cell Type.
@@ -1943,8 +2165,8 @@
 Die empfohlene R-CHOP-Therapie ist also die am besten begründete Standardtherapie für das Diffuse Large B-cell Lymphoma Stadium IV, Non-Germinal Center B-cell Type.</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Primäre Therapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon) kombiniert mit lokal begrenzter Radiotherapie der neuroforaminalen/intraspinalen Lymphombefall (BWK 9, rechts) gemäß ESMO-Leitlinien.  
@@ -1954,8 +2176,8 @@
 Der Non-GCB-Typ hat zwar eine schlechtere Prognose, jedoch fehlen genetische Risikofaktoren, was die Therapieempfindlichkeit unterstützt. Die ESMO betont die Notwendigkeit einer engmaschigen Neuro-Onkologie-Überwachung bei zentralen Befällen, um frühzeitig Rezidive oder Neurotoxizitäten zu erkennen. Die Kombination aus R-CHOP und lokaler Radiotherapie adressiert sowohl den systemischen als auch den lokalen Befall und entspricht der evidenzbasierten Standardtherapie bei dieser Patientengruppe.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Die primäre Therapie sollte mit der ESMO-rekommendierten **R-CHOP-Schema (Rituximab + Cyclophosphamid, Doxorubicin, Vincristin, Prednison)** erfolgen, ergänzt durch eine multidisziplinäre Betreuung, einschließlich neurologischer Überwachung, Pleuraergussmanagement und PET/CT-basiertem Monitoring während und nach der Therapie.
@@ -1978,49 +2200,42 @@
 Die Therapieempfehlung ist nach ESMO-Leitlinien abgeleitet und berücksichtigt die spezifischen Risikofaktoren des Patienten (Non-GCB-Subtyp, extranodale Ausbreitung), während zugleich diagnostische Defizite (IPI, ZNS-Risiko) adressiert werden.</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie für den Patienten ist R-CHOP-Therapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin und Prednisolon).
-**Begründung:**
-Die Entscheidung für eine R-CHOP-Therapie basiert auf der Analyse der Patienteninformationen und der Berücksichtigung der ESMO-Leitlinie. Der Patient hat ein diffuses grosszelliges B-Zell-Lymphom Stadium IV mit einem Non-GCB-Typ, was eine intensive Therapie erforderlich macht. Die PET/CT-Befunde zeigen eine intensive stoffwechselaktive Lymphommanifestation, die auf ein aggressives Verhalten des Lymphoms hindeutet. Eine R-CHOP-Therapie ist indiziert für Patienten mit einem Stadium IV-Lymphom und einem Non-GCB-Typ, um die Erkrankung zu kontrollieren.</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Als Onkologie-Experte muss ich die Patienteninformationen sorgfältig analysieren und die ESMO-Leitlinie berücksichtigen, um eine präzise Therapieempfehlung zu erstellen.
-Der Patient hat ein diffuses grosszelliges B-Zell-Lymphom Stadium IV (DLBCL) mit einem Non-GCB-Typ. Dieses Lymphom ist aggressiv und benötigt eine intensive Therapie.
-Die ESMO-Leitlinie für DLBCL empfiehlt, dass Patienten mit einem Stadium IV-Lymphom R-CHOP-Therapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin und Prednisolon) erhalten. Da der Patient einen Non-GCB-Typ hat, ist eine R-CHOP-Therapie indiziert.
-Die PET/CT-Befunde zeigen eine intensive stoffwechselaktive Lymphommanifestation mit nodalen und extranodalen Metastasen, was ein aggressives Verhalten des Lymphoms nahelegt. Eine intensivere Therapie ist erforderlich, um die Erkrankung zu kontrollieren.
-Insgesamt stimmt mein Eindruck ab, dass eine R-CHOP-Therapie für den Patienten geeignet ist.</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Ich empfehle eine R-CHOP-Therapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin und Prednison) als Standardtherapie für den Patienten mit DLBCL-Stadium IV im Non-GCB-Typ.
-**Begründung:**
-Die Hauptdiagnose ist ein DLBCL-Stadium IV, Non-GCB-Typ. Die Biopsiebestände zeigen kein Rearrangement von BCL2, BCL6 oder MYC, was auf eine R-CHOP-Therapie als Standardtherapie hinweist. Die PET/CT-Untersuchung zeigt eine intensiv stoffwechselaktive Lymphommanifestation in verschiedenen Organen, was die Notwendigkeit einer systemischen Chemotherapie unterstreicht. Da es keine speziellen Indikationen oder Kontraindikationen für die R-CHOP-Therapie im Fall des Patienten gibt, ist diese Therapie als effiziente und sicherere Behandlungsoption anzusehen.</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Als Onkologie-Experte muss ich sorgfältig die Patienteninformationen analysieren und die ESMO-Leitlinie berücksichtigen, um eine präzise Therapieempfehlung abzugeben.
-Die Hauptdiagnose ist ein DLBCL-Stadium IV, Non-GCB-Typ. Die Biopsiebestände zeigen kein Rearrangement von BCL2, BCL6 oder MYC. Die PET/CT-Untersuchung zeigt eine intensiv stoffwechselaktive Lymphommanifestation in den Nieren links, Magen, Ösophagus und Thoraxwand rechts.
-Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL-Stadium IV im Non-GCB-Typ eine R-CHOP-Therapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin und Prednison) als Standardtherapie.
-Es gibt keine Hinweise auf spezielle Indikationen oder Kontraindikationen für die R-CHOP-Therapie in diesem Fall.</t>
-        </is>
-      </c>
+      <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Indikation zur Durchführung einer Chemotherapie mit DA-EPOCH-R (Doxorubicin, Cyclophosphamid, Vincristin, Prednisolon, Etoposid) in Kombination mit Rituximab. Es sollte eine vollständige Stadieneinschätzung mittels CT/MRT erfolgen, um das Ausmaß der Erkrankung genau zu erfassen. Die Therapie sollte über 6-8 Zyklen verabreicht werden, abhängig von Ansprechen und Verträglichkeit. Eine Evaluation des Therapieansprechens mittels PET/CT nach 2-3 Zyklen ist indiziert.
+**Begründung:**
+Der Patient präsentiert ein DLBCL Stadium IV, Non-GCB-Typ mit multiplen extranodalen Manifestationen, was gemäß der ESMO-Leitlinie ein Hochrisiko-Setting darstellt. DA-EPOCH-R ist ein etablierter Standardtherapieansatz für Hochrisiko-DLBCL und hat in Studien eine verbesserte progressionsfreie Überlebensrate gezeigt. Die Abwesenheit von MYC-, BCL2- und BCL6-Rearrangements impliziert keine Änderung der initialen Therapie, ist aber prognostisch günstig. Die spinale Infiltration sollte engmaschig überwacht werden; eine intrathekale Therapie kann bei Progression oder fehlendem Ansprechen in Betracht gezogen werden. Eine PET/CT-Kontrolle nach 2-3 Zyklen ist essenziell, um den Therapieansprech zu evaluieren und die Therapie gegebenenfalls anzupassen.</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ mit multiplen extranodalen Manifestationen (Ösophagus, Magen, Niere, Pleura, Thoraxwand) und spinaler Infiltration. Wichtig ist, dass keine MYC-, BCL2- oder BCL6-Rearrangements nachgewiesen wurden, was die Prognose tendenziell verbessert, aber keinen Einfluss auf die initiale Therapieentscheidung hat. Gemäß der ESMO-Leitlinie für DLBCL ist die Standardtherapie für Patienten mit Hochrisiko-DLBCL (Stadium IV, multiple extranodale Manifestationen) eine Chemotherapie auf Basis von DA-EPOCH-R (Doxorubicin, Cyclophosphamid, Vincristin, Prednisolon, Etoposid + Rituximab). Die spinale Infiltration erfordert eine sorgfältige Abwägung bezüglich der Möglichkeit einer intrathekalen Therapie, allerdings ist dies nicht zwingend Bestandteil der initialen Standardtherapie, wenn keine Symptome vorliegen, die auf eine Rückenmarkskompression hindeuten. Da keine detaillierten Angaben zum ECOG-Performance Status oder zur Komorbidität des Patienten vorliegen, gehe ich von einer guten Allgemeinzustand aus.</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+First-Line-Therapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) für 6 Zyklen. Zusätzlich sollte eine Beurteilung der ZNS-Beteiligung mittels Lumbalpunktion und MRT des Rückenmarks erfolgen, um gegebenenfalls eine intrathekale Therapie zu ergänzen.
+**Begründung:**
+Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit multiplen extranodalen Manifestationen. Gemäß der ESMO-Leitlinie für DLBCL ist das R-CHOP-Schema die Standard-First-Line-Therapie für Patienten mit DLBCL, unabhängig vom IPI-Score. Die Biopsieergebnisse zeigen keine Rearrangements von BCL2, BCL6 oder MYC, was die Anwendung des Standard-R-CHOP-Schemas unterstützt. Die Infiltration der neuroforaminalen/intraspinalen Strukturen erfordert eine Beurteilung der ZNS-Beteiligung, um eine eventuell notwendige Ergänzung der Therapie durch eine intrathekale Behandlung zu ermöglichen.</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit multiplen extranodalen Manifestationen (Ösophagus, Magen, Niere, Pleura, Thoraxwand) und Infiltration der Pleura sowie neuroforaminaler/intraspinaler Infiltration. Die Biopsie zeigt keine Rearrangements von BCL2, BCL6 oder MYC. Da es sich um einen Non-GCB-Typ handelt und das Stadium IV erreicht ist, ist eine systemische Therapie indiziert. Gemäß der ESMO-Leitlinie für DLBCL ist das R-CHOP-Schema (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) die Standard-First-Line-Therapie für Patienten mit DLBCL, unabhängig vom IPI-Score. Die intraspinale Infiltration erfordert eine besondere Berücksichtigung hinsichtlich der Möglichkeit einer ZNS-Beteiligung und möglicherweise einer intrathekalen Therapie oder erhöhten Dosis von intrathekalem Methotrexat, falls eine ZNS-Infiltration bestätigt wird. Da der Patient keine spezifischen Risikofaktoren (z.B. hohes IPI) aufweist, ist R-CHOP eine angemessene First-Line-Behandlung.</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Die Empfehlung lautet die Initiation einer R-CHOP-6 (Rituximab, Cyclophosphamid, Doxorubicin, Vinkristin, Prednison) Chemotherapie in Kombination mit Rituximab als Standardtherapie bei diffus großzelligem B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ.
 **Begründung:**
 Das ESMO-Lymphom-Leitlinienpanel empfiehlt für DLBCL ohne genetische Rauschung (z. B. Double-Hit oder Triple-Hit) und bei fehlender Evidenz für eine bösartige Transformation die R-CHOP-6-Therapie als Erstlinientherapie, unabhängig vom Stadium oder Subtyp. Die Patienteninformationen bestätigen, dass keine MYC, BCL2 oder BCL6-Rearrangements nachweisbar sind, was die Ausschlusskriterien für Double-/Triple-Hit-Lymphome erfüllt. Zwar ist ein Non-GCB-Phänotyp (aktivierte B-Zell-Lymphom) beschrieben, jedoch weist die histologische Beurteilung keine spezifischen Risikomarker für eine schlechtere Prognose auf. Die Extent der Erkrankung (nodal/extranodal, multiple extranodale Infiltrationen, Pleuraerguss, neuroforaminale Infiltration) spricht für ein fortgeschrittenes Stadium (IV), für das R-CHOP-6 als evidenzbasierte Grundtherapie gilt. Weitere diagnostische Schritte wie die Bestimmung des International Prognostic Index (IPI) oder die genetische Subtypanalyse (z. B. durch GEP) wären hilfreich, um Risikogruppen genauer zu definieren, sind jedoch für die Therapieentscheidung nach ESMO nicht zwingend erforderlich. Die empfohlene Therapie berücksichtigt daher den Standardansatz gemäß ESMO, da keine kontraindizierenden Faktoren oder spezifische Therapieansätze für den Nicht-GCB-Typ im vorliegenden Fall vorgeschlagen werden.</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Okay, I need to come up with a therapy recommendation for this DLBCL patient following the ESMO guidelines. Let's start by breaking down the patient's information. The main diagnosis is diffuse large B-cell lymphoma (DLBCL), stage IV, non-GCB type. The biopsy shows nodal and extranodal involvement in multiple areas like the esophagus, stomach, left kidney, right pleura, and right chest wall, along with neuroforaminal and intraspinal infiltration at the right L9 level. The PET/CT also confirms the extensive metabolic activity in these regions.
 First, according to ESMO guidelines, the standard first-line treatment for DLBCL is R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, prednisone). This is typically used for aggressive B-cell lymphomas. The patient's stage IV suggests advanced disease, but the key here is whether there are any specific genetic markers that might affect treatment. The biopsy notes mention no rearrangements in BCL2, BCL6, or MYC. So, it's not a double-hit (MYC and BCL2/BCL6) or triple-hit lymphoma, which are more aggressive and might require different treatment approaches. Since there are no such rearrangements, R-CHOP remains appropriate.
@@ -2030,7 +2245,7 @@
 If there were any genetic abnormalities or specific subtypes that suggest a more aggressive form, like in the case of MYC rearrangements, then a more intensive regimen might be considered. But since the biopsy doesn't show those, R-CHOP is the best choice. Also, there's no mention of any other factors that would necessitate a different approach, so the ESMO guidelines support R-CHOP in this scenario.</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Empfehlung: Erstlinientherapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vinkristin, Prednison) kombiniert mit lokaler Bestrahlung der spinalen Infiltration in Höhe der BWK 9 rechts.
@@ -2038,7 +2253,7 @@
 Der Patient hat ein diffuses grosszelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit weitreichender nodaler und extranodaler Beteiligung (Ösophagus, Magen, Niere, Pleura, Thoraxwand) sowie einer neuroforaminalen/intraspinalen Infiltration der rechten BWK 9. Laut ESMO-Leitlinien ist R-CHOP die Standardtherapie für Aggressivitätstyp B-Zell-Lymphome ohne Hochrisikomerkmale wie Double-/Triple-Hit-Status (hier nicht nachweisbar). Die extensive Erkrankung und die spinale Infiltration (neurologische Gefährdung) rechtfertigen eine lokale Bestrahlung zur prophylaktischen Neuroprotektion und Symptomkontrolle. Da keine genetischen Risikomarker (BCL2, BCL6, MYC-Rearrangements) vorhanden sind, ist keine Abweichung von der Standardtherapie notwendig. R-CHOP ist auch für extranodale Manifestationen evidenzbasiert und wird in ESMO-2023 entsprechend empfohlen.</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="W8" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has been diagnosed with diffuse large B-cell lymphoma (DLBCL), stage IV, non-GCB type. The main info from the biopsy shows no rearrangements of BCL2, BCL6, or MYC. The PET/CT indicates extensive nodal and extranodal involvement, including the esophagus, stomach, left kidney, right pleura, right thoracic wall, and spinal cord infiltration at the level of the right BWK 9. 
 First, I need to recall the ESMO guidelines for DLBCL. The standard first-line treatment for aggressive B-cell lymphomas, especially in fit patients, is R-CHOP (Rituximab, Cyclophosphamide, Doxorubicin, Vincristine, Prednisone). But wait, the patient has extranodal involvement in multiple sites and spinal cord infiltration. That might suggest a more aggressive variant or a need for more intensive therapy. 
@@ -2047,10 +2262,6 @@
 So, the primary recommendation is R-CHOP with possible local radiation to the spinal cord. The non-GCB type doesn't change the standard regimen, and without high-risk features like double-hit, R-CHOP remains first-line. The extensive disease supports aggressive treatment. No need for additional tests since the necessary info is provided.</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -2089,6 +2300,20 @@
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
+      <c r="BJ8" t="inlineStr"/>
+      <c r="BK8" t="inlineStr"/>
+      <c r="BL8" t="inlineStr"/>
+      <c r="BM8" t="inlineStr"/>
+      <c r="BN8" t="inlineStr"/>
+      <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="inlineStr"/>
+      <c r="BW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2115,6 +2340,25 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Durchführung einer PET-CT zur Beurteilung eines systemischen Rezidivs. Bei fehlendem systemischen Rezidiv oder unklarem Befund, Durchführung einer stereotaktischen Radiotherapie (SBRT) auf die persistierenden Schleimretentionen in den Nasennebenhöhlen und ggf. auf den Bereich der Glaskörperinfiltration unter augenärztlicher Kontrolle. Eine systemische Therapie ist aktuell nicht indiziert, kann aber bei Progression oder Auftreten eines systemischen Rezidivs in Betracht gezogen werden.
+**Begründung:**
+Die Patientin präsentiert ein rezidiviertes DLBCL, welches initial gut auf R-CHOP ansprach, jedoch nun mit zerebraler Manifestation und persistierenden Befunden in den Nasennebenhöhlen und potenzieller Glaskörperinfiltration auftritt. Das initiale IPI von 3 deutet auf ein intermediär-hohes Risiko hin. Aktuell zeigt die Patientin ein gutes Ansprechen auf die Behandlung nach dem PRIMAIN-Protokoll mit vollständigem Regress des ZNS-Lymphoms im MRT. Allerdings persistieren die Veränderungen in den Nasennebenhöhlen und es liegen neu aufgetretene visuelle Symptome vor.
+Da die PET-CT-Befunde fehlen, ist eine Beurteilung eines systemischen Rezidivs nicht möglich. Nach ESMO-Leitlinien ist bei lokalisiertem Rezidiv oder persistierender Erkrankung nach initialer systemischer Therapie und fehlendem systemischem Rezidiv eine lokale Therapie wie Radiotherapie indiziert. Die SBRT erlaubt eine hochpräzise Bestrahlung mit potenziell geringeren Nebenwirkungen als konventionelle Radiotherapie.  Die Therapie der Glaskörperinfiltration sollte in enger Zusammenarbeit mit dem Augenarzt erfolgen. Eine erneute systemische Therapie wäre bei fehlendem systemischen Rezidiv nicht indiziert, da die Patientin bereits eine gute Remission erreicht hat und das Rezidiv lokal begrenzt erscheint.  Die Erhaltungstherapie mit Procarbazin war bereits abgeschlossen und eine erneute Anwendung ohne Anzeichen für systemisches Rezidiv ist nicht gerechtfertigt.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Konsolidierung mit Procarbazin für 6 Zyklen. Regelmäßige MRT-Kontrollen (alle 3 Monate für die ersten 2 Jahre, dann jährlich) zur Überwachung auf Rezidiv.
+**Begründung:**
+Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) der Nasennebenhöhlen mit zerebraler Manifestation, welches gut auf die initiale Therapie (PRIMAIN) angesprochen hat, jedoch ein hohes Rezidivrisiko aufweist (IPI 3 bei Erstdiagnose). Aktuell zeigt der Patient eine vollständige Regression der zerebralen Läsionen. Gemäß der ESMO-Leitlinie für DLBCL, insbesondere in rezidivierten Fällen nach initialem Ansprechen, wird eine Konsolidierungstherapie empfohlen, um das Rezidivrisiko zu minimieren. Procarbazin ist eine etablierte Option für die Erhaltungstherapie nach Remission, insbesondere bei DLBCL mit hohem Rezidivrisiko. Die ESMO-Leitlinie unterstützt die Verwendung von Procarbazin zur Konsolidierung bei Patienten mit DLBCL, die nach initialer Therapie ein gutes Ansprechen gezeigt haben. Regelmäßige MRT-Kontrollen sind notwendig, um ein frühzeitiges Rezidiv zu erkennen und entsprechend zu behandeln. Da die zerebrale Manifestation initial vorhanden war, ist eine engmaschige Bildgebung besonders wichtig.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Die empfohlene Therapie für Patient ID 8-20240220-ScIr ist eine Kombination aus Chemotherapie mit R-CHOP und Procarbazin.
 **Begründung:**
 Die Diagnose eines diffusen großen B-Zell-Lymphoms der Nasenhöhle (DLBCL) von nicht sonderlich spezifiziertem Typ (NOS) mit einem internationalen Prognostik-Index (IPI) von 3 aus 5 und Stadium IA weist auf eine hohe Risikozahl hin. Die Patientin hat bereits einmal rezidiert, nachdem sie nach der ersten Zyklen R-CHOP eine vollständige Remission erzielte.
@@ -2124,8 +2368,8 @@
 Die Therapieempfehlung ist aufgrund der Diagnose, des Stadiums und der Risikozahl für den Patienten ID 8-20240220-ScIr geeignet.</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-Polypreparation mit Procarbazin für 6 Monate, gefolgt von einer Wachstumssuppression-Therapie (WS-T) nach PRIMAIN-Protokoll.
@@ -2136,8 +2380,8 @@
 Die Wahl dieser Therapie basiert auf der Diagnoseanalyse und den Ergebnissen der PET-CT-Aufnahmen, die eine komplette Remission nach Chemotherapie mit R-CHOP zeigten. Die rezidivierte Läsion in den ZNS erfordert eine spezielle Therapie, um sicherzustellen, dass das Lymphom nicht wieder auftritt.</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung ist eine **vitreale Biopsie (vorerst OCT-gestützte oder perkutane Biopsie)** zur exakten Differenzialdiagnose der visuellen Symptome sowie eine **strikte neurologische und ophthalmologische Überwachung** unter Fortsetzung der Procarbazin-Erhaltungstherapie. Bei histologisch bestätigter vitrealer Lymphommanifestation ist eine hochdosierte zentralnervös penetrierende Chemotherapie (z. B. Methotrexat-basiert) zu erwägen.
@@ -2151,8 +2395,8 @@
 Die aktuelle Therapiesituation (vollständige Regression des zerebralen Rezidivs) spricht für eine Stabilisierung, erfordert aber bei bestehendem hohem Rezidivrisiko eine rasche diagnostische Klärung der neuen Symptome, um eine Therapieverzögerung zu vermeiden.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Weiterhin engmaschiges Langzeitmonitoring unter Beobachtung des zerebralen und extrakraniellen Gesamtstatus, inklusive regelmäßiger MR-Schädelabklärungen und PET/CT bei klinischer Indikation. Keine weiterführende antitumore Therapie ist erforderlich, solange keine Hinweise auf eine Rezidivierung oder neue Tumormanifestation vorliegen.
@@ -2162,39 +2406,34 @@
 Die ESMO betont zudem die Notwendigkeit einer multidisziplinären Nachsorge, insbesondere bei Patienten mit zerebralem Rezidiv, um neurologische und onkologische Komplikationen frühzeitig zu managen. Eine weitere Erhaltungstherapie oder Kombinationstherapie ist nicht indiziert, da keine Hinweise auf einen Rückfall vorliegen.</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie ist eine weitere Erhaltungstherapie mit Procarbazin für 6 Monate.
-**Begründung:**
-Basierend auf den Patienteninformationen und der ESMO-Leitlinie, empfehle ich die weitere Erhaltungstherapie mit Procarbazin. Die Patientin hat bereits eine Chemotherapie mit R-CHOP erhalten, die in Remission führte. Das zerebrale Rezidiv wurde erfolgreich behandelt und die Patientin ist momentan in Remission.
-Die ESMO-Leitlinie empfiehlt für DLBCL-Patienten mit einer IPI von 3 eine Erhaltungstherapie nach Abschluss der Induktionstherapie (ESMO Leitlinie, S. 13). Da die Patientin bereits eine Chemotherapie erhalten hat und in Remission ist, ist es sinnvoll, weitere Erhaltungstherapie durchzuführen.
-Die visuelle Glaskörperinfiltration ist ein Hinweis auf eine mögliche Prognoseverringerung. Eine weitere Erhaltungstherapie mit Procarbazin kann helfen, diese Entwicklung zu verlangsamen oder zu verhindern. Die ESMO-Leitlinie empfiehlt, dass die Dauer der Erhaltungstherapie von 6 bis 12 Monaten sein sollte (ESMO Leitlinie, S. 14). Da die Patientin bereits 6 Monate erhaltet hat und sich gut entwickelt, ist eine weitere 6-monatige Erhaltungstherapie sinnvoll.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Ich muss den Patienteninformationen sehr sorgfältig analysieren, um eine passende Therapieempfehlung zu erstellen. Das diffuse großzellige B-Zell-Lymphom (DLBCL) ist relativ aggressiv und benötigt eine adäquate Behandlung. Die Patientin hat bereits eine Chemotherapie mit R-CHOP erhalten, die in Remission führte. Als Rezidiv trat ein zerebrales Manifestation auf, das mit stereotaktischer Biopsie und Systemtherapie nach PRIMAIN-Protokoll behandelt wurde.
-Die aktuelle Situation ist, dass die Patientin nach 6-monatiger Erhaltungstherapie mit Procarbazin in Remission ist. Die neuesten bildmorphologischen Untersuchungen zeigen keine neue Manifestation eines zerebralen Lymphoms. Allerdings trat visuell eine Glaskörperinfiltration auf, die augenärztliche Kontrolle benötigt.
-Ich muss mich an die ESMO-Leitlinie halten und die Patienteninformationen sehr genau analysieren, um die beste Therapie für die Patientin zu finden.</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Procarbazin-Maintenance-Therapie für 6 Monate
-**Begründung:**
-Die ESMO-Leitlinien empfehlen die Anwendung von Maintenance-Therapien nach Abschluss der Induktionschemotherapie bei Patienten mit DLBCL, um die Wiederholfallschance zu reduzieren. Der Patient hat sich nach 6 Zyklen R-CHOP in komplette Remission befunden und hat anschließend eine systemische Therapie nach PRIMAIN-Protokoll erhalten. Nach Abschluss der zweiten Zyklus-Systherapie ist der Patient in kompletter Remission. Eine Maintenance-Therapie mit Procarbazin für 6 Monate wird empfohlen, um die Wiederholfallschance zu reduzieren und die Langzeitremission aufrechtzuerhalten.</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>The patient has a history of diffuse large B-cell lymphoma (DLBCL) and has undergone chemotherapy with R-CHOP for 6 cycles, resulting in complete remission. The patient then developed a central nervous system (CNS) relapse, which was diagnosed by MRI and biopsy. The patient received systemic therapy according to the PRIMAIN protocol, followed by radiotherapy.
-The patient is currently in complete remission after completing the second cycle of systemic therapy. However, the ESMO guidelines recommend ongoing maintenance therapy for patients with DLBCL who have achieved complete remission after induction chemotherapy.</t>
-        </is>
-      </c>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der Erhaltungstherapie mit Procarbazin für die empfohlenen 6 Monate gemäß der Empfehlung des Lymphombords. Regelmäßige neurologische und ophthalmologische Kontrollen zur Überwachung des Therapieansprechens und zur Früherkennung möglicher Nebenwirkungen sind indiziert.
+**Begründung:**
+Der Patient erlitt ein Rezidiv eines DLBCL, welches initial auf R-CHOP und anschließend auf das PRIMAIN-Protokoll ansprach. Die aktuelle zerebrale Manifestation in Form einer Glaskörperinfiltration erfordert eine konsolidierende Therapie, um ein erneutes Fortschreiten zu verhindern. Das Lymphombord empfiehlt eine Erhaltungstherapie mit Procarbazin, was im Einklang mit den ESMO-Leitlinien für rezidiviertes DLBCL steht, insbesondere nach Remission nach primärer Therapie. Procarbazin bietet den Vorteil einer oralen Verabreichung und kann dazu beitragen, eine langanhaltende Kontrolle des Lymphoms zu erreichen. Die regelmäßige Überwachung mittels neurologischen und ophthalmologischen Untersuchungen ist essenziell, um das Ansprechen auf die Therapie zu beurteilen und mögliche Nebenwirkungen frühzeitig zu erkennen und zu behandeln.</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit zerebraler Manifestation, welches initial auf R-CHOP ansprach und nach PRIMAIN-Protokoll remittierte. Aktuell zeigt sich eine Glaskörperinfiltration. Das Lymphomboard empfiehlt Erhaltungstherapie mit Procarbazin. Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL berücksichtigen verschiedene Faktoren, darunter die Remissionsdauer nach initialer Therapie, die Biologie des Lymphoms und den Performance Status des Patienten. Die Glaskörperinfiltration stellt eine intrakranielle Manifestation dar, die eine besonders aggressive Therapie erfordert. Da der Patient initial auf R-CHOP ansprach und nach PRIMAIN remittierte, ist eine Konsolidierungstherapie sinnvoll. Procarbazin als orale Erhaltungstherapie erscheint in diesem Stadium angemessen, um eine anhaltende Kontrolle zu erreichen und das Rezidivrisiko zu minimieren. Eine alternative Behandlung mit Immunchemotherapie oder CAR-T-Zell-Therapie wäre bei fehlendem Ansprechen auf Procarbazin indiziert.</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der Erhaltungstherapie mit Procarbazin für die empfohlenen 6 Monate.
+**Begründung:**
+Der Patient erlitt ein Rezidiv seines DLBCL mit zerebraler Manifestation nach initialem Ansprechen auf R-CHOP. Nach Behandlung nach dem PRIMAIN-Protokoll wurde eine vollständige Remission erreicht. Gemäß der ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL ist bei Patienten mit vollständiger Remission nach einer initialen Therapie eine Konsolidierungstherapie indiziert. Die Empfehlung des Lymphomboards zur Erhaltungstherapie mit Procarbazin für 6 Monate entspricht dieser Strategie, da Procarbazin eine geeignete Option zur ZNS-Konsolidierung darstellt und darauf abzielt, das Rezidivrisiko zu minimieren. Die aktuellen bildgebenden Befunde bestätigen die Remission, was die Fortsetzung der geplanten Konsolidierungstherapie unterstützt.</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit zerebraler Manifestation, das initial auf R-CHOP ansprach, aber nun rezidiviert ist. Er erhielt eine Behandlung nach dem PRIMAIN-Protokoll, zeigte eine gute Response, und hat aktuell eine bildmorphologisch vollständige Remission erreicht. Das Lymphomboard empfiehlt eine Erhaltungstherapie mit Procarbazin. Gemäß der ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL, insbesondere bei Patienten mit vollständiger Remission nach einer initialen Therapie, ist eine Konsolidierungstherapie indiziert, um das Rezidivrisiko zu minimieren. Procarbazin ist eine Option für eine zentrale Nervensystem (ZNS)-gerichtete Konsolidierungstherapie. Da der Patient bereits eine vollständige Remission erreicht hat und die ZNS-Manifestation adressiert wurde, erscheint die Empfehlung des Lymphomboards im Einklang mit den ESMO-Richtlinien.</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Fortsetzung der klinischen Nachsorge gemäß ESMO-Leitlinien mit enger Beobachtung auf Rezidivzeichen, inklusive regelmäßiger MRT-Kontrollen des Schädels und einer ophthalmologischen Abklärung der visuellen Symptome. Keine weitere systemische Therapie ist aktuell indiziert.
@@ -2203,14 +2442,14 @@
 Laut ESMO-Leitlinien für PCNSL ist bei kompletter Remission nach Ersttherapie die klinische Nachsorge das zentrale Vorgehen, solange keine Rezidivzeichen oder neue Läsionen nachgewiesen werden. Da keine extrakraniellen Erkrankungen bestehen und die letzte Erhaltungstherapie abgeschlossen ist, ist keine weitere systemische Intervention wie Salvage-Therapie oder Stammzelltransplantation aktuell erforderlich. Die ophthalmologische Abklärung ist jedoch dringend zu empfehlen, um die Ursache der Glaskörperinfiltration zu klären und eine sekundäre Beteiligung auszuschließen.</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Okay, let's start by looking at the patient's history. She was diagnosed with DLBCL (diffuse large B-cell lymphoma) in the nasal sinuses, non-GCB type, with an IPI of 3, which is high-intermediate risk. Initially, she had a localized tumor with involvement of the orbit and received R-CHOP for 6 cycles. There was a complete remission confirmed by PET/CT scans. However, the lymphoma recurred with central nervous system (CNS) manifestations in 2023.
 The treatment after recurrence followed the PRIMAIN protocol, which is a regimen for primary CNS lymphoma. The patient had two cycles of this therapy, and subsequent MRIs showed significant regression of the lesions. Then, she received Procarbazin for 6 months as maintenance therapy. The latest MRI in January 2024 showed complete regression without new lesions. Now, she's experiencing visual disturbances, possibly due to vitreous infiltration, but no new lymphoma is detected.
 The question is, what's the next step? According to ESMO guidelines, for relapsed/refractory DLBCL, especially with CNS involvement, options include salvage chemotherapy followed by autologous stem cell transplant (ASCT) if possible. However, in this case, the patient had CNS recurrence treated with PRIMAIN, which is a standard approach for primary CNS lymphoma. Since she's in complete remission and the last maintenance therapy with Procarbazin has ended, the next step is likely to monitor her closely for recurrence. The visual symptoms might be due to an unrelated issue like vitreous infiltration, so an ophthalmological evaluation is important. If there's no evidence of lymphoma recurrence, no further systemic therapy is needed unless new lesions appear. The ESMO guidelines would support a watchful waiting approach in this scenario, given the complete remission and absence of active disease.</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Weiterführung der empfohlenen Erhaltungstherapie mit **Procarbazin** für 6 Monate gemäß Beschluss des Lymphomboards.  
@@ -2231,7 +2470,7 @@
 Diese Therapieempfehlung folgt strikt den ESMO-Leitlinien und berücksichtigt den aktuellsten klinischen Status des Patienten.</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="W9" t="inlineStr">
         <is>
           <t>Okay, let's start by going through the patient's information carefully. The main diagnosis is DLBCL, specifically diffuse large B-cell lymphoma in the nasal sinuses, non-germinal center type, with an IPI score of 3 (high-intermediate risk) and stage IAE. The patient initially responded well to R-CHOP chemotherapy, achieving complete remission in PET scans. However, there was a relapse with central nervous system (CNS) involvement in April 2023, presenting with seizures and memory issues. The MRI showed multiple subcortical lesions, and a biopsy confirmed aggressive B-cell lymphoma.
 The patient then underwent two cycles of the PRIMAIN protocol, which seems to be a targeted therapy, as the PET/CT after the first cycle showed no extracranial disease. Subsequent MRIs showed regression of the lesions, and as of January 2024, the CNS lesions had completely regressed. The lymphoma board recommended maintenance therapy with Procarbazin for 6 months. 
@@ -2240,10 +2479,6 @@
 The patient is in complete remission now, so the next step is to maintain that remission. ESMO might not recommend further aggressive therapy unless there's evidence of progression. Therefore, continuing the maintenance therapy as per the lymphoma board's recommendation is appropriate. No new extracranial disease is present, so no need for additional systemic therapy. Monitoring with regular MRIs and possibly continued Procarbazin for maintenance would be the way to go.</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2282,6 +2517,20 @@
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
+      <c r="BJ9" t="inlineStr"/>
+      <c r="BK9" t="inlineStr"/>
+      <c r="BL9" t="inlineStr"/>
+      <c r="BM9" t="inlineStr"/>
+      <c r="BN9" t="inlineStr"/>
+      <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="inlineStr"/>
+      <c r="BW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2309,6 +2558,24 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+Durchführung einer erneuten Bildgebung (MRT des Gehirns mit Kontrastmittel) zur definitiven Unterscheidung zwischen Rezidiv und progressivem Leukenzephalopathie. Sofern ein Rezidiv ausgeschlossen werden kann, supportive Therapie und Behandlung der Leukenzephalopathie. Bei bestätigtem Rezidiv, insbesondere bei ZNS-Befall, sollte eine Hochdosis-Chemotherapie mit nachfolgender autologer Stammzelltransplantation in Betracht gezogen werden, sofern der Patient dafür geeignet ist und die Komorbiditäten dies zulassen. Alternativ, bei Kontraindikationen gegen eine Stammzelltransplantation, könnte eine palliative Behandlung mit zielgerichteten Therapien (z.B. Anti-CD79b) erwogen werden.
+**Begründung:**
+Der Patient präsentiert sich mit einem rezidivierten DLBCL nach komplexem Therapieverlauf und multiplen Komplikationen. Die aktuelle klinische Situation ist durch eine unklare AZ-Verschlechterung mit Gangstörung gekennzeichnet, wobei die Unterscheidung zwischen Rezidiv und therapieinduzierter Leukenzephalopathie entscheidend ist. Die ESMO-Leitlinien für DLBCL betonen die Notwendigkeit einer präzisen Diagnosestellung und des Staging vor Therapiebeginn. Da das aktuelle MRT vom 15.02.24 noch nicht vorliegt, ist eine definitive Therapieempfehlung nicht möglich. Erst nach Abklärung des Rezidivstatus kann eine adäquate Therapie eingeleitet werden. Sollte ein Rezidiv bestätigt werden, ist eine intensive Behandlung erforderlich, da der ZNS-Befall eine besondere Herausforderung darstellt. Die autologe Stammzelltransplantation ist bei geeigneten Patienten eine etablierte Option mit dem Potenzial für eine längere Remission. Bei Kontraindikationen oder schlechtem Allgemeinzustand können alternative Therapieansätze wie palliative Chemotherapie oder zielgerichtete Therapien in Betracht gezogen werden. Die Komorbiditäten des Patienten (PAVK, Adipositas, Frakturen, Post-Zoster-Neuralgie) müssen bei der Therapieplanung berücksichtigt werden, um das Risiko von Nebenwirkungen zu minimieren.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Eine erneute Biopsie der ZNS-Läsion zur histologischen Untersuchung ist dringend erforderlich, um ein Lymphomrezidiv auszuschließen oder zu bestätigen. Sollte ein Rezidiv bestätigt werden, ist eine palliative Behandlung mit einer Kombination aus Hochdosis-Methotrexan und einer intrathekalen Chemotherapie (z.B. Cytarabin) indiziert. Alternativ, falls die Biopsie kein Rezidiv zeigt und die Leukenzephalopathie im Vordergrund steht, sollte eine supportive Behandlung zur Linderung der Symptome und zur Verbesserung der Lebensqualität erfolgen. Eine erneute Stammzelltransplantation ist aufgrund der Komorbiditäten und der bereits durchgemachten Therapie wahrscheinlich nicht indiziert.
+**Begründung:**
+Der Patient präsentiert eine komplexe Situation mit einer Vorgeschichte von DLBCL, erfolgreicher Behandlung, Entwicklung einer therapiebedingten Leukenzephalopathie und nun einer unklaren Verschlechterung des Allgemeinzustandes. Die ESMO-Leitlinien für DLBCL betonen die Bedeutung der histologischen Bestätigung eines Rezidivs, bevor eine erneute Behandlung eingeleitet wird. Die aktuelle Verschlechterung könnte entweder durch ein Lymphomrezidiv oder eine Progression der Leukenzephalopathie bedingt sein. Da die Bildgebung kein eindeutiges Rezidiv zeigt, ist eine Biopsie unerlässlich, um die Ursache der Verschlechterung zu klären. Sollte ein Rezidiv bestätigt werden, empfiehlt sich eine palliative Therapie, da eine intensive Chemotherapie aufgrund der Komorbiditäten (Niereninsuffizienz, PAVK, Morbide Adipositas, Rippen-/Sternumfrakturen) und der Vorbehandlung mit Stammzelltransplantation wahrscheinlich nicht verträglich wäre. Hochdosis-Methotrexan und intrathekalen Chemotherapie sind in der ESMO-Leitlinie als Optionen für ZNS-Befall bei rezidiviertem DLBCL aufgeführt. Sollte die Biopsie kein Rezidiv zeigen, sollte der Fokus auf der Behandlung der Leukenzephalopathie und der Verbesserung der Lebensqualität liegen. Eine erneute Stammzelltransplantation ist aufgrund der bereits durchgemachten Therapie und der Komorbiditäten nicht indiziert.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 Rituximab plus chemotherapy with AVD (doxorubicin, dacarbazine, vindesine) followed by autologous stem cell transplantation.
 **Begründung:**
 Die Diagnose eines diffusen großzelliges B-Zell-Lymphoms (DLBCL) Stadium IVBE mit intraperitonealer und retroperitonealer Beteiligung erfordert eine aggressivere Therapie. Die patientenspezifische Situation, insbesondere die ZNS-Rezidivierung eines DLBCL NOS der Adnexe rechts, und die positive MYC-Expression sprechen für eine hohe Prognose-Risiko.
@@ -2317,8 +2584,8 @@
 Die empfohlene Therapie wurde anhand der patientenspezifischen Situation und der ESMO-Leitlinien erstellt. Die Auswahl von Rituximab plus chemotherapy with AVD followed by autologous stem cell transplantation basiert auf den diagnostischen Informationen und der Kombinationstherapie, die in der Leitlinie empfohlen wird.</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-Therapie in Kombination mit Autologer Stammzelltransplantation (ASCT) nach Remission
@@ -2329,8 +2596,8 @@
 Es gibt keine Hinweise auf eine andere effektivere Therapiemöglichkeit, und die Patientin hat bereits 6 Zyklen R-CHOP-Chemotherapie erhalten, die zu einer kompletten Remission führte. Daher ist eine weitere R-CHOP-Therapie in Kombination mit ASCT nach Remission die beste Therapiemöglichkeit für diese Patientin.</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird eine engmaschige klinische und neurologische Beobachtung sowie neurorehabilitative Maßnahmen zur Begleitung der posttherapeutischen Neurotoxizitäten, kombiniert mit einer fortlaufenden Beobachtung im Sinne einer Surveillance gemäß ESMO-Leitlinien. Bei klinisch relevanten Veränderungen oder Verdacht auf Rezidiv ist eine erneute molekulare Diagnostik (z. B. MYC-Translokation, PD-L1-Status) und gegebenenfalls eine Wiederholung der PET/CT anzuwenden.
@@ -2338,8 +2605,8 @@
 Die aktuelle Diagnostik (MRI 15.02.2024) zeigt keine Hinweise auf ein Lymphomrezidiv, sondern chronische posttherapeutische Neurotoxizitäten (Leukoencephalopathie, Parenchymdefekt) als Folge der Hochdosis-Chemotherapie (Carmustin/Thiotepa) und ZNS-Behandlungen. Laut ESMO-Leitlinien ist bei rezidivierendem DLBCL mit ZNS-Involution und stabiler posttherapeutischer Situation eine Surveillance mit klinischen Kontrollen und Bildgebung entscheidend, um Rezidive frühzeitig zu detektieren. Die aggressive Biologie des triple-positiven Phänotyps (CD20+/MYC+/Bcl-2+) und der ZNS-Rezidiv-Kontext erfordern jedoch eine engmaschige Überwachung. Eine aktive antilymphomatische Therapie ist aktuell nicht indiziert, da kein aktives Tumorwachstum nachgewiesen ist. Die Komorbiditäten (chronische Niereninsuffizienz, kardiovaskuläre Risikofaktoren) limitieren zudem den Einsatz neuerer Therapien wie CAR-T oder Zytostatika. Neurorehabilitation und Symptommanagement der Gangstörung sowie eine Optimierung der Begleiterkrankungen (PAVK, Adipositas) sind daher priorisiert. Bei neu auftretenden Symptomen oder progressiven neurologischen Defiziten ist ein erneuter molekular-pathologischer Abklärungsschritt (z. B. Liquor-Zytologie, Gen-Profiling) nach ESMO-Algorithmus anzuwenden.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Eine weitere aktive antilymphomatische Therapie wird nicht empfohlen. Die aktuelle Therapiezielimplementierung ist reaktiv auf die Monitoring und Langzeitfolgen der bereits durchgeführten intensiven Therapie ausgerichtet. Es wird empfohlen, eine strukturierte Nachsorge durchführen, bestehend aus (1) regelmäßigen neurologischen und kognitiven Assessments zur Überwachung der posttherapeutischen Leukoencephalopathie, (2) intensiver Komorbiditätsmanagement (PAVK, Niereninsuffizienz, Adipositas) sowie (3) jährlichen ZNS-MRT-Untersuchungen zur Früherkennung eventueller rezidivierender Läsionen. Symptomatische Therapieansätze (z. B. Antikonvulsiva, kognitive Reha) sind bei neurologischen Limitationen zu erwägen.  
@@ -2352,45 +2619,35 @@
 Die Empfehlung berücksichtigt die individuelle Risikostratifikation (IPI ≥3, ZNS-Rezidiv) und die ESMO-Defintionen von „low-risk“ vs. „high-risk“ Nachsorge, wobei die Patientin in die high-risk-Gruppe fällt und daher ein intensiveres Monitoring erfordert.</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-I recommend that the patient undergoes a thorough diagnostic evaluation, including MRI and PET/CT scans, to assess for any signs of recurrent or progressive disease.
-**Begründung:**
-Based on the patient's history and current status, it is essential to determine if there is any evidence of recurrent or progressive disease. The ESMO guidelines recommend that patients with a low IPI score should be treated with frontline therapy, which may include chemotherapy and/or immunotherapy. However, before initiating any new therapy, it is crucial to rule out any signs of recurrent or progressive disease.
-Given the patient's history of autologous stem cell transplantation and high-dose chemotherapy, there may be concerns about potential long-term effects on the patient's bone marrow function. Therefore, a thorough diagnostic evaluation is necessary to determine the best course of treatment for this patient.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>As an experienced oncology expert, I need to carefully analyze the patient's information and consider only the ESMO guidelines for making a precise and justified therapy recommendation.
-The patient has a history of diffuse large B-cell lymphoma (DLBCL) with a low International Prognostic Index (IPI) score. The patient has undergone chemotherapy and autologous stem cell transplantation, but the current situation is unclear due to an unexplained deterioration in the patient's general condition.
-Given the patient's history and current status, I need to consider the ESMO guidelines for relapsed or refractory DLBCL. The guidelines recommend that patients with a low IPI score should be treated with frontline therapy, which may include chemotherapy and/or immunotherapy.
-However, before making any recommendations, I need to carefully review the patient's imaging studies and clinical information to determine if there is any evidence of recurrent or progressive disease.</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-High-dose methotrexate (HD-MTX) consolidation therapy, followed by maintenance chemotherapy with rituximab and cyclophosphamide.
-**Begründung:**
-The patient has a history of CNS relapse, which requires aggressive treatment to prevent further progression. HD-MTX is a standard-of-care treatment for CNS lymphoma relapse, as it can penetrate the blood-brain barrier effectively (1). Following HD-MTX consolidation therapy, maintenance chemotherapy with rituximab and cyclophosphamide will help maintain remission and reduce the risk of recurrence.
-The ESMO guidelines recommend that patients with DLBCL and CNS involvement receive high-dose chemotherapy with Carmustin and Thiotepa followed by autologous stem cell transplantation (2). However, considering the patient's history of CNS relapse, I believe that HD-MTX consolidation therapy will provide a more effective treatment approach.
-References:
-1. National Comprehensive Cancer Network (NCCN). Clinical Practice Guidelines in Oncology: Non-Hodgkin Lymphoma. Version 3.2022.
-2. European Society for Medical Oncology (ESMO). ESMO Guidelines on the diagnosis, management and treatment of primary and central nervous system lymphomas. 2019.
-Please note that this recommendation is based solely on the provided patient information and the ESMO guidelines. Further diagnostic and therapeutic approaches may be necessary depending on the patient's specific condition and response to treatment.</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>As a seasoned oncologist, I will carefully analyze the patient's information and follow the ESMO guidelines to provide a precise and justified treatment recommendation.
-The patient has a diagnosis of diffuse large B-cell lymphoma (DLBCL) with a low International Prognostic Index (IPI) score. The patient has received R-CHOP chemotherapy and achieved complete remission. However, the patient has developed a central nervous system (CNS) relapse and is currently undergoing high-dose chemotherapy with Carmustin and Thiotepa followed by autologous stem cell transplantation.
-Given the patient's history of CNS relapse, I will focus on recommendations for managing this specific condition.</t>
-        </is>
-      </c>
+      <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Symptomatische Behandlung der chronischen Leukenzephalopathie mit Fokus auf Verbesserung der Lebensqualität. Dies beinhaltet Physiotherapie, Ergotherapie und ggf. neuropsychologische Betreuung. Eine palliative Behandlung sollte in Betracht gezogen werden, um die Symptome der Leukenzephalopathie zu lindern und die Lebensqualität des Patienten zu verbessern.
+**Begründung:**
+Der Patient präsentiert ein DLBCL mit ZNS-Rezidiv, das bereits mit R-CHOP, MATRix und aSZT behandelt wurde. Das aktuelle klinische Bild deutet auf eine Verschlechterung hin, jedoch zeigt das MRT vom 15.02.24 keine Hinweise auf ein Lymphomrezidiv. Die chronische Leukenzephalopathie, die als Folge der vorherigen Therapie wahrscheinlich ist, ist die wahrscheinlichste Ursache der aktuellen Symptome. Gemäß der ESMO-Leitlinie für rezidiviertes DLBCL sind die Therapieoptionen nach fehlgeschlagener aSZT begrenzt, insbesondere angesichts der multiplen Komorbiditäten des Patienten und des fehlenden Beweises für ein aktives Lymphom. Eine weitere aggressive Chemotherapie wäre wahrscheinlich nicht indiziert und würde die Toxizität erhöhen, ohne den potenziellen Nutzen zu rechtfertigen. Daher ist eine Fokussierung auf die symptomatische Behandlung der chronischen Leukenzephalopathie und die Verbesserung der Lebensqualität die angemessenste Strategie.</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) nach initialer Remission. Das ZNS-Rezidiv ist besonders problematisch. Der Patient hat bereits eine autologe Stammzelltransplantation (aSZT) erhalten und zeigt multiple Komorbiditäten und Vorerkrankungen, die die Therapieplanung erschweren. Der aktuelle klinische Kontext ist eine unklare AZ-Verschlechterung mit Gangstörung. Die Beurteilung des aktuellen MRI (15.02.24) ist entscheidend. Die Leitlinie der ESMO für rezidiviertes DLBCL berücksichtigt den Performance Status, die Remissionsdauer nach initialer Therapie, den IPI-Score und die Eignung für eine hochdosis-Chemotherapie und Stammzelltransplantation. Da der Patient bereits eine aSZT erhalten hat und multiple Komorbiditäten aufweist, sind die Optionen begrenzt. Eine erneute hochdosis-Chemotherapie mit nachfolgender aSZT ist wahrscheinlich nicht indiziert. Die aktuellste MRT-Untersuchung (15.02.24) zeigt chronische Leukenzephalopathie, jedoch keinen Hinweis auf ein Lymphomrezidiv. Daher ist die klinische Verschlechterung wahrscheinlich auf die Leukenzephalopathie zurückzuführen und bedarf einer entsprechenden symptomatischen Behandlung. Eine Biopsie zur Abklärung eines möglichen Rezidivs ist in diesem Fall nicht indiziert, da die Bildgebung keine Hinweise darauf liefert und eine Biopsie mit Risiken verbunden wäre.</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Palliative Behandlung der Leukenzephalopathie und symptomatische Therapie der Komorbiditäten. Regelmäßige neurologische Überwachung und Bildgebung (MRI Schädel) zur Beurteilung der Progression der Leukenzephalopathie und zum Ausschluss einer Lymphomprogression.
+**Begründung:**
+Der Patient hat ein rezidiviertes DLBCL, das bereits intensiv behandelt wurde, einschließlich R-CHOP, MATRix und autologer Stammzelltransplantation. Trotz dieser Behandlungen liegt nun eine progrediente Leukenzephalopathie vor, die wahrscheinlich iatrogen bedingt ist. Aktuelle Bildgebung (MRI Schädel 15.02.24) zeigt keine Hinweise auf eine aktive Lymphomprogression. Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL berücksichtigen den Zustand des Patienten und die vorangegangenen Behandlungen. Angesichts der bereits durchgeführten intensiven Therapien, der erheblichen Komorbiditäten und des Fehlens von Hinweisen auf eine aktive Lymphomprogression ist eine weitere aggressive Lymphom-spezifische Therapie mit hohem Risiko verbunden und nicht indiziert. Stattdessen sollte der Fokus auf der Verbesserung der Lebensqualität und der symptomatischen Behandlung der Leukenzephalopathie und der Komorbiditäten liegen. Eine regelmäßige neurologische Überwachung und Bildgebung sind jedoch weiterhin wichtig, um eine mögliche Progression des Lymphoms oder der Leukenzephalopathie frühzeitig zu erkennen.</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit ZNS-Befall, das trotz initialer Remission und intensiver Behandlung (R-CHOP, MATRix, HDC/ASZT) erneut auftritt. Der aktuelle Zustand ist geprägt von einer progredienten Leukenzephalopathie, vermutlich iatrogen bedingt, sowie einer klinischen Verschlechterung mit Gangstörung. Das Lymphom selbst scheint aktuell nicht aktiv zu sein, was durch die Bildgebung (MRI Schädel 15.02.24) und frühere PET/CTs gestützt wird. Die Komorbiditäten des Patienten sind erheblich und beeinflussen die Behandlungsstrategie stark.
+Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL betrachten verschiedene Optionen, darunter Immuntherapien (z.B. Rituximab, Obinutuzumab), Chemotherapie (z.B. R-CHOP, ICE, DHAP), autologe oder allogene Stammzelltransplantation und klinische Studien. Aufgrund der bereits durchgeführten ASZT und der erheblichen Komorbiditäten des Patienten ist eine weitere intensive Chemotherapie oder allogene Transplantation mit hohem Risiko verbunden. Der Fokus sollte auf der Behandlung der symptomatischen Leukenzephalopathie und der Verbesserung der Lebensqualität liegen. Eine erneute Lymphom-spezifische Therapie scheint derzeit nicht indiziert, solange keine eindeutigen Anzeichen für eine aktive Progression vorliegen. Eine palliative Behandlung der Leukenzephalopathie und eine symptomatische Therapie der Komorbiditäten sind daher vorrangig.</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Keine aktive antilymphomatische Therapie ist im aktuellen Stadium erforderlich. Die Therapiepalette ist auf die Symptomkontrolle und Monitoring der posttherapeutischen neurologischen Veränderungen auszurichten.  
@@ -2403,7 +2660,7 @@
 Eine erneute Tumornachweisuntersuchung mit PET/CT oder Liquoruntersuchung ist nicht indiziert, da die aktuelle Diagnostik kein Lymphomrezidiv zeigt. Die Empfehlung folgt der ESMO-Prämisse, aggressivere Therapien nur bei nachgewiesenem klinisch aktiven Tumor zu initiieren.</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Okay, let's dive into this case. The patient has a history of DLBCL NOS with an IPI score of at least 3, which is a high-risk indicator. They went through R-CHOP chemotherapy and achieved remission, but then had a CNS relapse. After surgery and further treatments like the MARIETTA trial and high-dose chemo with stem cell transplant, the latest MRI in 2024 shows no lymphoma recurrence but progressive signs of chronic leukoencephalopathy. The question is whether there's a residual or recurrent issue.
 First, looking at the recent MRI from 15.02.24, it says "deutlich progrediente Zeichen der chronischen Leukenzephalopathie" and no lymphoma recurrence. So, the main issue now is the post-therapy leukoencephalopathy, not a new lymphoma. The patient also has other comorbidities like obesity, previous infections, and vascular issues.
@@ -2411,7 +2668,7 @@
 Need to check if the MRI findings are consistent with treatment-related changes. The patient's prior high-dose chemo and stem cell transplant could cause leukoencephalopathy. The ESMO guidelines would likely recommend surveillance and managing any complications arising from the existing conditions. Also, considering the patient's age and comorbidities, any further invasive procedures would need to be weighed carefully.</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Bei der aktuellen Präsentation einer unklaren AZ-Verschlechterung mit Gangstörung im Jahr 2024 fehlt ein klinisch-pathologischer Nachweis einer intrakraniellen Lymphomprogression. Die MR-Befunde von 15.02.2024 zeigen keine Hinweise auf ein Lymphomrezidiv, sondern ausschließlich posttherapeutische Veränderungen in Form einer chronischen Leukenzephalopathie. Daher ist **keine zytostatische Therapie indiziert**. Stattdessen ist eine differenzielle Abklärung der neuropsychiatrischen Symptome im Kontext der bekannten langfristigen Nebenwirkungen der Hochdosis-Chemo (Carmustin, Thiotepa) und der bestehenden Morbiditäten (Morbide Adipositas, PAVK) erforderlich.  
@@ -2427,7 +2684,7 @@
 - Exklusion von metabolischen oder infektiösen Ursachen für die Symptomverschlechterung.</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>Okay, let me start by going through the patient's history and the given information carefully. The patient has DLBCL NOS that initially presented in the adnexal area and later recurred in the CNS. She had six cycles of R-CHOP, achieved CR, and then a relapse in the brain. She underwent surgery and then treatment with the MATRix regimen, followed by high-dose chemo and ASCT. Now, in 2024, there's a new AZ worsening with gait disturbance, but the MRI shows no CNS recurrence, only chronic leukoencephalopathy. 
 The main challenge here is that the current symptoms might be due to the late effects of prior therapies rather than a new relapse. The ESMO guidelines for DLBCL focus on initial treatment, relapsed/refractory cases, and CNS involvement. Since the patient has already undergone multiple lines of therapy including ASCT, if there's a recurrence now, it's likely refractory or relapsed. However, the latest imaging doesn't show a lymphoma recurrence.
@@ -2437,10 +2694,6 @@
 Therefore, the current symptoms might not be due to lymphoma, and the appropriate approach is to rule out new recurrence and manage symptoms as per the guidelines. If new lesions are found, then proceed with second-line therapy. Otherwise, continue monitoring and support.</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -2479,6 +2732,20 @@
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
+      <c r="BJ10" t="inlineStr"/>
+      <c r="BK10" t="inlineStr"/>
+      <c r="BL10" t="inlineStr"/>
+      <c r="BM10" t="inlineStr"/>
+      <c r="BN10" t="inlineStr"/>
+      <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="inlineStr"/>
+      <c r="BW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2505,6 +2772,24 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
+R-CHOP-14 (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon) für 6 Zyklen, beginnend nach Abschluss der Stadieneinteilung mittels PET/CT. Bei deutlicher Komorbidität und/oder eingeschränkter Organfunktion sollte eine Dosisreduktion bzw. alternative Therapie wie z.B. R-mini-CHOP erwogen werden.
+**Begründung:**
+Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) vom Keimzentrums-Typ mit einem Double-Expressor-Phänotyp (MYC+/BCL2+). Der Double-Expressor-Status ist mit einer schlechteren Prognose verbunden, bedingt jedoch nicht automatisch eine abweichende Standardtherapie. Aktuell liegt noch kein vollständiges Staging vor, das PET/CT vom 19.02.2024 ist hier essentiell. Gemäß den ESMO-Leitlinien stellt die R-CHOP-Chemotherapie den Standard für die Erstbehandlung von DLBCL dar. Die vorliegenden Nebendiagnosen (arterielle Hypertonie, Vorhofflimmern, Osteoporose mit Fraktur) erfordern eine sorgfältige kardiale Risikobewertung vor Therapiebeginn. Ein TTE-Befund ist hierzu erforderlich. Die initial vorgeschlagene Therapie mit 2 Zyklen R-mini-CHOP mit anschließender PET/CT-Verlaufskontrolle ist zwar eine Option bei Komorbiditäten, jedoch ist R-CHOP in der Regel effektiver und wird daher bevorzugt, sofern die kardiale Funktion dies zulässt. Die Entscheidung für R-mini-CHOP sollte erst nach Abwägung der Risiken und Vorteile und im Hinblick auf die Ergebnisse der weiteren Diagnostik (PET/CT, TTE) getroffen werden. Die Dauer von 6 Zyklen R-CHOP entspricht den ESMO-Empfehlungen für die Erstbehandlung von DLBCL.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+R-CHOP-14 (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon) für 14 Zyklen, beginnend sobald der Patient als fitt für die Therapie beurteilt wird und eine adäquate Organfunktion vorliegt. Eine Reduktion der Dosis von Cyclophosphamid und Doxorubicin sollte bei Berücksichtigung der Begleiterkrankungen (tachykardes Vorhofflimmern, Osteoporose mit Fraktur) erwogen werden.
+**Begründung:**
+Der Patient präsentiert sich mit einem diagnostizierten diffus großzelligen B-Zell-Lymphom (DLBCL) vom Keimzentrums-Typ mit einem aggressiven Phänotyp (hoher Ki-67-Wert, MYC-Positivität).  Die ESMO-Leitlinien empfehlen für fitte Patienten mit DLBCL eine initiale Therapie mit R-CHOP oder ähnlichen Regimen.  R-CHOP gilt als Standardtherapie für DLBCL und hat sich in klinischen Studien als wirksam erwiesen.  Die Angabe eines Double-Expressor Phänotyps (MYC+/BCL-2+) deutet auf ein aggressiveres Subtyp hin, rechtfertigt aber keine Änderung des initialen Therapieansatzes, da dies in der ESMO-Leitlinie nicht explizit empfohlen wird. Die Begleiterkrankungen des Patienten (arterielle Hypertonie, tachykardes Vorhofflimmern, Osteoporose mit Fraktur) erfordern eine sorgfältige Überwachung und ggf. eine Dosisanpassung, insbesondere von Cyclophosphamid und Doxorubicin, um kardiale Toxizität und myelosuppression zu minimieren.  Ein PET/CT ist essentiell zur genauen Stadieneinteilung und Beurteilung der extranodalen Beteiligung. Das Ergebnis des PET/CT kann die Therapieentscheidung nicht fundamental verändern, ist aber für die Risikostratifizierung und ggf. Konsolidierungstherapie relevant.  Die TTE sollte ebenfalls zur Beurteilung der kardialen Funktion vor Therapiebeginn durchgeführt werden.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
 R-mini-CHOP-Therapie mit PET/CT-Verlaufskontrolle
 **Begründung:**
 Die Diagnose eines DLBCL mit Double-Expressor Phänotyp und Keimzentrums-Typ ist histopathologisch bestätigt. Die Patientin zeigt Begleitsymptome wie Ungewollter Gewichtsverlust und lokale Schmerzen im Bereich der zervikalen Läsion, was eine notwendige Therapie im Ansatz begründet.
@@ -2514,8 +2799,8 @@
 Insgesamt bietet eine R-mini-CHOP-Therapie mit PET/CT-Verlaufskontrolle einen sinnvollen und leitlinienbasierten Ansatz zur Behandlung des Patienten.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-Therapie (Cyclophosphamid, Doxorubicin, Vincristin, Prednison, Rituximab) für 6 Zyklen.
@@ -2527,8 +2812,8 @@
 Insgesamt ist eine R-CHOP-Therapie als Standardtherapie für den Patienten geeignet und sollte für 6 Zyklen durchgeführt werden.</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 R-EPOCH (Rituximab + Etoposid, Prednison, Vincristin, Cyclophosphamid, Doxorubicin) in modifizierter Dosis, begleitet von einer interim PET/CT nach 2–3 Zyklen, unter strikter prätherapeutischer Herzfunktionseinschätzung (TTE) sowie einer definitive Staging-Abklärung per PET/CT. Bei kontraindizierter Doxorubicin-Anwendung aufgrund von Herzinsuffizienz (TTE-Ergebnis) Alternativtherapie: R-GCVP (Rituximab + Gemcitabin, Cyclophosphamid, Vincristin, Prednisolon).  
@@ -2547,8 +2832,8 @@
    - TTE und definitive Staging-PET/CT (19.02.2024) sind unerlässlich, um die Therapie auf Herzfunktion und Tumorausdehnung anzupassen. Ohne diese Daten wäre eine definitive Therapieempfehlung nicht möglich.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Anwendung von R-CHOP (Rituximab + Cyclophosphamid, Doksorubicin, Vinkristin, Prednison) als Standardtherapie gemäß ESMO-Leitlinien, unter Berücksichtigung einer kardiotoxisch reduzierten Doksorubicin-Dosis (z. B. 50 mg/m²) aufgrund des Vorhofflimmerns und der notwendigen Echokardiografie zur Herzfunktionsbeurteilung. Eine definitive Therapieentscheidung ist erst nach Abschluss der PET/CT für Stadieneinteilung und Echokardiografie möglich.
@@ -2560,44 +2845,36 @@
 5. **ESMO-Konformität:** Die Empfehlung entspricht der ESMO-Leitlinie, die R-CHOP bei DLBCL mit der Option zur Dosisanpassung bei Risikofaktoren favorisiert und ein individuelles Staging als Voraussetzung für die Therapieoptimierung definiert.</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Zwei Zyklen R-CHOP (Cyclophosphamid, Doxorubicin, Vincristin, Prednison) plus PET/CT-Verlaufskontrolle.
-**Begründung:**
-Die Patientin leidet an einem DLBCL-Diagnose mit einer inhomogenen Raumforderung zervikal rechts. Histopathologische Analysen zeigen ein CD20-positive, CD19-positive und MYC-positive Tumorprofil. Die PET/CT-Untersuchung vom 19.02.2024 steht aus.
-Gemäß der Leitlinie ESMO für die Behandlung von DLBCL (1) sollten Patienten mit einer inhomogenen Raumforderung und einem positiven CD20-Antigen ein R-CHOP-Schema erhielten. Das R-CHOP-Schema ist eine effektive Therapieoption für Patienten mit DLBCL, insbesondere wenn das Tumorprofil CD20-positiv ist (2).
-Da die Patientin keine relevanten Kontraindikationen gegen ein R-CHOP-Schema hat und keine Anzeichen einer Herzinsuffizienz aufweist, wird eine Zwei-Zyklen-Therapie mit PET/CT-Verlaufskontrolle empfohlen. Nach Abschluss der Therapie sollte eine PET/CT-Untersuchung durchgeführt werden, um den Tumorstatus zu überprüfen und weitere Behandlungschritte zu planen (1).
-Insgesamt bietet das R-CHOP-Schema aufgrund seiner etablierten Wirksamkeit und Sicherheit eine geeignete Therapieoption für die Patientin.
-Quellen:
-(1) ESMO Clinical Practice Guidelines for the management of diffuse large B-cell lymphoma (DLBCL): a case-based approach. Ann Oncol 2020;31(suppl_8):vii13-vii29.
-(2) The International Extrandal Lymphoma Study Group (IELSG). Prognostic factors and outcome in diffuse large B cell lymphoma: an analysis of 136 cases. Leukemia 2015;29(6):1341-1350.</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Patienteninformationen sorgfältig analysieren... DLBCL-Diagnose, histopathologische Daten, PET/CT-Befund, sekundäre Diagnosen (Arterielle Hypertonie, Tachykardes Vorhofflimmern, Frische bis subakute LWK1-Fraktur bei Osteoporose) und klinische Informationen (zunehmende Schwellung zervikal rechts, gelegentlich lokale Schmerzen im Bereich der zervikalen Läsion) berücksichtigen...
-Leitlinie ESMO beachten... Richtlinien für die Behandlung von DLBCL...</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Ich empfehle eine Kombinationstherapie aus Doxorubicin, Cyclophosphamid und Prednison (R-CHOP) als Behandlungsoption für den Patienten.
-**Begründung:**
-Die ESMO-Leitlinie empfiehlt R-CHOP als Standardtherapie für Patienten mit DLBCL in Stufe III oder IV. Da das Lymphom des Patienten keine spezifischen Marker für eine bestimmte Untergruppe aufweist, kann man davon ausgehen, dass es ein Common-DLBCL ist. Die aggressive Tumorbiologie und die hohe Ki-67-Zellproliferationsrate sprechen gegen eine modifizierte Therapie. Da keine spezifischen Anhaltspunkte dafür vorliegen, dass andere Faktoren wie die Arterielle Hypertonie oder das Vorhofflimmern die Wahl der Chemotherapie beeinflussen sollten, ist R-CHOP als Standardtherapie eine angemessene Wahl.</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Vor dem Start meiner Analyse muss ich die Patienteninformationen sorgfältig überprüfen, um die wichtigsten Aspekte zu identifizieren. Der Patient leidet an einem Diffus grosszelligem B-Zell-Lymphom (DLBCL), das nach histopathologischer Auswertung CD20-positiv, CD19-positiv und MYC-positiv ist. Es gibt keine Angaben über den Ann Arbor-Stadium, was ein wichtiger Faktor bei der Therapieempfehlung wäre. Der Patient hat jedoch eine relativ hohe Ki-67-Zellproliferationsrate von 60%. Zudem gibt es Hinweise auf eine aggressive Tumorbiologie durch die CD30-positivität und die partielle CD10-Negativität.
-Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL in Stufe III oder IV eine Kombinationstherapie aus Anthracyklinen, Cyclophosphamid und Prednison als Standardtherapie. Da das Lymphom des Patienten keine spezifischen Marker für eine bestimmte Untergruppe aufweist, kann man davon ausgehen, dass es ein Common- DLBCL ist.
-Die patientenspezifischen Faktoren wie die Arterielle Hypertonie, das Vorhofflimmern und die Osteoporose können bei der Therapiewahl berücksichtigt werden. Es gibt jedoch keine spezifischen Anhaltspunkte dafür, dass diese Faktoren die Wahl der Chemotherapie beeinflussen sollten.
-Im Fokus meiner Analyse steht nun die Frage, ob eine Kombinationstherapie aus Anthracyklinen, Cyclophosphamid und Prednison sinnvoll ist. Da das Lymphom relativ aggressiv ist und keine spezifischen Marker für eine bestimmte Untergruppe aufweist, scheint die Standardtherapie angemessen.</t>
-        </is>
-      </c>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Initiierung von 2 Zyklen R-mini-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon), gefolgt von einer PET/CT-Verlaufskontrolle. Bei Anzeichen einer relevanten Herzinsuffizienz im TTE-Ergebnis sollte alternativ das R-GCVP-Schema (Rituximab, Gemcitabin, Carboplatin, Vincristin, Prednisolon) in Betracht gezogen werden.
+**Begründung:**
+Die Diagnose eines DLBCL mit Keimzentrums-Phänotyp und Double-Expressor-Status (Bcl-2 und MYC positiv) erfordert eine systemische Therapie gemäß den ESMO-Leitlinien. R-CHOP ist das Standard-First-Line-Regime für DLBCL. Die vorgeschlagene R-mini-CHOP-Variante kann bei älteren oder komorbiden Patienten eingesetzt werden, um die Toxizität zu reduzieren, ohne die Wirksamkeit signifikant zu beeinträchtigen. Die initiale PET/CT-Verlaufskontrolle nach 2 Zyklen dient der Beurteilung des Ansprechens und der Anpassung der Therapie. Der Double-Expressor-Status kann mit einem ungünstigeren Prognose verbunden sein, daher ist eine engmaschige Überwachung und ggf. eine Intensivierung der Therapie nach Bedarf indiziert. Die bestehende Vorhofflimmern und die arterielle Hypertonie müssen bei der Therapieplanung berücksichtigt werden, ebenso die Osteoporose mit der bestehenden Fraktur. Sollte die TTE eine relevante Herzinsuffizienz zeigen, wäre das R-GCVP-Schema die bevorzugte Option, da es kardiotoxischer ist als R-CHOP.</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) mit einem Keimzentrums-Phänotyp und einem Double-Expressor-Status (Bcl-2 und MYC positiv). Die Biopsie zeigt eine hohe Proliferationsrate (Ki-67 60%). Die klinische Präsentation umfasst eine zervikale Raumforderung mit lokaler Schmerzhaftigkeit und Gewichtsverlust. Wichtig ist, dass der PET/CT-Befund noch aussteht, aber die vorgeschlagene Strategie (2 Zyklen R-mini-CHOP mit PET/CT-Verlaufskontrolle) erscheint initial angemessen. Die Begleiterkrankungen (arterielle Hypertonie, Vorhofflimmern, Osteoporose mit Fraktur) müssen bei der Therapieplanung berücksichtigt werden. Da der Patient einen Double-Expressor Phänotyp aufweist, könnte eine intensivere Therapie erwogen werden, abhängig vom PET/CT-Stadium und der Ansprechrate auf die initiale Behandlung. Die TTE steht noch aus und könnte Hinweise auf eine relevante Herzinsuffizienz geben, die die Wahl des Therapieprotokolls beeinflussen könnte (R-GCVP als Alternative). Ohne PET/CT-Befund ist eine definitive Aussage zum Stadium und damit zur optimalen Therapie nicht möglich.</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+R-CHOP-basierte Chemotherapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) nach vollständiger Stadieneinteilung (insbesondere PET/CT) und Beurteilung der Begleiterkrankungen.
+**Begründung:**
+Der Patient präsentiert ein DLBCL, welches gemäß ESMO mit einer R-CHOP-basierten Chemotherapie behandelt werden sollte.  Die Histopathologie zeigt einen Double-Expressor Phänotyp (Bcl-2 und MYC positiv), was mit einem potenziell höheren Rezidivrisiko assoziiert ist.  Allerdings ist ohne vollständige Stadieneinteilung (fehlender PET/CT Befund) und Informationen zum IPI-Score keine definitive Entscheidung über eine intensivere Therapie möglich. Die R-CHOP-Therapie sollte nach vollständiger Stadieneinteilung und unter Berücksichtigung der Begleiterkrankungen (arterielle Hypertonie, Vorhofflimmern, Osteoporose) eingeleitet werden. Nach Beurteilung des Therapieansprechens und des vollständigen Staging sollte die weitere Behandlung (z.B. Konsolidationsstrategie) in Absprache mit einem erfahrenen Onkologen festgelegt werden.</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) zervikal rechts, Keimzentrums-Typ, mit einem Double-Expressor Phänotyp (Bcl-2 positiv, MYC positiv). Die Histopathologie zeigt CD20, CD19, CD30 (partiell) und Bcl-6 Positivität, aber CD10 und MUM1 Negativität. Der Ki-67 Proliferationsindex ist mit 60% erhöht.  Die Informationen zum Stadium sind unvollständig (Ann Arbor Stage fehlt), und der PET/CT Befund steht noch aus. Es liegen Begleiterkrankungen vor (arterielle Hypertonie, Vorhofflimmern, LWK1-Fraktur bei Osteoporose).
+Da es sich um ein DLBCL handelt, ist die Standardtherapie gemäß ESMO eine R-CHOP-basierte Chemotherapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison). Aufgrund des Double-Expressor Phänotyps (Bcl-2 und MYC positiv) könnte der Patient ein höheres Rezidivrisiko haben, was die Notwendigkeit einer intensiveren Therapie oder einer zusätzlichen Behandlung in der Konsolidationsphase nahelegt.  Allerdings ist ohne vollständige Stadieneinteilung (insbesondere PET/CT) und weitere Informationen (z.B. IPI-Score) eine definitive Empfehlung für eine intensivere Therapie nicht möglich.
+Daher empfehle ich zunächst die Standard-R-CHOP-Therapie, sobald das vollständige Staging (PET/CT) vorliegt und der Patient als für eine intensive Chemotherapie geeignet beurteilt wurde (Berücksichtigung der Begleiterkrankungen).  Nach Beurteilung des Ansprechens auf die Therapie und des vollständigen Staging sollte die weitere Behandlung (z.B. Konsolidationsstrategie) in Absprache mit einem erfahrenen Onkologen festgelegt werden.</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Initiierung einer **2-Zyklus-Therapie mit R-mini-CHOP**, gefolgt von einer PET/CT-Verlaufskontrolle zur Beurteilung der Therapieresponsivität.  
@@ -2608,7 +2885,7 @@
 Die aktuelle Therapieempfehlung orientiert sich somit an der **ESMO-Strategie**, bei comorbidem Risikoprofil eine **modifizierte, aber nicht de-escalierende Therapie** anzuwenden, um die Effikazität zu erhalten, gleichzeitig aber die kardiale Belastung zu reduzieren. Die **Double-Expressor-Subtypologie** (MYC/Bcl-2) und der hohe Ki-67-Fraktionswert unterstreichen die Notwendigkeit einer **frühzeitigen und intensiven Therapie**, weshalb eine 2-Zyklen-R-mini-CHOP-Behandlung gefolgt von PET/CT-Response-Beurteilung als angemessener Ansatz angesehen wird.</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL, which is a diffuse large B-cell lymphoma. The diagnosis is non-otherwise specified (NOS) according to WHO 2022, but with some specific markers. The subtype is germinal center type, double-expressor phenotype (MYC and Bcl-2 positive). The Ki-67 is 60%, which is high. 
 The patient has a 6x3x6 cm mass in the neck, right side, which was diagnosed via biopsy. She has a 5 kg weight loss in 3-4 months, indicating B symptoms (weight loss), and localized pain. These are part of the IPI (International Prognostic Index) criteria, which can affect prognosis.
@@ -2617,7 +2894,7 @@
 The proposed plan is 2 cycles of R-mini-CHOP, then a PET/CT to assess response. If she has a good response, maybe further cycles can be considered. But if there's a cardiac issue found in the TTE, switching to R-GCVP (which uses gemcitabine and cisplatin instead of anthracycline, so less heart damage) would be better. The pending TTE is crucial here. Also, the Ann Arbor stage isn't provided, which affects staging and treatment. But given the info, the recommendation aligns with ESMO's approach for high-risk but comorbid patients.</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Weitere diagnostische Schritte (vollständige PET/CT-Staging und TTE) sind erforderlich, bevor eine definitive Therapie empfohlen werden kann. Nach ESMO-Regelungen ist bei DLBCL mit Double-Expressor-Phänotyp (MYC + Bcl-2 positiv) und hohem Ki-67-Wert (&gt;50%) ein intensiveres Therapiekonzept (z. B. R-EPOCH) in Betracht zu ziehen, sofern die Staging-Untersuchungen eine lokalisierte oder fortgeschrittene Erkrankung bestätigen und die kardiale Funktion ausreichend ist.
@@ -2630,7 +2907,7 @@
 6. **Fehlende PET/CT und TTE:** Ohne diese Daten ist keine definitive Therapieempfehlung möglich. ESMO legt Wert auf vollständige diagnostische Abklärung vor Therapiebeginn.</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>Okay, let's tackle this DLBCL case. The patient has a diffuse large B-cell lymphoma (DLBCL) of the right cervical region, diagnosed in January 2024. The subtype is germinal center type, double-expressor with MYC and Bcl-2 positivity, and a Ki-67 of 60%. The ESMO guidelines are the main reference here.
 First, I need to recall ESMO's approach to DLBCL. The standard first-line treatment for newly diagnosed DLBCL is R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, prednisone). However, there are exceptions for high-risk subtypes. The double-expressor phenotype (MYC and Bcl-2 positive) is a significant risk factor. ESMO might recommend more intensive regimens in such cases.
@@ -2641,10 +2918,6 @@
 In summary, without the necessary staging and cardiac evaluation, a definitive treatment plan can't be made. The recommendations would include completing the PET/CT and TTE to guide further therapy. If the staging is limited and PET shows favorable results, perhaps a R-CHOP approach could be considered with close monitoring. However, for a double-expressor DLBCL, more intensive therapy might be warranted once staging is complete. The patient's comorbidities will influence the choice of regimen and supportive care measures.</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -2683,6 +2956,20 @@
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
+      <c r="BJ11" t="inlineStr"/>
+      <c r="BK11" t="inlineStr"/>
+      <c r="BL11" t="inlineStr"/>
+      <c r="BM11" t="inlineStr"/>
+      <c r="BN11" t="inlineStr"/>
+      <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="inlineStr"/>
+      <c r="BW11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tuboEval/expert_review_sheets/expert_evaluation_sheet_v2.xlsx
+++ b/tuboEval/expert_review_sheets/expert_evaluation_sheet_v2.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BW11"/>
+  <dimension ref="A1:BI11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,340 +472,270 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_llama3_ModFalse - Final Recommendation</t>
+          <t>MultiAgent_qwen3_32b_ModFalse - Final Recommendation</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_llama3_ModFalse - Think Block</t>
+          <t>MultiAgent_qwen3_32b_ModFalse - Think Block</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_llama3_ModTrue - Final Recommendation</t>
+          <t>MultiAgent_qwen3_32b_ModTrue - Final Recommendation</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_llama3_ModTrue - Think Block</t>
+          <t>MultiAgent_qwen3_32b_ModTrue - Think Block</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_qwen3_32b_ModFalse - Final Recommendation</t>
+          <t>SinglePrompt_gemma3_27b_ModFalse - Final Recommendation</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_qwen3_32b_ModFalse - Think Block</t>
+          <t>SinglePrompt_gemma3_27b_ModFalse - Think Block</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_qwen3_32b_ModTrue - Final Recommendation</t>
+          <t>SinglePrompt_gemma3_27b_ModTrue - Final Recommendation</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>MultiAgent_qwen3_32b_ModTrue - Think Block</t>
+          <t>SinglePrompt_gemma3_27b_ModTrue - Think Block</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_gemma3_27b_ModFalse - Final Recommendation</t>
+          <t>SinglePrompt_qwen3_32b_ModFalse - Final Recommendation</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_gemma3_27b_ModFalse - Think Block</t>
+          <t>SinglePrompt_qwen3_32b_ModFalse - Think Block</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_gemma3_27b_ModTrue - Final Recommendation</t>
+          <t>SinglePrompt_qwen3_32b_ModTrue - Final Recommendation</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_gemma3_27b_ModTrue - Think Block</t>
+          <t>SinglePrompt_qwen3_32b_ModTrue - Think Block</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_qwen3_32b_ModFalse - Final Recommendation</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_qwen3_32b_ModFalse - Think Block</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_qwen3_32b_ModTrue - Final Recommendation</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>SinglePrompt_qwen3_32b_ModTrue - Think Block</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Adherence (1-5)</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Comments</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Correctness (1-5)</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Clarity (1-5)</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Overall (1-5 Best)</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModFalse - Comments</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Adherence (1-5)</t>
+          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Comments</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Correctness (1-5)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Clarity (1-5)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Overall (1-5 Best)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_gemma3_27b_ModTrue - Comments</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModFalse - Adherence (1-5)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Comments</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModFalse - Correctness (1-5)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModFalse - Clarity (1-5)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModFalse - Overall (1-5 Best)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModFalse - Comments</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModTrue - Adherence (1-5)</t>
+          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Comments</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModTrue - Correctness (1-5)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModTrue - Clarity (1-5)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModTrue - Overall (1-5 Best)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_llama3_ModTrue - Comments</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Adherence (1-5)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Comments</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Correctness (1-5)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Clarity (1-5)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Overall (1-5 Best)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModFalse - Comments</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Adherence (1-5)</t>
+          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Comments</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Correctness (1-5)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Adherence (1-5)</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Clarity (1-5)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Correctness (1-5)</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Overall (1-5 Best)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Clarity (1-5)</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Eval: MultiAgent_qwen3_32b_ModTrue - Comments</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Adherence (1-5)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Comments</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Correctness (1-5)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Adherence (1-5)</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Clarity (1-5)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Correctness (1-5)</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Overall (1-5 Best)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Clarity (1-5)</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModFalse - Comments</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Overall (1-5 Best)</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Adherence (1-5)</t>
+          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Comments</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Correctness (1-5)</t>
+          <t>Overall Best Recommendation (Type Name)</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Clarity (1-5)</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Overall (1-5 Best)</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_gemma3_27b_ModTrue - Comments</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Adherence (1-5)</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Correctness (1-5)</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Clarity (1-5)</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Overall (1-5 Best)</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModFalse - Comments</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Adherence (1-5)</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Correctness (1-5)</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Clarity (1-5)</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Overall (1-5 Best)</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>Eval: SinglePrompt_qwen3_32b_ModTrue - Comments</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>Overall Best Recommendation (Type Name)</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>General Comments for Patient</t>
         </is>
@@ -855,31 +785,6 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Consolidation with HD-CHT and ASZT for 3 cycles, followed by maintenance therapy with R-ICE every 21 days.
-**Begründung:**
-Die Patientin befindet sich in einem partial remission-Zustand (Deauville-Score 4), was eine weitere intensivere Therapie notwendig macht. Die ESMO-Leitlinie empfiehlt für den Fall von DLBCL, Stadium IV, die Kombinationstherapie mit HD-CHT und ASZT nach erster Remission (1). Da die Patientin bereits R-CHOP und MATRix/R-ICE-Chemotherapie erhalten hat, ist eine weitere Kombinationstherapie notwendig, um die Krankheit in Schach zu halten. Die Leitlinie empfiehlt auch die Verwendung von HD-CHT als Consolidationstherapie nach erster Remission (2). Da die Patientin eine IPI-Score 3 hat, ist eine weitere intensivere Therapie notwendig, um die Überlebensrate zu verbessern. Die ESMO-Leitlinie empfiehlt auch die Verwendung von maintenance therapy nach Consolidationstherapie, um die Krankheit in Schach zu halten (3). Daher schlage ich eine Kombinationstherapie mit HD-CHT und ASZT für 3 Zyklen, gefolgt von maintenance therapy mit R-ICE alle 21 Tage.
-Quellen:
-(1) Casasnovas et al. (2019): Consensus guidelines of the European Society for Medical Oncology (ESMO) on the treatment of patients with diffuse large B-cell lymphoma (DLBCL). Annals of Oncology, 30(3), 341-353.
-(2) Schmitz et al. (2008): Treatment of patients with newly diagnosed non-Hodgkin's lymphoma: a systematic review and meta-analysis of randomized clinical trials. Journal of Clinical Oncology, 26(20), 3324-3331.
-(3) Pfreundschuh et al. (2014): Maintenance therapy with rituximab improves outcome in patients with diffuse large B-cell lymphoma after first-line treatment: results from the MARIETTA trial. Journal of Clinical Oncology, 32(5), 444-451.</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie für Patienten ID 1-20240227-ChNo ist eine Kombination aus R-CHOP-Therapie und MATRix/R-ICE-Therapie, wie in der vorherigen Therapiereihe durchgeführt. Die PET-CT-Befunde zeigen eine partielle Remission, was eine kontinuierliche, intensive Chemotherapie nach ESMO-Leitlinien nahelegt.
-**Begründung:**
-Die Diagnose eines diffusen grosszelliges B-Zell-Lymphoms (DLBCL), Stadium IV, R-IPI 3 Punkte, rechtfertigt eine intensivere Chemotherapie gemäß ESMO-Leitlinien. Die vorherige Therapiereihe mit R-CHOP und MATRix/R-ICE hat bereits zu einer partiellen Remission geführt, was die Notwendigkeit weiterer intensiver Maßnahmen nachweist.
-Die PET-CT-Befunde zeigen noch einige stoffwechselaktive Verdichtungen in den Lungenoberlappen, die auf eine persistierende Lymphommanifestation hinweisen. Eine weitere Kombination aus R-CHOP und MATRix/R-ICE-Therapie kann diese Verdichtungen reduzieren und die Krankheitsaktivität minimieren.
-Die Prognose Score von 3 Punkten nach IPI rechtfertigt eine aggressive Therapie, um die Überlebensrate zu verbessern. Die ESMO-Leitlinien empfehlen in diesem Stadium IV eine Kombination aus Chemotherapie und Immuntherapie, wie R-CHOP und MATRix/R-ICE-Therapie.
-Insgesamt ist die empfohlene Therapie nach ESMO-Leitlinien geeignet, um die Krankheitsaktivität zu minimieren und die Überlebensrate zu verbessern.</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die geplante **Konsolidierung mit hochdosierter Chemotherapie (HD-CHT) gefolgt von autologer Stammzelltransplantation (ASZT)** gemäß dem MARIETTA Trial (MATRix/R-ICE-Protokoll), unter strikter Abklärung der Lungenergussungen und Bestätigung des Remissionsstatus durch das cMRI Schädel und die PET/CT.  
 **Begründung:**  
@@ -891,8 +796,8 @@
 Die Therapieentscheidung folgt der ESMO-Strategie zur Risikostratifizierung und Konsolidierung bei Hochrisikopatienten, wobei die **Sicherung einer mindestens partielldiseminierter Remission** vor ASZT zentral ist. Die geplante Vorgehensweise ist zeitkritisch, um das rezidivfreie Überleben zu maximieren.</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung der planmäßigen autologen Stammzelltransplantation (ASCT) nach Konsolidationstherapie, vorausgesetzt die ausstehenden PET/CT und cMRI bestätigen keine Progression und eine stabile partielle Remission (Deauville Score ≤4). Bei Bestätigung der aktuellen Befunde ist eine intensivere Konsolidationstherapie (z. B. mit Hochdosis-Chemotherapie) vor ASCT anzustreben.  
@@ -900,8 +805,8 @@
 Gemäß ESMO-Leitlinien für diffuses B-Zell-Lymphom Stadium IV mit hoher Risikoprofil (R-IPI 3) ist bei persistierender metabolischer Aktivität nach induktiver Therapie (hier: MATRix/R-ICE) eine Stammzelltransplantation eine etablierte Konsolidationsstrategie, um die Überlebenschancen zu verbessern. Der aktuelle Deauville Score 4 (partielle Remission) und die histologische Befunde (DLBCL *NOS*, BCL6-Translokation, MYC-negativ) sprechen für eine intermediäre bis hohe Therapieresponsivität. Die ESMO empfiehlt in solchen Fällen eine ASCT nach Erreichen einer mindestens partiellen Remission, um rezidivfreies Überleben zu optimieren. Die ausstehenden Befunde (PET/CT, cMRI) sind entscheidend, um die Tumorlast zu validieren und die Eignung für ASCT abzusichern. Bei Bestätigung der aktuellen Befunde ist eine intensivere Konsolidationstherapie vor Transplantation zu erwägen, um potenziell residuierende Therapieresistente Subklone zu eliminieren. Die neuen Lungenschatten erfordern differenzielle Diagnose, beeinflussen jedoch die primäre Therapieempfehlung nicht, solange keine klinisch relevante Progression nachgewiesen ist.</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Fortführung der geplanten Konsolidierungstherapie mit hochdosierter Chemotherapie (HD-CHT) gefolgt von autologer Stammzelltransplantation (ASZT) gemäß dem Protokoll.
@@ -909,14 +814,14 @@
 Der Patient präsentiert einen DLBCL Stadium IV mit einem IPI von 3, was ein erhöhtes Rezidivrisiko signalisiert. Trotz Erreichung einer partiellen Remission (Deauville 4) nach R-CHOP und MATRix/R-ICE persistiert die Erkrankung in den axillären Lymphknoten und der Milz. Die ESMO-Leitlinien empfehlen bei DLBCL mit hohem IPI und persistierender Erkrankung nach initialer Therapie eine Konsolidierungstherapie mit dem Ziel, eine komplette Remission zu erreichen und das Rezidivrisiko zu senken. HD-CHT gefolgt von ASZT ist eine etablierte Konsolidierungstherapie für Patienten mit DLBCL und hohem IPI und stellt somit eine adäquate Therapieoption dar. Die ausstehende cMRI des Schädels sollte jedoch vor Therapiebeginn vorliegen, um das Ausmaß der Erkrankung im Primärtumor zu beurteilen und die Therapie gegebenenfalls anzupassen. Die neuen Lungenverdichtungen sollten im Rahmen des weiteren Verlaufes differenziert werden (z.B. Infekt, Progression).</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Der Patient präsentiert sich mit einem DLBCL Stadium IV, IPI 3, und einer partiellen Remission (Deauville 4) nach initialer R-CHOP-Therapie, gefolgt von MATRix/R-ICE. Der aktuelle PET/CT zeigt persistierende Aktivität in den axillären Lymphknoten und in der Milz, sowie neue Verdichtungen in den Lungen. Der Befund im Schädel kann aktuell nicht beurteilt werden, da die entsprechende Bildgebung noch aussteht.
 Die ESMO-Leitlinien für DLBCL empfehlen nach initialer Therapie und Erreichen einer partiellen Remission eine Konsolidierungstherapie, insbesondere bei Patienten mit hohem IPI (wie hier mit 3 Punkten). Die Wahl der Konsolidierungstherapie hängt vom Ansprechen auf die initiale Therapie und dem Risikoprofil ab. Da der Patient eine partielle Remission erreicht hat und ein hohes IPI aufweist, ist eine intensive Konsolidierungstherapie indiziert.
 Die geplante HD-CHT und ASZT stellen eine adäquate Konsolidierungstherapie dar, die mit den ESMO-Empfehlungen übereinstimmt. Es ist jedoch wichtig, die Ergebnisse der ausstehenden cMRI des Schädels abzuwarten, um das Ausmaß der Erkrankung im Primärtumor zu beurteilen und die Therapie entsprechend anzupassen.</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Durchführung einer autologen Stammzelltransplantation (ASZT) nach Erreichen einer vollständigen Remission (CR) nach einer weiteren Chemotherapie oder einer alternativen Behandlung. Bis zur Erreichung einer CR sollte eine weitere Behandlung mit einer Kombination aus R-CHOP oder R-ICE in Betracht gezogen werden, abhängig von der Verträglichkeit und dem Ansprechen auf die bisherige Therapie. Eine alternative Behandlung mit zielgerichteten Therapien wie Anti-CD79b Antikörpern könnte ebenfalls in Betracht gezogen werden.
@@ -924,12 +829,12 @@
 Der Patient präsentiert ein DLBCL Stadium IV mit einem IPI von 3, was auf ein intermediär-hohes Risiko hinweist. Die PET/CT-Untersuchung vom 22.02.2024 zeigt eine partielle Remission (Deauville 4) mit persistierenden LK im rechten Axilla und Splenomegalie. Laut ESMO-Leitlinien ist die ASZT eine Standardoption für Patienten mit DLBCL im Stadium IV nach Erreichen einer CR oder PR. Da der Patient noch keine CR erreicht hat, ist die ASZT derzeit nicht indiziert. Eine weitere Chemotherapie oder eine alternative Behandlung sollte durchgeführt werden, um eine CR zu erreichen und den Patienten für eine ASZT zu qualifizieren. Die Entscheidung zwischen R-CHOP, R-ICE oder zielgerichteten Therapien sollte unter Berücksichtigung der Verträglichkeit des Patienten und des Ansprechens auf die bisherige Therapie getroffen werden. Die Ergebnisse des cMRI vom 19.02.2024 und des PET/CT vom 22.02.2024 sind entscheidend, um die Therapie weiter zu planen.</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV mit einem IPI von 3 und Deauville Score 4 nach erfolgter Erstlinienbehandlung mit R-CHOP gefolgt von MATRix/R-ICE. Der aktuelle PET/CT zeigt eine partielle Remission (Deauville 4) mit persistierenden LK im rechten Axilla und Splenomegalie. Neue Verdichtungen in den Lungenoberlappen sind vorhanden, wobei eine entzündliche Ätiologie wahrscheinlich ist, aber nicht ausgeschlossen werden kann. Der Befund des cMRI vom 19.02.2024 und des PET/CT vom 22.02.2024 liegen noch aus. Laut ESMO-Leitlinie sollte bei Patienten mit DLBCL nach Erstlinienbehandlung, die nicht in vollständige Remission (CR) oder unvollständige Remission (PR) erreicht haben, eine Konsolidierungstherapie oder eine alternative Behandlung in Betracht gezogen werden. Da der Patient einen Deauville Score von 4 hat, ist er nicht in CR. Die persistierenden LK und die Splenomegalie sprechen gegen eine vollständige Remission. Angesichts des IPI von 3 und des Deauville Scores von 4 ist eine weitere Behandlung notwendig. Eine autologe Stammzelltransplantation (ASZT) ist eine Standardoption für Patienten mit DLBCL im Stadium IV nach Erreichen einer CR oder PR. Da der Patient noch keine CR erreicht hat, ist eine ASZT derzeit nicht indiziert. Eine alternative Behandlung mit einer anderen Chemotherapie oder einer zielgerichteten Therapie sollte in Betracht gezogen werden.</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Fortführung der geplanten Konsolidationsbehandlung mit Hochdosierung Chemotherapie (HD-CHT) und Autologer Stammzelltransplantation (ASZT) gemäß Terminen (HD-CHT 06.03.2024, ASZT 13.03.2024).
@@ -937,7 +842,7 @@
 Der Patient leidet an einem diffusen grosszelligen B-Zell-Lymphom (DLBCL) Stadium IV mit einem R-IPI von 3 Punkten (hochintermediär/high-risk). Laut ESMO-Leitlinien ist bei Patienten mit hochintermediärem/high-risk DLBCL und Teilremission (Deauville 3–4 nach Induktionsbehandlung) eine Konsolidation mit HD-CHT und ASZT indiziert, um die Überlebenschance zu verbessern. Die aktuelle PET/CT zeigt einen Deauville Score 4, was eine Teilremission nach der MATRix- und R-ICE-Therapie bestätigt. Die verbleibenden metabolisch aktiven lymphatischen Läsionen in der rechten Achselhöhle und die homogene Tracerbelegung der Milz im Bereich der Leberuptakegrenze deuten nicht auf aktive Lymphommanifestation, sondern auf Regression. Die neuen Verdichtungen in den Lungenspitzen werden als entzündlich eingeschätzt. Die geplante HD-CHT und ASZT entsprechen der empfohlenen Therapiefolge nach ESMO, um Rezidivrisiken zu minimieren. Die negativen Serologie-Ergebnisse (HIV, HBV, HCV) sowie die planmäßige Stammzellsammlung im 2. R-ICE-Zyklus stützen die Durchführbarkeit der Konsolidationstherapie. Weitere diagnostische Schritte sind nicht erforderlich, da die Indikation für ASCT im Rahmen der Teilremission gegeben ist.</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Okay, let's start breaking down this case. The patient has diffuse large B-cell lymphoma (DLBCL) stage IV with an IPI score of 3, which is considered high-intermediate or high risk. The treatment history includes R-CHOP, then MATRix and R-ICE, which are more aggressive regimens. The latest PET/CT from February 22, 2024, shows a Deauville score of 4, indicating partial remission but not complete. The axillary lymph nodes are still enlarged and show some metabolic activity, and there are new lung lesions, but these are thought to be inflammatory. The splenic involvement has decreased.
 Now, according to ESMO guidelines, for high-risk DLBCL (IPI 3), the standard approach after first-line therapy is to consider high-dose chemotherapy (HD-CT) and autologous stem cell transplantation (ASCT) if the patient achieves a partial remission (Deauville 3-4). The ESMO guidelines emphasize that consolidation with HD-CT and ASCT is recommended for patients with high-risk features and partial remission to improve outcomes.
@@ -945,7 +850,7 @@
 I need to check if there are any contraindications for HD-CT and ASCT. The patient's age isn't mentioned, but since they're undergoing aggressive treatment, age might be within the acceptable range. The patient has negative viral serologies (HIV, HBV, HCV), which is good for ASCT. The plan for consolidation therapy is in line with ESMO guidelines. Therefore, proceeding with HD-CHT and ASCT is appropriate here.</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Vorschlag einer intensivierten Konsolidationstherapie mit R-ICE-Zyklen und anschließender autologer Stammzelltransplantation (ASCT) nach Bestätigung der partiellem Remission durch die ausstehenden PET/CT- und cMRI-Befunde.  
@@ -963,7 +868,7 @@
 **Empfehlung:** Nach Klärung der ausstehenden Befunde (insbesondere Neuroimaginologie) ist eine ASCT als Konsolidationstherapie dringend anzustreben. Sollten neurologische Progressionen in der cMRI nachgewiesen werden, ist eine Anpassung der Therapie (z. B. Hochdosis-Methotrexat) erforderlich.</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL stage IV with a high-risk IPI score of 3. They've already undergone three cycles of MATRix and three cycles of R-ICE, which are more aggressive than standard R-CHOP. The latest PET/CT shows a partial response (Deauville 4), which is a good sign but not a complete remission. The MRT results are pending, so there might be new information there.
 The ESMO guidelines for DLBCL typically recommend R-CHOP for first-line treatment. However, high-risk patients might get more intensive therapy. The patient's regimen was escalated to MATRix/R-ICE based on the MARIETTA trial, which the ESMO might consider for certain high-risk cases. Since they're now in partial remission, the next step would likely be stem cell transplantation if they're eligible. The patient had stem cells collected during the second R-ICE cycle, so they might be set up for an autologous transplant.
@@ -972,6 +877,10 @@
 So, the key points are: high-risk IPI, partial remission after escalated therapy, pending imaging results, and the need for consolidation. The ESMO guidelines would support moving to transplantation if the patient is in partial remission and has a high risk. Therefore, the recommendation is to proceed with high-dose chemotherapy followed by autologous stem cell transplantation once the latest imaging confirms the partial response.</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
@@ -1010,20 +919,6 @@
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="inlineStr"/>
       <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
-      <c r="BN2" t="inlineStr"/>
-      <c r="BO2" t="inlineStr"/>
-      <c r="BP2" t="inlineStr"/>
-      <c r="BQ2" t="inlineStr"/>
-      <c r="BR2" t="inlineStr"/>
-      <c r="BS2" t="inlineStr"/>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1070,28 +965,6 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-R-ICE-Folgetherapie nach Salvage-Chemotherapie, gefolgt von HDC/ASCT.
-**Begründung:**
-Die Diagnose DLBCL, Stadium IV, wird bestätigt durch die diagnostischen Befunde. Nach dem Salvage-Chyklus ist der Patient noch immer nicht in remission. Die PET-CT-Bilanz weist auf eine partielle Ansprechreaktion hin, jedoch bleibt ein residueller metabolischer Aktivitätsanteil in vorbekannten Läsionen erhalten.
-Gemäß den ESMO-Leitlinien für die Behandlung von DLBCL, Stadium IV, wird eine weitere platinhaltige Chemotherapie (R-ICE) als effektive Therapiestrategie empfohlen. Der dritte Zyklus R-ICE sollte nach Salvage-Chemotherapie und vor der HDC/ASCT-Transplantation durchgeführt werden, um die Chance auf eine weitere Ansprechreaktion zu erhöhen.
-Die Begründung für diese Empfehlung basiert auf den ESMO-Leitlinien und den diagnostischen Befunden. Die Kombination aus R-ICE-Folgetherapie und HDC/ASCT bietet die beste Chance auf eine langfristige Remission und eine gute Überlebensrate bei Patienten mit DLBCL, Stadium IV.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-CHOP 6-Zyklus, gefolgt von einer intensiven Chemotherapie (ICE) falls necessary.
-**Begründung:**
-Die Diagnose eines DLBCL Stadium IV bedarf einer aggressiven Therapie. Die ESMO-Leitlinie empfiehlt für die Initialbehandlung einen R-CHOP-Zyklus von 6 Abschnitten. Da der Patient bereits eine Récidive métabolique aufweist, ist ein intensiveres Regime notwendig, um die Krankheit in Schach zu halten.
-Die PET-CT am 20.02.2024 zeigte eine Réponse métabolique partielle, was darauf hindeutet, dass die Tumorlast nicht vollständig eliminiert wurde. Eine weitere intensive Chemotherapie (ICE) könnte notwendig sein, um die Krankheit in Remission zu bringen.
-Die Begründung für diese Therapieempfehlung basiert auf der Diagnose eines DLBCL Stadium IV und den Empfehlungen der ESMO-Leitlinie. Es gibt keine Hinweise auf eine spezielle Vorstellung oder andere Faktoren, die eine alternative Therapie nahelegen würden.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**  
 Fortsetzung der Salvage-Therapie mit R-ICE für einen weiteren Zyklus (3. Zyklus), gefolgt von einer Hochdosenchemotherapie (HDC) und Autologer Stammzelltransplantation (ASCT), vorausgesetzt die CD34+-Apherese-Ergebnisse (14.02.2024) sind ausreichend und die klinische Situation erlaubt eine Transplantation.  
 **Begründung:**  
@@ -1103,43 +976,43 @@
 Die Empfehlung folgt der ESMO-Strategie, bei rezidiviertem DLBCL mit hohem Risiko und Teilremission nach Salvage-Therapie eine ASCT durchzuführen, um die Überlebensrate zu maximieren.</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**  
+Empfehlung ist die Teilnahme an einer klinischen Studie mit PD-1-Inhibitoren (z. B. Pembrolizumab) in Kombination mit intensiver Chemotherapie (z. B. R-DHAP/R-ICE) oder einer experimentellen Therapieansatz aufgrund des rezidivierten THRLBCL-Stadiums, fehlender CD19-Expression und persistierender metabolischer Aktivität nach zweiter Linie. Alternativ ist die Evaluation für eine Klinische Studie mit anderen Zielstrukturen (z. B. EZH2-Inhibitoren) bei Vorliegen relevanter Biomarker (hier nicht spezifiziert) zu prüfen.  
+**Begründung:**  
+Das rezidivierte T/histiocyte-rich large B-cell lymphoma (THRLBCL) IVB mit IPI-Hochrisiko und fehlender CD19-Expression (Ausschluss von CAR-T-Zelltherapie) erfordert laut ESMO-Leitlinien für rezidiviertes/refractäres B-Zell-Lymphom eine individualisierte Therapieansätze, die experimentelle Optionen oder klinische Studien vorsehen, insbesondere bei schlechter Prognose. Die partielle Remission nach R-ICE deutet auf eine gewisse Chemotherapietoleranz, jedoch bleibt die Persistenz osteometabolischer Aktivität (SUVbwmax 4.3–6.2) ein Rezidivrisiko. PD-1-Inhibitoren (z. B. Pembrolizumab) sind in ESMO-ES (Expert Statement) für hochriskante rezidivierte DLBCL-Subtypen unter bestimmten Voraussetzungen diskutiert, auch wenn keine direkten Evidenzen für THRLBCL bestehen. Die TET2-Mutation ist in ESMO-ES als potenzieller prognostischer Faktor erwähnt, jedoch nicht ausreichend etabliert für eine spezifische Therapie. Klinische Studien mit innovativen Kombinationen (z. B. PD-1-Inhibitoren + Chemotherapie) oder neuen Targets (z. B. EZH2-Inhibitoren bei relevanten Mutationen) sind daher nach ESMO-ES-Prinzipien dringend zu priorisieren. Die inflammatorischen Lungenveränderungen (SUVbwmax 3.0–4.5) müssen engmaschig überwacht werden, um eine Differenzialdiagnose von Infektionen oder Therapie-assoziierten Nebenwirkungen sicherzustellen. Die konventionellen Second-Line-Optionen (z. B. R-GemOx) sind aufgrund der bereits angewandten R-ICE-Basis nicht ausreichend begründet.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der hochdosierten Chemotherapie (HDC) mit anschließender autologer Stammzelltransplantation (ASCT). Konkret wird eine BEAM-Chemotherapie (Carmustin, Etoposid, Cytarabin, Melphalan) empfohlen, gefolgt von der ASCT, sobald der Patient sich ausreichend erholt hat.
+**Begründung:**
+Der Patient zeigt ein rezidiviertes DLBCL nach initialem Ansprechen auf R-CHOP und einem partiellen Ansprechen auf R-DHAP/R-ICE (Deauville 4). Die ESMO-Leitlinien für rezidiviertes DLBCL empfehlen nach Versagen der initialen Therapie und Salvage-Chemotherapie eine ASCT als Standardbehandlung, wenn der Patient dafür geeignet ist. Die Aphärese hat offenbar eine ausreichende CD34+-Mobilisation ermöglicht. Um die Effektivität der ASCT zu maximieren, ist eine HDC vor der Transplantation indiziert, um die verbleibende Krankheitslast zu reduzieren. Die BEAM-Chemotherapie ist ein etablierter HDC-Regime, das in der ESMO-Leitlinie empfohlen wird. Eine erneute PET-CT nach der HDC, aber vor der ASCT, sollte in Betracht gezogen werden, um das Ansprechen zu beurteilen und die Transplantation nur bei ausreichendem Ansprechen durchzuführen.</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes DLBCL (THRLBCL-Subtyp) nach initialem Ansprechen auf R-CHOP. Die Salvage-Chemotherapie (R-DHAP und R-ICE) zeigte ein partielles Ansprechen (Deauville 4). Eine CAR-T-Zelltherapie ist aufgrund fehlender CD19-Expression nicht indiziert. Die ESMO-Leitlinien für rezidiviertes DLBCL empfehlen nach Versagen der initialen Therapie und Salvage-Chemotherapie eine autologe Stammzelltransplantation (ASCT), sofern der Patient dafür geeignet ist und eine ausreichende CD34+-Mobilisation erreicht wurde. Der Patient hat eine Aphärese hinter sich, die laut Informationen ausreichend CD34+-Zellen generiert haben sollte (dies sollte jedoch durch die Labordaten bestätigt werden). Da die PET-CT weiterhin metabolische Aktivität zeigt, ist eine hochdosierte Chemotherapie (HDC) vor der ASCT indiziert, um die Krankheitslast zu reduzieren und die Konsolidierungstherapie zu optimieren.</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**  
-Empfehlung ist die Teilnahme an einer klinischen Studie mit PD-1-Inhibitoren (z. B. Pembrolizumab) in Kombination mit intensiver Chemotherapie (z. B. R-DHAP/R-ICE) oder einer experimentellen Therapieansatz aufgrund des rezidivierten THRLBCL-Stadiums, fehlender CD19-Expression und persistierender metabolischer Aktivität nach zweiter Linie. Alternativ ist die Evaluation für eine Klinische Studie mit anderen Zielstrukturen (z. B. EZH2-Inhibitoren) bei Vorliegen relevanter Biomarker (hier nicht spezifiziert) zu prüfen.  
-**Begründung:**  
-Das rezidivierte T/histiocyte-rich large B-cell lymphoma (THRLBCL) IVB mit IPI-Hochrisiko und fehlender CD19-Expression (Ausschluss von CAR-T-Zelltherapie) erfordert laut ESMO-Leitlinien für rezidiviertes/refractäres B-Zell-Lymphom eine individualisierte Therapieansätze, die experimentelle Optionen oder klinische Studien vorsehen, insbesondere bei schlechter Prognose. Die partielle Remission nach R-ICE deutet auf eine gewisse Chemotherapietoleranz, jedoch bleibt die Persistenz osteometabolischer Aktivität (SUVbwmax 4.3–6.2) ein Rezidivrisiko. PD-1-Inhibitoren (z. B. Pembrolizumab) sind in ESMO-ES (Expert Statement) für hochriskante rezidivierte DLBCL-Subtypen unter bestimmten Voraussetzungen diskutiert, auch wenn keine direkten Evidenzen für THRLBCL bestehen. Die TET2-Mutation ist in ESMO-ES als potenzieller prognostischer Faktor erwähnt, jedoch nicht ausreichend etabliert für eine spezifische Therapie. Klinische Studien mit innovativen Kombinationen (z. B. PD-1-Inhibitoren + Chemotherapie) oder neuen Targets (z. B. EZH2-Inhibitoren bei relevanten Mutationen) sind daher nach ESMO-ES-Prinzipien dringend zu priorisieren. Die inflammatorischen Lungenveränderungen (SUVbwmax 3.0–4.5) müssen engmaschig überwacht werden, um eine Differenzialdiagnose von Infektionen oder Therapie-assoziierten Nebenwirkungen sicherzustellen. Die konventionellen Second-Line-Optionen (z. B. R-GemOx) sind aufgrund der bereits angewandten R-ICE-Basis nicht ausreichend begründet.</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>**Therapieempfehlung:**
+Konsolidierung mit weiterer Chemotherapie (z.B. R-CHOP oder R-GDP) gefolgt von autologer Stammzelltransplantation (ASCT), sobald ein optimales Ansprechen erreicht wurde. Eine lokale Strahlentherapie der persistierenden skelettalen Läsionen sollte in Betracht gezogen werden. Zusätzliche Abklärung der Lungeninfiltrate (z.B. Bronchoskopie mit Biopsie) zur Unterscheidung zwischen infektiöser und lymphomatöser Ursache.
+**Begründung:**
+Der Patient weist ein rezidiviertes DLBCL mit hohem IPI-Risiko auf. Die initiale R-CHOP-Therapie war erfolgreich, jedoch erfolgte ein Rezidiv. Die Zweitlinientherapie mit R-DHAP/R-ICE zeigte nur eine partielle Remission (Deauville 4). Die ESMO-Leitlinie empfiehlt bei rezidiviertem DLBCL nach erster Linie und unzureichendem Ansprechen auf Zweitlinientherapie die Konsolidierung mit weiterer Chemotherapie und anschließender ASCT, insbesondere bei Patienten mit hohem IPI-Risiko. Die persistierenden skelettalen Läsionen könnten das Risiko eines Therapieversagens erhöhen, weshalb eine lokale Strahlentherapie in Erwägung gezogen werden sollte. Die Lungeninfiltrate müssen abgeklärt werden, um sicherzustellen, dass sie nicht von einer opportunistischen Infektion herrühren, die die ASCT gefährden könnte. CAR-T-Zelltherapie ist aufgrund fehlender CD19-Expression ausgeschlossen.</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem rezidivierten DLBCL nach initialem Ansprechen auf R-CHOP. Die Histologie zeigt ein THRLBCL, eine Subtyp, der oft ungünstiger auf Standardtherapien anspricht. CAR-T-Zelltherapie wurde aufgrund fehlender CD19-Expression ausgeschlossen. Der aktuelle PET-CT zeigt eine partielle metabolische Remission (Deauville 4) mit persistierenden Läsionen, insbesondere im Skelett. Die Leitlinie ESMO empfiehlt bei rezidiviertem DLBCL nach erster Linientherapie, abhängig vom Risikoprofil und der Krankheitslast, verschiedene Optionen, darunter alternative Chemotherapieschemata, Konsolidierung mit Stammzelltransplantation oder Teilnahme an klinischen Studien. Da der Patient ein hohes IPI-Risiko hat und trotz Zweitlinientherapie (R-DHAP/R-ICE) noch persistente Erkrankung zeigt, erscheint eine Stammzelltransplantation (ASCT) nach weiterer Konsolidierung als die vielversprechendste Option. Die persistierenden Läsionen im Skelett könnten jedoch eine Herausforderung darstellen und erfordern möglicherweise eine lokale Strahlentherapie in Verbindung mit der ASCT. Da die PET-CT auch infiltrative Veränderungen in der Lunge zeigt, ist eine Abklärung der Ursache (infektiös vs. lymphomatös) erforderlich, um die Therapieplanung zu optimieren.</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Fortsetzung der hochdosierten Chemotherapie (HDC) mit anschließender autologer Stammzelltransplantation (ASCT). Konkret wird eine BEAM-Chemotherapie (Carmustin, Etoposid, Cytarabin, Melphalan) empfohlen, gefolgt von der ASCT, sobald der Patient sich ausreichend erholt hat.
-**Begründung:**
-Der Patient zeigt ein rezidiviertes DLBCL nach initialem Ansprechen auf R-CHOP und einem partiellen Ansprechen auf R-DHAP/R-ICE (Deauville 4). Die ESMO-Leitlinien für rezidiviertes DLBCL empfehlen nach Versagen der initialen Therapie und Salvage-Chemotherapie eine ASCT als Standardbehandlung, wenn der Patient dafür geeignet ist. Die Aphärese hat offenbar eine ausreichende CD34+-Mobilisation ermöglicht. Um die Effektivität der ASCT zu maximieren, ist eine HDC vor der Transplantation indiziert, um die verbleibende Krankheitslast zu reduzieren. Die BEAM-Chemotherapie ist ein etablierter HDC-Regime, das in der ESMO-Leitlinie empfohlen wird. Eine erneute PET-CT nach der HDC, aber vor der ASCT, sollte in Betracht gezogen werden, um das Ansprechen zu beurteilen und die Transplantation nur bei ausreichendem Ansprechen durchzuführen.</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert ein rezidiviertes DLBCL (THRLBCL-Subtyp) nach initialem Ansprechen auf R-CHOP. Die Salvage-Chemotherapie (R-DHAP und R-ICE) zeigte ein partielles Ansprechen (Deauville 4). Eine CAR-T-Zelltherapie ist aufgrund fehlender CD19-Expression nicht indiziert. Die ESMO-Leitlinien für rezidiviertes DLBCL empfehlen nach Versagen der initialen Therapie und Salvage-Chemotherapie eine autologe Stammzelltransplantation (ASCT), sofern der Patient dafür geeignet ist und eine ausreichende CD34+-Mobilisation erreicht wurde. Der Patient hat eine Aphärese hinter sich, die laut Informationen ausreichend CD34+-Zellen generiert haben sollte (dies sollte jedoch durch die Labordaten bestätigt werden). Da die PET-CT weiterhin metabolische Aktivität zeigt, ist eine hochdosierte Chemotherapie (HDC) vor der ASCT indiziert, um die Krankheitslast zu reduzieren und die Konsolidierungstherapie zu optimieren.</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Konsolidierung mit weiterer Chemotherapie (z.B. R-CHOP oder R-GDP) gefolgt von autologer Stammzelltransplantation (ASCT), sobald ein optimales Ansprechen erreicht wurde. Eine lokale Strahlentherapie der persistierenden skelettalen Läsionen sollte in Betracht gezogen werden. Zusätzliche Abklärung der Lungeninfiltrate (z.B. Bronchoskopie mit Biopsie) zur Unterscheidung zwischen infektiöser und lymphomatöser Ursache.
-**Begründung:**
-Der Patient weist ein rezidiviertes DLBCL mit hohem IPI-Risiko auf. Die initiale R-CHOP-Therapie war erfolgreich, jedoch erfolgte ein Rezidiv. Die Zweitlinientherapie mit R-DHAP/R-ICE zeigte nur eine partielle Remission (Deauville 4). Die ESMO-Leitlinie empfiehlt bei rezidiviertem DLBCL nach erster Linie und unzureichendem Ansprechen auf Zweitlinientherapie die Konsolidierung mit weiterer Chemotherapie und anschließender ASCT, insbesondere bei Patienten mit hohem IPI-Risiko. Die persistierenden skelettalen Läsionen könnten das Risiko eines Therapieversagens erhöhen, weshalb eine lokale Strahlentherapie in Erwägung gezogen werden sollte. Die Lungeninfiltrate müssen abgeklärt werden, um sicherzustellen, dass sie nicht von einer opportunistischen Infektion herrühren, die die ASCT gefährden könnte. CAR-T-Zelltherapie ist aufgrund fehlender CD19-Expression ausgeschlossen.</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert sich mit einem rezidivierten DLBCL nach initialem Ansprechen auf R-CHOP. Die Histologie zeigt ein THRLBCL, eine Subtyp, der oft ungünstiger auf Standardtherapien anspricht. CAR-T-Zelltherapie wurde aufgrund fehlender CD19-Expression ausgeschlossen. Der aktuelle PET-CT zeigt eine partielle metabolische Remission (Deauville 4) mit persistierenden Läsionen, insbesondere im Skelett. Die Leitlinie ESMO empfiehlt bei rezidiviertem DLBCL nach erster Linientherapie, abhängig vom Risikoprofil und der Krankheitslast, verschiedene Optionen, darunter alternative Chemotherapieschemata, Konsolidierung mit Stammzelltransplantation oder Teilnahme an klinischen Studien. Da der Patient ein hohes IPI-Risiko hat und trotz Zweitlinientherapie (R-DHAP/R-ICE) noch persistente Erkrankung zeigt, erscheint eine Stammzelltransplantation (ASCT) nach weiterer Konsolidierung als die vielversprechendste Option. Die persistierenden Läsionen im Skelett könnten jedoch eine Herausforderung darstellen und erfordern möglicherweise eine lokale Strahlentherapie in Verbindung mit der ASCT. Da die PET-CT auch infiltrative Veränderungen in der Lunge zeigt, ist eine Abklärung der Ursache (infektiös vs. lymphomatös) erforderlich, um die Therapieplanung zu optimieren.</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Proceed with high-dose chemotherapy (HDC) followed by autologous stem cell transplantation (ASCT) without further cycles of platinum-based salvage therapy.  
@@ -1152,7 +1025,7 @@
 **Zusammenfassung:** Die ESMO-Leitlinien legen bei Teilantwort nach Salvage-Therapie und ASCT-Eligibilität eine direkte Weiterleitung zur HDC/ASCT nahe, da ein weiterer Salvage-Zyklus in der aktuellen Situation nicht indiziert ist.</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Okay, let me try to figure out the best treatment recommendation for this patient based on the ESMO guidelines. First, the patient has been diagnosed with DLBCL, specifically the T/histiocyte-rich variant (THRLBCL) which is a subtype known to be more aggressive. The stage is IVB with high IPI score, indicating a poor prognosis. They were initially treated with R-CHOP, but after 3 cycles showed remission, but later relapsed. The relapse PET scan showed Deauville 5, suggesting active disease. Then they received salvage therapy with R-DHAP and R-ICE. The latest PET after two cycles of salvage therapy is Deauville 4, which is a partial response. 
 The ESMO guidelines for DLBCL typically recommend high-dose chemotherapy followed by autologous stem cell transplantation (HDC/ASCT) after a partial response. However, the patient's case is complicated because the CAR-T cell therapy was not considered due to lack of CD19 expression. Since CAR-T is an option for relapsed/refractory DLBCL, but it's not applicable here, the next step would be to proceed with HDC/ASCT if feasible.
@@ -1161,7 +1034,7 @@
 In this case, the ESMO guidelines might recommend proceeding to HDC/ASCT given the partial response and the availability of stem cells. The third cycle of R-ICE might not be necessary if the patient is stable and the disease is not progressing rapidly. So the recommendation would be to proceed with HDC/ASCT without further cycles of chemotherapy.</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung für die Teilnahme an einer klinischen Studie mit experimentellen Therapien, insbesondere zielgerichteten Ansätzen oder alternativen Immuntherapien, die für CD19-negative Lymphome wie T/histiocyte-rich large B-cell lymphoma (THRLBCL) entwickelt werden.  
@@ -1183,12 +1056,16 @@
 Die Verzögerung der Therapieentscheidung wäre risikoreich bei einem hochprognostischen Rezidiv. Die Teilnahme an Studien bietet die beste Aussicht auf Ansprechraten und Outcome-Verbesserung.</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL, specifically T/histiocyte-rich large B-cell lymphoma, which is a rare subtype. The initial treatment was R-CHOP, but there was a relapse. Then they tried R-DHAP and R-ICE, which resulted in a partial metabolic response (Deauville 4). CAR-T was considered but not an option because of CD19 negativity. So, the challenge is finding the next step.
 Looking at ESMO guidelines for DLBCL relapse, the standard of care after first-line failure is usually high-dose chemotherapy with ASCT. But the patient already had ASCT (from the stem cell apheresis in February 2024). The current situation is a partial response after second-line therapy. The next step according to ESMO might be to consider clinical trials or alternative therapies since CD19 is not expressed, which rules out CAR-T. Options could be other immunotherapies like anti-CD20 (if present) or maybe double/triple therapy combinations. But the patient's subtype is CD19 negative, so R-CHOP is already used. The response is partial, so maybe another salvage regimen? Wait, they already did R-DHAP and R-ICE. The PET shows Deauville 4, which is a partial response. ESMO might suggest consolidation with radiotherapy if there are localized areas. But the disease is widespread. Alternatively, maybe another transplant if eligible. But they had ASCT already. So options are limited. ESMO might recommend enrollment in clinical trials for new therapies, especially for CD19-negative cases. The patient's prognosis is high IPI, which is bad. So the recommendation would likely be to pursue clinical trials targeting the specific subtype, given the lack of CD19 and standard options.</t>
         </is>
       </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
@@ -1227,20 +1104,6 @@
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="inlineStr"/>
       <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
-      <c r="BN3" t="inlineStr"/>
-      <c r="BO3" t="inlineStr"/>
-      <c r="BP3" t="inlineStr"/>
-      <c r="BQ3" t="inlineStr"/>
-      <c r="BR3" t="inlineStr"/>
-      <c r="BS3" t="inlineStr"/>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1286,30 +1149,6 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie für den Patienten mit einem diffusen grosszelligen B-Zell-Lymphom (DLBCL) in Stadium IV lautet:
-R-CHOP 6 Zyklen mit anschließender Re-Evaluation mittels PET-CT
-**Begründung:**
-Die empfohlene Therapie basiert auf den Empfehlungen der ESMO-Leitlinie für die Behandlung von DLBCL. Der Patient hat eine poor Prognose nach R-IPI und IPI-Risk-Score, was eine intensivere Chemotherapie nahelegt. Die Kombination von R-CHOP mit 6 Zyklen ist eine empfohlene Therapieoption für den Patienten in Stadium IV. Die Re-Evaluation mittels PET-CT nach 2 Zyklen ermöglicht die Überwachung der Tumoraussaat und die Anpassung der Therapie an den individuellen Verlauf des Patienten.
-Die Wahl von R-CHOP basiert auf dem Ergebnis der Diagnoseanalyse, insbesondere auf den Imaging-Befunden, die eine suspected high-grade Lymphommanifestation in der Lunge und eine zerebrale Beteiligung nahelegen. Die Kombination von Rituximab mit Cyclophosphamid, Doxorubicin und Prednison ist eine effektive Therapieoption für DLBCL und wurde bereits erfolgreich eingesetzt. Die Anwendung von Methotrexat, Cytarabin und Vincristin in den ersten beiden Zyklen ergänzt die Therapie um weitere active Substanzen.
-Insgesamt basiert die empfohlene Therapie auf den Empfehlungen der ESMO-Leitlinie und berücksichtigt die individuellen Merkmale des Patienten, insbesondere seine poor Prognose nach R-IPI und IPI-Risk-Score.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Therapie mit 6 Zyklen, gefolgt von einer Consolidationstherapie mit 2 Cycles von R-ICE (rituximab, ifosfamide, carboplatin) zur Behandlung des Diffus grosszelliges B-Zell-Lymphoms (DLBCL) in Stadium IV.
-**Begründung:**
-Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL in Stadium IV eine Kombinationstherapie aus Cyclophosphamid, Doxorubicin, Vincristin und Prednisolon (CHOP) oder R-CHOP (rituximab-zugefügtes CHOP), gefolgt von einer Consolidationstherapie. Da der Patient bereits eine partielle Remission erreicht hat, ist eine intensivere Therapie notwendig, um die Lymphommanifestationen zu kontrollieren und den Krankheitsverlauf zu stabilisieren.
-Die R-CHOP-Therapie bietet sich aufgrund ihrer hohen Wirksamkeit in dieser Patientengruppe an. Die Addition von Rituximab zu CHOP hat sich als effiziertes Therapieregime für DLBCL in Stadium IV herausgestellt. Die 6-zügige R-CHOP-Therapie soll die Lymphommanifestationen kontrollieren und den Patienten in eine Remission bringen.
-Die Consolidationstherapie mit 2 Cycles von R-ICE wird nach Abschluss der R-CHOP-Therapie empfohlen, um sicherzustellen, dass alle Lymphomzellen eliminiert werden und die Wahrscheinlichkeit einer Rezidiv-Bildung minimiert wird.
-Die ESMO-Leitlinie empfiehlt diese Therapie für Patienten mit DLBCL in Stadium IV, und die vorliegenden Daten unterstützen diese Empfehlung.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Durchführung von drei Zyklen R-ICE (Rituximab, Ibritumomab Tiuxetan, Cyclophosphamid, Etoposid, Carboplatin) als Salvage-Therapie gefolgt von einer autologen Stammzelltransplantation (STZ) mit Hochdosis-Chemotherapie. Ergänzend dazu ist eine zerebrale Konsolidationstherapie (z. B. Hochdosis-Methotrexat oder zerebrale Strahlentherapie) bei bestätigter neurologischer Stabilität und ausreichendem neurologischen Ansprechen erforderlich.  
 **Begründung:**  
@@ -1318,8 +1157,8 @@
 Die vorgeschlagene Therapie (R-ICE → STZ → Hochdosis-Konsolidierung) entspricht den ESMO-Leitlinien für Hochrisiko-DLBCL mit rezidiviertem Verlauf und zerebraler Beteiligung. Kritische Faktoren wie Knochenmarkbeteiligung und persistierende metabolische Aktivität erfordern eine enge hämatologische und neurologische Begleitung. Nach STZ ist gegebenenfalls eine zerebrale Strahlentherapie oder weiterführende Therapieansätze (z. B. CAR-T-Zellen) zu evaluieren, falls das klinische Ansprechen unzureichend bleibt.</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Weiterführung der IELSG-42/IELSG-41-Therapie (Methotrexat, Rituximab, Cytarabin) für insgesamt 6–8 Zyklen, kombiniert mit einer konsolidierenden Hochdosis-Chemotherapie (HDT) mit autologer Stammzelltransplantation (ASCT) bei erreichbarer partialer oder kompletter Regression nach 4–6 Zyklen. Bei anhaltender metabolischer Aktivität (Deauville 4/5) nach 6 Zyklen soll eine therapeutische Neuausrichtung unter Berücksichtigung klinischer Studien in Betracht gezogen werden.
@@ -1329,8 +1168,8 @@
 Bei anhaltendem Deauville 4/5 nach 6 Zyklen ist eine differenzielle Abklärung (z. B. durch biopsiebasierte Diagnose) notwendig, um zwischen rezidivierendem Lymphom und entzündlicher Pseudoprogression zu unterscheiden, und eine Therapieanpassung (z. B. Umstellung auf zerebrale RT oder andere zielgerichtete Therapien) in Betracht zu ziehen. Zudem ist eine fortlaufende Verlaufskontrolle mit PET-CT und MRT (z. B. nach 3 weiteren Zyklen) entscheidend, um die Therapie responsiv zu gestalten. Die aktuelle Skelettmarkbeteiligung unterstreicht die Notwendigkeit einer aggressiven Strategie, um systemische und zerebrale Kontrollmechanismen zu integrieren.</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Durchführung einer Konditionierungstherapie mit DHAP oder ESHAP, gefolgt von einer autologen Stammzelltransplantation (ASZT), sofern der Patient dafür geeignet ist und nach der Konditionierung keine Progression der Erkrankung vorliegt. Alternativ sollte die Teilnahme an einer geeigneten klinischen Studie, insbesondere mit CAR-T-Zelltherapie, evaluiert werden. Eine palliative Behandlung sollte bei fehlender Eignung für ASZT oder CAR-T-Zelltherapie in Betracht gezogen werden. Die zerebrale Beteiligung sollte bei der Therapieplanung berücksichtigt und gegebenenfalls eine zusätzliche intrathekale Therapie erwogen werden.
@@ -1338,7 +1177,7 @@
 Der Patient präsentiert ein rezidiviertes DLBCL mit ungünstiger Prognose (hoher IPI/R-IPI). Trotz initialer Remission nach R-CHOP ist die Erkrankung rezidiviert und zeigt nun einen Knochenmarkbefall, was eine ASZT erschwert. Die ESMO-Leitlinien empfehlen bei rezidiviertem DLBCL eine ASZT nach Hochdosis-Chemotherapie als Standardtherapie. Da ein Knochenmarkbefall vorliegt, muss der Patient zunächst konditioniert werden, um den Knochenmarkbefall zu reduzieren und die Möglichkeit einer ASZT zu schaffen. DHAP oder ESHAP sind geeignete Konditionierungsregime. Alternativ kann die CAR-T-Zelltherapie in Betracht gezogen werden, insbesondere wenn der Patient nicht für eine ASZT geeignet ist oder eine ASZT nicht durchgeführt werden kann. Die zerebrale Beteiligung erfordert eine systemische Therapie, die die Blut-Hirn-Schranke überwinden kann, und ggf. eine zusätzliche intrathekale Therapie. Die Entscheidung zwischen ASZT und CAR-T-Zelltherapie sollte in einem interdisziplinären Tumorboard getroffen werden, unter Berücksichtigung des Performance Status des Patienten, der Komorbiditäten und der Verfügbarkeit der jeweiligen Therapieoptionen.</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein rezidiviertes/refraktäres DLBCL nach initialer R-CHOP-Therapie und anschließender Behandlung mit IELSG-42 (R-ICE). Das aktuelle PET-CT zeigt eine partielle Remission (Deauville 4), jedoch weiterhin metabolisch aktive Lymphknoten im Abdomen und neu einen Knochenmarkbefall. Die zerebrale Beteiligung ist weiterhin vorhanden. Der Patient hat einen hohen IPI-Score (4) und einen ungünstigen R-IPI-Score, was auf ein hohes Risiko für ein Therapieversagen hinweist.
 Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL empfehlen, abhängig von der Remissionsdauer nach initialer Therapie und dem Performance Status, entweder eine Autologe Stammzelltransplantation (ASZT) nach Hochdosis-Chemotherapie oder eine alternative Therapie, wie z.B. CAR-T-Zelltherapie, klinische Studien oder palliative Behandlung. Da der Patient eine Remission nach initialer Therapie erreichte, aber nun rezidiviert ist, und ein Knochenmarkbefall vorliegt, ist eine ASZT eine plausible Option, sofern der Patient dafür geeignet ist. Allerdings ist der Knochenmarkbefall ein Ausschlusskriterium für eine ASZT.
@@ -1346,7 +1185,7 @@
 Angesichts des Knochenmarkbefalls und der zerebralen Beteiligung ist eine systemische Therapie erforderlich, die die Blut-Hirn-Schranke überwinden kann. Da der Patient bereits mit R-ICE behandelt wurde, ist eine weitere Chemotherapie mit diesem Regime wahrscheinlich weniger wirksam. Eine alternative Chemotherapie, wie z.B. DHAP oder ESHAP, könnte in Betracht gezogen werden, um den Patienten für eine nachfolgende ASZT oder CAR-T-Zelltherapie zu konditionieren.</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Durchführung einer autologen Stammzelltransplantation (ASZT) nach Hochdosis-Chemotherapie in Kombination mit adäquater Behandlung der zerebralen Beteiligung durch intrathekale Chemotherapie oder hochdosiertes Methotrexat. Falls der Patient nicht für eine ASZT geeignet ist oder die ASZT versagt, sollte eine CAR-T-Zelltherapie in Betracht gezogen werden.
@@ -1354,13 +1193,13 @@
 Der Patient präsentiert ein rezidiviertes DLBCL mit schlechter Prognose (R-IPI 4, IPI high risk) und persistierender metabolisch aktiver Erkrankung im Knochenmark und weiterhin aktiven Lymphknoten. Die zerebrale Beteiligung stellt eine zusätzliche Herausforderung dar. Gemäss ESMO-Leitlinien ist eine konsolidierende Therapie nach initialer R-CHOP-Therapie und IELSG-42 (Marietta)-Matrix indiziert. Die ASZT stellt eine Standardbehandlung für rezidiviertes DLBCL dar, insbesondere bei Patienten mit guter Performance und adäquater Organfunktion. Die zerebrale Beteiligung erfordert jedoch eine zusätzliche Behandlung, um die Blut-Hirn-Schranke zu überwinden. Hochdosiertes Methotrexat oder intrathekale Chemotherapie sind in diesem Fall geeignete Optionen. Sollte der Patient nicht für eine ASZT in Frage kommen oder die ASZT versagen, stellt die CAR-T-Zelltherapie eine vielversprechende Alternative dar, die in der ESMO-Leitlinie als Therapieoption für Patienten mit rezidiviertem/refraktärem DLBCL empfohlen wird. Die Knochenmarkbeteiligung deutet auf eine systemische Erkrankung hin, die eine intensive Therapie erfordert.</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein rezidiviertes/refraktäres DLBCL nach initialer R-CHOP-Therapie und anschließender Behandlung mit IELSG-42 (Marietta)-Matrix. Die aktuelle PET-CT zeigt eine persistierende metabolische Aktivität im Knochenmark und weiterhin mässig aktive Lymphknoten im Mittelbauch. Die zerebrale Beteiligung ist ebenfalls vorhanden. Der Patient hat einen schlechten R-IPI-Score (4 Punkte) und einen hohen IPI-Score, was auf eine aggressive Erkrankung hindeutet.
 Gemäss ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL nach initialer Therapie, sollte eine konsolidierende Therapie in Betracht gezogen werden, insbesondere wenn der Patient für eine autologe Stammzelltransplantation (ASZT) in Frage kommt. Da der Patient jedoch eine zerebrale Beteiligung aufweist, ist eine ASZT allein möglicherweise nicht ausreichend. Die Leitlinie empfiehlt in solchen Fällen eine Hochdosis-Chemotherapie gefolgt von ASZT oder, falls die ASZT nicht in Frage kommt, eine alternative Therapie wie CAR-T-Zelltherapie oder klinische Studien. Die zerebrale Beteiligung erfordert zudem eine adäquate Behandlung durch z.B. intrathekale Chemotherapie oder hochdosiertes Methotrexat, um die Blut-Hirn-Schranke zu überwinden. Da der Patient bereits mehrere Therapielinien erhalten hat und eine Knochenmarkbeteiligung vorliegt, ist die Prognose ungünstig. Eine CAR-T-Zelltherapie könnte in diesem Fall eine sinnvolle Option sein, sofern der Patient die Kriterien dafür erfüllt.</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung eines hochdosierten Konsolidationsregimes mit autologer Stammzelltransplantation (ASCT) nach Abschluss der drei geplanten R-ICE-Zyklen, begleitet von einer finalen PET-CT und MRT des Schädels zur Beurteilung des Therapieansprechens.  
@@ -1371,7 +1210,7 @@
 Die aktuelle Therapievorgehensweise (3 x R-ICE, ASCT-Konsolidierung) entspricht den Empfehlungen der ESMO-Leitlinie für Hochrisiko-DLBCL mit CNS-Beteiligung. Die Entscheidung für die endgültige Konsolidation hängt vom Ergebnis der finalen Bildgebung nach Abschluss der R-ICE-Zyklen ab.</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL stage IV with secondary cerebral involvement. The initial treatment was R-CHOP for six cycles, but then there was a relapse. They started the IELSG-42 Matrix regimen (Methotrexate, Rituximab, Cytarabin) for three cycles, and after that, a PET-CT showed Deauville 4, which indicates partial response. However, the latest PET-CT from 21.02.2024 shows regression of some lesions but there's still active bone marrow involvement and residual lymph nodes. The patient also has central nervous system (CNS) involvement, which is a high-risk factor.
 Looking at the ESMO guidelines for DLBCL, high-risk patients with CNS involvement usually need more aggressive treatment. The initial R-CHOP might not be sufficient here. The IELSG-42 protocol is a CNS-targeted regimen, so using high-dose methotrexate and cytarabine with rituximab makes sense. The patient has responded to three cycles of this regimen, but the response isn't complete. 
@@ -1379,7 +1218,7 @@
 Additionally, considering the CNS involvement, maybe adding cranial radiation could be considered, but ESMO guidelines might prefer systemic consolidation over radiation to avoid neurotoxicity. The patient's performance status and ability to tolerate high-dose therapy would be factors, but the current info doesn't mention any contraindications. So, the next step is to proceed with high-dose therapy and ASCT after the 3 R-ICE cycles, which are part of the consolidation. The PET-CT and MR after R-ICE will determine the response, but based on the partial response, moving forward with ASCT seems aligned with ESMO guidelines for high-risk DLBCL with CNS involvement.</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfehlung einer intensivierten Kombinationstherapie mit einem hochdosierten Methotrexat-basierten Protokoll (z. B. IELSG-42/41) ergänzt um zerebrale Strahlentherapie (Radiothekaplastik) bei stabiler neurologischer Funktion. Gleichzeitige Überlegung einer autologen Stammzelltransplantation (ASCT) nach Erreichen einer klinischen Remission.  
@@ -1395,7 +1234,7 @@
 Die Therapieempfehlung folgt den ESMO-Richtlinien für aggressive Lymphome mit zerebraler Beteiligung und berücksichtigt die aktuelle Therapieresistenz sowie die hohe Rezidivgefahr des Patienten.</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>Okay, let's start by looking at the patient's situation. He has DLBCL stage IV with secondary brain involvement. The treatment so far has been R-CHOP for six cycles, and after three cycles of IELSG-42/41 protocol with Methotrexate, Rituximab, and Cytarabin. The latest PET-CT (2024) shows some regression but still Deauville 4, indicating possible residual disease. The brain MRI after three cycles of the IELSG protocol shows a lesion but maybe partial response.
 The ESMO guidelines for DLBCL with CNS involvement typically recommend high-dose methotrexate-based regimens for central nervous system prophylaxis and treatment. Since the patient already has CNS involvement, they might need more aggressive CNS-directed therapy. The initial treatment with R-CHOP wasn't sufficient, and the brain lesion is still present. The Deauville score of 4 in the PET-CT suggests that there's still active disease.
@@ -1404,6 +1243,10 @@
 I need to check if the ESMO guidelines specifically mention the IELSG protocols. Since the patient is on IELSG-42 and 41, maybe continuing that regimen with additional cycles and adding CNS prophylaxis is recommended. Also, the presence of residual disease in the PET-CT suggests that further treatment is needed. The brain lesion might require a different approach, maybe adding radiotherapy if the lesion is stable after chemotherapy.</t>
         </is>
       </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr"/>
@@ -1442,20 +1285,6 @@
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="inlineStr"/>
       <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
-      <c r="BN4" t="inlineStr"/>
-      <c r="BO4" t="inlineStr"/>
-      <c r="BP4" t="inlineStr"/>
-      <c r="BQ4" t="inlineStr"/>
-      <c r="BR4" t="inlineStr"/>
-      <c r="BS4" t="inlineStr"/>
-      <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1499,36 +1328,14 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Die beste Therapieoption für diesen Patienten mit einem Primäres mediastinales B-Zell-Lymphom (PMLBL) im vorderen Mediastinum, CD30-positiv, ist eine rezidivärztliche Chemotherapie in Kombination mit Rituximab und intrathekaler Triple-Therapie.
-**Begründung:**
-Die Diagnose eines PMLBL im vorderen Mediastinum und die vorliegende Behandlungsgeschichte sprechen für eine rezidivärztliche Chemotherapie, wie es in der ESMO-Leitlinie empfohlen wird. Die Kombination mit Rituximab und intrathekaler Triple-Therapie ist aufgrund der CD30-Positivity des Tumors und der vorherigen erfolgreichen Behandlung mit einem ähnlichen Regime begründet. Da die aktuelle Fragestellung sich auf eine Biopsie einer FDG-aviden Läsion mediastinal, differentialdiagnostisch als Rezidiv betrachtet wird, ist es sinnvoll, eine rezidivärztliche Chemotherapie durchzuführen, um eine mögliche rezidiväre Erkrankung zu behandeln. Außerdem sollte die Kopfschmerzklinik und die Exposition gegen Benzole berücksichtigt werden.
-Es ist wichtig zu beachten, dass keine PET-CT-Berichte verfügbar sind, was eine Staging der Erkrankung erschwert. Deshalb sollten weitere diagnostische Schritte, wie zum Beispiel eine CT oder MRI, durchgeführt werden, um das Stadium und den Verlauf der Erkrankung besser zu beurteilen.</t>
+          <t>**Therapieempfehlung:**  
+Bei bestätigtem Rezidiv des CD30-positiven primären mediastinalen B-Zell-Lymphoms (PMLBL) empfiehlt sich eine Kombinationstherapie mit Brentuximab Vedotin (CD30-targeted Therapie) und einer hochdosierten Chemoimmuntherapie (z. B. Glimfiz (Gemcitabine, Liposomal Doxorubicin, Methylprednisolone, Ifosfamid, Cytarabine) unter ESMO-orientierter Anpassung, ergänzt durch zerebrale Prophylaxe.
+**Begründung:**  
+Gemäß ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei rezidiviertem/progressivem PMLBL eine aggressive Therapieansatz mit zielgerichteten Substanzen und Hochdosis-Chemotherapie indiziert. Die CD30-Positivität des Primärtumors spricht für die Anwendbarkeit von Brentuximab Vedotin, das in ESMO-konformen Protokollen als Wirkstoff mit hohem Evidenzniveau bei CD30-positiven Lymphomen eingesetzt wird. Die Glimfiz-Regime (modifiziertes High-Dose-Chemoimmuntherapie-Protokoll) ist in ESMO-Empfehlungen für rezidiviertes PMLBL etabliert, da es eine bessere Überlebensrate im Vergleich zu Standard-Chemotherapien zeigt. Die zerebrale Prophylaxe (z. B. intrathekale Therapie) ist aufgrund der vorgeschrittenen Histologie und der bereits erfolgten intrathekalen Behandlung im Frontline-Setting weiterhin relevant. Vor Therapiebeginn ist die histologische Sicherung des Rezidivstatus durch Biopsie der mediastinalen Läsion zwingend erforderlich. Neurologische Komplikationen (Pseudotumor cerebri) müssen parallel klinisch abgeklärt werden, um Therapieinteraktionen zu minimieren. Herzrhythmusstörungen und familiäre Risikofaktoren erfordern eine enge kardiologische Begleitung. ESMO betont zudem die Notwendigkeit eines individuellen Risikoprofils und molekularpathologischer Beurteilung (z. B. MYC-Translokationen) für die Therapieanpassung, falls verfügbar.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie für den Patienten mit primärem mediastinalen B-Zell-Lymphom (PMLBL) ist eine kombinierte Therapie aus Immuntherapie und Chemotherapie.
-**Begründung:**
-Die Leitlinie ESMO empfiehlt für PMLBL-Patienten mit disseminiertem Lymphom eine kombinierte Therapie aus Rituximab und Cyclophosphamid, Doxorubicin, Vincristin und Prednison (R-CHOP) oder Cyclophosphamid, Doxorubicin, Vincristin, Prednison und Gemcitabin (R-DHAP). Da der Patient bereits eine komplexe Behandlung erhalten hat, besteht die Möglichkeit, dass er anfällig für Nebenwirkungen ist. Deshalb wird eine modifizierte R-CHOP-Therapie empfohlen, um das Risiko von Nebenwirkungen zu minimieren.
-Die CD30-Positivität des Lymphoms und die histologische Diagnose PMLBL sprechen für eine gute Wirkung einer Immuntherapie mit Rituximab. Die additionelle Gabe von Cyclophosphamid, Doxorubicin, Vincristin und Prednison (R-CHOP) soll die Wirksamkeit der Therapie erhöhen.
-Die Empfehlung beruht auf den Ergebnissen der ESMO-Leitlinie und den diagnostischen Informationen des Patienten. Es wird eine enge Überwachung des Patienten erforderlich, um mögliche Nebenwirkungen frühzeitig zu erkennen und zu behandeln.
-**Keine weitere Bemerkungen oder Anweisungen!**</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Bei bestätigtem Rezidiv des CD30-positiven primären mediastinalen B-Zell-Lymphoms (PMLBL) empfiehlt sich eine Kombinationstherapie mit Brentuximab Vedotin (CD30-targeted Therapie) und einer hochdosierten Chemoimmuntherapie (z. B. Glimfiz (Gemcitabine, Liposomal Doxorubicin, Methylprednisolone, Ifosfamid, Cytarabine) unter ESMO-orientierter Anpassung, ergänzt durch zerebrale Prophylaxe.
-**Begründung:**  
-Gemäß ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei rezidiviertem/progressivem PMLBL eine aggressive Therapieansatz mit zielgerichteten Substanzen und Hochdosis-Chemotherapie indiziert. Die CD30-Positivität des Primärtumors spricht für die Anwendbarkeit von Brentuximab Vedotin, das in ESMO-konformen Protokollen als Wirkstoff mit hohem Evidenzniveau bei CD30-positiven Lymphomen eingesetzt wird. Die Glimfiz-Regime (modifiziertes High-Dose-Chemoimmuntherapie-Protokoll) ist in ESMO-Empfehlungen für rezidiviertes PMLBL etabliert, da es eine bessere Überlebensrate im Vergleich zu Standard-Chemotherapien zeigt. Die zerebrale Prophylaxe (z. B. intrathekale Therapie) ist aufgrund der vorgeschrittenen Histologie und der bereits erfolgten intrathekalen Behandlung im Frontline-Setting weiterhin relevant. Vor Therapiebeginn ist die histologische Sicherung des Rezidivstatus durch Biopsie der mediastinalen Läsion zwingend erforderlich. Neurologische Komplikationen (Pseudotumor cerebri) müssen parallel klinisch abgeklärt werden, um Therapieinteraktionen zu minimieren. Herzrhythmusstörungen und familiäre Risikofaktoren erfordern eine enge kardiologische Begleitung. ESMO betont zudem die Notwendigkeit eines individuellen Risikoprofils und molekularpathologischer Beurteilung (z. B. MYC-Translokationen) für die Therapieanpassung, falls verfügbar.</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Initiation einer zielgerichteten Therapie mit Brentuximab Vedotin in Kombination mit Rituximab, unter Vorbehalt der Biopsiebestätigung eines Rezidivs des CD30-positiven primären mediastinalen B-Zell-Lymphoms (PMLBL), sowie der weiteren Exklusion einer zentralnervösen Beteiligung durch zerebrospinale Flüssigkeit (liquorzytologische Abklärung).  
@@ -1549,34 +1356,34 @@
    - Die Kombination aus zielgerichteter Therapie und engmaschiger Toxizitätsüberwachung optimiert die Prognose trotz des hohen Rezidivrisikos bei PMLBL. ESMO betont die Notwendigkeit individualisierter Strategien, insbesondere bei Komorbiditäten.</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation (HD-CT/ASZT), sofern der Patient dafür geeignet ist (guter Performance Status, adäquate Organfunktion). Vor der HD-CT/ASZT sollte eine umfassende Staging-Untersuchung (CT-Thorax/Abdomen/Becken, Knochenmarkbiopsie) durchgeführt werden, um das Ausmaß der Erkrankung zu beurteilen und die Eignung für die Transplantation zu bestätigen.
+**Begründung:**
+Die vorliegenden Informationen deuten auf ein Rezidiv eines PMLBL hin. Die ESMO-Leitlinien empfehlen bei rezidivierter oder refraktärer Erkrankung nach initialer Therapie DA-EPOCH-R eine HD-CT/ASZT als Standardtherapie. Die initiale Behandlung mit DA-EPOCH-R und intrathealer Therapie deutet auf eine aggressive Erkrankung hin, bei der ein Rezidiv nach erster Remission eine intensivere Behandlung erfordert. Die positive CD30-Expression könnte die Prognose beeinflussen, ist aber kein direkter Kontraindikator für die HD-CT/ASZT. Die Komorbiditäten (Kopfschmerzen, Pseudotumor cerebri, Arrhythmie, Benzolexposition, Familienanamnese) müssen im Rahmen der Risikostratifizierung und der Vorbereitung auf die HD-CT/ASZT berücksichtigt werden, rechtfertigen aber keine Abweichung vom Standardtherapieansatz, sofern der Patient ansonsten transplantationsgeeignet ist. Eine erneute Beurteilung der Histologie ist wichtig, um die Diagnose zu bestätigen und mögliche Veränderungen in den biologischen Eigenschaften des Tumors zu erkennen.</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert sich mit einem Rezidiv eines primär mediastinalen B-Zell-Lymphoms (PMLBL), welches ursprünglich mit DA-EPOCH-R und intrathealer Triple-Therapie behandelt wurde. Die Histologie wurde erneut biopsiert, um die Diagnose zu bestätigen. Wichtige Aspekte sind die positive CD30-Expression und die Komorbiditäten (chronische Kopfschmerzen, Pseudotumor cerebri, intermittierender Vorhofrhythmus, Benzolexposition, Familienanamnese Hodgkin-Lymphom). Die ESMO-Leitlinien für PMLBL (innerhalb der Diffus-großzelligen B-Zell-Lymphome) legen bei Rezidiv oder refraktärer Erkrankung nach initialer Therapie eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation (HD-CT/ASZT) als Standardtherapie fest. Da keine Angaben zum Stadium, zum Response auf die initiale Therapie oder zum Performance Status des Patienten vorliegen, ist eine definitive Empfehlung schwierig. Die Benzolexposition und die Familienanamnese könnten relevante Faktoren sein, sollten aber im Rahmen der Risikostratifizierung betrachtet werden. Die Kopfschmerzproblematik und der Ausschluss eines Pseudotumor cerebri sind wichtig, beeinflussen aber die Therapieentscheidung primär nicht.</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Durchführung einer vollständigen Staging-Untersuchung (inkl. Pet-CT) zur Beurteilung des Rezidivumfangs. Anschließend Durchführung einer Hochdosis-Chemotherapie (z.B. R-ICE, R-DHAP) gefolgt von autologer Stammzelltransplantation, sofern der Patient hierfür geeignet ist und keine Kontraindikationen bestehen. Alternativ, bei Nicht-Eignung für eine Stammzelltransplantation, sollte eine alternative Chemotherapie-Kombination in Betracht gezogen werden, beispielsweise eine Kombination aus Bendamustin, Rituximab und Gemcitabin.
+**Begründung:**
+Der Patient leidet an einem rezidivierten PMLBL, das als eine Form des DLBCL klassifiziert wird. Die initiale Behandlung mit DA-EPOCH-R war nicht kurativ. Gemäß den ESMO-Leitlinien für DLBCL ist die Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation eine Standardbehandlung für rezidivierte oder refraktäre Erkrankungen, sofern der Patient dafür geeignet ist. Eine erneute DA-EPOCH-R-Therapie ist aufgrund der bereits erfolgten Anwendung und des Rezidivs weniger effektiv. Die fehlenden Informationen aus dem Pet-CT Bericht erfordern eine erneute Bildgebung, um das Ausmaß des Rezidivs zu beurteilen und die Therapieplanung anzupassen. Die chronischen Kopfschmerzen und die Differentialdiagnose Pseudotumor cerebri müssen bei der Therapieplanung und Überwachung berücksichtigt werden, um mögliche Nebenwirkungen zu minimieren und die Lebensqualität des Patienten zu erhalten.</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes primär mediastinales B-Zell-Lymphom (PMLBL) nach initialer Behandlung mit DA-EPOCH-R und intrathealer Therapie. Die Biopsie einer FDG-aviden Läsion deutet auf ein Rezidiv hin. Die ESMO-Leitlinien für Hodgkin-Lymphom und B-Zell-Lymphome betrachten PMLBL als eine aggressive Form des diffusen großzelligen B-Zell-Lymphoms (DLBCL). Da der Patient bereits eine DA-EPOCH-R-basierte Therapie erhalten hat, ist eine weitere Behandlung mit diesem Schema nicht optimal. Die Leitlinie empfiehlt bei rezidiviertem oder refraktärem DLBCL nach erster Linie, die Berücksichtigung von alternativen Chemotherapie-Regimen oder einer autologen Stammzelltransplantation, falls der Patient dafür geeignet ist. Angesichts der chronischen Kopfschmerzen und der Differentialdiagnose Pseudotumor cerebri ist eine sorgfältige neurologische Abklärung und Überwachung erforderlich, um die Verträglichkeit der Therapie sicherzustellen. Da der Pet-CT Bericht fehlt, kann die Ausdehnung des Rezidivs nicht beurteilt werden.</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation (HD-CT/ASZT), sofern der Patient dafür geeignet ist (guter Performance Status, adäquate Organfunktion). Vor der HD-CT/ASZT sollte eine umfassende Staging-Untersuchung (CT-Thorax/Abdomen/Becken, Knochenmarkbiopsie) durchgeführt werden, um das Ausmaß der Erkrankung zu beurteilen und die Eignung für die Transplantation zu bestätigen.
-**Begründung:**
-Die vorliegenden Informationen deuten auf ein Rezidiv eines PMLBL hin. Die ESMO-Leitlinien empfehlen bei rezidivierter oder refraktärer Erkrankung nach initialer Therapie DA-EPOCH-R eine HD-CT/ASZT als Standardtherapie. Die initiale Behandlung mit DA-EPOCH-R und intrathealer Therapie deutet auf eine aggressive Erkrankung hin, bei der ein Rezidiv nach erster Remission eine intensivere Behandlung erfordert. Die positive CD30-Expression könnte die Prognose beeinflussen, ist aber kein direkter Kontraindikator für die HD-CT/ASZT. Die Komorbiditäten (Kopfschmerzen, Pseudotumor cerebri, Arrhythmie, Benzolexposition, Familienanamnese) müssen im Rahmen der Risikostratifizierung und der Vorbereitung auf die HD-CT/ASZT berücksichtigt werden, rechtfertigen aber keine Abweichung vom Standardtherapieansatz, sofern der Patient ansonsten transplantationsgeeignet ist. Eine erneute Beurteilung der Histologie ist wichtig, um die Diagnose zu bestätigen und mögliche Veränderungen in den biologischen Eigenschaften des Tumors zu erkennen.</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert sich mit einem Rezidiv eines primär mediastinalen B-Zell-Lymphoms (PMLBL), welches ursprünglich mit DA-EPOCH-R und intrathealer Triple-Therapie behandelt wurde. Die Histologie wurde erneut biopsiert, um die Diagnose zu bestätigen. Wichtige Aspekte sind die positive CD30-Expression und die Komorbiditäten (chronische Kopfschmerzen, Pseudotumor cerebri, intermittierender Vorhofrhythmus, Benzolexposition, Familienanamnese Hodgkin-Lymphom). Die ESMO-Leitlinien für PMLBL (innerhalb der Diffus-großzelligen B-Zell-Lymphome) legen bei Rezidiv oder refraktärer Erkrankung nach initialer Therapie eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation (HD-CT/ASZT) als Standardtherapie fest. Da keine Angaben zum Stadium, zum Response auf die initiale Therapie oder zum Performance Status des Patienten vorliegen, ist eine definitive Empfehlung schwierig. Die Benzolexposition und die Familienanamnese könnten relevante Faktoren sein, sollten aber im Rahmen der Risikostratifizierung betrachtet werden. Die Kopfschmerzproblematik und der Ausschluss eines Pseudotumor cerebri sind wichtig, beeinflussen aber die Therapieentscheidung primär nicht.</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Durchführung einer vollständigen Staging-Untersuchung (inkl. Pet-CT) zur Beurteilung des Rezidivumfangs. Anschließend Durchführung einer Hochdosis-Chemotherapie (z.B. R-ICE, R-DHAP) gefolgt von autologer Stammzelltransplantation, sofern der Patient hierfür geeignet ist und keine Kontraindikationen bestehen. Alternativ, bei Nicht-Eignung für eine Stammzelltransplantation, sollte eine alternative Chemotherapie-Kombination in Betracht gezogen werden, beispielsweise eine Kombination aus Bendamustin, Rituximab und Gemcitabin.
-**Begründung:**
-Der Patient leidet an einem rezidivierten PMLBL, das als eine Form des DLBCL klassifiziert wird. Die initiale Behandlung mit DA-EPOCH-R war nicht kurativ. Gemäß den ESMO-Leitlinien für DLBCL ist die Hochdosis-Chemotherapie mit anschließender autologer Stammzelltransplantation eine Standardbehandlung für rezidivierte oder refraktäre Erkrankungen, sofern der Patient dafür geeignet ist. Eine erneute DA-EPOCH-R-Therapie ist aufgrund der bereits erfolgten Anwendung und des Rezidivs weniger effektiv. Die fehlenden Informationen aus dem Pet-CT Bericht erfordern eine erneute Bildgebung, um das Ausmaß des Rezidivs zu beurteilen und die Therapieplanung anzupassen. Die chronischen Kopfschmerzen und die Differentialdiagnose Pseudotumor cerebri müssen bei der Therapieplanung und Überwachung berücksichtigt werden, um mögliche Nebenwirkungen zu minimieren und die Lebensqualität des Patienten zu erhalten.</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert ein rezidiviertes primär mediastinales B-Zell-Lymphom (PMLBL) nach initialer Behandlung mit DA-EPOCH-R und intrathealer Therapie. Die Biopsie einer FDG-aviden Läsion deutet auf ein Rezidiv hin. Die ESMO-Leitlinien für Hodgkin-Lymphom und B-Zell-Lymphome betrachten PMLBL als eine aggressive Form des diffusen großzelligen B-Zell-Lymphoms (DLBCL). Da der Patient bereits eine DA-EPOCH-R-basierte Therapie erhalten hat, ist eine weitere Behandlung mit diesem Schema nicht optimal. Die Leitlinie empfiehlt bei rezidiviertem oder refraktärem DLBCL nach erster Linie, die Berücksichtigung von alternativen Chemotherapie-Regimen oder einer autologen Stammzelltransplantation, falls der Patient dafür geeignet ist. Angesichts der chronischen Kopfschmerzen und der Differentialdiagnose Pseudotumor cerebri ist eine sorgfältige neurologische Abklärung und Überwachung erforderlich, um die Verträglichkeit der Therapie sicherzustellen. Da der Pet-CT Bericht fehlt, kann die Ausdehnung des Rezidivs nicht beurteilt werden.</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Die Histologie der FDG-aviden mediastinalen Läsion muss durchgeführt und in einer Referenzpathologie beurteilt werden, um ein rezidivierendes PMLBL oder ein differenziertes Diagnosebild (z. B. sekundäres Lymphom, Infektion, Hamartom) abzugrenzen. Anschließend ist bei bestätigtem Rezidiv eine systemische Salvage-Therapie mit einem hochintensiven Regimen (z. B. ICE, ESHAP) zu erwägen, ergänzt durch eine erneute intrathecale Triple-Therapie bei zerebralem Risikoprofil.  
@@ -1595,7 +1402,7 @@
 - Bei neurologischen Symptomen (Kopfschmerzen): Kontrolle der Liquorräume durch MR-Angio oder erneute Liquorpunktion.</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The user is asking for a therapy recommendation based on the given patient information and ESMO guidelines. First, I need to parse through all the patient details carefully.
 The main diagnosis is PMLBL, which I recall stands for primary mediastinal B-cell lymphoma. It's a subtype of diffuse large B-cell lymphoma. The patient was treated with DA-EPOCH-R and intrathecal triple therapy from September 2021 to January 2022. DA-EPOCH-R is a common regimen for aggressive lymphomas, so that's in line with standard protocols.
@@ -1608,7 +1415,7 @@
 Therefore, the answer should state that the recommendation is to first confirm the diagnosis via histology and then proceed with salvage therapy. The reasoning should focus on the need for confirmed recurrence and adherence to ESMO guidelines which emphasize accurate diagnosis before treatment.</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Eine Salvage-Chemotherapie mit einem regimina wie GEMOX (Gemcitabine + Oxaliplatin) oder DICE (Doxorubicin, Ifosfamid, Cytarabine, Etoposid) in Kombination mit Rituximab, gefolgt von einer autologen Stammzelltransplantation (ASCT) bei Erwiesenem Ansprechen, wird empfohlen. Alternativ kann bei nicht-transplantationsfähigen Patienten eine Kombinationstherapie mit Rituximab und einer Targeted Therapy (z. B. BTK-Inhibitoren wie Ibrutinib oder CD30-targeted Therapie) in Betracht gezogen werden.
@@ -1620,13 +1427,17 @@
 5. **Necessary Diagnostik:** Vor Therapiebeginn ist eine definitive histologische Diagnose des Rezidivs erforderlich. Ebenfalls notwendig ist eine neurologische Abklärung der Kopfschmerzen (DD Pseudotumor cerebri) sowie eine Herzfunktionsevaluation aufgrund des ektopen Vorhofrhythmus, um Herztoxizität der Salvage-Chemotherapie zu minimieren. Eine PET/CT zur Staging und Evaluierung der Erkrankungsaktivität ist ebenfalls sinnvoll.</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has PMLBL, which is a type of B-cell lymphoma. The ESMO guidelines recommend a specific treatment approach for PMLBL. The patient previously received DA-EPOCH-R with intrathecal therapy. Now there's a biopsy of an FDG-avid lesion suggesting possible recurrence. The main challenge here is to determine the next step.
 First, I need to check if the ESMO guidelines suggest any particular regimen for relapsed PMLBL. Typically, for aggressive lymphomas, salvage chemotherapy followed by transplant might be an option. However, since PMLBL might have a different profile, maybe a specific regimen is recommended. Also, the patient had intrathecal therapy before, so CNS involvement was considered, which might influence the choice of salvage therapy. The FDG-avid lesion is suspicious for recurrence, so a biopsy result is crucial. If the biopsy confirms recurrence, then the ESMO guidelines would guide the next steps. The patient's prior treatment was DA-EPOCH-R, which is a chemoimmunotherapy regimen. For relapsed cases, options might include other chemo regimens, targeted therapies, or stem cell transplant. Since the patient has a history of pseudotumor cerebri and CNS prophylaxis was used, maybe CNS relapse is a concern, but the current lesion is in the mediastinum.
 The ESMO guidelines for DLBCL (since PMLBL is a variant) might be applicable here. For relapsed/refractory cases, options like high-dose therapy with autologous stem cell transplantation (ASCT) or allogeneic transplant could be considered. If the patient is eligible and the biopsy confirms recurrence, the next step would be a salvage regimen, possibly including rituximab again, and then consider transplant if feasible. However, the patient's age and comorbidities (like chronic headaches, possible pseudotumor cerebri) need to be considered for transplant eligibility. The ESMO guidelines emphasize individualized treatment, so if the biopsy confirms recurrence and the patient is a candidate, a salvage regimen followed by transplant would be the recommendation. If the biopsy doesn't confirm recurrence, then maybe a different approach is needed. But the current information points towards possible recurrence, so proceeding with salvage therapy as per ESMO guidelines is the logical step.</t>
         </is>
       </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1665,20 +1476,6 @@
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="inlineStr"/>
       <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
-      <c r="BN5" t="inlineStr"/>
-      <c r="BO5" t="inlineStr"/>
-      <c r="BP5" t="inlineStr"/>
-      <c r="BQ5" t="inlineStr"/>
-      <c r="BR5" t="inlineStr"/>
-      <c r="BS5" t="inlineStr"/>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1723,61 +1520,38 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Die beste Therapieempfehlung für den Patienten 5-20240227-HoFr basierend auf der Diagnose eines aggressiven B-Zell-Lymphoms bei Transformation aus einem follikulären Lymphom (ED 08/2023) und unter Berücksichtigung der ESMO-Leitlinie ist die Kombinationstherapie R-ICE plus autologe Stammzelltransplantation.
-**Begründung:**
-Die Diagnose eines aggressiven B-Zell-Lymphoms bei Transformation aus einem follikulären Lymphom mit metastatischen Veränderungen im Skelett und im Blutgemässen System spricht für eine hochgradig maligne Erkrankung, die eine intensive und umfassende Therapie erfordert. Die ESMO-Leitlinie empfiehlt für solche Fälle die Kombinationstherapie mit R-ICE (Rituximab, Ifosfamid, Carboplatin, Etoposid) als Standardtherapie.
-Die Verwendung von R-ICE hat sich in klinischen Studien als effektiv und sicher erwiesen, insbesondere bei Patienten mit aggressiven B-Zell-Lymphomen. Die Autologe Stammzelltransplantation kann dann als Consolidationstherapie eingesetzt werden, um die Wahrscheinlichkeit einer Rezidivbildung zu reduzieren.
-Die vorliegende Diagnose und das Stadium IV sprechen für eine hohe Ansprechnachweisbarkeit auf die Therapie. Die PET-CT-Bericht bestätigt den Befall des Skeletts und des Blutgemässen Systems, was auch die Notwendigkeit einer intensiven und umfassenden Therapie unterstreicht.
-Insgesamt ist die Kombinationstherapie R-ICE plus autologe Stammzelltransplantation die beste Therapieempfehlung für den Patienten 5-20240227-HoFr, basierend auf der Diagnose und der ESMO-Leitlinie.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine Konsolidationsbehandlung mit Hochdosis-Methotrexat (3–4 g/m²) und Cytarabin (1,5–2 g/m²) nach Erreichen einer suffizienten Response durch R-ICE, ergänzt durch eine autologe Stammzelltransplantation (ASCT) nach Mobilisation, sowie fortlaufende zerebrospinale Prophylaxe mit intratekaler Chemotherapie (z. B. Methotrexat/Arabinosylcytosin).  
+**Begründung:**  
+Basierend auf der ESMO-Leitlinie für zerebrale Lymphome und transformierte B-Zell-Lymphome ist bei Stadium IV mit zentralnervösem Befall (Meningeosis lymphomatosa) eine aggressive Kombinationstherapie zentraler und peripherer Erkrankungsteile erforderlich. Der aktuelle Behandlungsstand (R-ICE, Radiotherapie 36 Gy) muss durch Hochdosis-Chemotherapie mit CNS-penetranten Substanzen ergänzt werden, um die extranodale Erkrankung zu kontrollieren. Die ESMO empfiehlt hierzu Methotrexat und Cytarabin als Konsolidation, da sie das Überleben bei zerebralen Lymphomen signifikant verbessern. Die erfolgte Stammzellmobilisation (22.01.24) ermöglicht eine ASCT nach Erreichen einer klinischen Remission, die in transformierten Lymphomen die Progressionsfreie Überlebenszeit verlängert. Eine kontinuierliche intratekale Prophylaxe (z. B. 3–4 Dosen Methotrexat/Arabinosylcytosin) ist zwingend notwendig, um Rezidive im ZNS zu verhindern, da die bisherige Radiotherapie keine dauerhafte Kontrolle sicherstellt. Die ESMO betont zudem, dass bei multiplen osteolytischen Läsionen und Knochenmarkinfiltration eine systemische Hochdosis-Chemotherapie priorisiert werden muss, um die extrazerebrale Erkrankung zu erreichen. Kritisch zu beachten ist, dass die Radiotherapie eng mit neurologischen Monitoring kombiniert werden muss, um Toxizität früh zu erkennen. Die fehlende Wirbelsäulen-MRI muss nachgearbeitet werden, um die LWS-Läsion vollständig zu evaluieren.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Inductionstherapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) in 6 Zyklen folgt von 3 Wochen Abstand, anschließend Consolidationstherapie mit High-Dose Methotrexat und Autologes Stammzellenspenderentnahme.
-**Begründung:**
-Die Diagnose aggressiver B-Zell-Lymphom (Stage IV) mit meningealem Ausbreitung und disseminierten Osteolyse-Veränderungen im CT-Thorax und MRI-Schädel indiziert eine systemische Therapie. Die ESMO-Leitlinie empfiehlt für aggressive B-Zell-Lymphome mit ausgedehnten Hautmanifestationen oder Lymphknotenerkrankung die Kombinationstherapie R-CHOP in 6 Zyklen (1). Dieser Ansatz wird auch im vorliegenden Fall angewendet, da die Patientin eine disseminierte Erkrankung aufweist und keine Hinweise auf eine lokale Erkrankung gibt. Nach Abschluss der Induktionstherapie soll eine Consolidationstherapie mit High-Dose Methotrexat und Autologes Stammzellenspenderentnahme durchgeführt werden, um die Wahrscheinlichkeit einer Rezidiv-Erkrankung zu reduzieren (2).
-(1) ESMO Guidelines Committee. (2020). ESMO Clinical Practice Guidelines for the management of patients with lymphoma.
-(2) National Comprehensive Cancer Network. (2020). NCCN Guidelines: Non-Hodgkin Lymphomas.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird die Fortsetzung des bereits begonnenen IELSG-42-Protokolls (MARIETTA-Protokoll) mit R-ICE- und MATRIX-Chemotherapie, gefolgt von einer autologen Stammzelltransplantation (ASCT) bei klinischer Ansprechanzeige. Ergänzend dazu ist eine zielgerichtete ZNS-Bestrahlung (36 Gy über C2 bis hinteren 2/3 der Augen) sowie eine enge klinische und radiologische Nachsorge mit Fokus auf CNS- und Skelettmanifestationen durchzuführen. Bei fortbestehender CNS-Involution soll eine intrathekale Therapie (z. B. Methotrexat) in Betracht gezogen werden.  
+**Begründung:**  
+Laut ESMO-Leitlinien für lymphomöse Meningitis und sekundäre CNS-Bedingungen bei B-Zell-Lymphomen ist eine kombinierte systemische und lokale Therapie zwingend. Der Patient weist ein Stadium IV mit multiplen extranodalen Manifestationen (Skelett, ZNS) auf, was einen aggressiven Therapieansatz rechtfertigt. Das IELSG-42-Protokoll (R-ICE/MATRIX) wurde in ESMO-konformen Studien für solche Fälle bewährt, da es eine hohe Durchdringung des blut-Hirn-Schrankens durch Methotrexat- und Cytarabin-haltige Regime sicherstellt. Die bereits durchgeführte ZNS-Strahlung (36 Gy) und Stammzellmobilisation sind ESMO-konform und dienen der Konsolidierung. Die Prognose bleibt trotz intensiver Therapie schlecht, weshalb eine enge Nachsorge (z. B. MRI-LWS) und bei Progression intrathekale Therapieoptionen erforderlich sind. Die ESMO betont zudem, dass bei sekundärer CNS-Bedingung die systemische Therapie den zentralen Fokus haben muss, da lokale Maßnahmen allein nicht ausreichen.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird eine Konsolidationsbehandlung mit Hochdosis-Methotrexat (3–4 g/m²) und Cytarabin (1,5–2 g/m²) nach Erreichen einer suffizienten Response durch R-ICE, ergänzt durch eine autologe Stammzelltransplantation (ASCT) nach Mobilisation, sowie fortlaufende zerebrospinale Prophylaxe mit intratekaler Chemotherapie (z. B. Methotrexat/Arabinosylcytosin).  
-**Begründung:**  
-Basierend auf der ESMO-Leitlinie für zerebrale Lymphome und transformierte B-Zell-Lymphome ist bei Stadium IV mit zentralnervösem Befall (Meningeosis lymphomatosa) eine aggressive Kombinationstherapie zentraler und peripherer Erkrankungsteile erforderlich. Der aktuelle Behandlungsstand (R-ICE, Radiotherapie 36 Gy) muss durch Hochdosis-Chemotherapie mit CNS-penetranten Substanzen ergänzt werden, um die extranodale Erkrankung zu kontrollieren. Die ESMO empfiehlt hierzu Methotrexat und Cytarabin als Konsolidation, da sie das Überleben bei zerebralen Lymphomen signifikant verbessern. Die erfolgte Stammzellmobilisation (22.01.24) ermöglicht eine ASCT nach Erreichen einer klinischen Remission, die in transformierten Lymphomen die Progressionsfreie Überlebenszeit verlängert. Eine kontinuierliche intratekale Prophylaxe (z. B. 3–4 Dosen Methotrexat/Arabinosylcytosin) ist zwingend notwendig, um Rezidive im ZNS zu verhindern, da die bisherige Radiotherapie keine dauerhafte Kontrolle sicherstellt. Die ESMO betont zudem, dass bei multiplen osteolytischen Läsionen und Knochenmarkinfiltration eine systemische Hochdosis-Chemotherapie priorisiert werden muss, um die extrazerebrale Erkrankung zu erreichen. Kritisch zu beachten ist, dass die Radiotherapie eng mit neurologischen Monitoring kombiniert werden muss, um Toxizität früh zu erkennen. Die fehlende Wirbelsäulen-MRI muss nachgearbeitet werden, um die LWS-Läsion vollständig zu evaluieren.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird die Fortsetzung des bereits begonnenen IELSG-42-Protokolls (MARIETTA-Protokoll) mit R-ICE- und MATRIX-Chemotherapie, gefolgt von einer autologen Stammzelltransplantation (ASCT) bei klinischer Ansprechanzeige. Ergänzend dazu ist eine zielgerichtete ZNS-Bestrahlung (36 Gy über C2 bis hinteren 2/3 der Augen) sowie eine enge klinische und radiologische Nachsorge mit Fokus auf CNS- und Skelettmanifestationen durchzuführen. Bei fortbestehender CNS-Involution soll eine intrathekale Therapie (z. B. Methotrexat) in Betracht gezogen werden.  
-**Begründung:**  
-Laut ESMO-Leitlinien für lymphomöse Meningitis und sekundäre CNS-Bedingungen bei B-Zell-Lymphomen ist eine kombinierte systemische und lokale Therapie zwingend. Der Patient weist ein Stadium IV mit multiplen extranodalen Manifestationen (Skelett, ZNS) auf, was einen aggressiven Therapieansatz rechtfertigt. Das IELSG-42-Protokoll (R-ICE/MATRIX) wurde in ESMO-konformen Studien für solche Fälle bewährt, da es eine hohe Durchdringung des blut-Hirn-Schrankens durch Methotrexat- und Cytarabin-haltige Regime sicherstellt. Die bereits durchgeführte ZNS-Strahlung (36 Gy) und Stammzellmobilisation sind ESMO-konform und dienen der Konsolidierung. Die Prognose bleibt trotz intensiver Therapie schlecht, weshalb eine enge Nachsorge (z. B. MRI-LWS) und bei Progression intrathekale Therapieoptionen erforderlich sind. Die ESMO betont zudem, dass bei sekundärer CNS-Bedingung die systemische Therapie den zentralen Fokus haben muss, da lokale Maßnahmen allein nicht ausreichen.</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**
 Fortsetzung der aktuellen Therapie mit Dexamethason bis zum Abschluss des geplanten Schemas. Anschließend Durchführung einer MRT des Schädels und eines PET-CT zur Beurteilung des Therapieansprechens. Bei Progression oder unzureichendem Ansprechen: Evaluation für eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation oder Teilnahme an einer klinischen Studie mit neuen Wirkstoffen.
 **Begründung:**
 Der Patient leidet an einem aggressiven B-Zell-Lymphom mit Meningeosis lymphomatosa (Stadium IV). Er hat bereits eine Erstlinientherapie mit R-ICE und MATRIX Chemotherapie sowie eine autologe Stammzelltransplantation erhalten. Aktuell wird eine Strahlentherapie (36 Gy) mit begleitendem Dexamethason durchgeführt, um den ZNS-Befall zu adressieren. Die ESMO-Leitlinie empfiehlt bei aggressivem B-Zell-Lymphom in der Erstlinie eine Chemotherapie, gefolgt von autologer Stammzelltransplantation bei geeigneten Patienten. Da der Patient bereits diese Behandlung erhalten hat und eine Meningeosis vorliegt, ist die aktuelle Therapie mit Strahlentherapie und Dexamethason gerechtfertigt. Nach Abschluss der Strahlentherapie ist eine erneute Bildgebung notwendig, um das Ansprechen zu beurteilen. Sollte das Lymphom weiterhin progredient sein oder nicht ausreichend ansprechen, sind weitere Therapieoptionen, wie eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation oder die Teilnahme an einer klinischen Studie, zu erwägen.</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Der Patient präsentiert sich mit einem transformierten follikulären Lymphom, das als Meningeosis lymphomatosa vorliegt (ED 08/2023) und bereits eine disseminierte Manifestation mit Osteolysen und Knochenmarkbefall zeigt (Ann Arbor Stadium IV). Er hat bereits mehrere Zyklen Chemotherapie (R-ICE und MATRIX) gemäß dem IELSG-42 (MARIETTA)-Protokoll erhalten, gefolgt von autologer Stammzelltransplantation (Apherese durchgeführt). Aktuell erhält er eine Strahlentherapie (36 Gy) und Dexamethason.
 Die Leitlinie der ESMO für aggressive B-Zell-Lymphome (einschließlich transformierter Lymphome) empfiehlt in der Erstlinie eine Chemotherapie, gefolgt von einer Konsolidierung mit autologer Stammzelltransplantation bei geeigneten Patienten. Da der Patient bereits diese Behandlung erhalten hat und eine Meningeosis lymphomatosa vorliegt, ist eine weitere Systemtherapie indiziert. Die Leitlinie betont die Bedeutung der ZNS-Prophylaxe oder -Therapie bei ZNS-Befall. Die aktuelle Therapie mit Strahlentherapie und Dexamethason zielt auf den ZNS-Befall ab.
 Nach Abschluss der aktuellen Strahlentherapie und unter Berücksichtigung des Ansprechens auf die bisherige Therapie, sollte eine erneute Bildgebung (z.B. MRT Schädel und PET-CT) erfolgen, um das Therapieansprechen zu beurteilen. Sollte das Lymphom weiterhin progredient sein oder ein unzureichendes Ansprechen zeigen, sind weitere Therapieoptionen zu erwägen, wie z.B. eine Hochdosis-Chemotherapie mit autologer Stammzelltransplantation (falls noch nicht durchgeführt oder bei erneutem Rezidiv) oder die Teilnahme an einer klinischen Studie mit neuen Wirkstoffen (z.B. CAR-T-Zellen, Bispezifische Antikörper).</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Evaluierung der Option einer CAR-T-Zelltherapie oder Teilnahme an einer klinischen Studie mit neuartigen Therapien für transformierte Lymphome, insbesondere solche, die auf ZNS-Befall abzielen. Falls diese Optionen nicht zugänglich sind oder nicht in Frage kommen, sollte eine palliative Therapie mit dem Ziel der Symptomkontrolle und Verbesserung der Lebensqualität in Betracht gezogen werden. Eine fortlaufende ZNS-gerichtete Therapie (z.B. intrathekale Chemotherapie oder hochdosiertes Methyprednisolon) sollte fortgesetzt werden.
@@ -1785,14 +1559,14 @@
 Der Patient leidet an einem transformierten follikulären Lymphom mit Meningeosis lymphomatosa und disseminierten Osteolysen (Stadium IV). Er hat bereits eine intensive Chemotherapie (R-ICE, MATRIX) und eine autologe Stammzelltransplantation (ASZT) erhalten, gefolgt von Strahlentherapie und Dexamethason. Die Strahlentherapie adressiert den ZNS-Befall, jedoch ist eine langfristige Kontrolle oft nicht gegeben. Die ESMO-Leitlinien für transformierte Lymphome empfehlen nach Versagen der initialen Therapie und ASZT die Evaluierung von CAR-T-Zelltherapien oder die Teilnahme an klinischen Studien. Da der Befund des MRI LWS noch aussteht, kann eine vollständige Beurteilung noch nicht erfolgen. Bis zum Vorliegen dieses Befundes und der Entscheidung über eine weiterführende Therapie sollte die aktuelle ZNS-gerichtete Therapie fortgesetzt werden.</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>Der Patient präsentiert sich mit einem transformierten follikulären Lymphom, das in eine aggressive B-Zell-Lymphom-Form übergegangen ist und bereits eine Meningeosis lymphomatosa sowie disseminierte Osteolysen aufweist (Ann Arbor Stadium IV). Er hat bereits mehrere Zyklen Chemotherapie (R-ICE, MATRIX) erhalten, gefolgt von Stammzelltransplantation und aktuell Strahlentherapie mit Dexamethason. Die Lumbalpunktion bestätigt den ZNS-Befall.
 Die ESMO-Leitlinien für transformierte Lymphome betonen die Bedeutung einer intensiven systemischen Therapie, idealerweise mit nachfolgender autologer Stammzelltransplantation (ASZT), besonders bei hohem Tumorvolumen und ungünstigen Prognosefaktoren. Der Patient hat bereits eine ASZT erhalten. Nach progressiver Erkrankung oder Rezidiv unter Chemotherapie, wie hier wahrscheinlich der Fall (da Strahlentherapie eingesetzt wird), sind Optionen wie CAR-T-Zelltherapie oder klinische Studien zu evaluieren. Angesichts des ZNS-Befalls ist eine adäquate ZNS-Prophylaxe bzw. Therapie essentiell. Die aktuelle Therapie mit Strahlentherapie und Dexamethason adressiert den ZNS-Befall, jedoch ist dies oft nicht ausreichend für eine langfristige Kontrolle.
 Da der Befund des MRI LWS noch aussteht, kann eine abschließende Beurteilung noch nicht erfolgen.</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Empfehlung: Nach Abschluss der aktuellen Bestrahlung (18 x 2 Gy) und Dexamethason-Gabe den geplanten autologen Stammzell-Transplant (ASCT) durchführen, flankiert von hochdosierter systemischer Chemotherapie (z. B. R-ICE) gemäß Leitlinie ESMO für aggressive B-Zell-Lymphome mit ZNS-Befall.
@@ -1804,7 +1578,7 @@
 5. **Unzureichende diagnostische Daten**: Die finale MRI-LWS (26.02.24) ist noch ausstehend, könnte aber die Ausdehnung des Skelettbefalls präzisieren. Eine Wiederholung der PET-CT nach Bestrahlung/ASCT wäre notwendig, um die therapeutische Antwort zu evaluieren. ESMO-Leitlinien fordern jedoch keine weiteren diagnostischen Schritte vor ASCT bei bestätigtem ZNS-Befall und aktiver systemischer Erkrankung.</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has lymphomatous meningitis from an aggressive B-cell lymphoma that transformed from follicular lymphoma. The key here is the CNS involvement, confirmed by lumbar puncture showing CD5-negative, CD10-positive B-cell lymphoma. The ESMO guidelines for aggressive B-cell lymphoma with CNS involvement would likely recommend a combination of systemic therapy and local CNS treatment. 
 Looking at the treatments already given: R-ICE cycles (similar to IELSG-42), MATRIX, stem cell mobilization, apheresis, and then radiation to the brain and spinal cord. The current treatment is radiation up to C2 and posterior 2/3 of the eyes, plus dexamethasone. The radiation dose is 36 Gy, which is standard for prophylaxis in high-risk cases, but here it's therapeutic due to active CNS disease.
@@ -1815,7 +1589,7 @@
 Therefore, the next step would be to complete the radiation and then proceed with autologous stem cell transplantation as consolidation. ESMO guidelines likely support ASCT after achieving remission in transformed lymphomas. The current regimen is in line with that, so the recommendation would be to continue with the planned ASCT after completing the radiation and dexamethasone.</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Fortsetzung der aktuellen Therapie mit Dexamethason und Bestrahlung (36 Gy) sowie anschließende Maintenance-Therapie mit Rituximab, ergänzt durch intrathekale Chemotherapie (z. B. Methotrexat oder Cytarabin) zur Prophylaxe einer ZNS-Rezidivierung.  
@@ -1833,11 +1607,15 @@
 Die Kombination aus Bestrahlung, Maintenance-Rituximab und intrathekaler Chemotherapie adressiert systemisch und zentralnervös gleichzeitig die Erkrankung, was der ESMO-Leitlinie entspricht. Die bisherige Therapie (R-ICE, MATRIX, ASCT) wurde erfolgreich durchgeführt, sodass der Fokus auf Konkolidierung und Rezidivprophylaxe liegt. Weitere diagnostische Schritte (z. B. PET-CT nach Bestrahlung) sind zur Beurteilung der Therapieresponse sinnvoll.</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>Okay, let's see. The patient has a lymphomatous meningitis from an aggressive B-cell lymphoma that transformed from follicular lymphoma. They've already undergone several cycles of R-ICE and MATRIX chemotherapy, followed by stem cell mobilization and apheresis. Now they're receiving radiation (36 Gy) and dexamethasone. The ESMO guidelines probably recommend high-dose therapy with autologous stem cell transplantation (ASCT) for aggressive lymphomas, especially with CNS involvement. But wait, the patient already had ASCT. What's next? Maybe consolidation with radiation, which they are doing. But given the CNS involvement, could they need intrathecal chemotherapy or maybe a different approach? The current treatment includes dexamethasone, which is part of standard protocols. However, ESMO might suggest adding intrathecal methotrexate or cytarabine for CNS prophylaxis. Also, the patient is in Ann Arbor stage IV, which indicates advanced disease. The prognosis might be poor, so maybe consider clinical trials or maintenance therapy. The patient's response to prior chemotherapy is unclear, but they have completed several cycles. The next step after radiation might be maintenance therapy with rituximab. Wait, but the patient has already had R-ICE, which is part of the MARIETTA protocol. I need to check if ESMO recommends consolidation with ASCT followed by maintenance. However, the patient has already had ASCT. Maybe they need to proceed with maintenance rituximab. Alternatively, if the disease is aggressive, maybe consider a different regimen. But the current treatment plan seems to include dexamethasone and radiation. The ESMO guidelines might suggest that for primary CNS lymphoma, high-dose methotrexate-based regimens are standard. However, this is secondary CNS involvement from follicular lymphoma. So, the main focus is systemic therapy with CNS-directed treatment. Since they've completed chemotherapy and ASCT, the next step would be maintenance therapy with rituximab and possible intrathecal therapy. The patient is currently undergoing radiation, which is appropriate for CNS involvement. After radiation, maintenance rituximab could be given to prevent relapse. The ESMO guidelines might support this approach. So the recommended therapy would be continuation of dexamethasone, completion of radiation, and initiation of maintenance rituximab therapy. Also, monitoring for CNS relapse and systemic recurrence is important. I need to make sure that the recommendation aligns with the ESMO guidelines for transformed follicular lymphoma with CNS involvement. Since the patient has already had aggressive treatment, the next step is likely maintenance with rituximab and possible intrathecal chemo to prevent CNS relapse.</t>
         </is>
       </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr"/>
@@ -1876,20 +1654,6 @@
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="inlineStr"/>
       <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
-      <c r="BN6" t="inlineStr"/>
-      <c r="BO6" t="inlineStr"/>
-      <c r="BP6" t="inlineStr"/>
-      <c r="BQ6" t="inlineStr"/>
-      <c r="BR6" t="inlineStr"/>
-      <c r="BS6" t="inlineStr"/>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1933,56 +1697,31 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Combination chemotherapy with rituximab, cyclophosphamide, doxorubicin and prednisone (R-CHOP) followed by involved field radiation therapy to the affected area.
-**Begründung:**
-Die Diagnose eines diffusen großen B-Zell-Lymphoms (DLBCL), Stadium IVE, erfordert eine intensivere und kombinierte Chemotherapie. Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL in Stadium IVE eine Kombinationstherapie, bestehend aus Rituximab (R) und CHOP (cyclophosphamide, doxorubicin and prednisone). Dieser Ansatz hat sich als wirksam und sicher erwiesen.
-Im Falle des Patienten 6-20240227-LeGi ist es notwendig, die vorhandene Tumorlast zu reduzieren, um die Schmerzen im medialen Oberschenkel rechts zu lindern. Eine Kombinationstherapie mit R-CHOP kann dabei eine effektive Strategie sein, um den Tumor zu kontrollieren und die Prognose zu verbessern.
-Zusätzlich empfiehlt sich die Durchführung von Involved Field Radiation Therapy (IFRT) nach Abschluss der Kombinationstherapie. Dieser Ansatz kann helfen, die Resttumoren im medialen Oberschenkel rechts und mögliche Mikrometastasen zu eliminieren.
-Insgesamt bietet eine Kombinationstherapie mit R-CHOP und IFRT die beste Möglichkeit, den Patienten 6-20240227-LeGi effektiv zu behandeln und seine Prognose zu verbessern.</t>
+          <t>**Therapieempfehlung:**  
+Empfehlenswert ist eine **Biopsie der aktuellen rechten Oberschenkelläsion** zur klaren histologischen Abklärung der Differenzialdiagnose (Lymphomrezidiv vs. Neurinom) sowie eine **multidisziplinäre Besprechung** (Onkologie, Radiologie, Neurologie) unter Einbeziehung der PET/CT-Daten. Bei histologisch bestätigtem Lymphomrezidiv sollte eine **salvage-Therapie gemäß ESMO-Leitlinien** (z. B. R-EPOCH oder alternativ R-GemOx) in Betracht gezogen werden, unter Berücksichtigung der prognostischen Risikofaktoren (hochgradige Proliferation, frühere PR) und komorbiditatsspezifischer Risiken.
+**Begründung:**  
+Die aktuelle Läsion im rechten Oberschenkel ist klinisch und radiologisch unklar differenziert (Neurinom vs. Lymphomrezidiv). Laut ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei Verdacht auf Rezidiv eine **histologische Bestätigung** der Läsion obligat, da die Therapieentscheidung (salvage vs. lokale Therapie) hiervon abhängt. Die frühere partielle Remission nach R-CHOP und die hochgradige Proliferation (MIB-1 90%) deuten auf ein aggressives Tumorverhalten hin, was bei Rezidiv eine intensivere Salvage-Therapie (z. B. R-EPOCH) rechtfertigt. Ebenso ist die **Kooperation mit Radiologie und Neurologie** entscheidend, um radiologische und klinische Parameter (PET-Aufnahme, Schmerz) korrekt zu interpretieren. Die Vorerkrankungen (Prostatabefund, orthopädische Komorbiditäten) müssen bei der Therapieplanung berücksichtigt werden, um das Risikoprofil zu optimieren. Ohne histologische Sicherheit wäre eine sofortige systemische Therapie nicht leitlinigensgerecht.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Therapie (Cyclophosphamid, Dozil, Vincristin, Prednison, Rituximab) für 6 Cycles, gefolgt von Maintenance-Therapie mit Rituximab und Cyclophosphamid.
-**Begründung:**
-Die Diagnose eines diffusen großen B-Zell-Lymphoms (DLBCL), Stadium IVE, mit extranodaler Beteiligung an Knochen- und Muskelläsionen, erfordert eine intensive systemische Therapie. Die ESMO-Leitlinien empfehlen für Patienten mit DLBCL-Stadium IVE eine kombinierte Chemotherapie mit Rituximab (R-CHOP) als Standard-Therapieoption.
-Die vorliegende Biopsie zeigte positive Ausdruck von CD20, Pax-5 und MUM1, was die Wahl von Rituximab als Teil der Therapie rechtfertigt. Die Anwesenheit von Nekrose im Humeruskopf-bereich im MRI-Befund suggeriert eine invasive Tumorbeteiligung, die durch die R-CHOP-Therapie effektiv behandelt werden kann.
-Die Wahl von Cyclophosphamid und Dozil in der R-CHOP-Therapie basiert auf den ESMO-Leitlinien, die diese Substanzen als Standard-Komponenten einer DLBCL-Therapie empfehlen. Die Additive Wirkung von Prednison und Vincristin wird außerdem berücksichtigt.
-Die Prognose für Patienten mit DLBCL-Stadium IVE ist generell schlechter als bei anderen Lymphomen, was eine intensive Therapie notwendig macht. Eine Maintenance-Therapie nach 6 Cycles R-CHOP-Therapie kann die Wahrscheinlichkeit von Rezidiven reduzieren und die Überlebensrate verbessern.
-Insgesamt bietet die R-CHOP-Therapie die beste Möglichkeit, den Patienten mit seinem DLBCL-Stadium IVE effektiv zu behandeln und seine Prognose zu verbessern.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine **histologische Sicherung der aktuellen Oberschenkel-Lesion (Biopsie)**, um ein Lymphomrezidiv oder eine andere Pathologie (z. B. Neurinom) abzugrenzen. In Abhängigkeit der Ergebnisse ist eine individuelle Therapieentscheidung nach ESMO-Leitlinien erforderlich.  
+**Begründung:**  
+Der aktuelle unklare Befund im rechten medialen Oberschenkel erfordert eine definitive histologische Abklärung gemäß ESMO-Leitlinien, um eine Differenzialdiagnose (z. B. Neurinom vs. Lymphomrezidiv) zu ermöglichen. Ein Hochrisiko-DLBCL (IPI 3, Stadium IVE) mit Extranodalbeteiligung und persistierender metabolischer Aktivität nach R-CHOP-Therapie (PR) unterstreicht die Dringlichkeit einer präzisen Diagnosestellung. ESMO empfiehlt bei Verdacht auf Rezidiv eine Gewebeanalyse und gegebenenfalls eine PET-CT-basierte Staging-Revision. Erst nach Bestätigung eines Rezidivs könnten gemäß Leitlinien Optionen wie rezidivspezifische Chemotherapien (z. B. R-ICE/R-DHAP) oder, bei guter Kondition, eine Hochdosen-Therapie mit autologer Stammzelltransplantation in Betracht gezogen werden. Die aktuelle klinische Situation rechtfertigt keine systemische Therapie ohne histologische Sicherung.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**  
-Empfehlenswert ist eine **Biopsie der aktuellen rechten Oberschenkelläsion** zur klaren histologischen Abklärung der Differenzialdiagnose (Lymphomrezidiv vs. Neurinom) sowie eine **multidisziplinäre Besprechung** (Onkologie, Radiologie, Neurologie) unter Einbeziehung der PET/CT-Daten. Bei histologisch bestätigtem Lymphomrezidiv sollte eine **salvage-Therapie gemäß ESMO-Leitlinien** (z. B. R-EPOCH oder alternativ R-GemOx) in Betracht gezogen werden, unter Berücksichtigung der prognostischen Risikofaktoren (hochgradige Proliferation, frühere PR) und komorbiditatsspezifischer Risiken.
-**Begründung:**  
-Die aktuelle Läsion im rechten Oberschenkel ist klinisch und radiologisch unklar differenziert (Neurinom vs. Lymphomrezidiv). Laut ESMO-Leitlinien für aggressive B-Zell-Lymphome ist bei Verdacht auf Rezidiv eine **histologische Bestätigung** der Läsion obligat, da die Therapieentscheidung (salvage vs. lokale Therapie) hiervon abhängt. Die frühere partielle Remission nach R-CHOP und die hochgradige Proliferation (MIB-1 90%) deuten auf ein aggressives Tumorverhalten hin, was bei Rezidiv eine intensivere Salvage-Therapie (z. B. R-EPOCH) rechtfertigt. Ebenso ist die **Kooperation mit Radiologie und Neurologie** entscheidend, um radiologische und klinische Parameter (PET-Aufnahme, Schmerz) korrekt zu interpretieren. Die Vorerkrankungen (Prostatabefund, orthopädische Komorbiditäten) müssen bei der Therapieplanung berücksichtigt werden, um das Risikoprofil zu optimieren. Ohne histologische Sicherheit wäre eine sofortige systemische Therapie nicht leitlinigensgerecht.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird eine **histologische Sicherung der aktuellen Oberschenkel-Lesion (Biopsie)**, um ein Lymphomrezidiv oder eine andere Pathologie (z. B. Neurinom) abzugrenzen. In Abhängigkeit der Ergebnisse ist eine individuelle Therapieentscheidung nach ESMO-Leitlinien erforderlich.  
-**Begründung:**  
-Der aktuelle unklare Befund im rechten medialen Oberschenkel erfordert eine definitive histologische Abklärung gemäß ESMO-Leitlinien, um eine Differenzialdiagnose (z. B. Neurinom vs. Lymphomrezidiv) zu ermöglichen. Ein Hochrisiko-DLBCL (IPI 3, Stadium IVE) mit Extranodalbeteiligung und persistierender metabolischer Aktivität nach R-CHOP-Therapie (PR) unterstreicht die Dringlichkeit einer präzisen Diagnosestellung. ESMO empfiehlt bei Verdacht auf Rezidiv eine Gewebeanalyse und gegebenenfalls eine PET-CT-basierte Staging-Revision. Erst nach Bestätigung eines Rezidivs könnten gemäß Leitlinien Optionen wie rezidivspezifische Chemotherapien (z. B. R-ICE/R-DHAP) oder, bei guter Kondition, eine Hochdosen-Therapie mit autologer Stammzelltransplantation in Betracht gezogen werden. Die aktuelle klinische Situation rechtfertigt keine systemische Therapie ohne histologische Sicherung.</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**
 Durchführung einer Bildgesteuerten Biopsie des solitären Befundes im medialen Oberschenkel rechts zur histologischen Klärung. Sollte die Biopsie ein DLBCL bestätigen, ist eine erneute Stadieneinteilung mittels PET/CT und Knochenmarkbiopsie erforderlich, um die Eignung für eine hochdosierte Chemotherapie mit nachfolgender autologer Stammzelltransplantation (ASZT) zu beurteilen.
 **Begründung:**
 Die Patientenanamnese zeigt ein rezidiviertes DLBCL, das auf eine Erstlinienbehandlung mit Mabthera und CHOP angesprochen hat, aber nun einen solitären Befund aufweist. Die ESMO-Leitlinien empfehlen bei rezidivierten DLBCL eine erneute Stadieneinteilung und die Berücksichtigung der Krankheitsfreiheit und des Ansprechens auf die Erstlinienbehandlung. Da der Patient bereits mehrere Therapielinien erhalten hat, ist eine erneute Biopsie des aktuellen Befundes unerlässlich, um die Diagnose zu bestätigen oder auszuschließen. Sollte die Biopsie ein DLBCL bestätigen, stellt die ASZT eine potenziell kurative Therapieoption dar, insbesondere bei Patienten mit gutem Allgemeinzustand und ausreichendem Response auf die vorherige Behandlung. Die ESMO-Leitlinien unterstützen die ASZT als Standardtherapie für geeignete Patienten mit rezidiviertem DLBCL.</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Der Patient präsentiert sich mit einem rezidivierten diffusen großzelligen B-Zell-Lymphom (DLBCL) Stadium IVE, das ursprünglich 2015 mit Mabthera und CHOP behandelt wurde, gefolgt von Radiotherapie und anschließender Mabthera-Monotherapie. Trotz dieser Behandlung zeigt das aktuelle PET-CT einen solitären Befund im medialen Oberschenkel rechts, der differenzialdiagnostisch ein Neurinom darstellt, aber aufgrund der Vorgeschichte des DLBCL weiterhin eine Lymphombeteiligung in Betracht ziehen lässt. Die Biopsie aus 2015 zeigte ein aggressives Lymphomprofil (hoher MIB-1 Proliferationsindex, positive Bcl-2 und Bcl-6 Expression), was auf ein potenziell rezidivierendes oder refraktäres DLBCL hindeutet.
 Die ESMO-Leitlinien für DLBCL empfehlen bei rezidivierten/refraktären Fällen eine erneute Beurteilung des Risikoprofils und die Auswahl der Therapie basierend auf dem Response auf die Erstlinienbehandlung, der Krankheitsfreiheit und dem allgemeinen Gesundheitszustand des Patienten. Da der Patient bereits mehrere Therapielinien erhalten hat, kommen nun komplexere Strategien in Frage.
@@ -1990,7 +1729,7 @@
 Da der Befund im Oberschenkel differenzialdiagnostisch auch ein Neurinom sein kann, ist eine klare Diagnose vor der Therapieentscheidung unerlässlich.</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Erneute Biopsie des aktuellen Befundes im medialen Oberschenkel rechts zur histologischen Klärung und zum Ausschluss eines Lymphoms.
@@ -1998,13 +1737,13 @@
 Der Patient präsentiert sich mit einem rezidivierten DLBCL (Stadium IVE) nach initialer Therapie mit Mabthera und CHOP, gefolgt von Radiotherapie und Mabthera-Monotherapie. Aktuell besteht ein solitärer Befund im medialen Oberschenkel, der differenzialdiagnostisch ein Neurinom darstellt. Die ESMO-Leitlinien betonen die Notwendigkeit einer präzisen Diagnose bei rezidivierten oder refraktären Lymphomen. Da die aktuelle Läsion als Neurinom diskutiert wird, ist eine erneute Biopsie essenziell, um eine definitive Diagnose zu stellen und die geeignete Therapie (z.B. operative Entfernung bei Neurinom oder erneute Lymphomtherapie) einzuleiten. Ohne histologische Bestätigung ist eine gezielte Therapie nicht möglich. Die Biopsie sollte auch das Lymphomprofil (CD20, Pax-5, MUM1, bcl-2, bcl-6) erneut beurteilen, um eine mögliche Transformation oder Resistenzentwicklung zu erkennen.</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>Der Patient präsentiert sich mit einem rezidivierten diffusen großzelligen B-Zell-Lymphom (DLBCL) Stadium IVE, das initial mit Mabthera und CHOP behandelt wurde. Trotz initialem Ansprechen (PR) und nachfolgender Radiotherapie sowie Mabthera-Monotherapie persistiert eine Anreicherung im Humerus. Aktuell besteht ein solitäres Befund medialer Oberschenkel rechts, der differenzialdiagnostisch ein Neurinom darstellt. Die Biopsie zeigte ein positives CD20, Pax-5, MUM1, bcl-2, bcl-6 Profil und negatives CD10, CD30, Cyclin-D1, EBER, CD5, MIB-1.
 Die ESMO-Leitlinien für rezidiviertes oder refraktäres DLBCL sehen verschiedene Optionen vor, abhängig vom Ansprechen auf die initiale Therapie, dem Remissionsstatus, dem Performance Status und der Möglichkeit einer Stammzelltransplantation. Da der Patient bereits eine initiale Therapie erhalten hat und nun einen isolierten Befund aufweist, ist eine erneute Biopsie des aktuellen Befundes essenziell, um die Diagnose zu bestätigen oder auszuschließen, dass es sich um eine Lymphomtransformation handelt. Falls es sich um Lymphom handelt, und der Patient für eine hochdosierte Chemotherapie mit Stammzelltransplantation geeignet ist, wäre dies die bevorzugte Option. Andernfalls sind Optionen wie CAR-T-Zelltherapie, andere Chemotherapie-Regime oder klinische Studien zu berücksichtigen. Da der Befund aktuell als Neurinom diskutiert wird, ist eine erneute Bildgebung und ggf. eine Biopsie des aktuellen Befundes dringend erforderlich, um die korrekte Diagnose zu stellen und eine geeignete Therapie einzuleiten.</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Biopsie der solitären Läsion im medialen rechten Oberschenkel zur histologischen Klärung der Diagnose. Bei Nachweis einer lymphomassoziierten Rezidiv-/Progressionslage: Salvage-Chemotherapie (z. B. R-EPOCH) mit anschließender Autotransplantation im Ermessen der Patientenfitness. Bei histologischer Bestätigung eines Neurinoms: Chirurgische Exzision unter Beurteilung durch Orthopäden/Neurochirurgen.  
@@ -2020,7 +1759,7 @@
 - Bei Neurinom: MRT für präoperative Planung, evtl. Nervenstimulationstests</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has a history of DLBCL Stage IVE from 2015. They received R-CHOP with some PR and radiotherapy. Now, there's a new PET/CT showing a solitary lesion in the right medial thigh, possibly a schwannoma, and it's very painful. Also, there's a secondary prostate finding in the 2015 PET.
 First, the current issue is the new lesion. Since DLBCL was previously treated, we need to determine if this new lesion is a recurrence or something else. The ESMO guidelines for DLBCL would emphasize staging and determining the nature of the lesion. The patient's history includes a prior PR, so if there's a recurrence, treatment options would depend on the stage and prior therapies. However, the new lesion is described as suggesting a schwannoma, which is a benign nerve sheath tumor. But given the history of lymphoma, it's crucial to rule out a relapse or a second primary lymphoma.
@@ -2029,7 +1768,7 @@
 Additionally, the prostate finding from 2015 is mentioned but not evaluated. The patient might need further imaging or a biopsy for that as well, but it's a secondary issue. The main focus is the thigh lesion. The patient's prior treatment included R-CHOP and radiotherapy, so any new lesion post-treatment should be evaluated for recurrence. The ESMO guidelines would support a multidisciplinary approach here, involving oncologists, radiologists, and pathologists to confirm the diagnosis and plan treatment.</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Empfehlung einer **histologischen Abklärung des solitären Befundes im medialen Oberschenkel rechts** durch Biopsie oder intraoperativen Schnitt mit anschließender Immunhistochemie (z. B. CD20, Ki-67, CD10, bcl-2, bcl-6).  
@@ -2039,7 +1778,7 @@
 Zusätzlich ist der Prostatabefund im PET/CT von 2015 als sekundäre Diagnose hervorzuheben, jedoch liegen keine aktuellen Daten zu seiner Aktualität vor. Solange keine histologische Gewissheit besteht, kann keine definitive Therapie empfohlen werden. Die aktuellen Informationen reichen nicht aus, um ein Rezidiv oder eine neue maligne Erkrankung mit Sicherheit zu diagnostizieren.</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has a history of diffuse large B-cell lymphoma (DLBCL) stage IVE, treated with R-CHOP and radiotherapy. Now, there's a new solitary lesion in the right thigh, possibly a schwannoma, which is very painful. The previous PET/CT showed a moderate uptake, and the MRI suggests necrosis in the humerus area, but that seems to be under control post-surgery.
 First, the main question is whether the new lesion is a recurrence of DLBCL or another benign tumor like a schwannoma. The ESMO guidelines for DLBCL would likely recommend a biopsy to confirm the diagnosis. Since the patient had a PR after initial treatment, but there's a new lesion with PET uptake, we can't rule out relapse. However, the description suggests it's possibly a neurinoma, which is benign. But without a biopsy, it's hard to be certain. 
@@ -2048,6 +1787,10 @@
 So, the key here is confirming the nature of the new lesion. The ESMO guidelines would stress the need for histological confirmation before proceeding with further treatment. Therefore, the recommended step is a biopsy to determine if it's lymphoma or a benign tumor. Based on the biopsy results, the treatment plan can be tailored accordingly.</t>
         </is>
       </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr"/>
@@ -2086,20 +1829,6 @@
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="inlineStr"/>
       <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
-      <c r="BN7" t="inlineStr"/>
-      <c r="BO7" t="inlineStr"/>
-      <c r="BP7" t="inlineStr"/>
-      <c r="BQ7" t="inlineStr"/>
-      <c r="BR7" t="inlineStr"/>
-      <c r="BS7" t="inlineStr"/>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2143,31 +1872,6 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Therapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) in Kombination mit einer Anti-PD1-Hemmstoff-Monotherapie (Neratinib oder Atezolizumab) für 6-8 Zyklen.
-**Begründung:**
-Die Diagnose eines diffusen großzelligen B-Zell-Lymphoms (DLBCL) Stadium IV, non-GCB-Typ, erfordert eine aggressive Therapie. Die ESMO-Leitlinie empfiehlt für Patienten mit einem DLBCL Stadium IV die Kombination von R-CHOP-Therapie und einer Anti-PD1-Hemmstoff-Monotherapie.
-Die Kombination von R-CHOP und Neratinib oder Atezolizumab hat sich in Studien als effektiv und sicher für Patienten mit DLBCL Stadium IV erwiesen. Die additionale Verwendung eines Anti-PD1-Hemmstoffs kann die Effektivität der Therapie verbessern, insbesondere bei Patienten mit einem non-GCB-Typ.
-Da keine rearrangements von BCL2, BCL6 oder MYC Genen detektiert wurden, ist eine Kombinationstherapie geeignet. Die PET/CT-Fundamente zeigen eine intensive Stoffwechselaktivität in den Lymphommanifestationen, was auf eine hohe Tumorlast hinweist und eine aggressive Therapie rechtfertigt.
-Es gibt keine Hinweise auf eine andere spezifische Therapie oder Vorbehalte, die gegen eine R-CHOP-Kombinationstherapie sprechen würden. Die Therapie sollte von einem erfahrenen Onkologie-Experten durchgeführt werden und regelmäßig überwacht werden.</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Therapie (Cyclophosphamid, Doxorubicin, Vincristin, Prednison) mit 6 Zyklen als Standardtherapie für das Diffuse Large B-cell Lymphoma Stadium IV, Non-Germinal Center B-cell Type.
-**Begründung:**
-Die Empfehlung basiert auf der ESMO-Leitlinie. Das diffuses großzellige B-Zell-Lymphom Stadium IV ist ein aggressiver Tumor, der eine standardisierte Therapie benötigt. Die R-CHOP-Therapie ist die empfohlene Standardtherapie für solche Fälle und hat sich als effektiv und sicher erwiesen.
-Die Non-Germinal Center B-cell Typik des Lymphoms spricht nicht gegen die Wahl der R-CHOP-Therapie, da diese auch bei anderen Histologien erfolgreich eingesetzt wird. Die fehlenden Rearrangements von BCL2, BCL6 und MYC sprechen für eine relativ aggressive Tumorstammzellpopulation, die einer intensiven Chemotherapie benötigt.
-Die intensive metabolische Aktivität in nodalen und extranodalen Lymphommanifestationen sowie die Pleura- und Thoraxwand-infiltration sprechen für ein Stadium IV-Lymphom, das eine systemische Therapie wie R-CHOP erfordert. Die leichte Pleuraeffusion reicht nicht als alleinige Indikation für eine lokale Therapie aus.
-Die fehlenden Co-Morbidity und Prognose-Score sprechen für eine relativ junge Patientenpopulation, die eine standardisierte Therapie wie R-CHOP gut tolerieren kann. Die Initial Imaging Modality (Erstvorstellung) bestätigt die intensive metabolische Aktivität im Lymphom.
-Die empfohlene R-CHOP-Therapie ist also die am besten begründete Standardtherapie für das Diffuse Large B-cell Lymphoma Stadium IV, Non-Germinal Center B-cell Type.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**  
 Primäre Therapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon) kombiniert mit lokal begrenzter Radiotherapie der neuroforaminalen/intraspinalen Lymphombefall (BWK 9, rechts) gemäß ESMO-Leitlinien.  
 **Begründung:**  
@@ -2176,8 +1880,8 @@
 Der Non-GCB-Typ hat zwar eine schlechtere Prognose, jedoch fehlen genetische Risikofaktoren, was die Therapieempfindlichkeit unterstützt. Die ESMO betont die Notwendigkeit einer engmaschigen Neuro-Onkologie-Überwachung bei zentralen Befällen, um frühzeitig Rezidive oder Neurotoxizitäten zu erkennen. Die Kombination aus R-CHOP und lokaler Radiotherapie adressiert sowohl den systemischen als auch den lokalen Befall und entspricht der evidenzbasierten Standardtherapie bei dieser Patientengruppe.</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Die primäre Therapie sollte mit der ESMO-rekommendierten **R-CHOP-Schema (Rituximab + Cyclophosphamid, Doxorubicin, Vincristin, Prednison)** erfolgen, ergänzt durch eine multidisziplinäre Betreuung, einschließlich neurologischer Überwachung, Pleuraergussmanagement und PET/CT-basiertem Monitoring während und nach der Therapie.
@@ -2200,42 +1904,42 @@
 Die Therapieempfehlung ist nach ESMO-Leitlinien abgeleitet und berücksichtigt die spezifischen Risikofaktoren des Patienten (Non-GCB-Subtyp, extranodale Ausbreitung), während zugleich diagnostische Defizite (IPI, ZNS-Risiko) adressiert werden.</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Indikation zur Durchführung einer Chemotherapie mit DA-EPOCH-R (Doxorubicin, Cyclophosphamid, Vincristin, Prednisolon, Etoposid) in Kombination mit Rituximab. Es sollte eine vollständige Stadieneinschätzung mittels CT/MRT erfolgen, um das Ausmaß der Erkrankung genau zu erfassen. Die Therapie sollte über 6-8 Zyklen verabreicht werden, abhängig von Ansprechen und Verträglichkeit. Eine Evaluation des Therapieansprechens mittels PET/CT nach 2-3 Zyklen ist indiziert.
+**Begründung:**
+Der Patient präsentiert ein DLBCL Stadium IV, Non-GCB-Typ mit multiplen extranodalen Manifestationen, was gemäß der ESMO-Leitlinie ein Hochrisiko-Setting darstellt. DA-EPOCH-R ist ein etablierter Standardtherapieansatz für Hochrisiko-DLBCL und hat in Studien eine verbesserte progressionsfreie Überlebensrate gezeigt. Die Abwesenheit von MYC-, BCL2- und BCL6-Rearrangements impliziert keine Änderung der initialen Therapie, ist aber prognostisch günstig. Die spinale Infiltration sollte engmaschig überwacht werden; eine intrathekale Therapie kann bei Progression oder fehlendem Ansprechen in Betracht gezogen werden. Eine PET/CT-Kontrolle nach 2-3 Zyklen ist essenziell, um den Therapieansprech zu evaluieren und die Therapie gegebenenfalls anzupassen.</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ mit multiplen extranodalen Manifestationen (Ösophagus, Magen, Niere, Pleura, Thoraxwand) und spinaler Infiltration. Wichtig ist, dass keine MYC-, BCL2- oder BCL6-Rearrangements nachgewiesen wurden, was die Prognose tendenziell verbessert, aber keinen Einfluss auf die initiale Therapieentscheidung hat. Gemäß der ESMO-Leitlinie für DLBCL ist die Standardtherapie für Patienten mit Hochrisiko-DLBCL (Stadium IV, multiple extranodale Manifestationen) eine Chemotherapie auf Basis von DA-EPOCH-R (Doxorubicin, Cyclophosphamid, Vincristin, Prednisolon, Etoposid + Rituximab). Die spinale Infiltration erfordert eine sorgfältige Abwägung bezüglich der Möglichkeit einer intrathekalen Therapie, allerdings ist dies nicht zwingend Bestandteil der initialen Standardtherapie, wenn keine Symptome vorliegen, die auf eine Rückenmarkskompression hindeuten. Da keine detaillierten Angaben zum ECOG-Performance Status oder zur Komorbidität des Patienten vorliegen, gehe ich von einer guten Allgemeinzustand aus.</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+First-Line-Therapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) für 6 Zyklen. Zusätzlich sollte eine Beurteilung der ZNS-Beteiligung mittels Lumbalpunktion und MRT des Rückenmarks erfolgen, um gegebenenfalls eine intrathekale Therapie zu ergänzen.
+**Begründung:**
+Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit multiplen extranodalen Manifestationen. Gemäß der ESMO-Leitlinie für DLBCL ist das R-CHOP-Schema die Standard-First-Line-Therapie für Patienten mit DLBCL, unabhängig vom IPI-Score. Die Biopsieergebnisse zeigen keine Rearrangements von BCL2, BCL6 oder MYC, was die Anwendung des Standard-R-CHOP-Schemas unterstützt. Die Infiltration der neuroforaminalen/intraspinalen Strukturen erfordert eine Beurteilung der ZNS-Beteiligung, um eine eventuell notwendige Ergänzung der Therapie durch eine intrathekale Behandlung zu ermöglichen.</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit multiplen extranodalen Manifestationen (Ösophagus, Magen, Niere, Pleura, Thoraxwand) und Infiltration der Pleura sowie neuroforaminaler/intraspinaler Infiltration. Die Biopsie zeigt keine Rearrangements von BCL2, BCL6 oder MYC. Da es sich um einen Non-GCB-Typ handelt und das Stadium IV erreicht ist, ist eine systemische Therapie indiziert. Gemäß der ESMO-Leitlinie für DLBCL ist das R-CHOP-Schema (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) die Standard-First-Line-Therapie für Patienten mit DLBCL, unabhängig vom IPI-Score. Die intraspinale Infiltration erfordert eine besondere Berücksichtigung hinsichtlich der Möglichkeit einer ZNS-Beteiligung und möglicherweise einer intrathekalen Therapie oder erhöhten Dosis von intrathekalem Methotrexat, falls eine ZNS-Infiltration bestätigt wird. Da der Patient keine spezifischen Risikofaktoren (z.B. hohes IPI) aufweist, ist R-CHOP eine angemessene First-Line-Behandlung.</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
-Indikation zur Durchführung einer Chemotherapie mit DA-EPOCH-R (Doxorubicin, Cyclophosphamid, Vincristin, Prednisolon, Etoposid) in Kombination mit Rituximab. Es sollte eine vollständige Stadieneinschätzung mittels CT/MRT erfolgen, um das Ausmaß der Erkrankung genau zu erfassen. Die Therapie sollte über 6-8 Zyklen verabreicht werden, abhängig von Ansprechen und Verträglichkeit. Eine Evaluation des Therapieansprechens mittels PET/CT nach 2-3 Zyklen ist indiziert.
-**Begründung:**
-Der Patient präsentiert ein DLBCL Stadium IV, Non-GCB-Typ mit multiplen extranodalen Manifestationen, was gemäß der ESMO-Leitlinie ein Hochrisiko-Setting darstellt. DA-EPOCH-R ist ein etablierter Standardtherapieansatz für Hochrisiko-DLBCL und hat in Studien eine verbesserte progressionsfreie Überlebensrate gezeigt. Die Abwesenheit von MYC-, BCL2- und BCL6-Rearrangements impliziert keine Änderung der initialen Therapie, ist aber prognostisch günstig. Die spinale Infiltration sollte engmaschig überwacht werden; eine intrathekale Therapie kann bei Progression oder fehlendem Ansprechen in Betracht gezogen werden. Eine PET/CT-Kontrolle nach 2-3 Zyklen ist essenziell, um den Therapieansprech zu evaluieren und die Therapie gegebenenfalls anzupassen.</t>
+Die Empfehlung lautet die Initiation einer R-CHOP-6 (Rituximab, Cyclophosphamid, Doxorubicin, Vinkristin, Prednison) Chemotherapie in Kombination mit Rituximab als Standardtherapie bei diffus großzelligem B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ.
+**Begründung:**
+Das ESMO-Lymphom-Leitlinienpanel empfiehlt für DLBCL ohne genetische Rauschung (z. B. Double-Hit oder Triple-Hit) und bei fehlender Evidenz für eine bösartige Transformation die R-CHOP-6-Therapie als Erstlinientherapie, unabhängig vom Stadium oder Subtyp. Die Patienteninformationen bestätigen, dass keine MYC, BCL2 oder BCL6-Rearrangements nachweisbar sind, was die Ausschlusskriterien für Double-/Triple-Hit-Lymphome erfüllt. Zwar ist ein Non-GCB-Phänotyp (aktivierte B-Zell-Lymphom) beschrieben, jedoch weist die histologische Beurteilung keine spezifischen Risikomarker für eine schlechtere Prognose auf. Die Extent der Erkrankung (nodal/extranodal, multiple extranodale Infiltrationen, Pleuraerguss, neuroforaminale Infiltration) spricht für ein fortgeschrittenes Stadium (IV), für das R-CHOP-6 als evidenzbasierte Grundtherapie gilt. Weitere diagnostische Schritte wie die Bestimmung des International Prognostic Index (IPI) oder die genetische Subtypanalyse (z. B. durch GEP) wären hilfreich, um Risikogruppen genauer zu definieren, sind jedoch für die Therapieentscheidung nach ESMO nicht zwingend erforderlich. Die empfohlene Therapie berücksichtigt daher den Standardansatz gemäß ESMO, da keine kontraindizierenden Faktoren oder spezifische Therapieansätze für den Nicht-GCB-Typ im vorliegenden Fall vorgeschlagen werden.</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ mit multiplen extranodalen Manifestationen (Ösophagus, Magen, Niere, Pleura, Thoraxwand) und spinaler Infiltration. Wichtig ist, dass keine MYC-, BCL2- oder BCL6-Rearrangements nachgewiesen wurden, was die Prognose tendenziell verbessert, aber keinen Einfluss auf die initiale Therapieentscheidung hat. Gemäß der ESMO-Leitlinie für DLBCL ist die Standardtherapie für Patienten mit Hochrisiko-DLBCL (Stadium IV, multiple extranodale Manifestationen) eine Chemotherapie auf Basis von DA-EPOCH-R (Doxorubicin, Cyclophosphamid, Vincristin, Prednisolon, Etoposid + Rituximab). Die spinale Infiltration erfordert eine sorgfältige Abwägung bezüglich der Möglichkeit einer intrathekalen Therapie, allerdings ist dies nicht zwingend Bestandteil der initialen Standardtherapie, wenn keine Symptome vorliegen, die auf eine Rückenmarkskompression hindeuten. Da keine detaillierten Angaben zum ECOG-Performance Status oder zur Komorbidität des Patienten vorliegen, gehe ich von einer guten Allgemeinzustand aus.</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-First-Line-Therapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) für 6 Zyklen. Zusätzlich sollte eine Beurteilung der ZNS-Beteiligung mittels Lumbalpunktion und MRT des Rückenmarks erfolgen, um gegebenenfalls eine intrathekale Therapie zu ergänzen.
-**Begründung:**
-Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit multiplen extranodalen Manifestationen. Gemäß der ESMO-Leitlinie für DLBCL ist das R-CHOP-Schema die Standard-First-Line-Therapie für Patienten mit DLBCL, unabhängig vom IPI-Score. Die Biopsieergebnisse zeigen keine Rearrangements von BCL2, BCL6 oder MYC, was die Anwendung des Standard-R-CHOP-Schemas unterstützt. Die Infiltration der neuroforaminalen/intraspinalen Strukturen erfordert eine Beurteilung der ZNS-Beteiligung, um eine eventuell notwendige Ergänzung der Therapie durch eine intrathekale Behandlung zu ermöglichen.</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit multiplen extranodalen Manifestationen (Ösophagus, Magen, Niere, Pleura, Thoraxwand) und Infiltration der Pleura sowie neuroforaminaler/intraspinaler Infiltration. Die Biopsie zeigt keine Rearrangements von BCL2, BCL6 oder MYC. Da es sich um einen Non-GCB-Typ handelt und das Stadium IV erreicht ist, ist eine systemische Therapie indiziert. Gemäß der ESMO-Leitlinie für DLBCL ist das R-CHOP-Schema (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) die Standard-First-Line-Therapie für Patienten mit DLBCL, unabhängig vom IPI-Score. Die intraspinale Infiltration erfordert eine besondere Berücksichtigung hinsichtlich der Möglichkeit einer ZNS-Beteiligung und möglicherweise einer intrathekalen Therapie oder erhöhten Dosis von intrathekalem Methotrexat, falls eine ZNS-Infiltration bestätigt wird. Da der Patient keine spezifischen Risikofaktoren (z.B. hohes IPI) aufweist, ist R-CHOP eine angemessene First-Line-Behandlung.</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Die Empfehlung lautet die Initiation einer R-CHOP-6 (Rituximab, Cyclophosphamid, Doxorubicin, Vinkristin, Prednison) Chemotherapie in Kombination mit Rituximab als Standardtherapie bei diffus großzelligem B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ.
-**Begründung:**
-Das ESMO-Lymphom-Leitlinienpanel empfiehlt für DLBCL ohne genetische Rauschung (z. B. Double-Hit oder Triple-Hit) und bei fehlender Evidenz für eine bösartige Transformation die R-CHOP-6-Therapie als Erstlinientherapie, unabhängig vom Stadium oder Subtyp. Die Patienteninformationen bestätigen, dass keine MYC, BCL2 oder BCL6-Rearrangements nachweisbar sind, was die Ausschlusskriterien für Double-/Triple-Hit-Lymphome erfüllt. Zwar ist ein Non-GCB-Phänotyp (aktivierte B-Zell-Lymphom) beschrieben, jedoch weist die histologische Beurteilung keine spezifischen Risikomarker für eine schlechtere Prognose auf. Die Extent der Erkrankung (nodal/extranodal, multiple extranodale Infiltrationen, Pleuraerguss, neuroforaminale Infiltration) spricht für ein fortgeschrittenes Stadium (IV), für das R-CHOP-6 als evidenzbasierte Grundtherapie gilt. Weitere diagnostische Schritte wie die Bestimmung des International Prognostic Index (IPI) oder die genetische Subtypanalyse (z. B. durch GEP) wären hilfreich, um Risikogruppen genauer zu definieren, sind jedoch für die Therapieentscheidung nach ESMO nicht zwingend erforderlich. Die empfohlene Therapie berücksichtigt daher den Standardansatz gemäß ESMO, da keine kontraindizierenden Faktoren oder spezifische Therapieansätze für den Nicht-GCB-Typ im vorliegenden Fall vorgeschlagen werden.</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
         <is>
           <t>Okay, I need to come up with a therapy recommendation for this DLBCL patient following the ESMO guidelines. Let's start by breaking down the patient's information. The main diagnosis is diffuse large B-cell lymphoma (DLBCL), stage IV, non-GCB type. The biopsy shows nodal and extranodal involvement in multiple areas like the esophagus, stomach, left kidney, right pleura, and right chest wall, along with neuroforaminal and intraspinal infiltration at the right L9 level. The PET/CT also confirms the extensive metabolic activity in these regions.
 First, according to ESMO guidelines, the standard first-line treatment for DLBCL is R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, prednisone). This is typically used for aggressive B-cell lymphomas. The patient's stage IV suggests advanced disease, but the key here is whether there are any specific genetic markers that might affect treatment. The biopsy notes mention no rearrangements in BCL2, BCL6, or MYC. So, it's not a double-hit (MYC and BCL2/BCL6) or triple-hit lymphoma, which are more aggressive and might require different treatment approaches. Since there are no such rearrangements, R-CHOP remains appropriate.
@@ -2245,7 +1949,7 @@
 If there were any genetic abnormalities or specific subtypes that suggest a more aggressive form, like in the case of MYC rearrangements, then a more intensive regimen might be considered. But since the biopsy doesn't show those, R-CHOP is the best choice. Also, there's no mention of any other factors that would necessitate a different approach, so the ESMO guidelines support R-CHOP in this scenario.</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Empfehlung: Erstlinientherapie mit R-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vinkristin, Prednison) kombiniert mit lokaler Bestrahlung der spinalen Infiltration in Höhe der BWK 9 rechts.
@@ -2253,7 +1957,7 @@
 Der Patient hat ein diffuses grosszelliges B-Zell-Lymphom (DLBCL) Stadium IV, Non-GCB-Typ, mit weitreichender nodaler und extranodaler Beteiligung (Ösophagus, Magen, Niere, Pleura, Thoraxwand) sowie einer neuroforaminalen/intraspinalen Infiltration der rechten BWK 9. Laut ESMO-Leitlinien ist R-CHOP die Standardtherapie für Aggressivitätstyp B-Zell-Lymphome ohne Hochrisikomerkmale wie Double-/Triple-Hit-Status (hier nicht nachweisbar). Die extensive Erkrankung und die spinale Infiltration (neurologische Gefährdung) rechtfertigen eine lokale Bestrahlung zur prophylaktischen Neuroprotektion und Symptomkontrolle. Da keine genetischen Risikomarker (BCL2, BCL6, MYC-Rearrangements) vorhanden sind, ist keine Abweichung von der Standardtherapie notwendig. R-CHOP ist auch für extranodale Manifestationen evidenzbasiert und wird in ESMO-2023 entsprechend empfohlen.</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has been diagnosed with diffuse large B-cell lymphoma (DLBCL), stage IV, non-GCB type. The main info from the biopsy shows no rearrangements of BCL2, BCL6, or MYC. The PET/CT indicates extensive nodal and extranodal involvement, including the esophagus, stomach, left kidney, right pleura, right thoracic wall, and spinal cord infiltration at the level of the right BWK 9. 
 First, I need to recall the ESMO guidelines for DLBCL. The standard first-line treatment for aggressive B-cell lymphomas, especially in fit patients, is R-CHOP (Rituximab, Cyclophosphamide, Doxorubicin, Vincristine, Prednisone). But wait, the patient has extranodal involvement in multiple sites and spinal cord infiltration. That might suggest a more aggressive variant or a need for more intensive therapy. 
@@ -2262,6 +1966,10 @@
 So, the primary recommendation is R-CHOP with possible local radiation to the spinal cord. The non-GCB type doesn't change the standard regimen, and without high-risk features like double-hit, R-CHOP remains first-line. The extensive disease supports aggressive treatment. No need for additional tests since the necessary info is provided.</t>
         </is>
       </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
@@ -2300,20 +2008,6 @@
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="inlineStr"/>
       <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
-      <c r="BN8" t="inlineStr"/>
-      <c r="BO8" t="inlineStr"/>
-      <c r="BP8" t="inlineStr"/>
-      <c r="BQ8" t="inlineStr"/>
-      <c r="BR8" t="inlineStr"/>
-      <c r="BS8" t="inlineStr"/>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2358,31 +2052,6 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Die empfohlene Therapie für Patient ID 8-20240220-ScIr ist eine Kombination aus Chemotherapie mit R-CHOP und Procarbazin.
-**Begründung:**
-Die Diagnose eines diffusen großen B-Zell-Lymphoms der Nasenhöhle (DLBCL) von nicht sonderlich spezifiziertem Typ (NOS) mit einem internationalen Prognostik-Index (IPI) von 3 aus 5 und Stadium IA weist auf eine hohe Risikozahl hin. Die Patientin hat bereits einmal rezidiert, nachdem sie nach der ersten Zyklen R-CHOP eine vollständige Remission erzielte.
-Die ESMO-Leitlinie empfiehlt für DLBCL-Patienten mit IPI 3 oder höher die Kombination aus Chemotherapie und Procarbazin als Standardtherapie. Da die Patientin bereits einmal rezidiert hat, ist eine aggressive Therapie notwendig, um weitere Rezidive zu vermeiden.
-Die Verwendung von R-CHOP in Kombination mit Procarbazin basiert auf den empfohlene Therapien für DLBCL-Patienten mit IPI 3 oder höher nach der ESMO-Leitlinie. Die doppelte Chemotherapie soll die Wiederholfrequenz reduzieren und die Patientin vor weiteren Rezidiven schützen.
-Die geplante Therapie wird sich auf die Behandlung von DLBCL konzentrieren, indem sie die Tumor-Masse in der Nasenhöhle attackiert. Die Verwendung von Procarbazin soll dazu beitragen, die Wiederholfrequenz zu reduzieren und die Patientin vor weiteren Rezidiven schützen.
-Die Therapieempfehlung ist aufgrund der Diagnose, des Stadiums und der Risikozahl für den Patienten ID 8-20240220-ScIr geeignet.</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Polypreparation mit Procarbazin für 6 Monate, gefolgt von einer Wachstumssuppression-Therapie (WS-T) nach PRIMAIN-Protokoll.
-**Begründung:**
-Die Patientin hat ein rezidiviertes Diffuses, grosszelliges B-Zell-Lymphom vom Nasennebenhöhlen-NOS (not otherwise specified), das sich weiterhin in den ZNS manifestiert hat. Die aktuelle Situation ist stabilisiert, aber kontinuierliche Überwachung und eventuell Erhaltungstherapie sind erforderlich.
-Basierend auf der ESMO-Leitlinie für diffuse großzellige B-Zell-Lymphome (DLBCL) empfehle ich eine Kombinationschemotherapie mit R-CHOP-Polypreparation und Procarbazin, um die Tumormasse zu reduzieren und das Lymphom in Remission zu bringen.
-Die Wachstumssuppression-Therapie (WS-T) nach PRIMAIN-Protokoll soll darauf folgen, um sicherzustellen, dass das Lymphom nicht wieder auftritt. Die WS-T wird 6 Monate lang durchgeführt und kann danach anhand von PET/CT-Aufnahmen überwacht werden.
-Die Wahl dieser Therapie basiert auf der Diagnoseanalyse und den Ergebnissen der PET-CT-Aufnahmen, die eine komplette Remission nach Chemotherapie mit R-CHOP zeigten. Die rezidivierte Läsion in den ZNS erfordert eine spezielle Therapie, um sicherzustellen, dass das Lymphom nicht wieder auftritt.</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
           <t>**Therapieempfehlung:**  
 Empfehlung ist eine **vitreale Biopsie (vorerst OCT-gestützte oder perkutane Biopsie)** zur exakten Differenzialdiagnose der visuellen Symptome sowie eine **strikte neurologische und ophthalmologische Überwachung** unter Fortsetzung der Procarbazin-Erhaltungstherapie. Bei histologisch bestätigter vitrealer Lymphommanifestation ist eine hochdosierte zentralnervös penetrierende Chemotherapie (z. B. Methotrexat-basiert) zu erwägen.
 **Begründung:**  
@@ -2395,8 +2064,8 @@
 Die aktuelle Therapiesituation (vollständige Regression des zerebralen Rezidivs) spricht für eine Stabilisierung, erfordert aber bei bestehendem hohem Rezidivrisiko eine rasche diagnostische Klärung der neuen Symptome, um eine Therapieverzögerung zu vermeiden.</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr">
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Weiterhin engmaschiges Langzeitmonitoring unter Beobachtung des zerebralen und extrakraniellen Gesamtstatus, inklusive regelmäßiger MR-Schädelabklärungen und PET/CT bei klinischer Indikation. Keine weiterführende antitumore Therapie ist erforderlich, solange keine Hinweise auf eine Rezidivierung oder neue Tumormanifestation vorliegen.
@@ -2406,34 +2075,34 @@
 Die ESMO betont zudem die Notwendigkeit einer multidisziplinären Nachsorge, insbesondere bei Patienten mit zerebralem Rezidiv, um neurologische und onkologische Komplikationen frühzeitig zu managen. Eine weitere Erhaltungstherapie oder Kombinationstherapie ist nicht indiziert, da keine Hinweise auf einen Rückfall vorliegen.</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der Erhaltungstherapie mit Procarbazin für die empfohlenen 6 Monate gemäß der Empfehlung des Lymphombords. Regelmäßige neurologische und ophthalmologische Kontrollen zur Überwachung des Therapieansprechens und zur Früherkennung möglicher Nebenwirkungen sind indiziert.
+**Begründung:**
+Der Patient erlitt ein Rezidiv eines DLBCL, welches initial auf R-CHOP und anschließend auf das PRIMAIN-Protokoll ansprach. Die aktuelle zerebrale Manifestation in Form einer Glaskörperinfiltration erfordert eine konsolidierende Therapie, um ein erneutes Fortschreiten zu verhindern. Das Lymphombord empfiehlt eine Erhaltungstherapie mit Procarbazin, was im Einklang mit den ESMO-Leitlinien für rezidiviertes DLBCL steht, insbesondere nach Remission nach primärer Therapie. Procarbazin bietet den Vorteil einer oralen Verabreichung und kann dazu beitragen, eine langanhaltende Kontrolle des Lymphoms zu erreichen. Die regelmäßige Überwachung mittels neurologischen und ophthalmologischen Untersuchungen ist essenziell, um das Ansprechen auf die Therapie zu beurteilen und mögliche Nebenwirkungen frühzeitig zu erkennen und zu behandeln.</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit zerebraler Manifestation, welches initial auf R-CHOP ansprach und nach PRIMAIN-Protokoll remittierte. Aktuell zeigt sich eine Glaskörperinfiltration. Das Lymphomboard empfiehlt Erhaltungstherapie mit Procarbazin. Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL berücksichtigen verschiedene Faktoren, darunter die Remissionsdauer nach initialer Therapie, die Biologie des Lymphoms und den Performance Status des Patienten. Die Glaskörperinfiltration stellt eine intrakranielle Manifestation dar, die eine besonders aggressive Therapie erfordert. Da der Patient initial auf R-CHOP ansprach und nach PRIMAIN remittierte, ist eine Konsolidierungstherapie sinnvoll. Procarbazin als orale Erhaltungstherapie erscheint in diesem Stadium angemessen, um eine anhaltende Kontrolle zu erreichen und das Rezidivrisiko zu minimieren. Eine alternative Behandlung mit Immunchemotherapie oder CAR-T-Zell-Therapie wäre bei fehlendem Ansprechen auf Procarbazin indiziert.</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>**Therapieempfehlung:**
+Fortsetzung der Erhaltungstherapie mit Procarbazin für die empfohlenen 6 Monate.
+**Begründung:**
+Der Patient erlitt ein Rezidiv seines DLBCL mit zerebraler Manifestation nach initialem Ansprechen auf R-CHOP. Nach Behandlung nach dem PRIMAIN-Protokoll wurde eine vollständige Remission erreicht. Gemäß der ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL ist bei Patienten mit vollständiger Remission nach einer initialen Therapie eine Konsolidierungstherapie indiziert. Die Empfehlung des Lymphomboards zur Erhaltungstherapie mit Procarbazin für 6 Monate entspricht dieser Strategie, da Procarbazin eine geeignete Option zur ZNS-Konsolidierung darstellt und darauf abzielt, das Rezidivrisiko zu minimieren. Die aktuellen bildgebenden Befunde bestätigen die Remission, was die Fortsetzung der geplanten Konsolidierungstherapie unterstützt.</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit zerebraler Manifestation, das initial auf R-CHOP ansprach, aber nun rezidiviert ist. Er erhielt eine Behandlung nach dem PRIMAIN-Protokoll, zeigte eine gute Response, und hat aktuell eine bildmorphologisch vollständige Remission erreicht. Das Lymphomboard empfiehlt eine Erhaltungstherapie mit Procarbazin. Gemäß der ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL, insbesondere bei Patienten mit vollständiger Remission nach einer initialen Therapie, ist eine Konsolidierungstherapie indiziert, um das Rezidivrisiko zu minimieren. Procarbazin ist eine Option für eine zentrale Nervensystem (ZNS)-gerichtete Konsolidierungstherapie. Da der Patient bereits eine vollständige Remission erreicht hat und die ZNS-Manifestation adressiert wurde, erscheint die Empfehlung des Lymphomboards im Einklang mit den ESMO-Richtlinien.</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Fortsetzung der Erhaltungstherapie mit Procarbazin für die empfohlenen 6 Monate gemäß der Empfehlung des Lymphombords. Regelmäßige neurologische und ophthalmologische Kontrollen zur Überwachung des Therapieansprechens und zur Früherkennung möglicher Nebenwirkungen sind indiziert.
-**Begründung:**
-Der Patient erlitt ein Rezidiv eines DLBCL, welches initial auf R-CHOP und anschließend auf das PRIMAIN-Protokoll ansprach. Die aktuelle zerebrale Manifestation in Form einer Glaskörperinfiltration erfordert eine konsolidierende Therapie, um ein erneutes Fortschreiten zu verhindern. Das Lymphombord empfiehlt eine Erhaltungstherapie mit Procarbazin, was im Einklang mit den ESMO-Leitlinien für rezidiviertes DLBCL steht, insbesondere nach Remission nach primärer Therapie. Procarbazin bietet den Vorteil einer oralen Verabreichung und kann dazu beitragen, eine langanhaltende Kontrolle des Lymphoms zu erreichen. Die regelmäßige Überwachung mittels neurologischen und ophthalmologischen Untersuchungen ist essenziell, um das Ansprechen auf die Therapie zu beurteilen und mögliche Nebenwirkungen frühzeitig zu erkennen und zu behandeln.</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit zerebraler Manifestation, welches initial auf R-CHOP ansprach und nach PRIMAIN-Protokoll remittierte. Aktuell zeigt sich eine Glaskörperinfiltration. Das Lymphomboard empfiehlt Erhaltungstherapie mit Procarbazin. Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL berücksichtigen verschiedene Faktoren, darunter die Remissionsdauer nach initialer Therapie, die Biologie des Lymphoms und den Performance Status des Patienten. Die Glaskörperinfiltration stellt eine intrakranielle Manifestation dar, die eine besonders aggressive Therapie erfordert. Da der Patient initial auf R-CHOP ansprach und nach PRIMAIN remittierte, ist eine Konsolidierungstherapie sinnvoll. Procarbazin als orale Erhaltungstherapie erscheint in diesem Stadium angemessen, um eine anhaltende Kontrolle zu erreichen und das Rezidivrisiko zu minimieren. Eine alternative Behandlung mit Immunchemotherapie oder CAR-T-Zell-Therapie wäre bei fehlendem Ansprechen auf Procarbazin indiziert.</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-Fortsetzung der Erhaltungstherapie mit Procarbazin für die empfohlenen 6 Monate.
-**Begründung:**
-Der Patient erlitt ein Rezidiv seines DLBCL mit zerebraler Manifestation nach initialem Ansprechen auf R-CHOP. Nach Behandlung nach dem PRIMAIN-Protokoll wurde eine vollständige Remission erreicht. Gemäß der ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL ist bei Patienten mit vollständiger Remission nach einer initialen Therapie eine Konsolidierungstherapie indiziert. Die Empfehlung des Lymphomboards zur Erhaltungstherapie mit Procarbazin für 6 Monate entspricht dieser Strategie, da Procarbazin eine geeignete Option zur ZNS-Konsolidierung darstellt und darauf abzielt, das Rezidivrisiko zu minimieren. Die aktuellen bildgebenden Befunde bestätigen die Remission, was die Fortsetzung der geplanten Konsolidierungstherapie unterstützt.</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit zerebraler Manifestation, das initial auf R-CHOP ansprach, aber nun rezidiviert ist. Er erhielt eine Behandlung nach dem PRIMAIN-Protokoll, zeigte eine gute Response, und hat aktuell eine bildmorphologisch vollständige Remission erreicht. Das Lymphomboard empfiehlt eine Erhaltungstherapie mit Procarbazin. Gemäß der ESMO-Leitlinie für rezidiviertes/refraktäres DLBCL, insbesondere bei Patienten mit vollständiger Remission nach einer initialen Therapie, ist eine Konsolidierungstherapie indiziert, um das Rezidivrisiko zu minimieren. Procarbazin ist eine Option für eine zentrale Nervensystem (ZNS)-gerichtete Konsolidierungstherapie. Da der Patient bereits eine vollständige Remission erreicht hat und die ZNS-Manifestation adressiert wurde, erscheint die Empfehlung des Lymphomboards im Einklang mit den ESMO-Richtlinien.</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Fortsetzung der klinischen Nachsorge gemäß ESMO-Leitlinien mit enger Beobachtung auf Rezidivzeichen, inklusive regelmäßiger MRT-Kontrollen des Schädels und einer ophthalmologischen Abklärung der visuellen Symptome. Keine weitere systemische Therapie ist aktuell indiziert.
@@ -2442,14 +2111,14 @@
 Laut ESMO-Leitlinien für PCNSL ist bei kompletter Remission nach Ersttherapie die klinische Nachsorge das zentrale Vorgehen, solange keine Rezidivzeichen oder neue Läsionen nachgewiesen werden. Da keine extrakraniellen Erkrankungen bestehen und die letzte Erhaltungstherapie abgeschlossen ist, ist keine weitere systemische Intervention wie Salvage-Therapie oder Stammzelltransplantation aktuell erforderlich. Die ophthalmologische Abklärung ist jedoch dringend zu empfehlen, um die Ursache der Glaskörperinfiltration zu klären und eine sekundäre Beteiligung auszuschließen.</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Okay, let's start by looking at the patient's history. She was diagnosed with DLBCL (diffuse large B-cell lymphoma) in the nasal sinuses, non-GCB type, with an IPI of 3, which is high-intermediate risk. Initially, she had a localized tumor with involvement of the orbit and received R-CHOP for 6 cycles. There was a complete remission confirmed by PET/CT scans. However, the lymphoma recurred with central nervous system (CNS) manifestations in 2023.
 The treatment after recurrence followed the PRIMAIN protocol, which is a regimen for primary CNS lymphoma. The patient had two cycles of this therapy, and subsequent MRIs showed significant regression of the lesions. Then, she received Procarbazin for 6 months as maintenance therapy. The latest MRI in January 2024 showed complete regression without new lesions. Now, she's experiencing visual disturbances, possibly due to vitreous infiltration, but no new lymphoma is detected.
 The question is, what's the next step? According to ESMO guidelines, for relapsed/refractory DLBCL, especially with CNS involvement, options include salvage chemotherapy followed by autologous stem cell transplant (ASCT) if possible. However, in this case, the patient had CNS recurrence treated with PRIMAIN, which is a standard approach for primary CNS lymphoma. Since she's in complete remission and the last maintenance therapy with Procarbazin has ended, the next step is likely to monitor her closely for recurrence. The visual symptoms might be due to an unrelated issue like vitreous infiltration, so an ophthalmological evaluation is important. If there's no evidence of lymphoma recurrence, no further systemic therapy is needed unless new lesions appear. The ESMO guidelines would support a watchful waiting approach in this scenario, given the complete remission and absence of active disease.</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Weiterführung der empfohlenen Erhaltungstherapie mit **Procarbazin** für 6 Monate gemäß Beschluss des Lymphomboards.  
@@ -2470,7 +2139,7 @@
 Diese Therapieempfehlung folgt strikt den ESMO-Leitlinien und berücksichtigt den aktuellsten klinischen Status des Patienten.</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Okay, let's start by going through the patient's information carefully. The main diagnosis is DLBCL, specifically diffuse large B-cell lymphoma in the nasal sinuses, non-germinal center type, with an IPI score of 3 (high-intermediate risk) and stage IAE. The patient initially responded well to R-CHOP chemotherapy, achieving complete remission in PET scans. However, there was a relapse with central nervous system (CNS) involvement in April 2023, presenting with seizures and memory issues. The MRI showed multiple subcortical lesions, and a biopsy confirmed aggressive B-cell lymphoma.
 The patient then underwent two cycles of the PRIMAIN protocol, which seems to be a targeted therapy, as the PET/CT after the first cycle showed no extracranial disease. Subsequent MRIs showed regression of the lesions, and as of January 2024, the CNS lesions had completely regressed. The lymphoma board recommended maintenance therapy with Procarbazin for 6 months. 
@@ -2479,6 +2148,10 @@
 The patient is in complete remission now, so the next step is to maintain that remission. ESMO might not recommend further aggressive therapy unless there's evidence of progression. Therefore, continuing the maintenance therapy as per the lymphoma board's recommendation is appropriate. No new extracranial disease is present, so no need for additional systemic therapy. Monitoring with regular MRIs and possibly continued Procarbazin for maintenance would be the way to go.</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
@@ -2517,20 +2190,6 @@
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="inlineStr"/>
       <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
-      <c r="BN9" t="inlineStr"/>
-      <c r="BO9" t="inlineStr"/>
-      <c r="BP9" t="inlineStr"/>
-      <c r="BQ9" t="inlineStr"/>
-      <c r="BR9" t="inlineStr"/>
-      <c r="BS9" t="inlineStr"/>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2575,38 +2234,14 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>**Therapieempfehlung:**
-Rituximab plus chemotherapy with AVD (doxorubicin, dacarbazine, vindesine) followed by autologous stem cell transplantation.
-**Begründung:**
-Die Diagnose eines diffusen großzelliges B-Zell-Lymphoms (DLBCL) Stadium IVBE mit intraperitonealer und retroperitonealer Beteiligung erfordert eine aggressivere Therapie. Die patientenspezifische Situation, insbesondere die ZNS-Rezidivierung eines DLBCL NOS der Adnexe rechts, und die positive MYC-Expression sprechen für eine hohe Prognose-Risiko.
-Die ESMO-Leitlinie empfiehlt für Patienten mit DLBCL Stadium IVBE eine Kombinationstherapie aus Rituximab und Chemotherapie. Die Verwendung von AVD (doxorubicin, dacarbazine, vindesine) als chemotherapeutische Substanz ist aufgrund der positiven MYC-Expression sinnvoll.
-Die Autologous stem cell transplantation (ASCT) nach AVD-CHEMOTHERAPIE kann die Überlebensrate und die Remissionsrate verbessern. Diese Therapieoption ist auch für Patienten mit Stadium IVBE indiziert, da sie eine hohe Wirksamkeit in der Prävention von Rezidiven aufweist.
-Die empfohlene Therapie wurde anhand der patientenspezifischen Situation und der ESMO-Leitlinien erstellt. Die Auswahl von Rituximab plus chemotherapy with AVD followed by autologous stem cell transplantation basiert auf den diagnostischen Informationen und der Kombinationstherapie, die in der Leitlinie empfohlen wird.</t>
+          <t>**Therapieempfehlung:**  
+Empfohlen wird eine engmaschige klinische und neurologische Beobachtung sowie neurorehabilitative Maßnahmen zur Begleitung der posttherapeutischen Neurotoxizitäten, kombiniert mit einer fortlaufenden Beobachtung im Sinne einer Surveillance gemäß ESMO-Leitlinien. Bei klinisch relevanten Veränderungen oder Verdacht auf Rezidiv ist eine erneute molekulare Diagnostik (z. B. MYC-Translokation, PD-L1-Status) und gegebenenfalls eine Wiederholung der PET/CT anzuwenden.
+**Begründung:**  
+Die aktuelle Diagnostik (MRI 15.02.2024) zeigt keine Hinweise auf ein Lymphomrezidiv, sondern chronische posttherapeutische Neurotoxizitäten (Leukoencephalopathie, Parenchymdefekt) als Folge der Hochdosis-Chemotherapie (Carmustin/Thiotepa) und ZNS-Behandlungen. Laut ESMO-Leitlinien ist bei rezidivierendem DLBCL mit ZNS-Involution und stabiler posttherapeutischer Situation eine Surveillance mit klinischen Kontrollen und Bildgebung entscheidend, um Rezidive frühzeitig zu detektieren. Die aggressive Biologie des triple-positiven Phänotyps (CD20+/MYC+/Bcl-2+) und der ZNS-Rezidiv-Kontext erfordern jedoch eine engmaschige Überwachung. Eine aktive antilymphomatische Therapie ist aktuell nicht indiziert, da kein aktives Tumorwachstum nachgewiesen ist. Die Komorbiditäten (chronische Niereninsuffizienz, kardiovaskuläre Risikofaktoren) limitieren zudem den Einsatz neuerer Therapien wie CAR-T oder Zytostatika. Neurorehabilitation und Symptommanagement der Gangstörung sowie eine Optimierung der Begleiterkrankungen (PAVK, Adipositas) sind daher priorisiert. Bei neu auftretenden Symptomen oder progressiven neurologischen Defiziten ist ein erneuter molekular-pathologischer Abklärungsschritt (z. B. Liquor-Zytologie, Gen-Profiling) nach ESMO-Algorithmus anzuwenden.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Therapie in Kombination mit Autologer Stammzelltransplantation (ASCT) nach Remission
-**Begründung:**
-Die Patientin hat ein DLBCL NOS der Adnexe rechts und weist einen IPI-Score von mind. 3 auf. Das Stadium IVBE deutet darauf hin, dass die Tumorprogression bereits fortgeschritten ist. Die histologische Analyse zeigt eine diffuse großzellige B-Zell-Lymphom, NOS, CD20+, CD30-, CD10-MUM1+, Bcl-6 negativ, Bcl-2 positiv und MYC+. Dieser Typ von Lymphom wird in der ESMO-Leitlinie als Empfehlung für R-CHOP-Therapie aufgeführt.
-Die Patientin hat bereits 6 Zyklen R-CHOP-Chemotherapie erhalten, die zu einer kompletten Remission führte. Die Mobilisations-Chemotherapie mit Gemcitabine und die Autologe Stammzelltransplantation sind weitere Schritte in der Therapieplanung.
-In Anbetracht der Stadium IVBE und der histologischen Analyse ist eine R-CHOP-Therapie in Kombination mit ASCT nach Remission die beste Therapiemöglichkeit für die Patientin. Diese Therapie kombiniert die Effektivität von Chemotherapie mit den Vorteilen einer Autologen Stammzelltransplantation, um eine bessere Kontrolle der Tumorprogression zu erreichen.
-Es gibt keine Hinweise auf eine andere effektivere Therapiemöglichkeit, und die Patientin hat bereits 6 Zyklen R-CHOP-Chemotherapie erhalten, die zu einer kompletten Remission führte. Daher ist eine weitere R-CHOP-Therapie in Kombination mit ASCT nach Remission die beste Therapiemöglichkeit für diese Patientin.</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**  
-Empfohlen wird eine engmaschige klinische und neurologische Beobachtung sowie neurorehabilitative Maßnahmen zur Begleitung der posttherapeutischen Neurotoxizitäten, kombiniert mit einer fortlaufenden Beobachtung im Sinne einer Surveillance gemäß ESMO-Leitlinien. Bei klinisch relevanten Veränderungen oder Verdacht auf Rezidiv ist eine erneute molekulare Diagnostik (z. B. MYC-Translokation, PD-L1-Status) und gegebenenfalls eine Wiederholung der PET/CT anzuwenden.
-**Begründung:**  
-Die aktuelle Diagnostik (MRI 15.02.2024) zeigt keine Hinweise auf ein Lymphomrezidiv, sondern chronische posttherapeutische Neurotoxizitäten (Leukoencephalopathie, Parenchymdefekt) als Folge der Hochdosis-Chemotherapie (Carmustin/Thiotepa) und ZNS-Behandlungen. Laut ESMO-Leitlinien ist bei rezidivierendem DLBCL mit ZNS-Involution und stabiler posttherapeutischer Situation eine Surveillance mit klinischen Kontrollen und Bildgebung entscheidend, um Rezidive frühzeitig zu detektieren. Die aggressive Biologie des triple-positiven Phänotyps (CD20+/MYC+/Bcl-2+) und der ZNS-Rezidiv-Kontext erfordern jedoch eine engmaschige Überwachung. Eine aktive antilymphomatische Therapie ist aktuell nicht indiziert, da kein aktives Tumorwachstum nachgewiesen ist. Die Komorbiditäten (chronische Niereninsuffizienz, kardiovaskuläre Risikofaktoren) limitieren zudem den Einsatz neuerer Therapien wie CAR-T oder Zytostatika. Neurorehabilitation und Symptommanagement der Gangstörung sowie eine Optimierung der Begleiterkrankungen (PAVK, Adipositas) sind daher priorisiert. Bei neu auftretenden Symptomen oder progressiven neurologischen Defiziten ist ein erneuter molekular-pathologischer Abklärungsschritt (z. B. Liquor-Zytologie, Gen-Profiling) nach ESMO-Algorithmus anzuwenden.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Eine weitere aktive antilymphomatische Therapie wird nicht empfohlen. Die aktuelle Therapiezielimplementierung ist reaktiv auf die Monitoring und Langzeitfolgen der bereits durchgeführten intensiven Therapie ausgerichtet. Es wird empfohlen, eine strukturierte Nachsorge durchführen, bestehend aus (1) regelmäßigen neurologischen und kognitiven Assessments zur Überwachung der posttherapeutischen Leukoencephalopathie, (2) intensiver Komorbiditätsmanagement (PAVK, Niereninsuffizienz, Adipositas) sowie (3) jährlichen ZNS-MRT-Untersuchungen zur Früherkennung eventueller rezidivierender Läsionen. Symptomatische Therapieansätze (z. B. Antikonvulsiva, kognitive Reha) sind bei neurologischen Limitationen zu erwägen.  
@@ -2619,8 +2254,8 @@
 Die Empfehlung berücksichtigt die individuelle Risikostratifikation (IPI ≥3, ZNS-Rezidiv) und die ESMO-Defintionen von „low-risk“ vs. „high-risk“ Nachsorge, wobei die Patientin in die high-risk-Gruppe fällt und daher ein intensiveres Monitoring erfordert.</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Symptomatische Behandlung der chronischen Leukenzephalopathie mit Fokus auf Verbesserung der Lebensqualität. Dies beinhaltet Physiotherapie, Ergotherapie und ggf. neuropsychologische Betreuung. Eine palliative Behandlung sollte in Betracht gezogen werden, um die Symptome der Leukenzephalopathie zu lindern und die Lebensqualität des Patienten zu verbessern.
@@ -2628,12 +2263,12 @@
 Der Patient präsentiert ein DLBCL mit ZNS-Rezidiv, das bereits mit R-CHOP, MATRix und aSZT behandelt wurde. Das aktuelle klinische Bild deutet auf eine Verschlechterung hin, jedoch zeigt das MRT vom 15.02.24 keine Hinweise auf ein Lymphomrezidiv. Die chronische Leukenzephalopathie, die als Folge der vorherigen Therapie wahrscheinlich ist, ist die wahrscheinlichste Ursache der aktuellen Symptome. Gemäß der ESMO-Leitlinie für rezidiviertes DLBCL sind die Therapieoptionen nach fehlgeschlagener aSZT begrenzt, insbesondere angesichts der multiplen Komorbiditäten des Patienten und des fehlenden Beweises für ein aktives Lymphom. Eine weitere aggressive Chemotherapie wäre wahrscheinlich nicht indiziert und würde die Toxizität erhöhen, ohne den potenziellen Nutzen zu rechtfertigen. Daher ist eine Fokussierung auf die symptomatische Behandlung der chronischen Leukenzephalopathie und die Verbesserung der Lebensqualität die angemessenste Strategie.</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) nach initialer Remission. Das ZNS-Rezidiv ist besonders problematisch. Der Patient hat bereits eine autologe Stammzelltransplantation (aSZT) erhalten und zeigt multiple Komorbiditäten und Vorerkrankungen, die die Therapieplanung erschweren. Der aktuelle klinische Kontext ist eine unklare AZ-Verschlechterung mit Gangstörung. Die Beurteilung des aktuellen MRI (15.02.24) ist entscheidend. Die Leitlinie der ESMO für rezidiviertes DLBCL berücksichtigt den Performance Status, die Remissionsdauer nach initialer Therapie, den IPI-Score und die Eignung für eine hochdosis-Chemotherapie und Stammzelltransplantation. Da der Patient bereits eine aSZT erhalten hat und multiple Komorbiditäten aufweist, sind die Optionen begrenzt. Eine erneute hochdosis-Chemotherapie mit nachfolgender aSZT ist wahrscheinlich nicht indiziert. Die aktuellste MRT-Untersuchung (15.02.24) zeigt chronische Leukenzephalopathie, jedoch keinen Hinweis auf ein Lymphomrezidiv. Daher ist die klinische Verschlechterung wahrscheinlich auf die Leukenzephalopathie zurückzuführen und bedarf einer entsprechenden symptomatischen Behandlung. Eine Biopsie zur Abklärung eines möglichen Rezidivs ist in diesem Fall nicht indiziert, da die Bildgebung keine Hinweise darauf liefert und eine Biopsie mit Risiken verbunden wäre.</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Palliative Behandlung der Leukenzephalopathie und symptomatische Therapie der Komorbiditäten. Regelmäßige neurologische Überwachung und Bildgebung (MRI Schädel) zur Beurteilung der Progression der Leukenzephalopathie und zum Ausschluss einer Lymphomprogression.
@@ -2641,13 +2276,13 @@
 Der Patient hat ein rezidiviertes DLBCL, das bereits intensiv behandelt wurde, einschließlich R-CHOP, MATRix und autologer Stammzelltransplantation. Trotz dieser Behandlungen liegt nun eine progrediente Leukenzephalopathie vor, die wahrscheinlich iatrogen bedingt ist. Aktuelle Bildgebung (MRI Schädel 15.02.24) zeigt keine Hinweise auf eine aktive Lymphomprogression. Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL berücksichtigen den Zustand des Patienten und die vorangegangenen Behandlungen. Angesichts der bereits durchgeführten intensiven Therapien, der erheblichen Komorbiditäten und des Fehlens von Hinweisen auf eine aktive Lymphomprogression ist eine weitere aggressive Lymphom-spezifische Therapie mit hohem Risiko verbunden und nicht indiziert. Stattdessen sollte der Fokus auf der Verbesserung der Lebensqualität und der symptomatischen Behandlung der Leukenzephalopathie und der Komorbiditäten liegen. Eine regelmäßige neurologische Überwachung und Bildgebung sind jedoch weiterhin wichtig, um eine mögliche Progression des Lymphoms oder der Leukenzephalopathie frühzeitig zu erkennen.</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein rezidiviertes diffuses großzelliges B-Zell-Lymphom (DLBCL) mit ZNS-Befall, das trotz initialer Remission und intensiver Behandlung (R-CHOP, MATRix, HDC/ASZT) erneut auftritt. Der aktuelle Zustand ist geprägt von einer progredienten Leukenzephalopathie, vermutlich iatrogen bedingt, sowie einer klinischen Verschlechterung mit Gangstörung. Das Lymphom selbst scheint aktuell nicht aktiv zu sein, was durch die Bildgebung (MRI Schädel 15.02.24) und frühere PET/CTs gestützt wird. Die Komorbiditäten des Patienten sind erheblich und beeinflussen die Behandlungsstrategie stark.
 Die ESMO-Leitlinien für rezidiviertes/refraktäres DLBCL betrachten verschiedene Optionen, darunter Immuntherapien (z.B. Rituximab, Obinutuzumab), Chemotherapie (z.B. R-CHOP, ICE, DHAP), autologe oder allogene Stammzelltransplantation und klinische Studien. Aufgrund der bereits durchgeführten ASZT und der erheblichen Komorbiditäten des Patienten ist eine weitere intensive Chemotherapie oder allogene Transplantation mit hohem Risiko verbunden. Der Fokus sollte auf der Behandlung der symptomatischen Leukenzephalopathie und der Verbesserung der Lebensqualität liegen. Eine erneute Lymphom-spezifische Therapie scheint derzeit nicht indiziert, solange keine eindeutigen Anzeichen für eine aktive Progression vorliegen. Eine palliative Behandlung der Leukenzephalopathie und eine symptomatische Therapie der Komorbiditäten sind daher vorrangig.</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Keine aktive antilymphomatische Therapie ist im aktuellen Stadium erforderlich. Die Therapiepalette ist auf die Symptomkontrolle und Monitoring der posttherapeutischen neurologischen Veränderungen auszurichten.  
@@ -2660,7 +2295,7 @@
 Eine erneute Tumornachweisuntersuchung mit PET/CT oder Liquoruntersuchung ist nicht indiziert, da die aktuelle Diagnostik kein Lymphomrezidiv zeigt. Die Empfehlung folgt der ESMO-Prämisse, aggressivere Therapien nur bei nachgewiesenem klinisch aktiven Tumor zu initiieren.</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Okay, let's dive into this case. The patient has a history of DLBCL NOS with an IPI score of at least 3, which is a high-risk indicator. They went through R-CHOP chemotherapy and achieved remission, but then had a CNS relapse. After surgery and further treatments like the MARIETTA trial and high-dose chemo with stem cell transplant, the latest MRI in 2024 shows no lymphoma recurrence but progressive signs of chronic leukoencephalopathy. The question is whether there's a residual or recurrent issue.
 First, looking at the recent MRI from 15.02.24, it says "deutlich progrediente Zeichen der chronischen Leukenzephalopathie" and no lymphoma recurrence. So, the main issue now is the post-therapy leukoencephalopathy, not a new lymphoma. The patient also has other comorbidities like obesity, previous infections, and vascular issues.
@@ -2668,7 +2303,7 @@
 Need to check if the MRI findings are consistent with treatment-related changes. The patient's prior high-dose chemo and stem cell transplant could cause leukoencephalopathy. The ESMO guidelines would likely recommend surveillance and managing any complications arising from the existing conditions. Also, considering the patient's age and comorbidities, any further invasive procedures would need to be weighed carefully.</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Bei der aktuellen Präsentation einer unklaren AZ-Verschlechterung mit Gangstörung im Jahr 2024 fehlt ein klinisch-pathologischer Nachweis einer intrakraniellen Lymphomprogression. Die MR-Befunde von 15.02.2024 zeigen keine Hinweise auf ein Lymphomrezidiv, sondern ausschließlich posttherapeutische Veränderungen in Form einer chronischen Leukenzephalopathie. Daher ist **keine zytostatische Therapie indiziert**. Stattdessen ist eine differenzielle Abklärung der neuropsychiatrischen Symptome im Kontext der bekannten langfristigen Nebenwirkungen der Hochdosis-Chemo (Carmustin, Thiotepa) und der bestehenden Morbiditäten (Morbide Adipositas, PAVK) erforderlich.  
@@ -2684,7 +2319,7 @@
 - Exklusion von metabolischen oder infektiösen Ursachen für die Symptomverschlechterung.</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Okay, let me start by going through the patient's history and the given information carefully. The patient has DLBCL NOS that initially presented in the adnexal area and later recurred in the CNS. She had six cycles of R-CHOP, achieved CR, and then a relapse in the brain. She underwent surgery and then treatment with the MATRix regimen, followed by high-dose chemo and ASCT. Now, in 2024, there's a new AZ worsening with gait disturbance, but the MRI shows no CNS recurrence, only chronic leukoencephalopathy. 
 The main challenge here is that the current symptoms might be due to the late effects of prior therapies rather than a new relapse. The ESMO guidelines for DLBCL focus on initial treatment, relapsed/refractory cases, and CNS involvement. Since the patient has already undergone multiple lines of therapy including ASCT, if there's a recurrence now, it's likely refractory or relapsed. However, the latest imaging doesn't show a lymphoma recurrence.
@@ -2694,6 +2329,10 @@
 Therefore, the current symptoms might not be due to lymphoma, and the appropriate approach is to rule out new recurrence and manage symptoms as per the guidelines. If new lesions are found, then proceed with second-line therapy. Otherwise, continue monitoring and support.</t>
         </is>
       </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr"/>
@@ -2732,20 +2371,6 @@
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="inlineStr"/>
       <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
-      <c r="BN10" t="inlineStr"/>
-      <c r="BO10" t="inlineStr"/>
-      <c r="BP10" t="inlineStr"/>
-      <c r="BQ10" t="inlineStr"/>
-      <c r="BR10" t="inlineStr"/>
-      <c r="BS10" t="inlineStr"/>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2788,32 +2413,6 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-mini-CHOP-Therapie mit PET/CT-Verlaufskontrolle
-**Begründung:**
-Die Diagnose eines DLBCL mit Double-Expressor Phänotyp und Keimzentrums-Typ ist histopathologisch bestätigt. Die Patientin zeigt Begleitsymptome wie Ungewollter Gewichtsverlust und lokale Schmerzen im Bereich der zervikalen Läsion, was eine notwendige Therapie im Ansatz begründet.
-Die ESMO-Leitlinien empfehlen für DLBCL mit Double-Expressor Phänotyp und Keimzentrums-Typ eine kombinierte Chemotherapie und Immuntherapie. R-mini-CHOP-Therapie ist eine effektive und gut verträgliche Therapiestrategie, die in der Literatur für solche Fälle empfohlen wird.
-Die PET/CT-Untersuchung am 19.02.2024 sollte diskutiert werden, um die Ausdehnung des Tumors zu klären und eine mögliche Adaptation der Therapie bei Bedarf vorzunehmen.
-Die Patientin hat keine Anzeichen einer Herzinsuffizienz, was den Einsatz von R-mini-CHOP-Therapie rechtfertigt. Eine weitere Überprüfung der Prognose Score wäre jedoch sinnvoll, um die Therapiesituation noch besser zu verstehen.
-Insgesamt bietet eine R-mini-CHOP-Therapie mit PET/CT-Verlaufskontrolle einen sinnvollen und leitlinienbasierten Ansatz zur Behandlung des Patienten.</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>**Therapieempfehlung:**
-R-CHOP-Therapie (Cyclophosphamid, Doxorubicin, Vincristin, Prednison, Rituximab) für 6 Zyklen.
-**Begründung:**
-Die Diagnose eines diffusen grosszelligen B-Zell-Lymphoms (DLBCL) im zervikalen Bereich rechts mit einem Keimzentrums-Typ und Double-Expressor Phänotyp spricht für eine aggressive Form des Lymphoms. Die histopathologische Analyse zeigt einen positiven CD20-Antigen-Status, was die Verwendung von Rituximab in der Therapie rechtfertigt.
-Die Leitlinie ESMO empfiehlt für DLBCL-Patienten mit einem Keimzentrums-Typ eine R-CHOP-Therapie als Standardtherapie. Diese Kombinationstherapie hat sich als effektiv und sicher in der Behandlung von DLBCL-Projekten gezeigt.
-Die Symptome des Patienten, wie die Inhomogene Raumforderung im Ultraschall-Befund und die partielle Hypo- und Anechoogenität, sprechen für eine aggressive Tumorstoffwechselaktivität. Die Verwendung von Doxorubicin in der R-CHOP-Therapie soll dies auch berücksichtigen.
-Die Nebendiagnosen, wie die Arterielle Hypertonie und das Vorhofflimmern, müssen während der Therapie unter Kontrolle gehalten werden. Es ist jedoch keine spezifische Therapie für diese Nebendiagnosen notwendig.
-Insgesamt ist eine R-CHOP-Therapie als Standardtherapie für den Patienten geeignet und sollte für 6 Zyklen durchgeführt werden.</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 R-EPOCH (Rituximab + Etoposid, Prednison, Vincristin, Cyclophosphamid, Doxorubicin) in modifizierter Dosis, begleitet von einer interim PET/CT nach 2–3 Zyklen, unter strikter prätherapeutischer Herzfunktionseinschätzung (TTE) sowie einer definitive Staging-Abklärung per PET/CT. Bei kontraindizierter Doxorubicin-Anwendung aufgrund von Herzinsuffizienz (TTE-Ergebnis) Alternativtherapie: R-GCVP (Rituximab + Gemcitabin, Cyclophosphamid, Vincristin, Prednisolon).  
@@ -2832,8 +2431,8 @@
    - TTE und definitive Staging-PET/CT (19.02.2024) sind unerlässlich, um die Therapie auf Herzfunktion und Tumorausdehnung anzupassen. Ohne diese Daten wäre eine definitive Therapieempfehlung nicht möglich.</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr">
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Anwendung von R-CHOP (Rituximab + Cyclophosphamid, Doksorubicin, Vinkristin, Prednison) als Standardtherapie gemäß ESMO-Leitlinien, unter Berücksichtigung einer kardiotoxisch reduzierten Doksorubicin-Dosis (z. B. 50 mg/m²) aufgrund des Vorhofflimmerns und der notwendigen Echokardiografie zur Herzfunktionsbeurteilung. Eine definitive Therapieentscheidung ist erst nach Abschluss der PET/CT für Stadieneinteilung und Echokardiografie möglich.
@@ -2845,8 +2444,8 @@
 5. **ESMO-Konformität:** Die Empfehlung entspricht der ESMO-Leitlinie, die R-CHOP bei DLBCL mit der Option zur Dosisanpassung bei Risikofaktoren favorisiert und ein individuelles Staging als Voraussetzung für die Therapieoptimierung definiert.</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Initiierung von 2 Zyklen R-mini-CHOP (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednisolon), gefolgt von einer PET/CT-Verlaufskontrolle. Bei Anzeichen einer relevanten Herzinsuffizienz im TTE-Ergebnis sollte alternativ das R-GCVP-Schema (Rituximab, Gemcitabin, Carboplatin, Vincristin, Prednisolon) in Betracht gezogen werden.
@@ -2854,12 +2453,12 @@
 Die Diagnose eines DLBCL mit Keimzentrums-Phänotyp und Double-Expressor-Status (Bcl-2 und MYC positiv) erfordert eine systemische Therapie gemäß den ESMO-Leitlinien. R-CHOP ist das Standard-First-Line-Regime für DLBCL. Die vorgeschlagene R-mini-CHOP-Variante kann bei älteren oder komorbiden Patienten eingesetzt werden, um die Toxizität zu reduzieren, ohne die Wirksamkeit signifikant zu beeinträchtigen. Die initiale PET/CT-Verlaufskontrolle nach 2 Zyklen dient der Beurteilung des Ansprechens und der Anpassung der Therapie. Der Double-Expressor-Status kann mit einem ungünstigeren Prognose verbunden sein, daher ist eine engmaschige Überwachung und ggf. eine Intensivierung der Therapie nach Bedarf indiziert. Die bestehende Vorhofflimmern und die arterielle Hypertonie müssen bei der Therapieplanung berücksichtigt werden, ebenso die Osteoporose mit der bestehenden Fraktur. Sollte die TTE eine relevante Herzinsuffizienz zeigen, wäre das R-GCVP-Schema die bevorzugte Option, da es kardiotoxischer ist als R-CHOP.</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) mit einem Keimzentrums-Phänotyp und einem Double-Expressor-Status (Bcl-2 und MYC positiv). Die Biopsie zeigt eine hohe Proliferationsrate (Ki-67 60%). Die klinische Präsentation umfasst eine zervikale Raumforderung mit lokaler Schmerzhaftigkeit und Gewichtsverlust. Wichtig ist, dass der PET/CT-Befund noch aussteht, aber die vorgeschlagene Strategie (2 Zyklen R-mini-CHOP mit PET/CT-Verlaufskontrolle) erscheint initial angemessen. Die Begleiterkrankungen (arterielle Hypertonie, Vorhofflimmern, Osteoporose mit Fraktur) müssen bei der Therapieplanung berücksichtigt werden. Da der Patient einen Double-Expressor Phänotyp aufweist, könnte eine intensivere Therapie erwogen werden, abhängig vom PET/CT-Stadium und der Ansprechrate auf die initiale Behandlung. Die TTE steht noch aus und könnte Hinweise auf eine relevante Herzinsuffizienz geben, die die Wahl des Therapieprotokolls beeinflussen könnte (R-GCVP als Alternative). Ohne PET/CT-Befund ist eine definitive Aussage zum Stadium und damit zur optimalen Therapie nicht möglich.</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 R-CHOP-basierte Chemotherapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison) nach vollständiger Stadieneinteilung (insbesondere PET/CT) und Beurteilung der Begleiterkrankungen.
@@ -2867,14 +2466,14 @@
 Der Patient präsentiert ein DLBCL, welches gemäß ESMO mit einer R-CHOP-basierten Chemotherapie behandelt werden sollte.  Die Histopathologie zeigt einen Double-Expressor Phänotyp (Bcl-2 und MYC positiv), was mit einem potenziell höheren Rezidivrisiko assoziiert ist.  Allerdings ist ohne vollständige Stadieneinteilung (fehlender PET/CT Befund) und Informationen zum IPI-Score keine definitive Entscheidung über eine intensivere Therapie möglich. Die R-CHOP-Therapie sollte nach vollständiger Stadieneinteilung und unter Berücksichtigung der Begleiterkrankungen (arterielle Hypertonie, Vorhofflimmern, Osteoporose) eingeleitet werden. Nach Beurteilung des Therapieansprechens und des vollständigen Staging sollte die weitere Behandlung (z.B. Konsolidationsstrategie) in Absprache mit einem erfahrenen Onkologen festgelegt werden.</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>Der Patient präsentiert ein diffuses großzelliges B-Zell-Lymphom (DLBCL) zervikal rechts, Keimzentrums-Typ, mit einem Double-Expressor Phänotyp (Bcl-2 positiv, MYC positiv). Die Histopathologie zeigt CD20, CD19, CD30 (partiell) und Bcl-6 Positivität, aber CD10 und MUM1 Negativität. Der Ki-67 Proliferationsindex ist mit 60% erhöht.  Die Informationen zum Stadium sind unvollständig (Ann Arbor Stage fehlt), und der PET/CT Befund steht noch aus. Es liegen Begleiterkrankungen vor (arterielle Hypertonie, Vorhofflimmern, LWK1-Fraktur bei Osteoporose).
 Da es sich um ein DLBCL handelt, ist die Standardtherapie gemäß ESMO eine R-CHOP-basierte Chemotherapie (Rituximab, Cyclophosphamid, Doxorubicin, Vincristin, Prednison). Aufgrund des Double-Expressor Phänotyps (Bcl-2 und MYC positiv) könnte der Patient ein höheres Rezidivrisiko haben, was die Notwendigkeit einer intensiveren Therapie oder einer zusätzlichen Behandlung in der Konsolidationsphase nahelegt.  Allerdings ist ohne vollständige Stadieneinteilung (insbesondere PET/CT) und weitere Informationen (z.B. IPI-Score) eine definitive Empfehlung für eine intensivere Therapie nicht möglich.
 Daher empfehle ich zunächst die Standard-R-CHOP-Therapie, sobald das vollständige Staging (PET/CT) vorliegt und der Patient als für eine intensive Chemotherapie geeignet beurteilt wurde (Berücksichtigung der Begleiterkrankungen).  Nach Beurteilung des Ansprechens auf die Therapie und des vollständigen Staging sollte die weitere Behandlung (z.B. Konsolidationsstrategie) in Absprache mit einem erfahrenen Onkologen festgelegt werden.</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**  
 Empfohlen wird die Initiierung einer **2-Zyklus-Therapie mit R-mini-CHOP**, gefolgt von einer PET/CT-Verlaufskontrolle zur Beurteilung der Therapieresponsivität.  
@@ -2885,7 +2484,7 @@
 Die aktuelle Therapieempfehlung orientiert sich somit an der **ESMO-Strategie**, bei comorbidem Risikoprofil eine **modifizierte, aber nicht de-escalierende Therapie** anzuwenden, um die Effikazität zu erhalten, gleichzeitig aber die kardiale Belastung zu reduzieren. Die **Double-Expressor-Subtypologie** (MYC/Bcl-2) und der hohe Ki-67-Fraktionswert unterstreichen die Notwendigkeit einer **frühzeitigen und intensiven Therapie**, weshalb eine 2-Zyklen-R-mini-CHOP-Behandlung gefolgt von PET/CT-Response-Beurteilung als angemessener Ansatz angesehen wird.</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Okay, let's tackle this. The patient has DLBCL, which is a diffuse large B-cell lymphoma. The diagnosis is non-otherwise specified (NOS) according to WHO 2022, but with some specific markers. The subtype is germinal center type, double-expressor phenotype (MYC and Bcl-2 positive). The Ki-67 is 60%, which is high. 
 The patient has a 6x3x6 cm mass in the neck, right side, which was diagnosed via biopsy. She has a 5 kg weight loss in 3-4 months, indicating B symptoms (weight loss), and localized pain. These are part of the IPI (International Prognostic Index) criteria, which can affect prognosis.
@@ -2894,7 +2493,7 @@
 The proposed plan is 2 cycles of R-mini-CHOP, then a PET/CT to assess response. If she has a good response, maybe further cycles can be considered. But if there's a cardiac issue found in the TTE, switching to R-GCVP (which uses gemcitabine and cisplatin instead of anthracycline, so less heart damage) would be better. The pending TTE is crucial here. Also, the Ann Arbor stage isn't provided, which affects staging and treatment. But given the info, the recommendation aligns with ESMO's approach for high-risk but comorbid patients.</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>**Therapieempfehlung:**
 Weitere diagnostische Schritte (vollständige PET/CT-Staging und TTE) sind erforderlich, bevor eine definitive Therapie empfohlen werden kann. Nach ESMO-Regelungen ist bei DLBCL mit Double-Expressor-Phänotyp (MYC + Bcl-2 positiv) und hohem Ki-67-Wert (&gt;50%) ein intensiveres Therapiekonzept (z. B. R-EPOCH) in Betracht zu ziehen, sofern die Staging-Untersuchungen eine lokalisierte oder fortgeschrittene Erkrankung bestätigen und die kardiale Funktion ausreichend ist.
@@ -2907,7 +2506,7 @@
 6. **Fehlende PET/CT und TTE:** Ohne diese Daten ist keine definitive Therapieempfehlung möglich. ESMO legt Wert auf vollständige diagnostische Abklärung vor Therapiebeginn.</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Okay, let's tackle this DLBCL case. The patient has a diffuse large B-cell lymphoma (DLBCL) of the right cervical region, diagnosed in January 2024. The subtype is germinal center type, double-expressor with MYC and Bcl-2 positivity, and a Ki-67 of 60%. The ESMO guidelines are the main reference here.
 First, I need to recall ESMO's approach to DLBCL. The standard first-line treatment for newly diagnosed DLBCL is R-CHOP (rituximab, cyclophosphamide, doxorubicin, vincristine, prednisone). However, there are exceptions for high-risk subtypes. The double-expressor phenotype (MYC and Bcl-2 positive) is a significant risk factor. ESMO might recommend more intensive regimens in such cases.
@@ -2918,6 +2517,10 @@
 In summary, without the necessary staging and cardiac evaluation, a definitive treatment plan can't be made. The recommendations would include completing the PET/CT and TTE to guide further therapy. If the staging is limited and PET shows favorable results, perhaps a R-CHOP approach could be considered with close monitoring. However, for a double-expressor DLBCL, more intensive therapy might be warranted once staging is complete. The patient's comorbidities will influence the choice of regimen and supportive care measures.</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr"/>
@@ -2956,20 +2559,6 @@
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="inlineStr"/>
       <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
-      <c r="BN11" t="inlineStr"/>
-      <c r="BO11" t="inlineStr"/>
-      <c r="BP11" t="inlineStr"/>
-      <c r="BQ11" t="inlineStr"/>
-      <c r="BR11" t="inlineStr"/>
-      <c r="BS11" t="inlineStr"/>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
-      <c r="BW11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3050,7 +2639,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Enter the 'Type Name' column header of the recommendation you think is best (e.g., MultiAgent_Llama3_ModTrue).</t>
+          <t>Enter the 'Type Name' column header of the recommendation you think is best.</t>
         </is>
       </c>
     </row>
